--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -9642,16 +9642,16 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="E308" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F308" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
       <x:c r="G308" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H308" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I308" s="0" t="n">
         <x:v>0</x:v>
@@ -9671,16 +9671,16 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E309" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F309" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G309" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H309" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="I309" s="0" t="n">
         <x:v>0</x:v>
@@ -9700,16 +9700,16 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="E310" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F310" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G310" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="H310" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I310" s="0" t="n">
         <x:v>0</x:v>
@@ -25937,7 +25937,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D870" s="1" t="n">
-        <x:v>94</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E870" s="1" t="n">
         <x:v>961</x:v>
@@ -25966,7 +25966,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D871" s="1" t="n">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="E871" s="1" t="n">
         <x:v>1075</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -1438,7 +1438,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F25" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G25" s="1" t="n">
         <x:v>37</x:v>
@@ -1467,7 +1467,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="F26" s="1" t="n">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="G26" s="1" t="n">
         <x:v>116</x:v>
@@ -1496,7 +1496,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="F27" s="1" t="n">
-        <x:v>157</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="G27" s="1" t="n">
         <x:v>153</x:v>
@@ -9645,13 +9645,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F308" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G308" s="1" t="n">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H308" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I308" s="0" t="n">
         <x:v>0</x:v>
@@ -9674,13 +9674,13 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F309" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="G309" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H309" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I309" s="0" t="n">
         <x:v>0</x:v>
@@ -9703,13 +9703,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="F310" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G310" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H310" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I310" s="0" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -9674,10 +9674,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F309" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G309" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="H309" s="1" t="n">
         <x:v>15</x:v>
@@ -9703,10 +9703,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="F310" s="1" t="n">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G310" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="H310" s="1" t="n">
         <x:v>18</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -9039,7 +9039,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="G287" s="1" t="n">
-        <x:v>67</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H287" s="1" t="n">
         <x:v>28</x:v>
@@ -9097,7 +9097,7 @@
         <x:v>286</x:v>
       </x:c>
       <x:c r="G289" s="1" t="n">
-        <x:v>335</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="H289" s="1" t="n">
         <x:v>115</x:v>
@@ -9642,13 +9642,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="E308" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F308" s="1" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="G308" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H308" s="1" t="n">
         <x:v>3</x:v>
@@ -9677,7 +9677,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="G309" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H309" s="1" t="n">
         <x:v>15</x:v>
@@ -9700,13 +9700,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="E310" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F310" s="1" t="n">
         <x:v>55</x:v>
       </x:c>
       <x:c r="G310" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H310" s="1" t="n">
         <x:v>18</x:v>
@@ -12777,7 +12777,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="F416" s="1" t="n">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="G416" s="1" t="n">
         <x:v>126</x:v>
@@ -12806,7 +12806,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="F417" s="1" t="n">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="G417" s="1" t="n">
         <x:v>154</x:v>
@@ -25943,7 +25943,7 @@
         <x:v>961</x:v>
       </x:c>
       <x:c r="F870" s="1" t="n">
-        <x:v>1290</x:v>
+        <x:v>1291</x:v>
       </x:c>
       <x:c r="G870" s="1" t="n">
         <x:v>1660</x:v>
@@ -25972,7 +25972,7 @@
         <x:v>1075</x:v>
       </x:c>
       <x:c r="F871" s="1" t="n">
-        <x:v>1483</x:v>
+        <x:v>1484</x:v>
       </x:c>
       <x:c r="G871" s="1" t="n">
         <x:v>1880</x:v>
@@ -29452,7 +29452,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F991" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G991" s="1" t="n">
         <x:v>11</x:v>
@@ -29510,7 +29510,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F993" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G993" s="1" t="n">
         <x:v>71</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -1241,7 +1241,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="H18" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I18" s="0" t="n">
         <x:v>0</x:v>
@@ -1270,7 +1270,7 @@
         <x:v>149</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="I19" s="0" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -9326,7 +9326,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="F297" s="1" t="n">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="G297" s="1" t="n">
         <x:v>263</x:v>
@@ -9355,7 +9355,7 @@
         <x:v>177</x:v>
       </x:c>
       <x:c r="F298" s="1" t="n">
-        <x:v>330</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="G298" s="1" t="n">
         <x:v>365</x:v>
@@ -12922,7 +12922,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F421" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G421" s="1" t="n">
         <x:v>9</x:v>
@@ -12980,7 +12980,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F423" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G423" s="1" t="n">
         <x:v>14</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -1438,13 +1438,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F25" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G25" s="1" t="n">
         <x:v>37</x:v>
       </x:c>
       <x:c r="H25" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I25" s="0" t="n">
         <x:v>0</x:v>
@@ -1473,7 +1473,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="H26" s="1" t="n">
-        <x:v>61</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="I26" s="0" t="n">
         <x:v>0</x:v>
@@ -1496,13 +1496,13 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="F27" s="1" t="n">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="G27" s="1" t="n">
         <x:v>153</x:v>
       </x:c>
       <x:c r="H27" s="1" t="n">
-        <x:v>79</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="I27" s="0" t="n">
         <x:v>0</x:v>
@@ -1699,7 +1699,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="F34" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G34" s="1" t="n">
         <x:v>15</x:v>
@@ -1728,7 +1728,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="F35" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G35" s="1" t="n">
         <x:v>21</x:v>
@@ -30879,7 +30879,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="H1040" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I1040" s="0" t="n">
         <x:v>0</x:v>
@@ -30937,7 +30937,7 @@
         <x:v>184</x:v>
       </x:c>
       <x:c r="H1042" s="1" t="n">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I1042" s="0" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -1238,7 +1238,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="G18" s="1" t="n">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="H18" s="1" t="n">
         <x:v>56</x:v>
@@ -1267,7 +1267,7 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="G19" s="1" t="n">
-        <x:v>149</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
         <x:v>77</x:v>
@@ -1435,7 +1435,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F25" s="1" t="n">
         <x:v>46</x:v>
@@ -1470,7 +1470,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="G26" s="1" t="n">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="H26" s="1" t="n">
         <x:v>63</x:v>
@@ -1493,13 +1493,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E27" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F27" s="1" t="n">
         <x:v>160</x:v>
       </x:c>
       <x:c r="G27" s="1" t="n">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="H27" s="1" t="n">
         <x:v>82</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -1435,7 +1435,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F25" s="1" t="n">
         <x:v>46</x:v>
@@ -1470,10 +1470,10 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="G26" s="1" t="n">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="H26" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="I26" s="0" t="n">
         <x:v>0</x:v>
@@ -1493,16 +1493,16 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E27" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F27" s="1" t="n">
         <x:v>160</x:v>
       </x:c>
       <x:c r="G27" s="1" t="n">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="H27" s="1" t="n">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="I27" s="0" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -1345,7 +1345,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>6</x:v>
@@ -1374,7 +1374,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
         <x:v>5</x:v>
@@ -1403,7 +1403,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>11</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -1467,10 +1467,10 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="F26" s="1" t="n">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="G26" s="1" t="n">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="H26" s="1" t="n">
         <x:v>64</x:v>
@@ -1496,10 +1496,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="F27" s="1" t="n">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="G27" s="1" t="n">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="H27" s="1" t="n">
         <x:v>83</x:v>
@@ -19824,7 +19824,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="F659" s="1" t="n">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="G659" s="1" t="n">
         <x:v>63</x:v>
@@ -19853,7 +19853,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="F660" s="1" t="n">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="G660" s="1" t="n">
         <x:v>80</x:v>
@@ -23049,7 +23049,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="H770" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="I770" s="0" t="n">
         <x:v>0</x:v>
@@ -23078,7 +23078,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="H771" s="1" t="n">
-        <x:v>61</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="I771" s="0" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -1354,7 +1354,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
         <x:v>3</x:v>
@@ -1412,7 +1412,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="G24" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H24" s="1" t="n">
         <x:v>12</x:v>
@@ -13563,7 +13563,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="G443" s="1" t="n">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="H443" s="1" t="n">
         <x:v>57</x:v>
@@ -13592,7 +13592,7 @@
         <x:v>177</x:v>
       </x:c>
       <x:c r="G444" s="1" t="n">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="H444" s="1" t="n">
         <x:v>80</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -9671,16 +9671,16 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E309" s="1" t="n">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F309" s="1" t="n">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="G309" s="1" t="n">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="H309" s="1" t="n">
         <x:v>17</x:v>
-      </x:c>
-      <x:c r="F309" s="1" t="n">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="G309" s="1" t="n">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="H309" s="1" t="n">
-        <x:v>15</x:v>
       </x:c>
       <x:c r="I309" s="0" t="n">
         <x:v>0</x:v>
@@ -9700,16 +9700,16 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="E310" s="1" t="n">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="F310" s="1" t="n">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="G310" s="1" t="n">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="H310" s="1" t="n">
         <x:v>20</x:v>
-      </x:c>
-      <x:c r="F310" s="1" t="n">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="G310" s="1" t="n">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="H310" s="1" t="n">
-        <x:v>18</x:v>
       </x:c>
       <x:c r="I310" s="0" t="n">
         <x:v>0</x:v>
@@ -12087,7 +12087,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="H392" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I392" s="0" t="n">
         <x:v>0</x:v>
@@ -12116,7 +12116,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="H393" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="I393" s="0" t="n">
         <x:v>0</x:v>
@@ -13125,7 +13125,7 @@
         <x:v>143</x:v>
       </x:c>
       <x:c r="F428" s="1" t="n">
-        <x:v>410</x:v>
+        <x:v>409</x:v>
       </x:c>
       <x:c r="G428" s="1" t="n">
         <x:v>311</x:v>
@@ -13154,7 +13154,7 @@
         <x:v>195</x:v>
       </x:c>
       <x:c r="F429" s="1" t="n">
-        <x:v>480</x:v>
+        <x:v>479</x:v>
       </x:c>
       <x:c r="G429" s="1" t="n">
         <x:v>393</x:v>
@@ -38239,7 +38239,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1294" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G1294" s="1" t="n">
         <x:v>14</x:v>
@@ -38268,7 +38268,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1295" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G1295" s="1" t="n">
         <x:v>21</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -1238,7 +1238,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="G18" s="1" t="n">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H18" s="1" t="n">
         <x:v>56</x:v>
@@ -1267,7 +1267,7 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="G19" s="1" t="n">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
         <x:v>77</x:v>
@@ -27599,7 +27599,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="G927" s="1" t="n">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H927" s="1" t="n">
         <x:v>30</x:v>
@@ -27628,7 +27628,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="G928" s="1" t="n">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H928" s="1" t="n">
         <x:v>40</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -1467,7 +1467,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="F26" s="1" t="n">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="G26" s="1" t="n">
         <x:v>119</x:v>
@@ -1496,7 +1496,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="F27" s="1" t="n">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="G27" s="1" t="n">
         <x:v>156</x:v>
@@ -12954,7 +12954,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="G422" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H422" s="1" t="n">
         <x:v>0</x:v>
@@ -12983,7 +12983,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G423" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H423" s="1" t="n">
         <x:v>0</x:v>
@@ -33338,10 +33338,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F1125" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1125" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H1125" s="1" t="n">
         <x:v>3</x:v>
@@ -33367,13 +33367,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="F1126" s="1" t="n">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G1126" s="1" t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H1126" s="1" t="n">
         <x:v>10</x:v>
-      </x:c>
-      <x:c r="G1126" s="1" t="n">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H1126" s="1" t="n">
-        <x:v>9</x:v>
       </x:c>
       <x:c r="I1126" s="0" t="n">
         <x:v>0</x:v>
@@ -33396,13 +33396,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F1127" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G1127" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H1127" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I1127" s="0" t="n">
         <x:v>0</x:v>
@@ -33460,7 +33460,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H1129" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1129" s="0" t="n">
         <x:v>0</x:v>
@@ -33489,7 +33489,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H1130" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I1130" s="0" t="n">
         <x:v>0</x:v>
@@ -33512,7 +33512,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F1131" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G1131" s="1" t="n">
         <x:v>6</x:v>
@@ -33570,7 +33570,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="F1133" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G1133" s="1" t="n">
         <x:v>31</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -1467,7 +1467,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="F26" s="1" t="n">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="G26" s="1" t="n">
         <x:v>119</x:v>
@@ -1496,7 +1496,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="F27" s="1" t="n">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="G27" s="1" t="n">
         <x:v>156</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -13119,7 +13119,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D428" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E428" s="1" t="n">
         <x:v>143</x:v>
@@ -13148,7 +13148,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D429" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E429" s="1" t="n">
         <x:v>195</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -23394,7 +23394,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="G782" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H782" s="1" t="n">
         <x:v>13</x:v>
@@ -23423,7 +23423,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="G783" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="H783" s="1" t="n">
         <x:v>15</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -9645,7 +9645,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F308" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G308" s="1" t="n">
         <x:v>14</x:v>
@@ -9674,13 +9674,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="F309" s="1" t="n">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G309" s="1" t="n">
         <x:v>43</x:v>
       </x:c>
       <x:c r="H309" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I309" s="0" t="n">
         <x:v>0</x:v>
@@ -9703,13 +9703,13 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F310" s="1" t="n">
-        <x:v>66</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="G310" s="1" t="n">
         <x:v>57</x:v>
       </x:c>
       <x:c r="H310" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I310" s="0" t="n">
         <x:v>0</x:v>
@@ -9848,7 +9848,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="F315" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G315" s="1" t="n">
         <x:v>7</x:v>
@@ -9877,7 +9877,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="F316" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G316" s="1" t="n">
         <x:v>8</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -3532,7 +3532,7 @@
         <x:v>189</x:v>
       </x:c>
       <x:c r="H97" s="1" t="n">
-        <x:v>62</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="I97" s="0" t="n">
         <x:v>0</x:v>
@@ -3561,7 +3561,7 @@
         <x:v>258</x:v>
       </x:c>
       <x:c r="H98" s="1" t="n">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I98" s="0" t="n">
         <x:v>0</x:v>
@@ -3677,7 +3677,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H102" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I102" s="0" t="n">
         <x:v>0</x:v>
@@ -3706,7 +3706,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H103" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I103" s="0" t="n">
         <x:v>0</x:v>
@@ -12655,7 +12655,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D412" s="1" t="n">
-        <x:v>223</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="E412" s="1" t="n">
         <x:v>530</x:v>
@@ -12684,7 +12684,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D413" s="1" t="n">
-        <x:v>315</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="E413" s="1" t="n">
         <x:v>675</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -9642,13 +9642,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="E308" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F308" s="1" t="n">
         <x:v>13</x:v>
       </x:c>
       <x:c r="G308" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H308" s="1" t="n">
         <x:v>5</x:v>
@@ -9674,13 +9674,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="F309" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G309" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H309" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="I309" s="0" t="n">
         <x:v>0</x:v>
@@ -9700,16 +9700,16 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="E310" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F310" s="1" t="n">
-        <x:v>68</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="G310" s="1" t="n">
-        <x:v>57</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="H310" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="I310" s="0" t="n">
         <x:v>0</x:v>
@@ -9819,7 +9819,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F314" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G314" s="1" t="n">
         <x:v>1</x:v>
@@ -9877,7 +9877,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="F316" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G316" s="1" t="n">
         <x:v>8</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -22811,13 +22811,13 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="F762" s="1" t="n">
-        <x:v>68</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="G762" s="1" t="n">
         <x:v>76</x:v>
       </x:c>
       <x:c r="H762" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I762" s="0" t="n">
         <x:v>0</x:v>
@@ -22843,7 +22843,7 @@
         <x:v>243</x:v>
       </x:c>
       <x:c r="G763" s="1" t="n">
-        <x:v>273</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="H763" s="1" t="n">
         <x:v>105</x:v>
@@ -22869,13 +22869,13 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="F764" s="1" t="n">
-        <x:v>311</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="G764" s="1" t="n">
-        <x:v>349</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="H764" s="1" t="n">
-        <x:v>127</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="I764" s="0" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -38265,13 +38265,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1295" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1295" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G1295" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H1295" s="1" t="n">
         <x:v>1</x:v>
@@ -38323,13 +38323,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1297" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1297" s="1" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="G1297" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H1297" s="1" t="n">
         <x:v>7</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -12661,7 +12661,7 @@
         <x:v>530</x:v>
       </x:c>
       <x:c r="F412" s="1" t="n">
-        <x:v>1038</x:v>
+        <x:v>1039</x:v>
       </x:c>
       <x:c r="G412" s="1" t="n">
         <x:v>1000</x:v>
@@ -12690,7 +12690,7 @@
         <x:v>675</x:v>
       </x:c>
       <x:c r="F413" s="1" t="n">
-        <x:v>1372</x:v>
+        <x:v>1373</x:v>
       </x:c>
       <x:c r="G413" s="1" t="n">
         <x:v>1264</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -12635,7 +12635,7 @@
         <x:v>334</x:v>
       </x:c>
       <x:c r="G411" s="1" t="n">
-        <x:v>264</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="H411" s="1" t="n">
         <x:v>92</x:v>
@@ -12693,7 +12693,7 @@
         <x:v>1373</x:v>
       </x:c>
       <x:c r="G413" s="1" t="n">
-        <x:v>1264</x:v>
+        <x:v>1263</x:v>
       </x:c>
       <x:c r="H413" s="1" t="n">
         <x:v>533</x:v>
@@ -13186,7 +13186,7 @@
         <x:v>409</x:v>
       </x:c>
       <x:c r="G430" s="1" t="n">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="H430" s="1" t="n">
         <x:v>126</x:v>
@@ -13215,7 +13215,7 @@
         <x:v>479</x:v>
       </x:c>
       <x:c r="G431" s="1" t="n">
-        <x:v>393</x:v>
+        <x:v>394</x:v>
       </x:c>
       <x:c r="H431" s="1" t="n">
         <x:v>158</x:v>
@@ -24409,7 +24409,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G817" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H817" s="1" t="n">
         <x:v>3</x:v>
@@ -24438,7 +24438,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="G818" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H818" s="1" t="n">
         <x:v>6</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -1238,7 +1238,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="G18" s="1" t="n">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="H18" s="1" t="n">
         <x:v>56</x:v>
@@ -1267,7 +1267,7 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="G19" s="1" t="n">
-        <x:v>149</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
         <x:v>77</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -28092,7 +28092,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G944" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H944" s="1" t="n">
         <x:v>1</x:v>
@@ -28121,7 +28121,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G945" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H945" s="1" t="n">
         <x:v>2</x:v>
@@ -30702,7 +30702,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="G1034" s="1" t="n">
-        <x:v>190</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="H1034" s="1" t="n">
         <x:v>80</x:v>
@@ -30731,7 +30731,7 @@
         <x:v>171</x:v>
       </x:c>
       <x:c r="G1035" s="1" t="n">
-        <x:v>283</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="H1035" s="1" t="n">
         <x:v>132</x:v>
@@ -30934,7 +30934,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="G1042" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H1042" s="1" t="n">
         <x:v>32</x:v>
@@ -30992,7 +30992,7 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="G1044" s="1" t="n">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="H1044" s="1" t="n">
         <x:v>102</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -12632,7 +12632,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="F411" s="1" t="n">
-        <x:v>334</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="G411" s="1" t="n">
         <x:v>263</x:v>
@@ -12661,7 +12661,7 @@
         <x:v>530</x:v>
       </x:c>
       <x:c r="F412" s="1" t="n">
-        <x:v>1039</x:v>
+        <x:v>1038</x:v>
       </x:c>
       <x:c r="G412" s="1" t="n">
         <x:v>1000</x:v>
@@ -12690,7 +12690,7 @@
         <x:v>675</x:v>
       </x:c>
       <x:c r="F413" s="1" t="n">
-        <x:v>1373</x:v>
+        <x:v>1371</x:v>
       </x:c>
       <x:c r="G413" s="1" t="n">
         <x:v>1263</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -12664,7 +12664,7 @@
         <x:v>1038</x:v>
       </x:c>
       <x:c r="G412" s="1" t="n">
-        <x:v>1000</x:v>
+        <x:v>1001</x:v>
       </x:c>
       <x:c r="H412" s="1" t="n">
         <x:v>441</x:v>
@@ -12693,7 +12693,7 @@
         <x:v>1371</x:v>
       </x:c>
       <x:c r="G413" s="1" t="n">
-        <x:v>1263</x:v>
+        <x:v>1264</x:v>
       </x:c>
       <x:c r="H413" s="1" t="n">
         <x:v>533</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -12632,7 +12632,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="F411" s="1" t="n">
-        <x:v>333</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="G411" s="1" t="n">
         <x:v>263</x:v>
@@ -12661,7 +12661,7 @@
         <x:v>530</x:v>
       </x:c>
       <x:c r="F412" s="1" t="n">
-        <x:v>1038</x:v>
+        <x:v>1039</x:v>
       </x:c>
       <x:c r="G412" s="1" t="n">
         <x:v>1001</x:v>
@@ -12690,7 +12690,7 @@
         <x:v>675</x:v>
       </x:c>
       <x:c r="F413" s="1" t="n">
-        <x:v>1371</x:v>
+        <x:v>1373</x:v>
       </x:c>
       <x:c r="G413" s="1" t="n">
         <x:v>1264</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -3523,13 +3523,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E97" s="1" t="n">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="F97" s="1" t="n">
         <x:v>248</x:v>
       </x:c>
       <x:c r="G97" s="1" t="n">
-        <x:v>189</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="H97" s="1" t="n">
         <x:v>61</x:v>
@@ -3552,13 +3552,13 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E98" s="1" t="n">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="F98" s="1" t="n">
         <x:v>320</x:v>
       </x:c>
       <x:c r="G98" s="1" t="n">
-        <x:v>258</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="H98" s="1" t="n">
         <x:v>75</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -9059,7 +9059,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D288" s="1" t="n">
-        <x:v>85</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E288" s="1" t="n">
         <x:v>91</x:v>
@@ -9088,7 +9088,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D289" s="1" t="n">
-        <x:v>117</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="E289" s="1" t="n">
         <x:v>124</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -1203,7 +1203,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
         <x:v>27</x:v>
@@ -1212,7 +1212,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I17" s="0" t="n">
         <x:v>0</x:v>
@@ -1241,7 +1241,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="H18" s="1" t="n">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="I18" s="0" t="n">
         <x:v>0</x:v>
@@ -1261,7 +1261,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
-        <x:v>62</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
         <x:v>135</x:v>
@@ -1270,7 +1270,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I19" s="0" t="n">
         <x:v>0</x:v>
@@ -1464,7 +1464,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E26" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F26" s="1" t="n">
         <x:v>117</x:v>
@@ -1493,7 +1493,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E27" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F27" s="1" t="n">
         <x:v>163</x:v>
@@ -11881,7 +11881,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="G385" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H385" s="1" t="n">
         <x:v>16</x:v>
@@ -11910,7 +11910,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="G386" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H386" s="1" t="n">
         <x:v>20</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -1212,7 +1212,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I17" s="0" t="n">
         <x:v>0</x:v>
@@ -1270,7 +1270,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="I19" s="0" t="n">
         <x:v>0</x:v>
@@ -1444,7 +1444,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="H25" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I25" s="0" t="n">
         <x:v>0</x:v>
@@ -1470,7 +1470,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="G26" s="1" t="n">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="H26" s="1" t="n">
         <x:v>64</x:v>
@@ -1499,10 +1499,10 @@
         <x:v>163</x:v>
       </x:c>
       <x:c r="G27" s="1" t="n">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="H27" s="1" t="n">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="I27" s="0" t="n">
         <x:v>0</x:v>
@@ -22837,7 +22837,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E763" s="1" t="n">
-        <x:v>117</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F763" s="1" t="n">
         <x:v>243</x:v>
@@ -22866,7 +22866,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="E764" s="1" t="n">
-        <x:v>145</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="F764" s="1" t="n">
         <x:v>310</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -13186,7 +13186,7 @@
         <x:v>409</x:v>
       </x:c>
       <x:c r="G430" s="1" t="n">
-        <x:v>312</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="H430" s="1" t="n">
         <x:v>126</x:v>
@@ -13215,7 +13215,7 @@
         <x:v>479</x:v>
       </x:c>
       <x:c r="G431" s="1" t="n">
-        <x:v>394</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="H431" s="1" t="n">
         <x:v>158</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -1473,7 +1473,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="H26" s="1" t="n">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="I26" s="0" t="n">
         <x:v>0</x:v>
@@ -1502,7 +1502,7 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="H27" s="1" t="n">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="I27" s="0" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -29162,7 +29162,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F981" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G981" s="1" t="n">
         <x:v>36</x:v>
@@ -29220,7 +29220,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="F983" s="1" t="n">
-        <x:v>167</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="G983" s="1" t="n">
         <x:v>173</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -29162,7 +29162,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F981" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G981" s="1" t="n">
         <x:v>36</x:v>
@@ -29220,7 +29220,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="F983" s="1" t="n">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="G983" s="1" t="n">
         <x:v>173</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -4199,7 +4199,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H120" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I120" s="0" t="n">
         <x:v>0</x:v>
@@ -4228,7 +4228,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H121" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I121" s="0" t="n">
         <x:v>0</x:v>
@@ -26581,7 +26581,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F892" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G892" s="1" t="n">
         <x:v>6</x:v>
@@ -26610,7 +26610,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F893" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G893" s="1" t="n">
         <x:v>8</x:v>
@@ -26758,7 +26758,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G898" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H898" s="1" t="n">
         <x:v>3</x:v>
@@ -26787,7 +26787,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="G899" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H899" s="1" t="n">
         <x:v>3</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -22811,7 +22811,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="F762" s="1" t="n">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="G762" s="1" t="n">
         <x:v>76</x:v>
@@ -22837,16 +22837,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E763" s="1" t="n">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="F763" s="1" t="n">
-        <x:v>243</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="G763" s="1" t="n">
-        <x:v>271</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="H763" s="1" t="n">
-        <x:v>105</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="I763" s="0" t="n">
         <x:v>0</x:v>
@@ -22866,16 +22866,16 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="E764" s="1" t="n">
-        <x:v>144</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="F764" s="1" t="n">
-        <x:v>310</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="G764" s="1" t="n">
-        <x:v>347</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="H764" s="1" t="n">
-        <x:v>126</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="I764" s="0" t="n">
         <x:v>0</x:v>
@@ -22985,7 +22985,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="F768" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G768" s="1" t="n">
         <x:v>8</x:v>
@@ -23008,16 +23008,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D769" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E769" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F769" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G769" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H769" s="1" t="n">
         <x:v>21</x:v>
@@ -23037,16 +23037,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D770" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E770" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F770" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G770" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H770" s="1" t="n">
         <x:v>22</x:v>
@@ -23075,10 +23075,10 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="G771" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H771" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I771" s="0" t="n">
         <x:v>0</x:v>
@@ -23095,16 +23095,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D772" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E772" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F772" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G772" s="1" t="n">
-        <x:v>66</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H772" s="1" t="n">
         <x:v>49</x:v>
@@ -23124,19 +23124,19 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D773" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E773" s="1" t="n">
-        <x:v>70</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F773" s="1" t="n">
-        <x:v>93</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="G773" s="1" t="n">
-        <x:v>97</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="H773" s="1" t="n">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="I773" s="0" t="n">
         <x:v>0</x:v>
@@ -23272,13 +23272,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="E778" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F778" s="1" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="G778" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H778" s="1" t="n">
         <x:v>1</x:v>
@@ -23301,13 +23301,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E779" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F779" s="1" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="G779" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H779" s="1" t="n">
         <x:v>1</x:v>
@@ -23365,7 +23365,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="G781" s="1" t="n">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="H781" s="1" t="n">
         <x:v>30</x:v>
@@ -23394,7 +23394,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="G782" s="1" t="n">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H782" s="1" t="n">
         <x:v>35</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -1206,7 +1206,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
         <x:v>33</x:v>
@@ -1264,7 +1264,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
-        <x:v>135</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="G19" s="1" t="n">
         <x:v>148</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -26262,7 +26262,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="F881" s="1" t="n">
-        <x:v>286</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="G881" s="1" t="n">
         <x:v>263</x:v>
@@ -26291,7 +26291,7 @@
         <x:v>183</x:v>
       </x:c>
       <x:c r="F882" s="1" t="n">
-        <x:v>386</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="G882" s="1" t="n">
         <x:v>359</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -9068,7 +9068,7 @@
         <x:v>199</x:v>
       </x:c>
       <x:c r="G288" s="1" t="n">
-        <x:v>268</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="H288" s="1" t="n">
         <x:v>87</x:v>
@@ -9097,7 +9097,7 @@
         <x:v>286</x:v>
       </x:c>
       <x:c r="G289" s="1" t="n">
-        <x:v>334</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="H289" s="1" t="n">
         <x:v>115</x:v>
@@ -9332,7 +9332,7 @@
         <x:v>263</x:v>
       </x:c>
       <x:c r="H297" s="1" t="n">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="I297" s="0" t="n">
         <x:v>0</x:v>
@@ -9361,7 +9361,7 @@
         <x:v>365</x:v>
       </x:c>
       <x:c r="H298" s="1" t="n">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="I298" s="0" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -1238,7 +1238,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="G18" s="1" t="n">
-        <x:v>115</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="H18" s="1" t="n">
         <x:v>55</x:v>
@@ -1267,7 +1267,7 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="G19" s="1" t="n">
-        <x:v>148</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
         <x:v>76</x:v>
@@ -13064,7 +13064,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="E426" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F426" s="1" t="n">
         <x:v>26</x:v>
@@ -13122,7 +13122,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E428" s="1" t="n">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F428" s="1" t="n">
         <x:v>87</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -25998,10 +25998,10 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E872" s="1" t="n">
-        <x:v>961</x:v>
+        <x:v>962</x:v>
       </x:c>
       <x:c r="F872" s="1" t="n">
-        <x:v>1291</x:v>
+        <x:v>1293</x:v>
       </x:c>
       <x:c r="G872" s="1" t="n">
         <x:v>1660</x:v>
@@ -26027,10 +26027,10 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E873" s="1" t="n">
-        <x:v>1075</x:v>
+        <x:v>1076</x:v>
       </x:c>
       <x:c r="F873" s="1" t="n">
-        <x:v>1484</x:v>
+        <x:v>1486</x:v>
       </x:c>
       <x:c r="G873" s="1" t="n">
         <x:v>1880</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -25995,7 +25995,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D872" s="1" t="n">
-        <x:v>93</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E872" s="1" t="n">
         <x:v>962</x:v>
@@ -26024,7 +26024,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D873" s="1" t="n">
-        <x:v>117</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="E873" s="1" t="n">
         <x:v>1076</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -12661,7 +12661,7 @@
         <x:v>530</x:v>
       </x:c>
       <x:c r="F412" s="1" t="n">
-        <x:v>1039</x:v>
+        <x:v>1040</x:v>
       </x:c>
       <x:c r="G412" s="1" t="n">
         <x:v>1001</x:v>
@@ -12690,7 +12690,7 @@
         <x:v>675</x:v>
       </x:c>
       <x:c r="F413" s="1" t="n">
-        <x:v>1373</x:v>
+        <x:v>1374</x:v>
       </x:c>
       <x:c r="G413" s="1" t="n">
         <x:v>1264</x:v>
@@ -35748,7 +35748,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="G1208" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="H1208" s="1" t="n">
         <x:v>20</x:v>
@@ -35806,7 +35806,7 @@
         <x:v>197</x:v>
       </x:c>
       <x:c r="G1210" s="1" t="n">
-        <x:v>241</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="H1210" s="1" t="n">
         <x:v>94</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -12896,7 +12896,7 @@
         <x:v>264</x:v>
       </x:c>
       <x:c r="G420" s="1" t="n">
-        <x:v>236</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="H420" s="1" t="n">
         <x:v>137</x:v>
@@ -12954,7 +12954,7 @@
         <x:v>897</x:v>
       </x:c>
       <x:c r="G422" s="1" t="n">
-        <x:v>823</x:v>
+        <x:v>824</x:v>
       </x:c>
       <x:c r="H422" s="1" t="n">
         <x:v>474</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -28930,7 +28930,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="F973" s="1" t="n">
-        <x:v>86</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="G973" s="1" t="n">
         <x:v>115</x:v>
@@ -28959,7 +28959,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="F974" s="1" t="n">
-        <x:v>104</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="G974" s="1" t="n">
         <x:v>157</x:v>
@@ -30699,7 +30699,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="F1034" s="1" t="n">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="G1034" s="1" t="n">
         <x:v>191</x:v>
@@ -30728,7 +30728,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F1035" s="1" t="n">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="G1035" s="1" t="n">
         <x:v>284</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -577,7 +577,7 @@
     <x:t>138</x:t>
   </x:si>
   <x:si>
-    <x:t>264</x:t>
+    <x:t>265</x:t>
   </x:si>
   <x:si>
     <x:t>237</x:t>
@@ -601,7 +601,7 @@
     <x:t>408</x:t>
   </x:si>
   <x:si>
-    <x:t>897</x:t>
+    <x:t>898</x:t>
   </x:si>
   <x:si>
     <x:t>824</x:t>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -469,9 +469,6 @@
     <x:t>115</x:t>
   </x:si>
   <x:si>
-    <x:t>93</x:t>
-  </x:si>
-  <x:si>
     <x:t>102</x:t>
   </x:si>
   <x:si>
@@ -484,10 +481,10 @@
     <x:t>128</x:t>
   </x:si>
   <x:si>
-    <x:t>177</x:t>
+    <x:t>178</x:t>
   </x:si>
   <x:si>
-    <x:t>329</x:t>
+    <x:t>330</x:t>
   </x:si>
   <x:si>
     <x:t>365</x:t>
@@ -650,6 +647,9 @@
   </x:si>
   <x:si>
     <x:t>Hubbard</x:t>
+  </x:si>
+  <x:si>
+    <x:t>177</x:t>
   </x:si>
   <x:si>
     <x:t>200</x:t>
@@ -910,6 +910,9 @@
     <x:t>St. Louis</x:t>
   </x:si>
   <x:si>
+    <x:t>93</x:t>
+  </x:si>
+  <x:si>
     <x:t>133</x:t>
   </x:si>
   <x:si>
@@ -988,7 +991,7 @@
     <x:t>242</x:t>
   </x:si>
   <x:si>
-    <x:t>239</x:t>
+    <x:t>238</x:t>
   </x:si>
   <x:si>
     <x:t>196</x:t>
@@ -9984,10 +9987,10 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="F296" s="1" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="G296" s="1" t="s">
         <x:v>151</x:v>
-      </x:c>
-      <x:c r="G296" s="1" t="s">
-        <x:v>152</x:v>
       </x:c>
       <x:c r="H296" s="1" t="s">
         <x:v>68</x:v>
@@ -10010,16 +10013,16 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E297" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F297" s="1" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="G297" s="1" t="s">
         <x:v>153</x:v>
       </x:c>
-      <x:c r="G297" s="1" t="s">
+      <x:c r="H297" s="1" t="s">
         <x:v>154</x:v>
-      </x:c>
-      <x:c r="H297" s="1" t="s">
-        <x:v>155</x:v>
       </x:c>
       <x:c r="I297" s="0" t="s">
         <x:v>12</x:v>
@@ -10039,16 +10042,16 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="E298" s="1" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="F298" s="1" t="s">
         <x:v>156</x:v>
       </x:c>
-      <x:c r="F298" s="1" t="s">
+      <x:c r="G298" s="1" t="s">
         <x:v>157</x:v>
       </x:c>
-      <x:c r="G298" s="1" t="s">
+      <x:c r="H298" s="1" t="s">
         <x:v>158</x:v>
-      </x:c>
-      <x:c r="H298" s="1" t="s">
-        <x:v>159</x:v>
       </x:c>
       <x:c r="I298" s="0" t="s">
         <x:v>12</x:v>
@@ -10317,7 +10320,7 @@
     </x:row>
     <x:row r="308" spans="1:9">
       <x:c r="A308" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B308" s="0" t="s">
         <x:v>10</x:v>
@@ -10346,7 +10349,7 @@
     </x:row>
     <x:row r="309" spans="1:9">
       <x:c r="A309" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B309" s="0" t="s">
         <x:v>10</x:v>
@@ -10361,7 +10364,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="F309" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="G309" s="1" t="s">
         <x:v>106</x:v>
@@ -10375,7 +10378,7 @@
     </x:row>
     <x:row r="310" spans="1:9">
       <x:c r="A310" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B310" s="0" t="s">
         <x:v>10</x:v>
@@ -10404,7 +10407,7 @@
     </x:row>
     <x:row r="311" spans="1:9">
       <x:c r="A311" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B311" s="0" t="s">
         <x:v>23</x:v>
@@ -10433,7 +10436,7 @@
     </x:row>
     <x:row r="312" spans="1:9">
       <x:c r="A312" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B312" s="0" t="s">
         <x:v>23</x:v>
@@ -10462,7 +10465,7 @@
     </x:row>
     <x:row r="313" spans="1:9">
       <x:c r="A313" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B313" s="0" t="s">
         <x:v>23</x:v>
@@ -10491,7 +10494,7 @@
     </x:row>
     <x:row r="314" spans="1:9">
       <x:c r="A314" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B314" s="0" t="s">
         <x:v>27</x:v>
@@ -10520,7 +10523,7 @@
     </x:row>
     <x:row r="315" spans="1:9">
       <x:c r="A315" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B315" s="0" t="s">
         <x:v>27</x:v>
@@ -10549,7 +10552,7 @@
     </x:row>
     <x:row r="316" spans="1:9">
       <x:c r="A316" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B316" s="0" t="s">
         <x:v>27</x:v>
@@ -10578,7 +10581,7 @@
     </x:row>
     <x:row r="317" spans="1:9">
       <x:c r="A317" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B317" s="0" t="s">
         <x:v>65</x:v>
@@ -10607,7 +10610,7 @@
     </x:row>
     <x:row r="318" spans="1:9">
       <x:c r="A318" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B318" s="0" t="s">
         <x:v>65</x:v>
@@ -10636,7 +10639,7 @@
     </x:row>
     <x:row r="319" spans="1:9">
       <x:c r="A319" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B319" s="0" t="s">
         <x:v>31</x:v>
@@ -10665,7 +10668,7 @@
     </x:row>
     <x:row r="320" spans="1:9">
       <x:c r="A320" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B320" s="0" t="s">
         <x:v>31</x:v>
@@ -10694,7 +10697,7 @@
     </x:row>
     <x:row r="321" spans="1:9">
       <x:c r="A321" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B321" s="0" t="s">
         <x:v>32</x:v>
@@ -10723,7 +10726,7 @@
     </x:row>
     <x:row r="322" spans="1:9">
       <x:c r="A322" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B322" s="0" t="s">
         <x:v>32</x:v>
@@ -10752,7 +10755,7 @@
     </x:row>
     <x:row r="323" spans="1:9">
       <x:c r="A323" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="B323" s="0" t="s">
         <x:v>10</x:v>
@@ -10781,7 +10784,7 @@
     </x:row>
     <x:row r="324" spans="1:9">
       <x:c r="A324" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="B324" s="0" t="s">
         <x:v>10</x:v>
@@ -10810,7 +10813,7 @@
     </x:row>
     <x:row r="325" spans="1:9">
       <x:c r="A325" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="B325" s="0" t="s">
         <x:v>10</x:v>
@@ -10839,7 +10842,7 @@
     </x:row>
     <x:row r="326" spans="1:9">
       <x:c r="A326" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="B326" s="0" t="s">
         <x:v>23</x:v>
@@ -10868,7 +10871,7 @@
     </x:row>
     <x:row r="327" spans="1:9">
       <x:c r="A327" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="B327" s="0" t="s">
         <x:v>23</x:v>
@@ -10897,7 +10900,7 @@
     </x:row>
     <x:row r="328" spans="1:9">
       <x:c r="A328" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="B328" s="0" t="s">
         <x:v>23</x:v>
@@ -10926,7 +10929,7 @@
     </x:row>
     <x:row r="329" spans="1:9">
       <x:c r="A329" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="B329" s="0" t="s">
         <x:v>27</x:v>
@@ -10955,7 +10958,7 @@
     </x:row>
     <x:row r="330" spans="1:9">
       <x:c r="A330" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="B330" s="0" t="s">
         <x:v>27</x:v>
@@ -10984,7 +10987,7 @@
     </x:row>
     <x:row r="331" spans="1:9">
       <x:c r="A331" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="B331" s="0" t="s">
         <x:v>27</x:v>
@@ -11013,7 +11016,7 @@
     </x:row>
     <x:row r="332" spans="1:9">
       <x:c r="A332" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="B332" s="0" t="s">
         <x:v>31</x:v>
@@ -11042,7 +11045,7 @@
     </x:row>
     <x:row r="333" spans="1:9">
       <x:c r="A333" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="B333" s="0" t="s">
         <x:v>31</x:v>
@@ -11071,7 +11074,7 @@
     </x:row>
     <x:row r="334" spans="1:9">
       <x:c r="A334" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="B334" s="0" t="s">
         <x:v>31</x:v>
@@ -11100,7 +11103,7 @@
     </x:row>
     <x:row r="335" spans="1:9">
       <x:c r="A335" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="B335" s="0" t="s">
         <x:v>32</x:v>
@@ -11129,7 +11132,7 @@
     </x:row>
     <x:row r="336" spans="1:9">
       <x:c r="A336" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="B336" s="0" t="s">
         <x:v>32</x:v>
@@ -11158,7 +11161,7 @@
     </x:row>
     <x:row r="337" spans="1:9">
       <x:c r="A337" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="B337" s="0" t="s">
         <x:v>32</x:v>
@@ -11187,7 +11190,7 @@
     </x:row>
     <x:row r="338" spans="1:9">
       <x:c r="A338" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B338" s="0" t="s">
         <x:v>10</x:v>
@@ -11216,7 +11219,7 @@
     </x:row>
     <x:row r="339" spans="1:9">
       <x:c r="A339" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B339" s="0" t="s">
         <x:v>10</x:v>
@@ -11245,7 +11248,7 @@
     </x:row>
     <x:row r="340" spans="1:9">
       <x:c r="A340" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B340" s="0" t="s">
         <x:v>10</x:v>
@@ -11274,7 +11277,7 @@
     </x:row>
     <x:row r="341" spans="1:9">
       <x:c r="A341" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B341" s="0" t="s">
         <x:v>23</x:v>
@@ -11303,7 +11306,7 @@
     </x:row>
     <x:row r="342" spans="1:9">
       <x:c r="A342" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B342" s="0" t="s">
         <x:v>23</x:v>
@@ -11332,7 +11335,7 @@
     </x:row>
     <x:row r="343" spans="1:9">
       <x:c r="A343" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B343" s="0" t="s">
         <x:v>23</x:v>
@@ -11361,7 +11364,7 @@
     </x:row>
     <x:row r="344" spans="1:9">
       <x:c r="A344" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B344" s="0" t="s">
         <x:v>27</x:v>
@@ -11390,7 +11393,7 @@
     </x:row>
     <x:row r="345" spans="1:9">
       <x:c r="A345" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B345" s="0" t="s">
         <x:v>27</x:v>
@@ -11419,7 +11422,7 @@
     </x:row>
     <x:row r="346" spans="1:9">
       <x:c r="A346" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B346" s="0" t="s">
         <x:v>27</x:v>
@@ -11448,7 +11451,7 @@
     </x:row>
     <x:row r="347" spans="1:9">
       <x:c r="A347" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B347" s="0" t="s">
         <x:v>65</x:v>
@@ -11477,7 +11480,7 @@
     </x:row>
     <x:row r="348" spans="1:9">
       <x:c r="A348" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B348" s="0" t="s">
         <x:v>65</x:v>
@@ -11506,7 +11509,7 @@
     </x:row>
     <x:row r="349" spans="1:9">
       <x:c r="A349" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B349" s="0" t="s">
         <x:v>31</x:v>
@@ -11535,7 +11538,7 @@
     </x:row>
     <x:row r="350" spans="1:9">
       <x:c r="A350" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B350" s="0" t="s">
         <x:v>31</x:v>
@@ -11564,7 +11567,7 @@
     </x:row>
     <x:row r="351" spans="1:9">
       <x:c r="A351" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B351" s="0" t="s">
         <x:v>31</x:v>
@@ -11593,7 +11596,7 @@
     </x:row>
     <x:row r="352" spans="1:9">
       <x:c r="A352" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B352" s="0" t="s">
         <x:v>32</x:v>
@@ -11622,7 +11625,7 @@
     </x:row>
     <x:row r="353" spans="1:9">
       <x:c r="A353" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B353" s="0" t="s">
         <x:v>32</x:v>
@@ -11651,7 +11654,7 @@
     </x:row>
     <x:row r="354" spans="1:9">
       <x:c r="A354" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="B354" s="0" t="s">
         <x:v>10</x:v>
@@ -11680,7 +11683,7 @@
     </x:row>
     <x:row r="355" spans="1:9">
       <x:c r="A355" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="B355" s="0" t="s">
         <x:v>10</x:v>
@@ -11709,7 +11712,7 @@
     </x:row>
     <x:row r="356" spans="1:9">
       <x:c r="A356" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="B356" s="0" t="s">
         <x:v>10</x:v>
@@ -11738,7 +11741,7 @@
     </x:row>
     <x:row r="357" spans="1:9">
       <x:c r="A357" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="B357" s="0" t="s">
         <x:v>23</x:v>
@@ -11767,7 +11770,7 @@
     </x:row>
     <x:row r="358" spans="1:9">
       <x:c r="A358" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="B358" s="0" t="s">
         <x:v>23</x:v>
@@ -11796,7 +11799,7 @@
     </x:row>
     <x:row r="359" spans="1:9">
       <x:c r="A359" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="B359" s="0" t="s">
         <x:v>27</x:v>
@@ -11825,7 +11828,7 @@
     </x:row>
     <x:row r="360" spans="1:9">
       <x:c r="A360" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="B360" s="0" t="s">
         <x:v>27</x:v>
@@ -11854,7 +11857,7 @@
     </x:row>
     <x:row r="361" spans="1:9">
       <x:c r="A361" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="B361" s="0" t="s">
         <x:v>27</x:v>
@@ -11883,7 +11886,7 @@
     </x:row>
     <x:row r="362" spans="1:9">
       <x:c r="A362" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="B362" s="0" t="s">
         <x:v>31</x:v>
@@ -11912,7 +11915,7 @@
     </x:row>
     <x:row r="363" spans="1:9">
       <x:c r="A363" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="B363" s="0" t="s">
         <x:v>31</x:v>
@@ -11941,7 +11944,7 @@
     </x:row>
     <x:row r="364" spans="1:9">
       <x:c r="A364" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="B364" s="0" t="s">
         <x:v>10</x:v>
@@ -11970,7 +11973,7 @@
     </x:row>
     <x:row r="365" spans="1:9">
       <x:c r="A365" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="B365" s="0" t="s">
         <x:v>10</x:v>
@@ -11999,7 +12002,7 @@
     </x:row>
     <x:row r="366" spans="1:9">
       <x:c r="A366" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="B366" s="0" t="s">
         <x:v>10</x:v>
@@ -12028,7 +12031,7 @@
     </x:row>
     <x:row r="367" spans="1:9">
       <x:c r="A367" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="B367" s="0" t="s">
         <x:v>47</x:v>
@@ -12057,7 +12060,7 @@
     </x:row>
     <x:row r="368" spans="1:9">
       <x:c r="A368" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="B368" s="0" t="s">
         <x:v>47</x:v>
@@ -12086,7 +12089,7 @@
     </x:row>
     <x:row r="369" spans="1:9">
       <x:c r="A369" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="B369" s="0" t="s">
         <x:v>47</x:v>
@@ -12115,7 +12118,7 @@
     </x:row>
     <x:row r="370" spans="1:9">
       <x:c r="A370" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="B370" s="0" t="s">
         <x:v>23</x:v>
@@ -12144,7 +12147,7 @@
     </x:row>
     <x:row r="371" spans="1:9">
       <x:c r="A371" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="B371" s="0" t="s">
         <x:v>23</x:v>
@@ -12173,7 +12176,7 @@
     </x:row>
     <x:row r="372" spans="1:9">
       <x:c r="A372" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="B372" s="0" t="s">
         <x:v>23</x:v>
@@ -12202,7 +12205,7 @@
     </x:row>
     <x:row r="373" spans="1:9">
       <x:c r="A373" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="B373" s="0" t="s">
         <x:v>27</x:v>
@@ -12231,7 +12234,7 @@
     </x:row>
     <x:row r="374" spans="1:9">
       <x:c r="A374" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="B374" s="0" t="s">
         <x:v>27</x:v>
@@ -12260,7 +12263,7 @@
     </x:row>
     <x:row r="375" spans="1:9">
       <x:c r="A375" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="B375" s="0" t="s">
         <x:v>27</x:v>
@@ -12289,7 +12292,7 @@
     </x:row>
     <x:row r="376" spans="1:9">
       <x:c r="A376" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="B376" s="0" t="s">
         <x:v>65</x:v>
@@ -12318,7 +12321,7 @@
     </x:row>
     <x:row r="377" spans="1:9">
       <x:c r="A377" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="B377" s="0" t="s">
         <x:v>65</x:v>
@@ -12347,7 +12350,7 @@
     </x:row>
     <x:row r="378" spans="1:9">
       <x:c r="A378" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="B378" s="0" t="s">
         <x:v>65</x:v>
@@ -12376,7 +12379,7 @@
     </x:row>
     <x:row r="379" spans="1:9">
       <x:c r="A379" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="B379" s="0" t="s">
         <x:v>31</x:v>
@@ -12405,7 +12408,7 @@
     </x:row>
     <x:row r="380" spans="1:9">
       <x:c r="A380" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="B380" s="0" t="s">
         <x:v>31</x:v>
@@ -12434,7 +12437,7 @@
     </x:row>
     <x:row r="381" spans="1:9">
       <x:c r="A381" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="B381" s="0" t="s">
         <x:v>31</x:v>
@@ -12463,7 +12466,7 @@
     </x:row>
     <x:row r="382" spans="1:9">
       <x:c r="A382" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="B382" s="0" t="s">
         <x:v>32</x:v>
@@ -12492,7 +12495,7 @@
     </x:row>
     <x:row r="383" spans="1:9">
       <x:c r="A383" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="B383" s="0" t="s">
         <x:v>32</x:v>
@@ -12521,7 +12524,7 @@
     </x:row>
     <x:row r="384" spans="1:9">
       <x:c r="A384" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="B384" s="0" t="s">
         <x:v>32</x:v>
@@ -12550,7 +12553,7 @@
     </x:row>
     <x:row r="385" spans="1:9">
       <x:c r="A385" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="B385" s="0" t="s">
         <x:v>10</x:v>
@@ -12579,7 +12582,7 @@
     </x:row>
     <x:row r="386" spans="1:9">
       <x:c r="A386" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="B386" s="0" t="s">
         <x:v>10</x:v>
@@ -12608,7 +12611,7 @@
     </x:row>
     <x:row r="387" spans="1:9">
       <x:c r="A387" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="B387" s="0" t="s">
         <x:v>10</x:v>
@@ -12637,7 +12640,7 @@
     </x:row>
     <x:row r="388" spans="1:9">
       <x:c r="A388" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="B388" s="0" t="s">
         <x:v>47</x:v>
@@ -12666,7 +12669,7 @@
     </x:row>
     <x:row r="389" spans="1:9">
       <x:c r="A389" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="B389" s="0" t="s">
         <x:v>47</x:v>
@@ -12695,7 +12698,7 @@
     </x:row>
     <x:row r="390" spans="1:9">
       <x:c r="A390" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="B390" s="0" t="s">
         <x:v>47</x:v>
@@ -12724,7 +12727,7 @@
     </x:row>
     <x:row r="391" spans="1:9">
       <x:c r="A391" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="B391" s="0" t="s">
         <x:v>23</x:v>
@@ -12753,7 +12756,7 @@
     </x:row>
     <x:row r="392" spans="1:9">
       <x:c r="A392" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="B392" s="0" t="s">
         <x:v>23</x:v>
@@ -12782,7 +12785,7 @@
     </x:row>
     <x:row r="393" spans="1:9">
       <x:c r="A393" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="B393" s="0" t="s">
         <x:v>23</x:v>
@@ -12811,7 +12814,7 @@
     </x:row>
     <x:row r="394" spans="1:9">
       <x:c r="A394" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="B394" s="0" t="s">
         <x:v>27</x:v>
@@ -12840,7 +12843,7 @@
     </x:row>
     <x:row r="395" spans="1:9">
       <x:c r="A395" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="B395" s="0" t="s">
         <x:v>27</x:v>
@@ -12869,7 +12872,7 @@
     </x:row>
     <x:row r="396" spans="1:9">
       <x:c r="A396" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="B396" s="0" t="s">
         <x:v>27</x:v>
@@ -12898,7 +12901,7 @@
     </x:row>
     <x:row r="397" spans="1:9">
       <x:c r="A397" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="B397" s="0" t="s">
         <x:v>31</x:v>
@@ -12927,7 +12930,7 @@
     </x:row>
     <x:row r="398" spans="1:9">
       <x:c r="A398" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="B398" s="0" t="s">
         <x:v>31</x:v>
@@ -12956,7 +12959,7 @@
     </x:row>
     <x:row r="399" spans="1:9">
       <x:c r="A399" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="B399" s="0" t="s">
         <x:v>31</x:v>
@@ -12985,7 +12988,7 @@
     </x:row>
     <x:row r="400" spans="1:9">
       <x:c r="A400" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="B400" s="0" t="s">
         <x:v>32</x:v>
@@ -13014,7 +13017,7 @@
     </x:row>
     <x:row r="401" spans="1:9">
       <x:c r="A401" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="B401" s="0" t="s">
         <x:v>32</x:v>
@@ -13043,7 +13046,7 @@
     </x:row>
     <x:row r="402" spans="1:9">
       <x:c r="A402" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="B402" s="0" t="s">
         <x:v>32</x:v>
@@ -13072,7 +13075,7 @@
     </x:row>
     <x:row r="403" spans="1:9">
       <x:c r="A403" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B403" s="0" t="s">
         <x:v>10</x:v>
@@ -13101,7 +13104,7 @@
     </x:row>
     <x:row r="404" spans="1:9">
       <x:c r="A404" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B404" s="0" t="s">
         <x:v>10</x:v>
@@ -13130,7 +13133,7 @@
     </x:row>
     <x:row r="405" spans="1:9">
       <x:c r="A405" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B405" s="0" t="s">
         <x:v>10</x:v>
@@ -13159,7 +13162,7 @@
     </x:row>
     <x:row r="406" spans="1:9">
       <x:c r="A406" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B406" s="0" t="s">
         <x:v>23</x:v>
@@ -13188,7 +13191,7 @@
     </x:row>
     <x:row r="407" spans="1:9">
       <x:c r="A407" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B407" s="0" t="s">
         <x:v>23</x:v>
@@ -13217,7 +13220,7 @@
     </x:row>
     <x:row r="408" spans="1:9">
       <x:c r="A408" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B408" s="0" t="s">
         <x:v>27</x:v>
@@ -13246,7 +13249,7 @@
     </x:row>
     <x:row r="409" spans="1:9">
       <x:c r="A409" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B409" s="0" t="s">
         <x:v>27</x:v>
@@ -13275,7 +13278,7 @@
     </x:row>
     <x:row r="410" spans="1:9">
       <x:c r="A410" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B410" s="0" t="s">
         <x:v>31</x:v>
@@ -13304,7 +13307,7 @@
     </x:row>
     <x:row r="411" spans="1:9">
       <x:c r="A411" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B411" s="0" t="s">
         <x:v>31</x:v>
@@ -13333,7 +13336,7 @@
     </x:row>
     <x:row r="412" spans="1:9">
       <x:c r="A412" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="B412" s="0" t="s">
         <x:v>10</x:v>
@@ -13342,19 +13345,19 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D412" s="1" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="E412" s="1" t="s">
         <x:v>169</x:v>
       </x:c>
-      <x:c r="E412" s="1" t="s">
+      <x:c r="F412" s="1" t="s">
         <x:v>170</x:v>
       </x:c>
-      <x:c r="F412" s="1" t="s">
-        <x:v>171</x:v>
-      </x:c>
       <x:c r="G412" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="H412" s="1" t="s">
-        <x:v>169</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="I412" s="0" t="s">
         <x:v>14</x:v>
@@ -13362,7 +13365,7 @@
     </x:row>
     <x:row r="413" spans="1:9">
       <x:c r="A413" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="B413" s="0" t="s">
         <x:v>10</x:v>
@@ -13371,19 +13374,19 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D413" s="1" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="E413" s="1" t="s">
         <x:v>172</x:v>
       </x:c>
-      <x:c r="E413" s="1" t="s">
+      <x:c r="F413" s="1" t="s">
         <x:v>173</x:v>
       </x:c>
-      <x:c r="F413" s="1" t="s">
+      <x:c r="G413" s="1" t="s">
         <x:v>174</x:v>
       </x:c>
-      <x:c r="G413" s="1" t="s">
+      <x:c r="H413" s="1" t="s">
         <x:v>175</x:v>
-      </x:c>
-      <x:c r="H413" s="1" t="s">
-        <x:v>176</x:v>
       </x:c>
       <x:c r="I413" s="0" t="s">
         <x:v>14</x:v>
@@ -13391,7 +13394,7 @@
     </x:row>
     <x:row r="414" spans="1:9">
       <x:c r="A414" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="B414" s="0" t="s">
         <x:v>10</x:v>
@@ -13400,19 +13403,19 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="D414" s="1" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="E414" s="1" t="s">
         <x:v>177</x:v>
       </x:c>
-      <x:c r="E414" s="1" t="s">
+      <x:c r="F414" s="1" t="s">
         <x:v>178</x:v>
       </x:c>
-      <x:c r="F414" s="1" t="s">
+      <x:c r="G414" s="1" t="s">
         <x:v>179</x:v>
       </x:c>
-      <x:c r="G414" s="1" t="s">
+      <x:c r="H414" s="1" t="s">
         <x:v>180</x:v>
-      </x:c>
-      <x:c r="H414" s="1" t="s">
-        <x:v>181</x:v>
       </x:c>
       <x:c r="I414" s="0" t="s">
         <x:v>24</x:v>
@@ -13420,7 +13423,7 @@
     </x:row>
     <x:row r="415" spans="1:9">
       <x:c r="A415" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="B415" s="0" t="s">
         <x:v>47</x:v>
@@ -13449,7 +13452,7 @@
     </x:row>
     <x:row r="416" spans="1:9">
       <x:c r="A416" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="B416" s="0" t="s">
         <x:v>47</x:v>
@@ -13478,7 +13481,7 @@
     </x:row>
     <x:row r="417" spans="1:9">
       <x:c r="A417" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="B417" s="0" t="s">
         <x:v>47</x:v>
@@ -13507,7 +13510,7 @@
     </x:row>
     <x:row r="418" spans="1:9">
       <x:c r="A418" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="B418" s="0" t="s">
         <x:v>23</x:v>
@@ -13516,7 +13519,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D418" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="E418" s="1" t="s">
         <x:v>56</x:v>
@@ -13536,7 +13539,7 @@
     </x:row>
     <x:row r="419" spans="1:9">
       <x:c r="A419" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="B419" s="0" t="s">
         <x:v>23</x:v>
@@ -13551,10 +13554,10 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="F419" s="1" t="s">
-        <x:v>182</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="G419" s="1" t="s">
-        <x:v>182</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="H419" s="1" t="s">
         <x:v>64</x:v>
@@ -13565,7 +13568,7 @@
     </x:row>
     <x:row r="420" spans="1:9">
       <x:c r="A420" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="B420" s="0" t="s">
         <x:v>23</x:v>
@@ -13574,19 +13577,19 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="D420" s="1" t="s">
-        <x:v>183</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="E420" s="1" t="s">
         <x:v>150</x:v>
       </x:c>
       <x:c r="F420" s="1" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="G420" s="1" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="H420" s="1" t="s">
         <x:v>184</x:v>
-      </x:c>
-      <x:c r="G420" s="1" t="s">
-        <x:v>183</x:v>
-      </x:c>
-      <x:c r="H420" s="1" t="s">
-        <x:v>185</x:v>
       </x:c>
       <x:c r="I420" s="0" t="s">
         <x:v>12</x:v>
@@ -13594,7 +13597,7 @@
     </x:row>
     <x:row r="421" spans="1:9">
       <x:c r="A421" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="B421" s="0" t="s">
         <x:v>27</x:v>
@@ -13606,16 +13609,16 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E421" s="1" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="F421" s="1" t="s">
         <x:v>186</x:v>
       </x:c>
-      <x:c r="F421" s="1" t="s">
+      <x:c r="G421" s="1" t="s">
         <x:v>187</x:v>
       </x:c>
-      <x:c r="G421" s="1" t="s">
+      <x:c r="H421" s="1" t="s">
         <x:v>188</x:v>
-      </x:c>
-      <x:c r="H421" s="1" t="s">
-        <x:v>189</x:v>
       </x:c>
       <x:c r="I421" s="0" t="s">
         <x:v>12</x:v>
@@ -13623,7 +13626,7 @@
     </x:row>
     <x:row r="422" spans="1:9">
       <x:c r="A422" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="B422" s="0" t="s">
         <x:v>27</x:v>
@@ -13635,16 +13638,16 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="E422" s="1" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="F422" s="1" t="s">
         <x:v>190</x:v>
       </x:c>
-      <x:c r="F422" s="1" t="s">
+      <x:c r="G422" s="1" t="s">
         <x:v>191</x:v>
       </x:c>
-      <x:c r="G422" s="1" t="s">
+      <x:c r="H422" s="1" t="s">
         <x:v>192</x:v>
-      </x:c>
-      <x:c r="H422" s="1" t="s">
-        <x:v>193</x:v>
       </x:c>
       <x:c r="I422" s="0" t="s">
         <x:v>12</x:v>
@@ -13652,7 +13655,7 @@
     </x:row>
     <x:row r="423" spans="1:9">
       <x:c r="A423" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="B423" s="0" t="s">
         <x:v>27</x:v>
@@ -13664,16 +13667,16 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E423" s="1" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="F423" s="1" t="s">
         <x:v>194</x:v>
       </x:c>
-      <x:c r="F423" s="1" t="s">
+      <x:c r="G423" s="1" t="s">
         <x:v>195</x:v>
       </x:c>
-      <x:c r="G423" s="1" t="s">
+      <x:c r="H423" s="1" t="s">
         <x:v>196</x:v>
-      </x:c>
-      <x:c r="H423" s="1" t="s">
-        <x:v>197</x:v>
       </x:c>
       <x:c r="I423" s="0" t="s">
         <x:v>12</x:v>
@@ -13681,7 +13684,7 @@
     </x:row>
     <x:row r="424" spans="1:9">
       <x:c r="A424" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="B424" s="0" t="s">
         <x:v>65</x:v>
@@ -13710,7 +13713,7 @@
     </x:row>
     <x:row r="425" spans="1:9">
       <x:c r="A425" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="B425" s="0" t="s">
         <x:v>65</x:v>
@@ -13739,7 +13742,7 @@
     </x:row>
     <x:row r="426" spans="1:9">
       <x:c r="A426" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="B426" s="0" t="s">
         <x:v>65</x:v>
@@ -13768,7 +13771,7 @@
     </x:row>
     <x:row r="427" spans="1:9">
       <x:c r="A427" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="B427" s="0" t="s">
         <x:v>31</x:v>
@@ -13797,7 +13800,7 @@
     </x:row>
     <x:row r="428" spans="1:9">
       <x:c r="A428" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="B428" s="0" t="s">
         <x:v>31</x:v>
@@ -13815,7 +13818,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="G428" s="1" t="s">
-        <x:v>198</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="H428" s="1" t="s">
         <x:v>61</x:v>
@@ -13826,7 +13829,7 @@
     </x:row>
     <x:row r="429" spans="1:9">
       <x:c r="A429" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="B429" s="0" t="s">
         <x:v>31</x:v>
@@ -13838,13 +13841,13 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E429" s="1" t="s">
-        <x:v>199</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="F429" s="1" t="s">
         <x:v>141</x:v>
       </x:c>
       <x:c r="G429" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="H429" s="1" t="s">
         <x:v>43</x:v>
@@ -13855,7 +13858,7 @@
     </x:row>
     <x:row r="430" spans="1:9">
       <x:c r="A430" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="B430" s="0" t="s">
         <x:v>32</x:v>
@@ -13870,10 +13873,10 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="F430" s="1" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="G430" s="1" t="s">
         <x:v>201</x:v>
-      </x:c>
-      <x:c r="G430" s="1" t="s">
-        <x:v>202</x:v>
       </x:c>
       <x:c r="H430" s="1" t="s">
         <x:v>114</x:v>
@@ -13884,7 +13887,7 @@
     </x:row>
     <x:row r="431" spans="1:9">
       <x:c r="A431" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="B431" s="0" t="s">
         <x:v>32</x:v>
@@ -13896,16 +13899,16 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E431" s="1" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="F431" s="1" t="s">
         <x:v>203</x:v>
       </x:c>
-      <x:c r="F431" s="1" t="s">
+      <x:c r="G431" s="1" t="s">
         <x:v>204</x:v>
       </x:c>
-      <x:c r="G431" s="1" t="s">
-        <x:v>205</x:v>
-      </x:c>
       <x:c r="H431" s="1" t="s">
-        <x:v>182</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="I431" s="0" t="s">
         <x:v>12</x:v>
@@ -13913,7 +13916,7 @@
     </x:row>
     <x:row r="432" spans="1:9">
       <x:c r="A432" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="B432" s="0" t="s">
         <x:v>32</x:v>
@@ -13925,16 +13928,16 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E432" s="1" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="F432" s="1" t="s">
         <x:v>206</x:v>
       </x:c>
-      <x:c r="F432" s="1" t="s">
+      <x:c r="G432" s="1" t="s">
         <x:v>207</x:v>
       </x:c>
-      <x:c r="G432" s="1" t="s">
+      <x:c r="H432" s="1" t="s">
         <x:v>208</x:v>
-      </x:c>
-      <x:c r="H432" s="1" t="s">
-        <x:v>209</x:v>
       </x:c>
       <x:c r="I432" s="0" t="s">
         <x:v>12</x:v>
@@ -13942,7 +13945,7 @@
     </x:row>
     <x:row r="433" spans="1:9">
       <x:c r="A433" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B433" s="0" t="s">
         <x:v>10</x:v>
@@ -13971,7 +13974,7 @@
     </x:row>
     <x:row r="434" spans="1:9">
       <x:c r="A434" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B434" s="0" t="s">
         <x:v>10</x:v>
@@ -14000,7 +14003,7 @@
     </x:row>
     <x:row r="435" spans="1:9">
       <x:c r="A435" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B435" s="0" t="s">
         <x:v>10</x:v>
@@ -14029,7 +14032,7 @@
     </x:row>
     <x:row r="436" spans="1:9">
       <x:c r="A436" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B436" s="0" t="s">
         <x:v>23</x:v>
@@ -14058,7 +14061,7 @@
     </x:row>
     <x:row r="437" spans="1:9">
       <x:c r="A437" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B437" s="0" t="s">
         <x:v>23</x:v>
@@ -14087,7 +14090,7 @@
     </x:row>
     <x:row r="438" spans="1:9">
       <x:c r="A438" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B438" s="0" t="s">
         <x:v>23</x:v>
@@ -14116,7 +14119,7 @@
     </x:row>
     <x:row r="439" spans="1:9">
       <x:c r="A439" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B439" s="0" t="s">
         <x:v>27</x:v>
@@ -14145,7 +14148,7 @@
     </x:row>
     <x:row r="440" spans="1:9">
       <x:c r="A440" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B440" s="0" t="s">
         <x:v>27</x:v>
@@ -14174,7 +14177,7 @@
     </x:row>
     <x:row r="441" spans="1:9">
       <x:c r="A441" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B441" s="0" t="s">
         <x:v>27</x:v>
@@ -14203,7 +14206,7 @@
     </x:row>
     <x:row r="442" spans="1:9">
       <x:c r="A442" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B442" s="0" t="s">
         <x:v>31</x:v>
@@ -14232,7 +14235,7 @@
     </x:row>
     <x:row r="443" spans="1:9">
       <x:c r="A443" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B443" s="0" t="s">
         <x:v>31</x:v>
@@ -14261,7 +14264,7 @@
     </x:row>
     <x:row r="444" spans="1:9">
       <x:c r="A444" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B444" s="0" t="s">
         <x:v>31</x:v>
@@ -14290,7 +14293,7 @@
     </x:row>
     <x:row r="445" spans="1:9">
       <x:c r="A445" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B445" s="0" t="s">
         <x:v>10</x:v>
@@ -14319,7 +14322,7 @@
     </x:row>
     <x:row r="446" spans="1:9">
       <x:c r="A446" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B446" s="0" t="s">
         <x:v>10</x:v>
@@ -14348,7 +14351,7 @@
     </x:row>
     <x:row r="447" spans="1:9">
       <x:c r="A447" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B447" s="0" t="s">
         <x:v>10</x:v>
@@ -14363,7 +14366,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="F447" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="G447" s="1" t="s">
         <x:v>212</x:v>
@@ -14377,7 +14380,7 @@
     </x:row>
     <x:row r="448" spans="1:9">
       <x:c r="A448" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B448" s="0" t="s">
         <x:v>23</x:v>
@@ -14406,7 +14409,7 @@
     </x:row>
     <x:row r="449" spans="1:9">
       <x:c r="A449" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B449" s="0" t="s">
         <x:v>23</x:v>
@@ -14435,7 +14438,7 @@
     </x:row>
     <x:row r="450" spans="1:9">
       <x:c r="A450" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B450" s="0" t="s">
         <x:v>23</x:v>
@@ -14464,7 +14467,7 @@
     </x:row>
     <x:row r="451" spans="1:9">
       <x:c r="A451" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B451" s="0" t="s">
         <x:v>27</x:v>
@@ -14493,7 +14496,7 @@
     </x:row>
     <x:row r="452" spans="1:9">
       <x:c r="A452" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B452" s="0" t="s">
         <x:v>27</x:v>
@@ -14522,7 +14525,7 @@
     </x:row>
     <x:row r="453" spans="1:9">
       <x:c r="A453" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B453" s="0" t="s">
         <x:v>27</x:v>
@@ -14540,7 +14543,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="G453" s="1" t="s">
-        <x:v>185</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="H453" s="1" t="s">
         <x:v>38</x:v>
@@ -14551,7 +14554,7 @@
     </x:row>
     <x:row r="454" spans="1:9">
       <x:c r="A454" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B454" s="0" t="s">
         <x:v>31</x:v>
@@ -14580,7 +14583,7 @@
     </x:row>
     <x:row r="455" spans="1:9">
       <x:c r="A455" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B455" s="0" t="s">
         <x:v>31</x:v>
@@ -14609,7 +14612,7 @@
     </x:row>
     <x:row r="456" spans="1:9">
       <x:c r="A456" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B456" s="0" t="s">
         <x:v>31</x:v>
@@ -14638,7 +14641,7 @@
     </x:row>
     <x:row r="457" spans="1:9">
       <x:c r="A457" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B457" s="0" t="s">
         <x:v>32</x:v>
@@ -14667,7 +14670,7 @@
     </x:row>
     <x:row r="458" spans="1:9">
       <x:c r="A458" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B458" s="0" t="s">
         <x:v>32</x:v>
@@ -14696,7 +14699,7 @@
     </x:row>
     <x:row r="459" spans="1:9">
       <x:c r="A459" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B459" s="0" t="s">
         <x:v>32</x:v>
@@ -19789,7 +19792,7 @@
         <x:v>146</x:v>
       </x:c>
       <x:c r="G634" s="1" t="s">
-        <x:v>155</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="H634" s="1" t="s">
         <x:v>230</x:v>
@@ -21561,7 +21564,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="H695" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="I695" s="0" t="s">
         <x:v>12</x:v>
@@ -23562,7 +23565,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="H764" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="I764" s="0" t="s">
         <x:v>12</x:v>
@@ -23582,7 +23585,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E765" s="1" t="s">
-        <x:v>203</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="F765" s="1" t="s">
         <x:v>249</x:v>
@@ -23817,7 +23820,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="F773" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="G773" s="1" t="s">
         <x:v>93</x:v>
@@ -23849,7 +23852,7 @@
         <x:v>252</x:v>
       </x:c>
       <x:c r="G774" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="H774" s="1" t="s">
         <x:v>230</x:v>
@@ -26711,7 +26714,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D873" s="1" t="s">
-        <x:v>169</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="E873" s="1" t="s">
         <x:v>264</x:v>
@@ -26894,7 +26897,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="G879" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="H879" s="1" t="s">
         <x:v>36</x:v>
@@ -26975,13 +26978,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="E882" s="1" t="s">
-        <x:v>189</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="F882" s="1" t="s">
         <x:v>273</x:v>
       </x:c>
       <x:c r="G882" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="H882" s="1" t="s">
         <x:v>147</x:v>
@@ -27242,7 +27245,7 @@
         <x:v>252</x:v>
       </x:c>
       <x:c r="G891" s="1" t="s">
-        <x:v>203</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="H891" s="1" t="s">
         <x:v>82</x:v>
@@ -29910,10 +29913,10 @@
         <x:v>287</x:v>
       </x:c>
       <x:c r="G983" s="1" t="s">
-        <x:v>189</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="H983" s="1" t="s">
-        <x:v>202</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="I983" s="0" t="s">
         <x:v>12</x:v>
@@ -30197,7 +30200,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="F993" s="1" t="s">
-        <x:v>169</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="G993" s="1" t="s">
         <x:v>293</x:v>
@@ -30249,7 +30252,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D995" s="1" t="s">
-        <x:v>202</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="E995" s="1" t="s">
         <x:v>88</x:v>
@@ -31389,7 +31392,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="G1034" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="H1034" s="1" t="s">
         <x:v>76</x:v>
@@ -31415,7 +31418,7 @@
         <x:v>247</x:v>
       </x:c>
       <x:c r="F1035" s="1" t="s">
-        <x:v>298</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="G1035" s="1" t="s">
         <x:v>97</x:v>
@@ -31447,10 +31450,10 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="G1036" s="1" t="s">
-        <x:v>299</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="H1036" s="1" t="s">
-        <x:v>300</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="I1036" s="0" t="s">
         <x:v>12</x:v>
@@ -31682,7 +31685,7 @@
         <x:v>292</x:v>
       </x:c>
       <x:c r="H1044" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="I1044" s="0" t="s">
         <x:v>12</x:v>
@@ -31702,16 +31705,16 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E1045" s="1" t="s">
-        <x:v>301</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="F1045" s="1" t="s">
         <x:v>86</x:v>
       </x:c>
       <x:c r="G1045" s="1" t="s">
-        <x:v>159</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="H1045" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="I1045" s="0" t="s">
         <x:v>12</x:v>
@@ -31876,7 +31879,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="E1051" s="1" t="s">
-        <x:v>169</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="F1051" s="1" t="s">
         <x:v>18</x:v>
@@ -31969,7 +31972,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="G1054" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="H1054" s="1" t="s">
         <x:v>50</x:v>
@@ -31980,7 +31983,7 @@
     </x:row>
     <x:row r="1055" spans="1:9">
       <x:c r="A1055" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="B1055" s="0" t="s">
         <x:v>10</x:v>
@@ -32009,7 +32012,7 @@
     </x:row>
     <x:row r="1056" spans="1:9">
       <x:c r="A1056" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="B1056" s="0" t="s">
         <x:v>10</x:v>
@@ -32021,13 +32024,13 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E1056" s="1" t="s">
-        <x:v>303</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="F1056" s="1" t="s">
-        <x:v>304</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="G1056" s="1" t="s">
-        <x:v>305</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="H1056" s="1" t="s">
         <x:v>107</x:v>
@@ -32038,7 +32041,7 @@
     </x:row>
     <x:row r="1057" spans="1:9">
       <x:c r="A1057" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="B1057" s="0" t="s">
         <x:v>10</x:v>
@@ -32050,16 +32053,16 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E1057" s="1" t="s">
-        <x:v>209</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="F1057" s="1" t="s">
-        <x:v>306</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="G1057" s="1" t="s">
         <x:v>273</x:v>
       </x:c>
       <x:c r="H1057" s="1" t="s">
-        <x:v>307</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="I1057" s="0" t="s">
         <x:v>12</x:v>
@@ -32067,7 +32070,7 @@
     </x:row>
     <x:row r="1058" spans="1:9">
       <x:c r="A1058" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="B1058" s="0" t="s">
         <x:v>295</x:v>
@@ -32096,7 +32099,7 @@
     </x:row>
     <x:row r="1059" spans="1:9">
       <x:c r="A1059" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="B1059" s="0" t="s">
         <x:v>295</x:v>
@@ -32125,7 +32128,7 @@
     </x:row>
     <x:row r="1060" spans="1:9">
       <x:c r="A1060" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="B1060" s="0" t="s">
         <x:v>295</x:v>
@@ -32154,7 +32157,7 @@
     </x:row>
     <x:row r="1061" spans="1:9">
       <x:c r="A1061" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="B1061" s="0" t="s">
         <x:v>47</x:v>
@@ -32183,7 +32186,7 @@
     </x:row>
     <x:row r="1062" spans="1:9">
       <x:c r="A1062" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="B1062" s="0" t="s">
         <x:v>47</x:v>
@@ -32212,7 +32215,7 @@
     </x:row>
     <x:row r="1063" spans="1:9">
       <x:c r="A1063" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="B1063" s="0" t="s">
         <x:v>47</x:v>
@@ -32241,7 +32244,7 @@
     </x:row>
     <x:row r="1064" spans="1:9">
       <x:c r="A1064" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="B1064" s="0" t="s">
         <x:v>23</x:v>
@@ -32270,7 +32273,7 @@
     </x:row>
     <x:row r="1065" spans="1:9">
       <x:c r="A1065" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="B1065" s="0" t="s">
         <x:v>23</x:v>
@@ -32299,7 +32302,7 @@
     </x:row>
     <x:row r="1066" spans="1:9">
       <x:c r="A1066" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="B1066" s="0" t="s">
         <x:v>23</x:v>
@@ -32328,7 +32331,7 @@
     </x:row>
     <x:row r="1067" spans="1:9">
       <x:c r="A1067" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="B1067" s="0" t="s">
         <x:v>27</x:v>
@@ -32357,7 +32360,7 @@
     </x:row>
     <x:row r="1068" spans="1:9">
       <x:c r="A1068" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="B1068" s="0" t="s">
         <x:v>27</x:v>
@@ -32375,10 +32378,10 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="G1068" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="H1068" s="1" t="s">
-        <x:v>308</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="I1068" s="0" t="s">
         <x:v>12</x:v>
@@ -32386,7 +32389,7 @@
     </x:row>
     <x:row r="1069" spans="1:9">
       <x:c r="A1069" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="B1069" s="0" t="s">
         <x:v>27</x:v>
@@ -32398,16 +32401,16 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="E1069" s="1" t="s">
-        <x:v>304</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="F1069" s="1" t="s">
-        <x:v>309</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="G1069" s="1" t="s">
-        <x:v>310</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="H1069" s="1" t="s">
-        <x:v>186</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="I1069" s="0" t="s">
         <x:v>12</x:v>
@@ -32415,10 +32418,10 @@
     </x:row>
     <x:row r="1070" spans="1:9">
       <x:c r="A1070" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="B1070" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="C1070" s="1" t="s">
         <x:v>11</x:v>
@@ -32444,10 +32447,10 @@
     </x:row>
     <x:row r="1071" spans="1:9">
       <x:c r="A1071" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="B1071" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="C1071" s="1" t="s">
         <x:v>16</x:v>
@@ -32473,10 +32476,10 @@
     </x:row>
     <x:row r="1072" spans="1:9">
       <x:c r="A1072" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="B1072" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="C1072" s="1" t="s">
         <x:v>19</x:v>
@@ -32502,7 +32505,7 @@
     </x:row>
     <x:row r="1073" spans="1:9">
       <x:c r="A1073" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="B1073" s="0" t="s">
         <x:v>65</x:v>
@@ -32531,7 +32534,7 @@
     </x:row>
     <x:row r="1074" spans="1:9">
       <x:c r="A1074" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="B1074" s="0" t="s">
         <x:v>65</x:v>
@@ -32560,7 +32563,7 @@
     </x:row>
     <x:row r="1075" spans="1:9">
       <x:c r="A1075" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="B1075" s="0" t="s">
         <x:v>65</x:v>
@@ -32589,7 +32592,7 @@
     </x:row>
     <x:row r="1076" spans="1:9">
       <x:c r="A1076" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="B1076" s="0" t="s">
         <x:v>31</x:v>
@@ -32618,7 +32621,7 @@
     </x:row>
     <x:row r="1077" spans="1:9">
       <x:c r="A1077" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="B1077" s="0" t="s">
         <x:v>31</x:v>
@@ -32647,7 +32650,7 @@
     </x:row>
     <x:row r="1078" spans="1:9">
       <x:c r="A1078" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="B1078" s="0" t="s">
         <x:v>31</x:v>
@@ -32676,7 +32679,7 @@
     </x:row>
     <x:row r="1079" spans="1:9">
       <x:c r="A1079" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="B1079" s="0" t="s">
         <x:v>32</x:v>
@@ -32705,7 +32708,7 @@
     </x:row>
     <x:row r="1080" spans="1:9">
       <x:c r="A1080" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="B1080" s="0" t="s">
         <x:v>32</x:v>
@@ -32734,7 +32737,7 @@
     </x:row>
     <x:row r="1081" spans="1:9">
       <x:c r="A1081" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="B1081" s="0" t="s">
         <x:v>32</x:v>
@@ -32746,7 +32749,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E1081" s="1" t="s">
-        <x:v>199</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="F1081" s="1" t="s">
         <x:v>290</x:v>
@@ -32763,7 +32766,7 @@
     </x:row>
     <x:row r="1082" spans="1:9">
       <x:c r="A1082" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B1082" s="0" t="s">
         <x:v>10</x:v>
@@ -32792,7 +32795,7 @@
     </x:row>
     <x:row r="1083" spans="1:9">
       <x:c r="A1083" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B1083" s="0" t="s">
         <x:v>10</x:v>
@@ -32821,7 +32824,7 @@
     </x:row>
     <x:row r="1084" spans="1:9">
       <x:c r="A1084" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B1084" s="0" t="s">
         <x:v>10</x:v>
@@ -32850,7 +32853,7 @@
     </x:row>
     <x:row r="1085" spans="1:9">
       <x:c r="A1085" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B1085" s="0" t="s">
         <x:v>47</x:v>
@@ -32879,7 +32882,7 @@
     </x:row>
     <x:row r="1086" spans="1:9">
       <x:c r="A1086" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B1086" s="0" t="s">
         <x:v>47</x:v>
@@ -32908,7 +32911,7 @@
     </x:row>
     <x:row r="1087" spans="1:9">
       <x:c r="A1087" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B1087" s="0" t="s">
         <x:v>47</x:v>
@@ -32937,7 +32940,7 @@
     </x:row>
     <x:row r="1088" spans="1:9">
       <x:c r="A1088" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B1088" s="0" t="s">
         <x:v>23</x:v>
@@ -32966,7 +32969,7 @@
     </x:row>
     <x:row r="1089" spans="1:9">
       <x:c r="A1089" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B1089" s="0" t="s">
         <x:v>23</x:v>
@@ -32995,7 +32998,7 @@
     </x:row>
     <x:row r="1090" spans="1:9">
       <x:c r="A1090" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B1090" s="0" t="s">
         <x:v>23</x:v>
@@ -33024,7 +33027,7 @@
     </x:row>
     <x:row r="1091" spans="1:9">
       <x:c r="A1091" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B1091" s="0" t="s">
         <x:v>27</x:v>
@@ -33053,7 +33056,7 @@
     </x:row>
     <x:row r="1092" spans="1:9">
       <x:c r="A1092" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B1092" s="0" t="s">
         <x:v>27</x:v>
@@ -33082,7 +33085,7 @@
     </x:row>
     <x:row r="1093" spans="1:9">
       <x:c r="A1093" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B1093" s="0" t="s">
         <x:v>27</x:v>
@@ -33111,7 +33114,7 @@
     </x:row>
     <x:row r="1094" spans="1:9">
       <x:c r="A1094" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B1094" s="0" t="s">
         <x:v>31</x:v>
@@ -33140,7 +33143,7 @@
     </x:row>
     <x:row r="1095" spans="1:9">
       <x:c r="A1095" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B1095" s="0" t="s">
         <x:v>31</x:v>
@@ -33169,7 +33172,7 @@
     </x:row>
     <x:row r="1096" spans="1:9">
       <x:c r="A1096" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B1096" s="0" t="s">
         <x:v>31</x:v>
@@ -33198,7 +33201,7 @@
     </x:row>
     <x:row r="1097" spans="1:9">
       <x:c r="A1097" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B1097" s="0" t="s">
         <x:v>32</x:v>
@@ -33227,7 +33230,7 @@
     </x:row>
     <x:row r="1098" spans="1:9">
       <x:c r="A1098" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B1098" s="0" t="s">
         <x:v>32</x:v>
@@ -33256,7 +33259,7 @@
     </x:row>
     <x:row r="1099" spans="1:9">
       <x:c r="A1099" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="B1099" s="0" t="s">
         <x:v>10</x:v>
@@ -33285,7 +33288,7 @@
     </x:row>
     <x:row r="1100" spans="1:9">
       <x:c r="A1100" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="B1100" s="0" t="s">
         <x:v>10</x:v>
@@ -33314,7 +33317,7 @@
     </x:row>
     <x:row r="1101" spans="1:9">
       <x:c r="A1101" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="B1101" s="0" t="s">
         <x:v>10</x:v>
@@ -33343,7 +33346,7 @@
     </x:row>
     <x:row r="1102" spans="1:9">
       <x:c r="A1102" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="B1102" s="0" t="s">
         <x:v>23</x:v>
@@ -33372,7 +33375,7 @@
     </x:row>
     <x:row r="1103" spans="1:9">
       <x:c r="A1103" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="B1103" s="0" t="s">
         <x:v>23</x:v>
@@ -33401,7 +33404,7 @@
     </x:row>
     <x:row r="1104" spans="1:9">
       <x:c r="A1104" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="B1104" s="0" t="s">
         <x:v>23</x:v>
@@ -33430,7 +33433,7 @@
     </x:row>
     <x:row r="1105" spans="1:9">
       <x:c r="A1105" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="B1105" s="0" t="s">
         <x:v>27</x:v>
@@ -33459,7 +33462,7 @@
     </x:row>
     <x:row r="1106" spans="1:9">
       <x:c r="A1106" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="B1106" s="0" t="s">
         <x:v>27</x:v>
@@ -33488,7 +33491,7 @@
     </x:row>
     <x:row r="1107" spans="1:9">
       <x:c r="A1107" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="B1107" s="0" t="s">
         <x:v>27</x:v>
@@ -33517,7 +33520,7 @@
     </x:row>
     <x:row r="1108" spans="1:9">
       <x:c r="A1108" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="B1108" s="0" t="s">
         <x:v>31</x:v>
@@ -33546,7 +33549,7 @@
     </x:row>
     <x:row r="1109" spans="1:9">
       <x:c r="A1109" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="B1109" s="0" t="s">
         <x:v>31</x:v>
@@ -33575,7 +33578,7 @@
     </x:row>
     <x:row r="1110" spans="1:9">
       <x:c r="A1110" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="B1110" s="0" t="s">
         <x:v>31</x:v>
@@ -33604,7 +33607,7 @@
     </x:row>
     <x:row r="1111" spans="1:9">
       <x:c r="A1111" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="B1111" s="0" t="s">
         <x:v>32</x:v>
@@ -33633,7 +33636,7 @@
     </x:row>
     <x:row r="1112" spans="1:9">
       <x:c r="A1112" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="B1112" s="0" t="s">
         <x:v>32</x:v>
@@ -33662,7 +33665,7 @@
     </x:row>
     <x:row r="1113" spans="1:9">
       <x:c r="A1113" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="B1113" s="0" t="s">
         <x:v>10</x:v>
@@ -33691,7 +33694,7 @@
     </x:row>
     <x:row r="1114" spans="1:9">
       <x:c r="A1114" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="B1114" s="0" t="s">
         <x:v>10</x:v>
@@ -33720,7 +33723,7 @@
     </x:row>
     <x:row r="1115" spans="1:9">
       <x:c r="A1115" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="B1115" s="0" t="s">
         <x:v>10</x:v>
@@ -33749,7 +33752,7 @@
     </x:row>
     <x:row r="1116" spans="1:9">
       <x:c r="A1116" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="B1116" s="0" t="s">
         <x:v>23</x:v>
@@ -33778,7 +33781,7 @@
     </x:row>
     <x:row r="1117" spans="1:9">
       <x:c r="A1117" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="B1117" s="0" t="s">
         <x:v>23</x:v>
@@ -33807,7 +33810,7 @@
     </x:row>
     <x:row r="1118" spans="1:9">
       <x:c r="A1118" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="B1118" s="0" t="s">
         <x:v>23</x:v>
@@ -33836,7 +33839,7 @@
     </x:row>
     <x:row r="1119" spans="1:9">
       <x:c r="A1119" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="B1119" s="0" t="s">
         <x:v>27</x:v>
@@ -33865,7 +33868,7 @@
     </x:row>
     <x:row r="1120" spans="1:9">
       <x:c r="A1120" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="B1120" s="0" t="s">
         <x:v>27</x:v>
@@ -33894,7 +33897,7 @@
     </x:row>
     <x:row r="1121" spans="1:9">
       <x:c r="A1121" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="B1121" s="0" t="s">
         <x:v>27</x:v>
@@ -33923,7 +33926,7 @@
     </x:row>
     <x:row r="1122" spans="1:9">
       <x:c r="A1122" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="B1122" s="0" t="s">
         <x:v>31</x:v>
@@ -33952,7 +33955,7 @@
     </x:row>
     <x:row r="1123" spans="1:9">
       <x:c r="A1123" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="B1123" s="0" t="s">
         <x:v>31</x:v>
@@ -33981,7 +33984,7 @@
     </x:row>
     <x:row r="1124" spans="1:9">
       <x:c r="A1124" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="B1124" s="0" t="s">
         <x:v>31</x:v>
@@ -34010,7 +34013,7 @@
     </x:row>
     <x:row r="1125" spans="1:9">
       <x:c r="A1125" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="B1125" s="0" t="s">
         <x:v>32</x:v>
@@ -34039,7 +34042,7 @@
     </x:row>
     <x:row r="1126" spans="1:9">
       <x:c r="A1126" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="B1126" s="0" t="s">
         <x:v>32</x:v>
@@ -34068,7 +34071,7 @@
     </x:row>
     <x:row r="1127" spans="1:9">
       <x:c r="A1127" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="B1127" s="0" t="s">
         <x:v>32</x:v>
@@ -34097,7 +34100,7 @@
     </x:row>
     <x:row r="1128" spans="1:9">
       <x:c r="A1128" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="B1128" s="0" t="s">
         <x:v>10</x:v>
@@ -34126,7 +34129,7 @@
     </x:row>
     <x:row r="1129" spans="1:9">
       <x:c r="A1129" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="B1129" s="0" t="s">
         <x:v>10</x:v>
@@ -34155,7 +34158,7 @@
     </x:row>
     <x:row r="1130" spans="1:9">
       <x:c r="A1130" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="B1130" s="0" t="s">
         <x:v>10</x:v>
@@ -34184,7 +34187,7 @@
     </x:row>
     <x:row r="1131" spans="1:9">
       <x:c r="A1131" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="B1131" s="0" t="s">
         <x:v>23</x:v>
@@ -34213,7 +34216,7 @@
     </x:row>
     <x:row r="1132" spans="1:9">
       <x:c r="A1132" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="B1132" s="0" t="s">
         <x:v>23</x:v>
@@ -34242,7 +34245,7 @@
     </x:row>
     <x:row r="1133" spans="1:9">
       <x:c r="A1133" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="B1133" s="0" t="s">
         <x:v>23</x:v>
@@ -34271,7 +34274,7 @@
     </x:row>
     <x:row r="1134" spans="1:9">
       <x:c r="A1134" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="B1134" s="0" t="s">
         <x:v>27</x:v>
@@ -34300,7 +34303,7 @@
     </x:row>
     <x:row r="1135" spans="1:9">
       <x:c r="A1135" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="B1135" s="0" t="s">
         <x:v>27</x:v>
@@ -34329,7 +34332,7 @@
     </x:row>
     <x:row r="1136" spans="1:9">
       <x:c r="A1136" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="B1136" s="0" t="s">
         <x:v>27</x:v>
@@ -34358,7 +34361,7 @@
     </x:row>
     <x:row r="1137" spans="1:9">
       <x:c r="A1137" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="B1137" s="0" t="s">
         <x:v>31</x:v>
@@ -34387,7 +34390,7 @@
     </x:row>
     <x:row r="1138" spans="1:9">
       <x:c r="A1138" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="B1138" s="0" t="s">
         <x:v>31</x:v>
@@ -34416,7 +34419,7 @@
     </x:row>
     <x:row r="1139" spans="1:9">
       <x:c r="A1139" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="B1139" s="0" t="s">
         <x:v>31</x:v>
@@ -34445,7 +34448,7 @@
     </x:row>
     <x:row r="1140" spans="1:9">
       <x:c r="A1140" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="B1140" s="0" t="s">
         <x:v>32</x:v>
@@ -34474,7 +34477,7 @@
     </x:row>
     <x:row r="1141" spans="1:9">
       <x:c r="A1141" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="B1141" s="0" t="s">
         <x:v>32</x:v>
@@ -34503,7 +34506,7 @@
     </x:row>
     <x:row r="1142" spans="1:9">
       <x:c r="A1142" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="B1142" s="0" t="s">
         <x:v>32</x:v>
@@ -34532,7 +34535,7 @@
     </x:row>
     <x:row r="1143" spans="1:9">
       <x:c r="A1143" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="B1143" s="0" t="s">
         <x:v>10</x:v>
@@ -34561,7 +34564,7 @@
     </x:row>
     <x:row r="1144" spans="1:9">
       <x:c r="A1144" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="B1144" s="0" t="s">
         <x:v>10</x:v>
@@ -34590,7 +34593,7 @@
     </x:row>
     <x:row r="1145" spans="1:9">
       <x:c r="A1145" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="B1145" s="0" t="s">
         <x:v>10</x:v>
@@ -34619,7 +34622,7 @@
     </x:row>
     <x:row r="1146" spans="1:9">
       <x:c r="A1146" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="B1146" s="0" t="s">
         <x:v>23</x:v>
@@ -34648,7 +34651,7 @@
     </x:row>
     <x:row r="1147" spans="1:9">
       <x:c r="A1147" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="B1147" s="0" t="s">
         <x:v>23</x:v>
@@ -34677,7 +34680,7 @@
     </x:row>
     <x:row r="1148" spans="1:9">
       <x:c r="A1148" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="B1148" s="0" t="s">
         <x:v>23</x:v>
@@ -34706,7 +34709,7 @@
     </x:row>
     <x:row r="1149" spans="1:9">
       <x:c r="A1149" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="B1149" s="0" t="s">
         <x:v>27</x:v>
@@ -34735,7 +34738,7 @@
     </x:row>
     <x:row r="1150" spans="1:9">
       <x:c r="A1150" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="B1150" s="0" t="s">
         <x:v>27</x:v>
@@ -34764,7 +34767,7 @@
     </x:row>
     <x:row r="1151" spans="1:9">
       <x:c r="A1151" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="B1151" s="0" t="s">
         <x:v>27</x:v>
@@ -34793,7 +34796,7 @@
     </x:row>
     <x:row r="1152" spans="1:9">
       <x:c r="A1152" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="B1152" s="0" t="s">
         <x:v>31</x:v>
@@ -34822,7 +34825,7 @@
     </x:row>
     <x:row r="1153" spans="1:9">
       <x:c r="A1153" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="B1153" s="0" t="s">
         <x:v>31</x:v>
@@ -34851,7 +34854,7 @@
     </x:row>
     <x:row r="1154" spans="1:9">
       <x:c r="A1154" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="B1154" s="0" t="s">
         <x:v>32</x:v>
@@ -34880,7 +34883,7 @@
     </x:row>
     <x:row r="1155" spans="1:9">
       <x:c r="A1155" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="B1155" s="0" t="s">
         <x:v>32</x:v>
@@ -34909,7 +34912,7 @@
     </x:row>
     <x:row r="1156" spans="1:9">
       <x:c r="A1156" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="B1156" s="0" t="s">
         <x:v>32</x:v>
@@ -34938,7 +34941,7 @@
     </x:row>
     <x:row r="1157" spans="1:9">
       <x:c r="A1157" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="B1157" s="0" t="s">
         <x:v>10</x:v>
@@ -34967,7 +34970,7 @@
     </x:row>
     <x:row r="1158" spans="1:9">
       <x:c r="A1158" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="B1158" s="0" t="s">
         <x:v>10</x:v>
@@ -34996,7 +34999,7 @@
     </x:row>
     <x:row r="1159" spans="1:9">
       <x:c r="A1159" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="B1159" s="0" t="s">
         <x:v>10</x:v>
@@ -35025,7 +35028,7 @@
     </x:row>
     <x:row r="1160" spans="1:9">
       <x:c r="A1160" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="B1160" s="0" t="s">
         <x:v>23</x:v>
@@ -35054,7 +35057,7 @@
     </x:row>
     <x:row r="1161" spans="1:9">
       <x:c r="A1161" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="B1161" s="0" t="s">
         <x:v>23</x:v>
@@ -35083,7 +35086,7 @@
     </x:row>
     <x:row r="1162" spans="1:9">
       <x:c r="A1162" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="B1162" s="0" t="s">
         <x:v>23</x:v>
@@ -35112,7 +35115,7 @@
     </x:row>
     <x:row r="1163" spans="1:9">
       <x:c r="A1163" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="B1163" s="0" t="s">
         <x:v>27</x:v>
@@ -35141,7 +35144,7 @@
     </x:row>
     <x:row r="1164" spans="1:9">
       <x:c r="A1164" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="B1164" s="0" t="s">
         <x:v>27</x:v>
@@ -35170,7 +35173,7 @@
     </x:row>
     <x:row r="1165" spans="1:9">
       <x:c r="A1165" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="B1165" s="0" t="s">
         <x:v>27</x:v>
@@ -35199,7 +35202,7 @@
     </x:row>
     <x:row r="1166" spans="1:9">
       <x:c r="A1166" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="B1166" s="0" t="s">
         <x:v>31</x:v>
@@ -35228,7 +35231,7 @@
     </x:row>
     <x:row r="1167" spans="1:9">
       <x:c r="A1167" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="B1167" s="0" t="s">
         <x:v>31</x:v>
@@ -35257,7 +35260,7 @@
     </x:row>
     <x:row r="1168" spans="1:9">
       <x:c r="A1168" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="B1168" s="0" t="s">
         <x:v>31</x:v>
@@ -35286,7 +35289,7 @@
     </x:row>
     <x:row r="1169" spans="1:9">
       <x:c r="A1169" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="B1169" s="0" t="s">
         <x:v>32</x:v>
@@ -35315,7 +35318,7 @@
     </x:row>
     <x:row r="1170" spans="1:9">
       <x:c r="A1170" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="B1170" s="0" t="s">
         <x:v>32</x:v>
@@ -35344,7 +35347,7 @@
     </x:row>
     <x:row r="1171" spans="1:9">
       <x:c r="A1171" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="B1171" s="0" t="s">
         <x:v>32</x:v>
@@ -35373,7 +35376,7 @@
     </x:row>
     <x:row r="1172" spans="1:9">
       <x:c r="A1172" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B1172" s="0" t="s">
         <x:v>10</x:v>
@@ -35402,7 +35405,7 @@
     </x:row>
     <x:row r="1173" spans="1:9">
       <x:c r="A1173" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B1173" s="0" t="s">
         <x:v>10</x:v>
@@ -35431,7 +35434,7 @@
     </x:row>
     <x:row r="1174" spans="1:9">
       <x:c r="A1174" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B1174" s="0" t="s">
         <x:v>10</x:v>
@@ -35460,7 +35463,7 @@
     </x:row>
     <x:row r="1175" spans="1:9">
       <x:c r="A1175" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B1175" s="0" t="s">
         <x:v>23</x:v>
@@ -35489,7 +35492,7 @@
     </x:row>
     <x:row r="1176" spans="1:9">
       <x:c r="A1176" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B1176" s="0" t="s">
         <x:v>23</x:v>
@@ -35518,7 +35521,7 @@
     </x:row>
     <x:row r="1177" spans="1:9">
       <x:c r="A1177" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B1177" s="0" t="s">
         <x:v>23</x:v>
@@ -35547,7 +35550,7 @@
     </x:row>
     <x:row r="1178" spans="1:9">
       <x:c r="A1178" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B1178" s="0" t="s">
         <x:v>27</x:v>
@@ -35576,7 +35579,7 @@
     </x:row>
     <x:row r="1179" spans="1:9">
       <x:c r="A1179" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B1179" s="0" t="s">
         <x:v>27</x:v>
@@ -35605,7 +35608,7 @@
     </x:row>
     <x:row r="1180" spans="1:9">
       <x:c r="A1180" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B1180" s="0" t="s">
         <x:v>27</x:v>
@@ -35634,7 +35637,7 @@
     </x:row>
     <x:row r="1181" spans="1:9">
       <x:c r="A1181" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B1181" s="0" t="s">
         <x:v>31</x:v>
@@ -35663,7 +35666,7 @@
     </x:row>
     <x:row r="1182" spans="1:9">
       <x:c r="A1182" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B1182" s="0" t="s">
         <x:v>31</x:v>
@@ -35692,7 +35695,7 @@
     </x:row>
     <x:row r="1183" spans="1:9">
       <x:c r="A1183" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B1183" s="0" t="s">
         <x:v>31</x:v>
@@ -35721,7 +35724,7 @@
     </x:row>
     <x:row r="1184" spans="1:9">
       <x:c r="A1184" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B1184" s="0" t="s">
         <x:v>32</x:v>
@@ -35750,7 +35753,7 @@
     </x:row>
     <x:row r="1185" spans="1:9">
       <x:c r="A1185" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B1185" s="0" t="s">
         <x:v>32</x:v>
@@ -35779,7 +35782,7 @@
     </x:row>
     <x:row r="1186" spans="1:9">
       <x:c r="A1186" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B1186" s="0" t="s">
         <x:v>32</x:v>
@@ -35808,7 +35811,7 @@
     </x:row>
     <x:row r="1187" spans="1:9">
       <x:c r="A1187" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B1187" s="0" t="s">
         <x:v>10</x:v>
@@ -35837,7 +35840,7 @@
     </x:row>
     <x:row r="1188" spans="1:9">
       <x:c r="A1188" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B1188" s="0" t="s">
         <x:v>10</x:v>
@@ -35866,7 +35869,7 @@
     </x:row>
     <x:row r="1189" spans="1:9">
       <x:c r="A1189" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B1189" s="0" t="s">
         <x:v>10</x:v>
@@ -35895,7 +35898,7 @@
     </x:row>
     <x:row r="1190" spans="1:9">
       <x:c r="A1190" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B1190" s="0" t="s">
         <x:v>23</x:v>
@@ -35924,7 +35927,7 @@
     </x:row>
     <x:row r="1191" spans="1:9">
       <x:c r="A1191" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B1191" s="0" t="s">
         <x:v>23</x:v>
@@ -35953,7 +35956,7 @@
     </x:row>
     <x:row r="1192" spans="1:9">
       <x:c r="A1192" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B1192" s="0" t="s">
         <x:v>23</x:v>
@@ -35982,7 +35985,7 @@
     </x:row>
     <x:row r="1193" spans="1:9">
       <x:c r="A1193" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B1193" s="0" t="s">
         <x:v>27</x:v>
@@ -36011,7 +36014,7 @@
     </x:row>
     <x:row r="1194" spans="1:9">
       <x:c r="A1194" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B1194" s="0" t="s">
         <x:v>27</x:v>
@@ -36040,7 +36043,7 @@
     </x:row>
     <x:row r="1195" spans="1:9">
       <x:c r="A1195" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B1195" s="0" t="s">
         <x:v>27</x:v>
@@ -36069,7 +36072,7 @@
     </x:row>
     <x:row r="1196" spans="1:9">
       <x:c r="A1196" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B1196" s="0" t="s">
         <x:v>31</x:v>
@@ -36098,7 +36101,7 @@
     </x:row>
     <x:row r="1197" spans="1:9">
       <x:c r="A1197" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B1197" s="0" t="s">
         <x:v>31</x:v>
@@ -36127,7 +36130,7 @@
     </x:row>
     <x:row r="1198" spans="1:9">
       <x:c r="A1198" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B1198" s="0" t="s">
         <x:v>31</x:v>
@@ -36156,7 +36159,7 @@
     </x:row>
     <x:row r="1199" spans="1:9">
       <x:c r="A1199" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B1199" s="0" t="s">
         <x:v>32</x:v>
@@ -36185,7 +36188,7 @@
     </x:row>
     <x:row r="1200" spans="1:9">
       <x:c r="A1200" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B1200" s="0" t="s">
         <x:v>32</x:v>
@@ -36214,7 +36217,7 @@
     </x:row>
     <x:row r="1201" spans="1:9">
       <x:c r="A1201" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B1201" s="0" t="s">
         <x:v>32</x:v>
@@ -36243,7 +36246,7 @@
     </x:row>
     <x:row r="1202" spans="1:9">
       <x:c r="A1202" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1202" s="0" t="s">
         <x:v>10</x:v>
@@ -36272,7 +36275,7 @@
     </x:row>
     <x:row r="1203" spans="1:9">
       <x:c r="A1203" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1203" s="0" t="s">
         <x:v>10</x:v>
@@ -36287,7 +36290,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="F1203" s="1" t="s">
-        <x:v>321</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="G1203" s="1" t="s">
         <x:v>144</x:v>
@@ -36301,7 +36304,7 @@
     </x:row>
     <x:row r="1204" spans="1:9">
       <x:c r="A1204" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1204" s="0" t="s">
         <x:v>10</x:v>
@@ -36310,16 +36313,16 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="D1204" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="E1204" s="1" t="s">
         <x:v>142</x:v>
       </x:c>
       <x:c r="F1204" s="1" t="s">
-        <x:v>322</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="G1204" s="1" t="s">
-        <x:v>323</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="H1204" s="1" t="s">
         <x:v>83</x:v>
@@ -36330,7 +36333,7 @@
     </x:row>
     <x:row r="1205" spans="1:9">
       <x:c r="A1205" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1205" s="0" t="s">
         <x:v>295</x:v>
@@ -36359,7 +36362,7 @@
     </x:row>
     <x:row r="1206" spans="1:9">
       <x:c r="A1206" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1206" s="0" t="s">
         <x:v>295</x:v>
@@ -36388,7 +36391,7 @@
     </x:row>
     <x:row r="1207" spans="1:9">
       <x:c r="A1207" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1207" s="0" t="s">
         <x:v>47</x:v>
@@ -36417,7 +36420,7 @@
     </x:row>
     <x:row r="1208" spans="1:9">
       <x:c r="A1208" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1208" s="0" t="s">
         <x:v>47</x:v>
@@ -36446,7 +36449,7 @@
     </x:row>
     <x:row r="1209" spans="1:9">
       <x:c r="A1209" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1209" s="0" t="s">
         <x:v>47</x:v>
@@ -36475,7 +36478,7 @@
     </x:row>
     <x:row r="1210" spans="1:9">
       <x:c r="A1210" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1210" s="0" t="s">
         <x:v>23</x:v>
@@ -36504,7 +36507,7 @@
     </x:row>
     <x:row r="1211" spans="1:9">
       <x:c r="A1211" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1211" s="0" t="s">
         <x:v>23</x:v>
@@ -36533,7 +36536,7 @@
     </x:row>
     <x:row r="1212" spans="1:9">
       <x:c r="A1212" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1212" s="0" t="s">
         <x:v>23</x:v>
@@ -36562,7 +36565,7 @@
     </x:row>
     <x:row r="1213" spans="1:9">
       <x:c r="A1213" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1213" s="0" t="s">
         <x:v>27</x:v>
@@ -36577,7 +36580,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="F1213" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G1213" s="1" t="s">
         <x:v>115</x:v>
@@ -36591,7 +36594,7 @@
     </x:row>
     <x:row r="1214" spans="1:9">
       <x:c r="A1214" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1214" s="0" t="s">
         <x:v>27</x:v>
@@ -36620,7 +36623,7 @@
     </x:row>
     <x:row r="1215" spans="1:9">
       <x:c r="A1215" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1215" s="0" t="s">
         <x:v>27</x:v>
@@ -36635,13 +36638,13 @@
         <x:v>286</x:v>
       </x:c>
       <x:c r="F1215" s="1" t="s">
-        <x:v>324</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="G1215" s="1" t="s">
-        <x:v>325</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="H1215" s="1" t="s">
-        <x:v>300</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="I1215" s="0" t="s">
         <x:v>12</x:v>
@@ -36649,7 +36652,7 @@
     </x:row>
     <x:row r="1216" spans="1:9">
       <x:c r="A1216" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1216" s="0" t="s">
         <x:v>65</x:v>
@@ -36678,7 +36681,7 @@
     </x:row>
     <x:row r="1217" spans="1:9">
       <x:c r="A1217" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1217" s="0" t="s">
         <x:v>65</x:v>
@@ -36707,7 +36710,7 @@
     </x:row>
     <x:row r="1218" spans="1:9">
       <x:c r="A1218" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1218" s="0" t="s">
         <x:v>65</x:v>
@@ -36736,7 +36739,7 @@
     </x:row>
     <x:row r="1219" spans="1:9">
       <x:c r="A1219" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1219" s="0" t="s">
         <x:v>31</x:v>
@@ -36765,7 +36768,7 @@
     </x:row>
     <x:row r="1220" spans="1:9">
       <x:c r="A1220" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1220" s="0" t="s">
         <x:v>31</x:v>
@@ -36794,7 +36797,7 @@
     </x:row>
     <x:row r="1221" spans="1:9">
       <x:c r="A1221" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1221" s="0" t="s">
         <x:v>31</x:v>
@@ -36823,7 +36826,7 @@
     </x:row>
     <x:row r="1222" spans="1:9">
       <x:c r="A1222" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1222" s="0" t="s">
         <x:v>32</x:v>
@@ -36852,7 +36855,7 @@
     </x:row>
     <x:row r="1223" spans="1:9">
       <x:c r="A1223" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1223" s="0" t="s">
         <x:v>32</x:v>
@@ -36881,7 +36884,7 @@
     </x:row>
     <x:row r="1224" spans="1:9">
       <x:c r="A1224" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1224" s="0" t="s">
         <x:v>32</x:v>
@@ -36910,7 +36913,7 @@
     </x:row>
     <x:row r="1225" spans="1:9">
       <x:c r="A1225" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1225" s="0" t="s">
         <x:v>10</x:v>
@@ -36939,7 +36942,7 @@
     </x:row>
     <x:row r="1226" spans="1:9">
       <x:c r="A1226" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1226" s="0" t="s">
         <x:v>10</x:v>
@@ -36968,7 +36971,7 @@
     </x:row>
     <x:row r="1227" spans="1:9">
       <x:c r="A1227" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1227" s="0" t="s">
         <x:v>10</x:v>
@@ -36997,7 +37000,7 @@
     </x:row>
     <x:row r="1228" spans="1:9">
       <x:c r="A1228" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1228" s="0" t="s">
         <x:v>23</x:v>
@@ -37026,7 +37029,7 @@
     </x:row>
     <x:row r="1229" spans="1:9">
       <x:c r="A1229" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1229" s="0" t="s">
         <x:v>23</x:v>
@@ -37055,7 +37058,7 @@
     </x:row>
     <x:row r="1230" spans="1:9">
       <x:c r="A1230" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1230" s="0" t="s">
         <x:v>27</x:v>
@@ -37084,7 +37087,7 @@
     </x:row>
     <x:row r="1231" spans="1:9">
       <x:c r="A1231" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1231" s="0" t="s">
         <x:v>27</x:v>
@@ -37113,7 +37116,7 @@
     </x:row>
     <x:row r="1232" spans="1:9">
       <x:c r="A1232" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1232" s="0" t="s">
         <x:v>27</x:v>
@@ -37142,7 +37145,7 @@
     </x:row>
     <x:row r="1233" spans="1:9">
       <x:c r="A1233" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1233" s="0" t="s">
         <x:v>65</x:v>
@@ -37171,7 +37174,7 @@
     </x:row>
     <x:row r="1234" spans="1:9">
       <x:c r="A1234" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1234" s="0" t="s">
         <x:v>65</x:v>
@@ -37200,7 +37203,7 @@
     </x:row>
     <x:row r="1235" spans="1:9">
       <x:c r="A1235" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1235" s="0" t="s">
         <x:v>65</x:v>
@@ -37229,7 +37232,7 @@
     </x:row>
     <x:row r="1236" spans="1:9">
       <x:c r="A1236" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1236" s="0" t="s">
         <x:v>31</x:v>
@@ -37258,7 +37261,7 @@
     </x:row>
     <x:row r="1237" spans="1:9">
       <x:c r="A1237" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1237" s="0" t="s">
         <x:v>31</x:v>
@@ -37287,7 +37290,7 @@
     </x:row>
     <x:row r="1238" spans="1:9">
       <x:c r="A1238" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1238" s="0" t="s">
         <x:v>32</x:v>
@@ -37316,7 +37319,7 @@
     </x:row>
     <x:row r="1239" spans="1:9">
       <x:c r="A1239" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1239" s="0" t="s">
         <x:v>32</x:v>
@@ -37345,7 +37348,7 @@
     </x:row>
     <x:row r="1240" spans="1:9">
       <x:c r="A1240" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1240" s="0" t="s">
         <x:v>10</x:v>
@@ -37374,7 +37377,7 @@
     </x:row>
     <x:row r="1241" spans="1:9">
       <x:c r="A1241" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1241" s="0" t="s">
         <x:v>10</x:v>
@@ -37403,7 +37406,7 @@
     </x:row>
     <x:row r="1242" spans="1:9">
       <x:c r="A1242" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1242" s="0" t="s">
         <x:v>10</x:v>
@@ -37432,7 +37435,7 @@
     </x:row>
     <x:row r="1243" spans="1:9">
       <x:c r="A1243" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1243" s="0" t="s">
         <x:v>295</x:v>
@@ -37461,7 +37464,7 @@
     </x:row>
     <x:row r="1244" spans="1:9">
       <x:c r="A1244" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1244" s="0" t="s">
         <x:v>295</x:v>
@@ -37490,7 +37493,7 @@
     </x:row>
     <x:row r="1245" spans="1:9">
       <x:c r="A1245" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1245" s="0" t="s">
         <x:v>23</x:v>
@@ -37519,7 +37522,7 @@
     </x:row>
     <x:row r="1246" spans="1:9">
       <x:c r="A1246" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1246" s="0" t="s">
         <x:v>23</x:v>
@@ -37548,7 +37551,7 @@
     </x:row>
     <x:row r="1247" spans="1:9">
       <x:c r="A1247" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1247" s="0" t="s">
         <x:v>23</x:v>
@@ -37577,7 +37580,7 @@
     </x:row>
     <x:row r="1248" spans="1:9">
       <x:c r="A1248" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1248" s="0" t="s">
         <x:v>27</x:v>
@@ -37606,7 +37609,7 @@
     </x:row>
     <x:row r="1249" spans="1:9">
       <x:c r="A1249" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1249" s="0" t="s">
         <x:v>27</x:v>
@@ -37635,7 +37638,7 @@
     </x:row>
     <x:row r="1250" spans="1:9">
       <x:c r="A1250" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1250" s="0" t="s">
         <x:v>27</x:v>
@@ -37664,7 +37667,7 @@
     </x:row>
     <x:row r="1251" spans="1:9">
       <x:c r="A1251" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1251" s="0" t="s">
         <x:v>31</x:v>
@@ -37693,7 +37696,7 @@
     </x:row>
     <x:row r="1252" spans="1:9">
       <x:c r="A1252" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1252" s="0" t="s">
         <x:v>31</x:v>
@@ -37722,7 +37725,7 @@
     </x:row>
     <x:row r="1253" spans="1:9">
       <x:c r="A1253" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1253" s="0" t="s">
         <x:v>31</x:v>
@@ -37751,7 +37754,7 @@
     </x:row>
     <x:row r="1254" spans="1:9">
       <x:c r="A1254" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1254" s="0" t="s">
         <x:v>32</x:v>
@@ -37780,7 +37783,7 @@
     </x:row>
     <x:row r="1255" spans="1:9">
       <x:c r="A1255" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1255" s="0" t="s">
         <x:v>32</x:v>
@@ -37809,7 +37812,7 @@
     </x:row>
     <x:row r="1256" spans="1:9">
       <x:c r="A1256" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1256" s="0" t="s">
         <x:v>10</x:v>
@@ -37838,7 +37841,7 @@
     </x:row>
     <x:row r="1257" spans="1:9">
       <x:c r="A1257" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1257" s="0" t="s">
         <x:v>10</x:v>
@@ -37867,7 +37870,7 @@
     </x:row>
     <x:row r="1258" spans="1:9">
       <x:c r="A1258" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1258" s="0" t="s">
         <x:v>10</x:v>
@@ -37896,7 +37899,7 @@
     </x:row>
     <x:row r="1259" spans="1:9">
       <x:c r="A1259" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1259" s="0" t="s">
         <x:v>23</x:v>
@@ -37925,7 +37928,7 @@
     </x:row>
     <x:row r="1260" spans="1:9">
       <x:c r="A1260" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1260" s="0" t="s">
         <x:v>23</x:v>
@@ -37954,7 +37957,7 @@
     </x:row>
     <x:row r="1261" spans="1:9">
       <x:c r="A1261" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1261" s="0" t="s">
         <x:v>23</x:v>
@@ -37983,7 +37986,7 @@
     </x:row>
     <x:row r="1262" spans="1:9">
       <x:c r="A1262" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1262" s="0" t="s">
         <x:v>27</x:v>
@@ -38012,7 +38015,7 @@
     </x:row>
     <x:row r="1263" spans="1:9">
       <x:c r="A1263" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1263" s="0" t="s">
         <x:v>27</x:v>
@@ -38041,7 +38044,7 @@
     </x:row>
     <x:row r="1264" spans="1:9">
       <x:c r="A1264" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1264" s="0" t="s">
         <x:v>27</x:v>
@@ -38070,7 +38073,7 @@
     </x:row>
     <x:row r="1265" spans="1:9">
       <x:c r="A1265" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1265" s="0" t="s">
         <x:v>31</x:v>
@@ -38099,7 +38102,7 @@
     </x:row>
     <x:row r="1266" spans="1:9">
       <x:c r="A1266" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1266" s="0" t="s">
         <x:v>31</x:v>
@@ -38128,7 +38131,7 @@
     </x:row>
     <x:row r="1267" spans="1:9">
       <x:c r="A1267" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1267" s="0" t="s">
         <x:v>31</x:v>
@@ -38157,7 +38160,7 @@
     </x:row>
     <x:row r="1268" spans="1:9">
       <x:c r="A1268" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1268" s="0" t="s">
         <x:v>32</x:v>
@@ -38186,7 +38189,7 @@
     </x:row>
     <x:row r="1269" spans="1:9">
       <x:c r="A1269" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1269" s="0" t="s">
         <x:v>32</x:v>
@@ -38215,7 +38218,7 @@
     </x:row>
     <x:row r="1270" spans="1:9">
       <x:c r="A1270" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1270" s="0" t="s">
         <x:v>32</x:v>
@@ -38244,7 +38247,7 @@
     </x:row>
     <x:row r="1271" spans="1:9">
       <x:c r="A1271" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1271" s="0" t="s">
         <x:v>10</x:v>
@@ -38265,7 +38268,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="H1271" s="1" t="s">
-        <x:v>330</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="I1271" s="0" t="s">
         <x:v>12</x:v>
@@ -38273,7 +38276,7 @@
     </x:row>
     <x:row r="1272" spans="1:9">
       <x:c r="A1272" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1272" s="0" t="s">
         <x:v>10</x:v>
@@ -38291,10 +38294,10 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="G1272" s="1" t="s">
-        <x:v>331</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="H1272" s="1" t="s">
-        <x:v>332</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="I1272" s="0" t="s">
         <x:v>12</x:v>
@@ -38302,7 +38305,7 @@
     </x:row>
     <x:row r="1273" spans="1:9">
       <x:c r="A1273" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1273" s="0" t="s">
         <x:v>10</x:v>
@@ -38314,16 +38317,16 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E1273" s="1" t="s">
-        <x:v>332</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="F1273" s="1" t="s">
         <x:v>231</x:v>
       </x:c>
       <x:c r="G1273" s="1" t="s">
-        <x:v>333</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="H1273" s="1" t="s">
-        <x:v>334</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="I1273" s="0" t="s">
         <x:v>12</x:v>
@@ -38331,7 +38334,7 @@
     </x:row>
     <x:row r="1274" spans="1:9">
       <x:c r="A1274" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1274" s="0" t="s">
         <x:v>23</x:v>
@@ -38360,7 +38363,7 @@
     </x:row>
     <x:row r="1275" spans="1:9">
       <x:c r="A1275" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1275" s="0" t="s">
         <x:v>23</x:v>
@@ -38389,7 +38392,7 @@
     </x:row>
     <x:row r="1276" spans="1:9">
       <x:c r="A1276" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1276" s="0" t="s">
         <x:v>23</x:v>
@@ -38418,7 +38421,7 @@
     </x:row>
     <x:row r="1277" spans="1:9">
       <x:c r="A1277" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1277" s="0" t="s">
         <x:v>27</x:v>
@@ -38447,7 +38450,7 @@
     </x:row>
     <x:row r="1278" spans="1:9">
       <x:c r="A1278" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1278" s="0" t="s">
         <x:v>27</x:v>
@@ -38476,7 +38479,7 @@
     </x:row>
     <x:row r="1279" spans="1:9">
       <x:c r="A1279" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1279" s="0" t="s">
         <x:v>27</x:v>
@@ -38497,7 +38500,7 @@
         <x:v>241</x:v>
       </x:c>
       <x:c r="H1279" s="1" t="s">
-        <x:v>202</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="I1279" s="0" t="s">
         <x:v>12</x:v>
@@ -38505,7 +38508,7 @@
     </x:row>
     <x:row r="1280" spans="1:9">
       <x:c r="A1280" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1280" s="0" t="s">
         <x:v>65</x:v>
@@ -38534,7 +38537,7 @@
     </x:row>
     <x:row r="1281" spans="1:9">
       <x:c r="A1281" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1281" s="0" t="s">
         <x:v>65</x:v>
@@ -38563,7 +38566,7 @@
     </x:row>
     <x:row r="1282" spans="1:9">
       <x:c r="A1282" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1282" s="0" t="s">
         <x:v>65</x:v>
@@ -38592,7 +38595,7 @@
     </x:row>
     <x:row r="1283" spans="1:9">
       <x:c r="A1283" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1283" s="0" t="s">
         <x:v>31</x:v>
@@ -38621,7 +38624,7 @@
     </x:row>
     <x:row r="1284" spans="1:9">
       <x:c r="A1284" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1284" s="0" t="s">
         <x:v>31</x:v>
@@ -38650,7 +38653,7 @@
     </x:row>
     <x:row r="1285" spans="1:9">
       <x:c r="A1285" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1285" s="0" t="s">
         <x:v>31</x:v>
@@ -38679,7 +38682,7 @@
     </x:row>
     <x:row r="1286" spans="1:9">
       <x:c r="A1286" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1286" s="0" t="s">
         <x:v>32</x:v>
@@ -38708,7 +38711,7 @@
     </x:row>
     <x:row r="1287" spans="1:9">
       <x:c r="A1287" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1287" s="0" t="s">
         <x:v>32</x:v>
@@ -38737,7 +38740,7 @@
     </x:row>
     <x:row r="1288" spans="1:9">
       <x:c r="A1288" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1288" s="0" t="s">
         <x:v>32</x:v>
@@ -38766,7 +38769,7 @@
     </x:row>
     <x:row r="1289" spans="1:9">
       <x:c r="A1289" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1289" s="0" t="s">
         <x:v>10</x:v>
@@ -38795,7 +38798,7 @@
     </x:row>
     <x:row r="1290" spans="1:9">
       <x:c r="A1290" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1290" s="0" t="s">
         <x:v>10</x:v>
@@ -38824,7 +38827,7 @@
     </x:row>
     <x:row r="1291" spans="1:9">
       <x:c r="A1291" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1291" s="0" t="s">
         <x:v>10</x:v>
@@ -38853,7 +38856,7 @@
     </x:row>
     <x:row r="1292" spans="1:9">
       <x:c r="A1292" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1292" s="0" t="s">
         <x:v>23</x:v>
@@ -38882,7 +38885,7 @@
     </x:row>
     <x:row r="1293" spans="1:9">
       <x:c r="A1293" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1293" s="0" t="s">
         <x:v>23</x:v>
@@ -38911,7 +38914,7 @@
     </x:row>
     <x:row r="1294" spans="1:9">
       <x:c r="A1294" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1294" s="0" t="s">
         <x:v>23</x:v>
@@ -38940,7 +38943,7 @@
     </x:row>
     <x:row r="1295" spans="1:9">
       <x:c r="A1295" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1295" s="0" t="s">
         <x:v>27</x:v>
@@ -38969,7 +38972,7 @@
     </x:row>
     <x:row r="1296" spans="1:9">
       <x:c r="A1296" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1296" s="0" t="s">
         <x:v>27</x:v>
@@ -38998,7 +39001,7 @@
     </x:row>
     <x:row r="1297" spans="1:9">
       <x:c r="A1297" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1297" s="0" t="s">
         <x:v>27</x:v>
@@ -39027,7 +39030,7 @@
     </x:row>
     <x:row r="1298" spans="1:9">
       <x:c r="A1298" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1298" s="0" t="s">
         <x:v>31</x:v>
@@ -39056,7 +39059,7 @@
     </x:row>
     <x:row r="1299" spans="1:9">
       <x:c r="A1299" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1299" s="0" t="s">
         <x:v>31</x:v>
@@ -39085,7 +39088,7 @@
     </x:row>
     <x:row r="1300" spans="1:9">
       <x:c r="A1300" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1300" s="0" t="s">
         <x:v>31</x:v>
@@ -39114,7 +39117,7 @@
     </x:row>
     <x:row r="1301" spans="1:9">
       <x:c r="A1301" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1301" s="0" t="s">
         <x:v>32</x:v>
@@ -39143,7 +39146,7 @@
     </x:row>
     <x:row r="1302" spans="1:9">
       <x:c r="A1302" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1302" s="0" t="s">
         <x:v>32</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -133,7 +133,7 @@
     <x:t>51</x:t>
   </x:si>
   <x:si>
-    <x:t>108</x:t>
+    <x:t>107</x:t>
   </x:si>
   <x:si>
     <x:t>114</x:t>
@@ -148,7 +148,7 @@
     <x:t>64</x:t>
   </x:si>
   <x:si>
-    <x:t>134</x:t>
+    <x:t>133</x:t>
   </x:si>
   <x:si>
     <x:t>147</x:t>
@@ -913,9 +913,6 @@
     <x:t>93</x:t>
   </x:si>
   <x:si>
-    <x:t>133</x:t>
-  </x:si>
-  <x:si>
     <x:t>284</x:t>
   </x:si>
   <x:si>
@@ -941,9 +938,6 @@
   </x:si>
   <x:si>
     <x:t>144</x:t>
-  </x:si>
-  <x:si>
-    <x:t>107</x:t>
   </x:si>
   <x:si>
     <x:t>211</x:t>
@@ -1405,7 +1399,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:I1302"/>
+  <x:dimension ref="A1:I1303"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -31418,7 +31412,7 @@
         <x:v>247</x:v>
       </x:c>
       <x:c r="F1035" s="1" t="s">
-        <x:v>299</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="G1035" s="1" t="s">
         <x:v>97</x:v>
@@ -31450,10 +31444,10 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="G1036" s="1" t="s">
+        <x:v>299</x:v>
+      </x:c>
+      <x:c r="H1036" s="1" t="s">
         <x:v>300</x:v>
-      </x:c>
-      <x:c r="H1036" s="1" t="s">
-        <x:v>301</x:v>
       </x:c>
       <x:c r="I1036" s="0" t="s">
         <x:v>12</x:v>
@@ -31705,7 +31699,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E1045" s="1" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="F1045" s="1" t="s">
         <x:v>86</x:v>
@@ -31983,7 +31977,7 @@
     </x:row>
     <x:row r="1055" spans="1:9">
       <x:c r="A1055" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1055" s="0" t="s">
         <x:v>10</x:v>
@@ -32012,7 +32006,7 @@
     </x:row>
     <x:row r="1056" spans="1:9">
       <x:c r="A1056" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1056" s="0" t="s">
         <x:v>10</x:v>
@@ -32024,13 +32018,13 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E1056" s="1" t="s">
+        <x:v>303</x:v>
+      </x:c>
+      <x:c r="F1056" s="1" t="s">
         <x:v>304</x:v>
       </x:c>
-      <x:c r="F1056" s="1" t="s">
+      <x:c r="G1056" s="1" t="s">
         <x:v>305</x:v>
-      </x:c>
-      <x:c r="G1056" s="1" t="s">
-        <x:v>306</x:v>
       </x:c>
       <x:c r="H1056" s="1" t="s">
         <x:v>107</x:v>
@@ -32041,7 +32035,7 @@
     </x:row>
     <x:row r="1057" spans="1:9">
       <x:c r="A1057" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1057" s="0" t="s">
         <x:v>10</x:v>
@@ -32056,13 +32050,13 @@
         <x:v>208</x:v>
       </x:c>
       <x:c r="F1057" s="1" t="s">
-        <x:v>307</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="G1057" s="1" t="s">
         <x:v>273</x:v>
       </x:c>
       <x:c r="H1057" s="1" t="s">
-        <x:v>308</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="I1057" s="0" t="s">
         <x:v>12</x:v>
@@ -32070,7 +32064,7 @@
     </x:row>
     <x:row r="1058" spans="1:9">
       <x:c r="A1058" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1058" s="0" t="s">
         <x:v>295</x:v>
@@ -32099,7 +32093,7 @@
     </x:row>
     <x:row r="1059" spans="1:9">
       <x:c r="A1059" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1059" s="0" t="s">
         <x:v>295</x:v>
@@ -32128,7 +32122,7 @@
     </x:row>
     <x:row r="1060" spans="1:9">
       <x:c r="A1060" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1060" s="0" t="s">
         <x:v>295</x:v>
@@ -32157,7 +32151,7 @@
     </x:row>
     <x:row r="1061" spans="1:9">
       <x:c r="A1061" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1061" s="0" t="s">
         <x:v>47</x:v>
@@ -32186,7 +32180,7 @@
     </x:row>
     <x:row r="1062" spans="1:9">
       <x:c r="A1062" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1062" s="0" t="s">
         <x:v>47</x:v>
@@ -32215,7 +32209,7 @@
     </x:row>
     <x:row r="1063" spans="1:9">
       <x:c r="A1063" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1063" s="0" t="s">
         <x:v>47</x:v>
@@ -32244,7 +32238,7 @@
     </x:row>
     <x:row r="1064" spans="1:9">
       <x:c r="A1064" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1064" s="0" t="s">
         <x:v>23</x:v>
@@ -32273,7 +32267,7 @@
     </x:row>
     <x:row r="1065" spans="1:9">
       <x:c r="A1065" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1065" s="0" t="s">
         <x:v>23</x:v>
@@ -32302,7 +32296,7 @@
     </x:row>
     <x:row r="1066" spans="1:9">
       <x:c r="A1066" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1066" s="0" t="s">
         <x:v>23</x:v>
@@ -32331,7 +32325,7 @@
     </x:row>
     <x:row r="1067" spans="1:9">
       <x:c r="A1067" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1067" s="0" t="s">
         <x:v>27</x:v>
@@ -32360,7 +32354,7 @@
     </x:row>
     <x:row r="1068" spans="1:9">
       <x:c r="A1068" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1068" s="0" t="s">
         <x:v>27</x:v>
@@ -32381,7 +32375,7 @@
         <x:v>169</x:v>
       </x:c>
       <x:c r="H1068" s="1" t="s">
-        <x:v>309</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I1068" s="0" t="s">
         <x:v>12</x:v>
@@ -32389,7 +32383,7 @@
     </x:row>
     <x:row r="1069" spans="1:9">
       <x:c r="A1069" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1069" s="0" t="s">
         <x:v>27</x:v>
@@ -32401,13 +32395,13 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="E1069" s="1" t="s">
-        <x:v>305</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="F1069" s="1" t="s">
-        <x:v>310</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="G1069" s="1" t="s">
-        <x:v>311</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="H1069" s="1" t="s">
         <x:v>185</x:v>
@@ -32418,10 +32412,10 @@
     </x:row>
     <x:row r="1070" spans="1:9">
       <x:c r="A1070" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1070" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="C1070" s="1" t="s">
         <x:v>11</x:v>
@@ -32447,10 +32441,10 @@
     </x:row>
     <x:row r="1071" spans="1:9">
       <x:c r="A1071" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1071" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="C1071" s="1" t="s">
         <x:v>16</x:v>
@@ -32476,10 +32470,10 @@
     </x:row>
     <x:row r="1072" spans="1:9">
       <x:c r="A1072" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1072" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="C1072" s="1" t="s">
         <x:v>19</x:v>
@@ -32505,7 +32499,7 @@
     </x:row>
     <x:row r="1073" spans="1:9">
       <x:c r="A1073" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1073" s="0" t="s">
         <x:v>65</x:v>
@@ -32534,7 +32528,7 @@
     </x:row>
     <x:row r="1074" spans="1:9">
       <x:c r="A1074" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1074" s="0" t="s">
         <x:v>65</x:v>
@@ -32563,7 +32557,7 @@
     </x:row>
     <x:row r="1075" spans="1:9">
       <x:c r="A1075" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1075" s="0" t="s">
         <x:v>65</x:v>
@@ -32592,7 +32586,7 @@
     </x:row>
     <x:row r="1076" spans="1:9">
       <x:c r="A1076" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1076" s="0" t="s">
         <x:v>31</x:v>
@@ -32621,7 +32615,7 @@
     </x:row>
     <x:row r="1077" spans="1:9">
       <x:c r="A1077" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1077" s="0" t="s">
         <x:v>31</x:v>
@@ -32650,7 +32644,7 @@
     </x:row>
     <x:row r="1078" spans="1:9">
       <x:c r="A1078" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1078" s="0" t="s">
         <x:v>31</x:v>
@@ -32679,7 +32673,7 @@
     </x:row>
     <x:row r="1079" spans="1:9">
       <x:c r="A1079" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1079" s="0" t="s">
         <x:v>32</x:v>
@@ -32708,7 +32702,7 @@
     </x:row>
     <x:row r="1080" spans="1:9">
       <x:c r="A1080" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1080" s="0" t="s">
         <x:v>32</x:v>
@@ -32737,7 +32731,7 @@
     </x:row>
     <x:row r="1081" spans="1:9">
       <x:c r="A1081" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1081" s="0" t="s">
         <x:v>32</x:v>
@@ -32766,7 +32760,7 @@
     </x:row>
     <x:row r="1082" spans="1:9">
       <x:c r="A1082" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="B1082" s="0" t="s">
         <x:v>10</x:v>
@@ -32795,7 +32789,7 @@
     </x:row>
     <x:row r="1083" spans="1:9">
       <x:c r="A1083" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="B1083" s="0" t="s">
         <x:v>10</x:v>
@@ -32824,7 +32818,7 @@
     </x:row>
     <x:row r="1084" spans="1:9">
       <x:c r="A1084" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="B1084" s="0" t="s">
         <x:v>10</x:v>
@@ -32853,7 +32847,7 @@
     </x:row>
     <x:row r="1085" spans="1:9">
       <x:c r="A1085" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="B1085" s="0" t="s">
         <x:v>47</x:v>
@@ -32882,7 +32876,7 @@
     </x:row>
     <x:row r="1086" spans="1:9">
       <x:c r="A1086" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="B1086" s="0" t="s">
         <x:v>47</x:v>
@@ -32911,7 +32905,7 @@
     </x:row>
     <x:row r="1087" spans="1:9">
       <x:c r="A1087" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="B1087" s="0" t="s">
         <x:v>47</x:v>
@@ -32940,7 +32934,7 @@
     </x:row>
     <x:row r="1088" spans="1:9">
       <x:c r="A1088" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="B1088" s="0" t="s">
         <x:v>23</x:v>
@@ -32969,7 +32963,7 @@
     </x:row>
     <x:row r="1089" spans="1:9">
       <x:c r="A1089" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="B1089" s="0" t="s">
         <x:v>23</x:v>
@@ -32998,7 +32992,7 @@
     </x:row>
     <x:row r="1090" spans="1:9">
       <x:c r="A1090" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="B1090" s="0" t="s">
         <x:v>23</x:v>
@@ -33027,7 +33021,7 @@
     </x:row>
     <x:row r="1091" spans="1:9">
       <x:c r="A1091" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="B1091" s="0" t="s">
         <x:v>27</x:v>
@@ -33056,7 +33050,7 @@
     </x:row>
     <x:row r="1092" spans="1:9">
       <x:c r="A1092" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="B1092" s="0" t="s">
         <x:v>27</x:v>
@@ -33085,7 +33079,7 @@
     </x:row>
     <x:row r="1093" spans="1:9">
       <x:c r="A1093" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="B1093" s="0" t="s">
         <x:v>27</x:v>
@@ -33114,7 +33108,7 @@
     </x:row>
     <x:row r="1094" spans="1:9">
       <x:c r="A1094" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="B1094" s="0" t="s">
         <x:v>31</x:v>
@@ -33143,7 +33137,7 @@
     </x:row>
     <x:row r="1095" spans="1:9">
       <x:c r="A1095" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="B1095" s="0" t="s">
         <x:v>31</x:v>
@@ -33172,7 +33166,7 @@
     </x:row>
     <x:row r="1096" spans="1:9">
       <x:c r="A1096" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="B1096" s="0" t="s">
         <x:v>31</x:v>
@@ -33201,7 +33195,7 @@
     </x:row>
     <x:row r="1097" spans="1:9">
       <x:c r="A1097" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="B1097" s="0" t="s">
         <x:v>32</x:v>
@@ -33230,7 +33224,7 @@
     </x:row>
     <x:row r="1098" spans="1:9">
       <x:c r="A1098" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="B1098" s="0" t="s">
         <x:v>32</x:v>
@@ -33259,7 +33253,7 @@
     </x:row>
     <x:row r="1099" spans="1:9">
       <x:c r="A1099" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1099" s="0" t="s">
         <x:v>10</x:v>
@@ -33288,7 +33282,7 @@
     </x:row>
     <x:row r="1100" spans="1:9">
       <x:c r="A1100" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1100" s="0" t="s">
         <x:v>10</x:v>
@@ -33317,7 +33311,7 @@
     </x:row>
     <x:row r="1101" spans="1:9">
       <x:c r="A1101" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1101" s="0" t="s">
         <x:v>10</x:v>
@@ -33346,7 +33340,7 @@
     </x:row>
     <x:row r="1102" spans="1:9">
       <x:c r="A1102" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1102" s="0" t="s">
         <x:v>23</x:v>
@@ -33375,7 +33369,7 @@
     </x:row>
     <x:row r="1103" spans="1:9">
       <x:c r="A1103" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1103" s="0" t="s">
         <x:v>23</x:v>
@@ -33404,7 +33398,7 @@
     </x:row>
     <x:row r="1104" spans="1:9">
       <x:c r="A1104" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1104" s="0" t="s">
         <x:v>23</x:v>
@@ -33433,7 +33427,7 @@
     </x:row>
     <x:row r="1105" spans="1:9">
       <x:c r="A1105" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1105" s="0" t="s">
         <x:v>27</x:v>
@@ -33462,7 +33456,7 @@
     </x:row>
     <x:row r="1106" spans="1:9">
       <x:c r="A1106" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1106" s="0" t="s">
         <x:v>27</x:v>
@@ -33491,7 +33485,7 @@
     </x:row>
     <x:row r="1107" spans="1:9">
       <x:c r="A1107" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1107" s="0" t="s">
         <x:v>27</x:v>
@@ -33520,7 +33514,7 @@
     </x:row>
     <x:row r="1108" spans="1:9">
       <x:c r="A1108" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1108" s="0" t="s">
         <x:v>31</x:v>
@@ -33549,7 +33543,7 @@
     </x:row>
     <x:row r="1109" spans="1:9">
       <x:c r="A1109" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1109" s="0" t="s">
         <x:v>31</x:v>
@@ -33578,7 +33572,7 @@
     </x:row>
     <x:row r="1110" spans="1:9">
       <x:c r="A1110" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1110" s="0" t="s">
         <x:v>31</x:v>
@@ -33607,7 +33601,7 @@
     </x:row>
     <x:row r="1111" spans="1:9">
       <x:c r="A1111" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1111" s="0" t="s">
         <x:v>32</x:v>
@@ -33636,7 +33630,7 @@
     </x:row>
     <x:row r="1112" spans="1:9">
       <x:c r="A1112" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1112" s="0" t="s">
         <x:v>32</x:v>
@@ -33665,7 +33659,7 @@
     </x:row>
     <x:row r="1113" spans="1:9">
       <x:c r="A1113" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B1113" s="0" t="s">
         <x:v>10</x:v>
@@ -33694,7 +33688,7 @@
     </x:row>
     <x:row r="1114" spans="1:9">
       <x:c r="A1114" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B1114" s="0" t="s">
         <x:v>10</x:v>
@@ -33723,7 +33717,7 @@
     </x:row>
     <x:row r="1115" spans="1:9">
       <x:c r="A1115" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B1115" s="0" t="s">
         <x:v>10</x:v>
@@ -33752,7 +33746,7 @@
     </x:row>
     <x:row r="1116" spans="1:9">
       <x:c r="A1116" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B1116" s="0" t="s">
         <x:v>23</x:v>
@@ -33781,7 +33775,7 @@
     </x:row>
     <x:row r="1117" spans="1:9">
       <x:c r="A1117" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B1117" s="0" t="s">
         <x:v>23</x:v>
@@ -33810,7 +33804,7 @@
     </x:row>
     <x:row r="1118" spans="1:9">
       <x:c r="A1118" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B1118" s="0" t="s">
         <x:v>23</x:v>
@@ -33839,7 +33833,7 @@
     </x:row>
     <x:row r="1119" spans="1:9">
       <x:c r="A1119" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B1119" s="0" t="s">
         <x:v>27</x:v>
@@ -33868,7 +33862,7 @@
     </x:row>
     <x:row r="1120" spans="1:9">
       <x:c r="A1120" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B1120" s="0" t="s">
         <x:v>27</x:v>
@@ -33897,7 +33891,7 @@
     </x:row>
     <x:row r="1121" spans="1:9">
       <x:c r="A1121" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B1121" s="0" t="s">
         <x:v>27</x:v>
@@ -33926,7 +33920,7 @@
     </x:row>
     <x:row r="1122" spans="1:9">
       <x:c r="A1122" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B1122" s="0" t="s">
         <x:v>31</x:v>
@@ -33955,7 +33949,7 @@
     </x:row>
     <x:row r="1123" spans="1:9">
       <x:c r="A1123" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B1123" s="0" t="s">
         <x:v>31</x:v>
@@ -33984,7 +33978,7 @@
     </x:row>
     <x:row r="1124" spans="1:9">
       <x:c r="A1124" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B1124" s="0" t="s">
         <x:v>31</x:v>
@@ -34013,7 +34007,7 @@
     </x:row>
     <x:row r="1125" spans="1:9">
       <x:c r="A1125" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B1125" s="0" t="s">
         <x:v>32</x:v>
@@ -34042,7 +34036,7 @@
     </x:row>
     <x:row r="1126" spans="1:9">
       <x:c r="A1126" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B1126" s="0" t="s">
         <x:v>32</x:v>
@@ -34071,7 +34065,7 @@
     </x:row>
     <x:row r="1127" spans="1:9">
       <x:c r="A1127" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B1127" s="0" t="s">
         <x:v>32</x:v>
@@ -34100,7 +34094,7 @@
     </x:row>
     <x:row r="1128" spans="1:9">
       <x:c r="A1128" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="B1128" s="0" t="s">
         <x:v>10</x:v>
@@ -34129,7 +34123,7 @@
     </x:row>
     <x:row r="1129" spans="1:9">
       <x:c r="A1129" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="B1129" s="0" t="s">
         <x:v>10</x:v>
@@ -34158,7 +34152,7 @@
     </x:row>
     <x:row r="1130" spans="1:9">
       <x:c r="A1130" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="B1130" s="0" t="s">
         <x:v>10</x:v>
@@ -34187,7 +34181,7 @@
     </x:row>
     <x:row r="1131" spans="1:9">
       <x:c r="A1131" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="B1131" s="0" t="s">
         <x:v>23</x:v>
@@ -34216,7 +34210,7 @@
     </x:row>
     <x:row r="1132" spans="1:9">
       <x:c r="A1132" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="B1132" s="0" t="s">
         <x:v>23</x:v>
@@ -34245,7 +34239,7 @@
     </x:row>
     <x:row r="1133" spans="1:9">
       <x:c r="A1133" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="B1133" s="0" t="s">
         <x:v>23</x:v>
@@ -34274,7 +34268,7 @@
     </x:row>
     <x:row r="1134" spans="1:9">
       <x:c r="A1134" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="B1134" s="0" t="s">
         <x:v>27</x:v>
@@ -34303,7 +34297,7 @@
     </x:row>
     <x:row r="1135" spans="1:9">
       <x:c r="A1135" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="B1135" s="0" t="s">
         <x:v>27</x:v>
@@ -34332,7 +34326,7 @@
     </x:row>
     <x:row r="1136" spans="1:9">
       <x:c r="A1136" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="B1136" s="0" t="s">
         <x:v>27</x:v>
@@ -34361,7 +34355,7 @@
     </x:row>
     <x:row r="1137" spans="1:9">
       <x:c r="A1137" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="B1137" s="0" t="s">
         <x:v>31</x:v>
@@ -34390,7 +34384,7 @@
     </x:row>
     <x:row r="1138" spans="1:9">
       <x:c r="A1138" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="B1138" s="0" t="s">
         <x:v>31</x:v>
@@ -34419,7 +34413,7 @@
     </x:row>
     <x:row r="1139" spans="1:9">
       <x:c r="A1139" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="B1139" s="0" t="s">
         <x:v>31</x:v>
@@ -34448,7 +34442,7 @@
     </x:row>
     <x:row r="1140" spans="1:9">
       <x:c r="A1140" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="B1140" s="0" t="s">
         <x:v>32</x:v>
@@ -34477,7 +34471,7 @@
     </x:row>
     <x:row r="1141" spans="1:9">
       <x:c r="A1141" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="B1141" s="0" t="s">
         <x:v>32</x:v>
@@ -34506,7 +34500,7 @@
     </x:row>
     <x:row r="1142" spans="1:9">
       <x:c r="A1142" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="B1142" s="0" t="s">
         <x:v>32</x:v>
@@ -34535,7 +34529,7 @@
     </x:row>
     <x:row r="1143" spans="1:9">
       <x:c r="A1143" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="B1143" s="0" t="s">
         <x:v>10</x:v>
@@ -34564,7 +34558,7 @@
     </x:row>
     <x:row r="1144" spans="1:9">
       <x:c r="A1144" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="B1144" s="0" t="s">
         <x:v>10</x:v>
@@ -34593,7 +34587,7 @@
     </x:row>
     <x:row r="1145" spans="1:9">
       <x:c r="A1145" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="B1145" s="0" t="s">
         <x:v>10</x:v>
@@ -34622,7 +34616,7 @@
     </x:row>
     <x:row r="1146" spans="1:9">
       <x:c r="A1146" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="B1146" s="0" t="s">
         <x:v>23</x:v>
@@ -34651,7 +34645,7 @@
     </x:row>
     <x:row r="1147" spans="1:9">
       <x:c r="A1147" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="B1147" s="0" t="s">
         <x:v>23</x:v>
@@ -34680,7 +34674,7 @@
     </x:row>
     <x:row r="1148" spans="1:9">
       <x:c r="A1148" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="B1148" s="0" t="s">
         <x:v>23</x:v>
@@ -34709,7 +34703,7 @@
     </x:row>
     <x:row r="1149" spans="1:9">
       <x:c r="A1149" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="B1149" s="0" t="s">
         <x:v>27</x:v>
@@ -34738,7 +34732,7 @@
     </x:row>
     <x:row r="1150" spans="1:9">
       <x:c r="A1150" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="B1150" s="0" t="s">
         <x:v>27</x:v>
@@ -34767,7 +34761,7 @@
     </x:row>
     <x:row r="1151" spans="1:9">
       <x:c r="A1151" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="B1151" s="0" t="s">
         <x:v>27</x:v>
@@ -34796,7 +34790,7 @@
     </x:row>
     <x:row r="1152" spans="1:9">
       <x:c r="A1152" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="B1152" s="0" t="s">
         <x:v>31</x:v>
@@ -34825,7 +34819,7 @@
     </x:row>
     <x:row r="1153" spans="1:9">
       <x:c r="A1153" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="B1153" s="0" t="s">
         <x:v>31</x:v>
@@ -34854,7 +34848,7 @@
     </x:row>
     <x:row r="1154" spans="1:9">
       <x:c r="A1154" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="B1154" s="0" t="s">
         <x:v>32</x:v>
@@ -34883,7 +34877,7 @@
     </x:row>
     <x:row r="1155" spans="1:9">
       <x:c r="A1155" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="B1155" s="0" t="s">
         <x:v>32</x:v>
@@ -34912,7 +34906,7 @@
     </x:row>
     <x:row r="1156" spans="1:9">
       <x:c r="A1156" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="B1156" s="0" t="s">
         <x:v>32</x:v>
@@ -34941,7 +34935,7 @@
     </x:row>
     <x:row r="1157" spans="1:9">
       <x:c r="A1157" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="B1157" s="0" t="s">
         <x:v>10</x:v>
@@ -34970,7 +34964,7 @@
     </x:row>
     <x:row r="1158" spans="1:9">
       <x:c r="A1158" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="B1158" s="0" t="s">
         <x:v>10</x:v>
@@ -34999,7 +34993,7 @@
     </x:row>
     <x:row r="1159" spans="1:9">
       <x:c r="A1159" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="B1159" s="0" t="s">
         <x:v>10</x:v>
@@ -35028,7 +35022,7 @@
     </x:row>
     <x:row r="1160" spans="1:9">
       <x:c r="A1160" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="B1160" s="0" t="s">
         <x:v>23</x:v>
@@ -35057,7 +35051,7 @@
     </x:row>
     <x:row r="1161" spans="1:9">
       <x:c r="A1161" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="B1161" s="0" t="s">
         <x:v>23</x:v>
@@ -35086,7 +35080,7 @@
     </x:row>
     <x:row r="1162" spans="1:9">
       <x:c r="A1162" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="B1162" s="0" t="s">
         <x:v>23</x:v>
@@ -35115,7 +35109,7 @@
     </x:row>
     <x:row r="1163" spans="1:9">
       <x:c r="A1163" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="B1163" s="0" t="s">
         <x:v>27</x:v>
@@ -35144,7 +35138,7 @@
     </x:row>
     <x:row r="1164" spans="1:9">
       <x:c r="A1164" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="B1164" s="0" t="s">
         <x:v>27</x:v>
@@ -35173,7 +35167,7 @@
     </x:row>
     <x:row r="1165" spans="1:9">
       <x:c r="A1165" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="B1165" s="0" t="s">
         <x:v>27</x:v>
@@ -35202,7 +35196,7 @@
     </x:row>
     <x:row r="1166" spans="1:9">
       <x:c r="A1166" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="B1166" s="0" t="s">
         <x:v>31</x:v>
@@ -35231,7 +35225,7 @@
     </x:row>
     <x:row r="1167" spans="1:9">
       <x:c r="A1167" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="B1167" s="0" t="s">
         <x:v>31</x:v>
@@ -35260,7 +35254,7 @@
     </x:row>
     <x:row r="1168" spans="1:9">
       <x:c r="A1168" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="B1168" s="0" t="s">
         <x:v>31</x:v>
@@ -35289,7 +35283,7 @@
     </x:row>
     <x:row r="1169" spans="1:9">
       <x:c r="A1169" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="B1169" s="0" t="s">
         <x:v>32</x:v>
@@ -35318,7 +35312,7 @@
     </x:row>
     <x:row r="1170" spans="1:9">
       <x:c r="A1170" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="B1170" s="0" t="s">
         <x:v>32</x:v>
@@ -35347,7 +35341,7 @@
     </x:row>
     <x:row r="1171" spans="1:9">
       <x:c r="A1171" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="B1171" s="0" t="s">
         <x:v>32</x:v>
@@ -35376,7 +35370,7 @@
     </x:row>
     <x:row r="1172" spans="1:9">
       <x:c r="A1172" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="B1172" s="0" t="s">
         <x:v>10</x:v>
@@ -35405,7 +35399,7 @@
     </x:row>
     <x:row r="1173" spans="1:9">
       <x:c r="A1173" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="B1173" s="0" t="s">
         <x:v>10</x:v>
@@ -35434,7 +35428,7 @@
     </x:row>
     <x:row r="1174" spans="1:9">
       <x:c r="A1174" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="B1174" s="0" t="s">
         <x:v>10</x:v>
@@ -35463,7 +35457,7 @@
     </x:row>
     <x:row r="1175" spans="1:9">
       <x:c r="A1175" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="B1175" s="0" t="s">
         <x:v>23</x:v>
@@ -35492,7 +35486,7 @@
     </x:row>
     <x:row r="1176" spans="1:9">
       <x:c r="A1176" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="B1176" s="0" t="s">
         <x:v>23</x:v>
@@ -35521,7 +35515,7 @@
     </x:row>
     <x:row r="1177" spans="1:9">
       <x:c r="A1177" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="B1177" s="0" t="s">
         <x:v>23</x:v>
@@ -35550,7 +35544,7 @@
     </x:row>
     <x:row r="1178" spans="1:9">
       <x:c r="A1178" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="B1178" s="0" t="s">
         <x:v>27</x:v>
@@ -35579,7 +35573,7 @@
     </x:row>
     <x:row r="1179" spans="1:9">
       <x:c r="A1179" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="B1179" s="0" t="s">
         <x:v>27</x:v>
@@ -35608,7 +35602,7 @@
     </x:row>
     <x:row r="1180" spans="1:9">
       <x:c r="A1180" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="B1180" s="0" t="s">
         <x:v>27</x:v>
@@ -35637,7 +35631,7 @@
     </x:row>
     <x:row r="1181" spans="1:9">
       <x:c r="A1181" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="B1181" s="0" t="s">
         <x:v>31</x:v>
@@ -35666,7 +35660,7 @@
     </x:row>
     <x:row r="1182" spans="1:9">
       <x:c r="A1182" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="B1182" s="0" t="s">
         <x:v>31</x:v>
@@ -35695,7 +35689,7 @@
     </x:row>
     <x:row r="1183" spans="1:9">
       <x:c r="A1183" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="B1183" s="0" t="s">
         <x:v>31</x:v>
@@ -35724,7 +35718,7 @@
     </x:row>
     <x:row r="1184" spans="1:9">
       <x:c r="A1184" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="B1184" s="0" t="s">
         <x:v>32</x:v>
@@ -35753,7 +35747,7 @@
     </x:row>
     <x:row r="1185" spans="1:9">
       <x:c r="A1185" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="B1185" s="0" t="s">
         <x:v>32</x:v>
@@ -35782,7 +35776,7 @@
     </x:row>
     <x:row r="1186" spans="1:9">
       <x:c r="A1186" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="B1186" s="0" t="s">
         <x:v>32</x:v>
@@ -35811,7 +35805,7 @@
     </x:row>
     <x:row r="1187" spans="1:9">
       <x:c r="A1187" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="B1187" s="0" t="s">
         <x:v>10</x:v>
@@ -35840,7 +35834,7 @@
     </x:row>
     <x:row r="1188" spans="1:9">
       <x:c r="A1188" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="B1188" s="0" t="s">
         <x:v>10</x:v>
@@ -35869,7 +35863,7 @@
     </x:row>
     <x:row r="1189" spans="1:9">
       <x:c r="A1189" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="B1189" s="0" t="s">
         <x:v>10</x:v>
@@ -35898,7 +35892,7 @@
     </x:row>
     <x:row r="1190" spans="1:9">
       <x:c r="A1190" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="B1190" s="0" t="s">
         <x:v>23</x:v>
@@ -35927,7 +35921,7 @@
     </x:row>
     <x:row r="1191" spans="1:9">
       <x:c r="A1191" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="B1191" s="0" t="s">
         <x:v>23</x:v>
@@ -35956,7 +35950,7 @@
     </x:row>
     <x:row r="1192" spans="1:9">
       <x:c r="A1192" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="B1192" s="0" t="s">
         <x:v>23</x:v>
@@ -35985,7 +35979,7 @@
     </x:row>
     <x:row r="1193" spans="1:9">
       <x:c r="A1193" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="B1193" s="0" t="s">
         <x:v>27</x:v>
@@ -36014,7 +36008,7 @@
     </x:row>
     <x:row r="1194" spans="1:9">
       <x:c r="A1194" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="B1194" s="0" t="s">
         <x:v>27</x:v>
@@ -36043,7 +36037,7 @@
     </x:row>
     <x:row r="1195" spans="1:9">
       <x:c r="A1195" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="B1195" s="0" t="s">
         <x:v>27</x:v>
@@ -36072,7 +36066,7 @@
     </x:row>
     <x:row r="1196" spans="1:9">
       <x:c r="A1196" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="B1196" s="0" t="s">
         <x:v>31</x:v>
@@ -36101,7 +36095,7 @@
     </x:row>
     <x:row r="1197" spans="1:9">
       <x:c r="A1197" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="B1197" s="0" t="s">
         <x:v>31</x:v>
@@ -36130,7 +36124,7 @@
     </x:row>
     <x:row r="1198" spans="1:9">
       <x:c r="A1198" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="B1198" s="0" t="s">
         <x:v>31</x:v>
@@ -36159,7 +36153,7 @@
     </x:row>
     <x:row r="1199" spans="1:9">
       <x:c r="A1199" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="B1199" s="0" t="s">
         <x:v>32</x:v>
@@ -36188,7 +36182,7 @@
     </x:row>
     <x:row r="1200" spans="1:9">
       <x:c r="A1200" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="B1200" s="0" t="s">
         <x:v>32</x:v>
@@ -36217,7 +36211,7 @@
     </x:row>
     <x:row r="1201" spans="1:9">
       <x:c r="A1201" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="B1201" s="0" t="s">
         <x:v>32</x:v>
@@ -36246,7 +36240,7 @@
     </x:row>
     <x:row r="1202" spans="1:9">
       <x:c r="A1202" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B1202" s="0" t="s">
         <x:v>10</x:v>
@@ -36275,7 +36269,7 @@
     </x:row>
     <x:row r="1203" spans="1:9">
       <x:c r="A1203" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B1203" s="0" t="s">
         <x:v>10</x:v>
@@ -36290,7 +36284,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="F1203" s="1" t="s">
-        <x:v>322</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="G1203" s="1" t="s">
         <x:v>144</x:v>
@@ -36304,7 +36298,7 @@
     </x:row>
     <x:row r="1204" spans="1:9">
       <x:c r="A1204" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B1204" s="0" t="s">
         <x:v>10</x:v>
@@ -36319,10 +36313,10 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="F1204" s="1" t="s">
-        <x:v>323</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="G1204" s="1" t="s">
-        <x:v>324</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="H1204" s="1" t="s">
         <x:v>83</x:v>
@@ -36333,7 +36327,7 @@
     </x:row>
     <x:row r="1205" spans="1:9">
       <x:c r="A1205" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B1205" s="0" t="s">
         <x:v>295</x:v>
@@ -36362,7 +36356,7 @@
     </x:row>
     <x:row r="1206" spans="1:9">
       <x:c r="A1206" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B1206" s="0" t="s">
         <x:v>295</x:v>
@@ -36391,7 +36385,7 @@
     </x:row>
     <x:row r="1207" spans="1:9">
       <x:c r="A1207" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B1207" s="0" t="s">
         <x:v>47</x:v>
@@ -36420,7 +36414,7 @@
     </x:row>
     <x:row r="1208" spans="1:9">
       <x:c r="A1208" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B1208" s="0" t="s">
         <x:v>47</x:v>
@@ -36449,7 +36443,7 @@
     </x:row>
     <x:row r="1209" spans="1:9">
       <x:c r="A1209" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B1209" s="0" t="s">
         <x:v>47</x:v>
@@ -36478,7 +36472,7 @@
     </x:row>
     <x:row r="1210" spans="1:9">
       <x:c r="A1210" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B1210" s="0" t="s">
         <x:v>23</x:v>
@@ -36507,7 +36501,7 @@
     </x:row>
     <x:row r="1211" spans="1:9">
       <x:c r="A1211" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B1211" s="0" t="s">
         <x:v>23</x:v>
@@ -36536,7 +36530,7 @@
     </x:row>
     <x:row r="1212" spans="1:9">
       <x:c r="A1212" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B1212" s="0" t="s">
         <x:v>23</x:v>
@@ -36565,7 +36559,7 @@
     </x:row>
     <x:row r="1213" spans="1:9">
       <x:c r="A1213" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B1213" s="0" t="s">
         <x:v>27</x:v>
@@ -36594,7 +36588,7 @@
     </x:row>
     <x:row r="1214" spans="1:9">
       <x:c r="A1214" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B1214" s="0" t="s">
         <x:v>27</x:v>
@@ -36623,7 +36617,7 @@
     </x:row>
     <x:row r="1215" spans="1:9">
       <x:c r="A1215" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B1215" s="0" t="s">
         <x:v>27</x:v>
@@ -36638,13 +36632,13 @@
         <x:v>286</x:v>
       </x:c>
       <x:c r="F1215" s="1" t="s">
-        <x:v>325</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="G1215" s="1" t="s">
-        <x:v>326</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="H1215" s="1" t="s">
-        <x:v>301</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="I1215" s="0" t="s">
         <x:v>12</x:v>
@@ -36652,7 +36646,7 @@
     </x:row>
     <x:row r="1216" spans="1:9">
       <x:c r="A1216" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B1216" s="0" t="s">
         <x:v>65</x:v>
@@ -36681,7 +36675,7 @@
     </x:row>
     <x:row r="1217" spans="1:9">
       <x:c r="A1217" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B1217" s="0" t="s">
         <x:v>65</x:v>
@@ -36710,7 +36704,7 @@
     </x:row>
     <x:row r="1218" spans="1:9">
       <x:c r="A1218" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B1218" s="0" t="s">
         <x:v>65</x:v>
@@ -36739,7 +36733,7 @@
     </x:row>
     <x:row r="1219" spans="1:9">
       <x:c r="A1219" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B1219" s="0" t="s">
         <x:v>31</x:v>
@@ -36768,7 +36762,7 @@
     </x:row>
     <x:row r="1220" spans="1:9">
       <x:c r="A1220" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B1220" s="0" t="s">
         <x:v>31</x:v>
@@ -36797,7 +36791,7 @@
     </x:row>
     <x:row r="1221" spans="1:9">
       <x:c r="A1221" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B1221" s="0" t="s">
         <x:v>31</x:v>
@@ -36826,7 +36820,7 @@
     </x:row>
     <x:row r="1222" spans="1:9">
       <x:c r="A1222" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B1222" s="0" t="s">
         <x:v>32</x:v>
@@ -36855,7 +36849,7 @@
     </x:row>
     <x:row r="1223" spans="1:9">
       <x:c r="A1223" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B1223" s="0" t="s">
         <x:v>32</x:v>
@@ -36884,7 +36878,7 @@
     </x:row>
     <x:row r="1224" spans="1:9">
       <x:c r="A1224" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B1224" s="0" t="s">
         <x:v>32</x:v>
@@ -36913,7 +36907,7 @@
     </x:row>
     <x:row r="1225" spans="1:9">
       <x:c r="A1225" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1225" s="0" t="s">
         <x:v>10</x:v>
@@ -36942,7 +36936,7 @@
     </x:row>
     <x:row r="1226" spans="1:9">
       <x:c r="A1226" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1226" s="0" t="s">
         <x:v>10</x:v>
@@ -36971,7 +36965,7 @@
     </x:row>
     <x:row r="1227" spans="1:9">
       <x:c r="A1227" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1227" s="0" t="s">
         <x:v>10</x:v>
@@ -37000,7 +36994,7 @@
     </x:row>
     <x:row r="1228" spans="1:9">
       <x:c r="A1228" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1228" s="0" t="s">
         <x:v>23</x:v>
@@ -37029,7 +37023,7 @@
     </x:row>
     <x:row r="1229" spans="1:9">
       <x:c r="A1229" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1229" s="0" t="s">
         <x:v>23</x:v>
@@ -37058,7 +37052,7 @@
     </x:row>
     <x:row r="1230" spans="1:9">
       <x:c r="A1230" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1230" s="0" t="s">
         <x:v>27</x:v>
@@ -37087,7 +37081,7 @@
     </x:row>
     <x:row r="1231" spans="1:9">
       <x:c r="A1231" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1231" s="0" t="s">
         <x:v>27</x:v>
@@ -37116,7 +37110,7 @@
     </x:row>
     <x:row r="1232" spans="1:9">
       <x:c r="A1232" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1232" s="0" t="s">
         <x:v>27</x:v>
@@ -37145,7 +37139,7 @@
     </x:row>
     <x:row r="1233" spans="1:9">
       <x:c r="A1233" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1233" s="0" t="s">
         <x:v>65</x:v>
@@ -37174,7 +37168,7 @@
     </x:row>
     <x:row r="1234" spans="1:9">
       <x:c r="A1234" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1234" s="0" t="s">
         <x:v>65</x:v>
@@ -37203,7 +37197,7 @@
     </x:row>
     <x:row r="1235" spans="1:9">
       <x:c r="A1235" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1235" s="0" t="s">
         <x:v>65</x:v>
@@ -37232,7 +37226,7 @@
     </x:row>
     <x:row r="1236" spans="1:9">
       <x:c r="A1236" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1236" s="0" t="s">
         <x:v>31</x:v>
@@ -37261,7 +37255,7 @@
     </x:row>
     <x:row r="1237" spans="1:9">
       <x:c r="A1237" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1237" s="0" t="s">
         <x:v>31</x:v>
@@ -37290,7 +37284,7 @@
     </x:row>
     <x:row r="1238" spans="1:9">
       <x:c r="A1238" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1238" s="0" t="s">
         <x:v>32</x:v>
@@ -37319,7 +37313,7 @@
     </x:row>
     <x:row r="1239" spans="1:9">
       <x:c r="A1239" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1239" s="0" t="s">
         <x:v>32</x:v>
@@ -37348,7 +37342,7 @@
     </x:row>
     <x:row r="1240" spans="1:9">
       <x:c r="A1240" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1240" s="0" t="s">
         <x:v>10</x:v>
@@ -37377,7 +37371,7 @@
     </x:row>
     <x:row r="1241" spans="1:9">
       <x:c r="A1241" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1241" s="0" t="s">
         <x:v>10</x:v>
@@ -37406,7 +37400,7 @@
     </x:row>
     <x:row r="1242" spans="1:9">
       <x:c r="A1242" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1242" s="0" t="s">
         <x:v>10</x:v>
@@ -37435,7 +37429,7 @@
     </x:row>
     <x:row r="1243" spans="1:9">
       <x:c r="A1243" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1243" s="0" t="s">
         <x:v>295</x:v>
@@ -37464,7 +37458,7 @@
     </x:row>
     <x:row r="1244" spans="1:9">
       <x:c r="A1244" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1244" s="0" t="s">
         <x:v>295</x:v>
@@ -37493,7 +37487,7 @@
     </x:row>
     <x:row r="1245" spans="1:9">
       <x:c r="A1245" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1245" s="0" t="s">
         <x:v>23</x:v>
@@ -37522,7 +37516,7 @@
     </x:row>
     <x:row r="1246" spans="1:9">
       <x:c r="A1246" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1246" s="0" t="s">
         <x:v>23</x:v>
@@ -37551,7 +37545,7 @@
     </x:row>
     <x:row r="1247" spans="1:9">
       <x:c r="A1247" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1247" s="0" t="s">
         <x:v>23</x:v>
@@ -37580,7 +37574,7 @@
     </x:row>
     <x:row r="1248" spans="1:9">
       <x:c r="A1248" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1248" s="0" t="s">
         <x:v>27</x:v>
@@ -37609,7 +37603,7 @@
     </x:row>
     <x:row r="1249" spans="1:9">
       <x:c r="A1249" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1249" s="0" t="s">
         <x:v>27</x:v>
@@ -37638,7 +37632,7 @@
     </x:row>
     <x:row r="1250" spans="1:9">
       <x:c r="A1250" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1250" s="0" t="s">
         <x:v>27</x:v>
@@ -37667,7 +37661,7 @@
     </x:row>
     <x:row r="1251" spans="1:9">
       <x:c r="A1251" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1251" s="0" t="s">
         <x:v>31</x:v>
@@ -37696,7 +37690,7 @@
     </x:row>
     <x:row r="1252" spans="1:9">
       <x:c r="A1252" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1252" s="0" t="s">
         <x:v>31</x:v>
@@ -37725,7 +37719,7 @@
     </x:row>
     <x:row r="1253" spans="1:9">
       <x:c r="A1253" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1253" s="0" t="s">
         <x:v>31</x:v>
@@ -37754,7 +37748,7 @@
     </x:row>
     <x:row r="1254" spans="1:9">
       <x:c r="A1254" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1254" s="0" t="s">
         <x:v>32</x:v>
@@ -37783,7 +37777,7 @@
     </x:row>
     <x:row r="1255" spans="1:9">
       <x:c r="A1255" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1255" s="0" t="s">
         <x:v>32</x:v>
@@ -37812,7 +37806,7 @@
     </x:row>
     <x:row r="1256" spans="1:9">
       <x:c r="A1256" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1256" s="0" t="s">
         <x:v>10</x:v>
@@ -37841,7 +37835,7 @@
     </x:row>
     <x:row r="1257" spans="1:9">
       <x:c r="A1257" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1257" s="0" t="s">
         <x:v>10</x:v>
@@ -37870,7 +37864,7 @@
     </x:row>
     <x:row r="1258" spans="1:9">
       <x:c r="A1258" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1258" s="0" t="s">
         <x:v>10</x:v>
@@ -37899,7 +37893,7 @@
     </x:row>
     <x:row r="1259" spans="1:9">
       <x:c r="A1259" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1259" s="0" t="s">
         <x:v>23</x:v>
@@ -37928,7 +37922,7 @@
     </x:row>
     <x:row r="1260" spans="1:9">
       <x:c r="A1260" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1260" s="0" t="s">
         <x:v>23</x:v>
@@ -37957,7 +37951,7 @@
     </x:row>
     <x:row r="1261" spans="1:9">
       <x:c r="A1261" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1261" s="0" t="s">
         <x:v>23</x:v>
@@ -37986,7 +37980,7 @@
     </x:row>
     <x:row r="1262" spans="1:9">
       <x:c r="A1262" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1262" s="0" t="s">
         <x:v>27</x:v>
@@ -38015,7 +38009,7 @@
     </x:row>
     <x:row r="1263" spans="1:9">
       <x:c r="A1263" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1263" s="0" t="s">
         <x:v>27</x:v>
@@ -38044,7 +38038,7 @@
     </x:row>
     <x:row r="1264" spans="1:9">
       <x:c r="A1264" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1264" s="0" t="s">
         <x:v>27</x:v>
@@ -38073,7 +38067,7 @@
     </x:row>
     <x:row r="1265" spans="1:9">
       <x:c r="A1265" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1265" s="0" t="s">
         <x:v>31</x:v>
@@ -38102,7 +38096,7 @@
     </x:row>
     <x:row r="1266" spans="1:9">
       <x:c r="A1266" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1266" s="0" t="s">
         <x:v>31</x:v>
@@ -38131,7 +38125,7 @@
     </x:row>
     <x:row r="1267" spans="1:9">
       <x:c r="A1267" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1267" s="0" t="s">
         <x:v>31</x:v>
@@ -38160,7 +38154,7 @@
     </x:row>
     <x:row r="1268" spans="1:9">
       <x:c r="A1268" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1268" s="0" t="s">
         <x:v>32</x:v>
@@ -38189,7 +38183,7 @@
     </x:row>
     <x:row r="1269" spans="1:9">
       <x:c r="A1269" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1269" s="0" t="s">
         <x:v>32</x:v>
@@ -38218,7 +38212,7 @@
     </x:row>
     <x:row r="1270" spans="1:9">
       <x:c r="A1270" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1270" s="0" t="s">
         <x:v>32</x:v>
@@ -38247,7 +38241,7 @@
     </x:row>
     <x:row r="1271" spans="1:9">
       <x:c r="A1271" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1271" s="0" t="s">
         <x:v>10</x:v>
@@ -38268,7 +38262,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="H1271" s="1" t="s">
-        <x:v>331</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="I1271" s="0" t="s">
         <x:v>12</x:v>
@@ -38276,7 +38270,7 @@
     </x:row>
     <x:row r="1272" spans="1:9">
       <x:c r="A1272" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1272" s="0" t="s">
         <x:v>10</x:v>
@@ -38294,10 +38288,10 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="G1272" s="1" t="s">
-        <x:v>332</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="H1272" s="1" t="s">
-        <x:v>333</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="I1272" s="0" t="s">
         <x:v>12</x:v>
@@ -38305,7 +38299,7 @@
     </x:row>
     <x:row r="1273" spans="1:9">
       <x:c r="A1273" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1273" s="0" t="s">
         <x:v>10</x:v>
@@ -38317,16 +38311,16 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E1273" s="1" t="s">
-        <x:v>333</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="F1273" s="1" t="s">
         <x:v>231</x:v>
       </x:c>
       <x:c r="G1273" s="1" t="s">
-        <x:v>334</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="H1273" s="1" t="s">
-        <x:v>335</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="I1273" s="0" t="s">
         <x:v>12</x:v>
@@ -38334,7 +38328,7 @@
     </x:row>
     <x:row r="1274" spans="1:9">
       <x:c r="A1274" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1274" s="0" t="s">
         <x:v>23</x:v>
@@ -38363,7 +38357,7 @@
     </x:row>
     <x:row r="1275" spans="1:9">
       <x:c r="A1275" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1275" s="0" t="s">
         <x:v>23</x:v>
@@ -38392,7 +38386,7 @@
     </x:row>
     <x:row r="1276" spans="1:9">
       <x:c r="A1276" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1276" s="0" t="s">
         <x:v>23</x:v>
@@ -38421,7 +38415,7 @@
     </x:row>
     <x:row r="1277" spans="1:9">
       <x:c r="A1277" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1277" s="0" t="s">
         <x:v>27</x:v>
@@ -38450,7 +38444,7 @@
     </x:row>
     <x:row r="1278" spans="1:9">
       <x:c r="A1278" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1278" s="0" t="s">
         <x:v>27</x:v>
@@ -38479,7 +38473,7 @@
     </x:row>
     <x:row r="1279" spans="1:9">
       <x:c r="A1279" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1279" s="0" t="s">
         <x:v>27</x:v>
@@ -38508,7 +38502,7 @@
     </x:row>
     <x:row r="1280" spans="1:9">
       <x:c r="A1280" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1280" s="0" t="s">
         <x:v>65</x:v>
@@ -38537,7 +38531,7 @@
     </x:row>
     <x:row r="1281" spans="1:9">
       <x:c r="A1281" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1281" s="0" t="s">
         <x:v>65</x:v>
@@ -38566,7 +38560,7 @@
     </x:row>
     <x:row r="1282" spans="1:9">
       <x:c r="A1282" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1282" s="0" t="s">
         <x:v>65</x:v>
@@ -38595,7 +38589,7 @@
     </x:row>
     <x:row r="1283" spans="1:9">
       <x:c r="A1283" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1283" s="0" t="s">
         <x:v>31</x:v>
@@ -38624,7 +38618,7 @@
     </x:row>
     <x:row r="1284" spans="1:9">
       <x:c r="A1284" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1284" s="0" t="s">
         <x:v>31</x:v>
@@ -38653,7 +38647,7 @@
     </x:row>
     <x:row r="1285" spans="1:9">
       <x:c r="A1285" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1285" s="0" t="s">
         <x:v>31</x:v>
@@ -38682,7 +38676,7 @@
     </x:row>
     <x:row r="1286" spans="1:9">
       <x:c r="A1286" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1286" s="0" t="s">
         <x:v>32</x:v>
@@ -38711,7 +38705,7 @@
     </x:row>
     <x:row r="1287" spans="1:9">
       <x:c r="A1287" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1287" s="0" t="s">
         <x:v>32</x:v>
@@ -38740,7 +38734,7 @@
     </x:row>
     <x:row r="1288" spans="1:9">
       <x:c r="A1288" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1288" s="0" t="s">
         <x:v>32</x:v>
@@ -38769,7 +38763,7 @@
     </x:row>
     <x:row r="1289" spans="1:9">
       <x:c r="A1289" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="B1289" s="0" t="s">
         <x:v>10</x:v>
@@ -38798,7 +38792,7 @@
     </x:row>
     <x:row r="1290" spans="1:9">
       <x:c r="A1290" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="B1290" s="0" t="s">
         <x:v>10</x:v>
@@ -38807,7 +38801,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D1290" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E1290" s="1" t="s">
         <x:v>12</x:v>
@@ -38827,7 +38821,7 @@
     </x:row>
     <x:row r="1291" spans="1:9">
       <x:c r="A1291" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="B1291" s="0" t="s">
         <x:v>10</x:v>
@@ -38836,7 +38830,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="D1291" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E1291" s="1" t="s">
         <x:v>14</x:v>
@@ -38856,7 +38850,7 @@
     </x:row>
     <x:row r="1292" spans="1:9">
       <x:c r="A1292" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="B1292" s="0" t="s">
         <x:v>23</x:v>
@@ -38885,7 +38879,7 @@
     </x:row>
     <x:row r="1293" spans="1:9">
       <x:c r="A1293" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="B1293" s="0" t="s">
         <x:v>23</x:v>
@@ -38914,7 +38908,7 @@
     </x:row>
     <x:row r="1294" spans="1:9">
       <x:c r="A1294" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="B1294" s="0" t="s">
         <x:v>23</x:v>
@@ -38943,7 +38937,7 @@
     </x:row>
     <x:row r="1295" spans="1:9">
       <x:c r="A1295" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="B1295" s="0" t="s">
         <x:v>27</x:v>
@@ -38972,7 +38966,7 @@
     </x:row>
     <x:row r="1296" spans="1:9">
       <x:c r="A1296" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="B1296" s="0" t="s">
         <x:v>27</x:v>
@@ -38990,7 +38984,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="G1296" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H1296" s="1" t="s">
         <x:v>14</x:v>
@@ -39001,7 +38995,7 @@
     </x:row>
     <x:row r="1297" spans="1:9">
       <x:c r="A1297" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="B1297" s="0" t="s">
         <x:v>27</x:v>
@@ -39019,7 +39013,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="G1297" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="H1297" s="1" t="s">
         <x:v>14</x:v>
@@ -39030,7 +39024,7 @@
     </x:row>
     <x:row r="1298" spans="1:9">
       <x:c r="A1298" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="B1298" s="0" t="s">
         <x:v>31</x:v>
@@ -39059,7 +39053,7 @@
     </x:row>
     <x:row r="1299" spans="1:9">
       <x:c r="A1299" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="B1299" s="0" t="s">
         <x:v>31</x:v>
@@ -39071,7 +39065,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="E1299" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F1299" s="1" t="s">
         <x:v>12</x:v>
@@ -39088,7 +39082,7 @@
     </x:row>
     <x:row r="1300" spans="1:9">
       <x:c r="A1300" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="B1300" s="0" t="s">
         <x:v>31</x:v>
@@ -39100,7 +39094,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="E1300" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F1300" s="1" t="s">
         <x:v>12</x:v>
@@ -39117,7 +39111,7 @@
     </x:row>
     <x:row r="1301" spans="1:9">
       <x:c r="A1301" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="B1301" s="0" t="s">
         <x:v>32</x:v>
@@ -39146,19 +39140,19 @@
     </x:row>
     <x:row r="1302" spans="1:9">
       <x:c r="A1302" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="B1302" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="C1302" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D1302" s="1" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="E1302" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F1302" s="1" t="s">
         <x:v>13</x:v>
@@ -39170,6 +39164,35 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="I1302" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1303" spans="1:9">
+      <x:c r="A1303" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="B1303" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C1303" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D1303" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E1303" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1303" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G1303" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H1303" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="I1303" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
     </x:row>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -535,7 +535,7 @@
     <x:t>530</x:t>
   </x:si>
   <x:si>
-    <x:t>1039</x:t>
+    <x:t>1038</x:t>
   </x:si>
   <x:si>
     <x:t>1001</x:t>
@@ -550,7 +550,7 @@
     <x:t>675</x:t>
   </x:si>
   <x:si>
-    <x:t>1373</x:t>
+    <x:t>1372</x:t>
   </x:si>
   <x:si>
     <x:t>1264</x:t>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -571,7 +571,7 @@
     <x:t>95</x:t>
   </x:si>
   <x:si>
-    <x:t>138</x:t>
+    <x:t>139</x:t>
   </x:si>
   <x:si>
     <x:t>265</x:t>
@@ -589,19 +589,19 @@
     <x:t>633</x:t>
   </x:si>
   <x:si>
-    <x:t>587</x:t>
+    <x:t>588</x:t>
   </x:si>
   <x:si>
     <x:t>337</x:t>
   </x:si>
   <x:si>
-    <x:t>408</x:t>
+    <x:t>409</x:t>
   </x:si>
   <x:si>
     <x:t>898</x:t>
   </x:si>
   <x:si>
-    <x:t>824</x:t>
+    <x:t>825</x:t>
   </x:si>
   <x:si>
     <x:t>474</x:t>
@@ -623,9 +623,6 @@
   </x:si>
   <x:si>
     <x:t>143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>409</x:t>
   </x:si>
   <x:si>
     <x:t>311</x:t>
@@ -944,6 +941,9 @@
   </x:si>
   <x:si>
     <x:t>180</x:t>
+  </x:si>
+  <x:si>
+    <x:t>138</x:t>
   </x:si>
   <x:si>
     <x:t>Drunkenness</x:t>
@@ -13896,10 +13896,10 @@
         <x:v>202</x:v>
       </x:c>
       <x:c r="F431" s="1" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="G431" s="1" t="s">
         <x:v>203</x:v>
-      </x:c>
-      <x:c r="G431" s="1" t="s">
-        <x:v>204</x:v>
       </x:c>
       <x:c r="H431" s="1" t="s">
         <x:v>181</x:v>
@@ -13922,16 +13922,16 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E432" s="1" t="s">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="F432" s="1" t="s">
         <x:v>205</x:v>
       </x:c>
-      <x:c r="F432" s="1" t="s">
+      <x:c r="G432" s="1" t="s">
         <x:v>206</x:v>
       </x:c>
-      <x:c r="G432" s="1" t="s">
+      <x:c r="H432" s="1" t="s">
         <x:v>207</x:v>
-      </x:c>
-      <x:c r="H432" s="1" t="s">
-        <x:v>208</x:v>
       </x:c>
       <x:c r="I432" s="0" t="s">
         <x:v>12</x:v>
@@ -13939,7 +13939,7 @@
     </x:row>
     <x:row r="433" spans="1:9">
       <x:c r="A433" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="B433" s="0" t="s">
         <x:v>10</x:v>
@@ -13968,7 +13968,7 @@
     </x:row>
     <x:row r="434" spans="1:9">
       <x:c r="A434" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="B434" s="0" t="s">
         <x:v>10</x:v>
@@ -13997,7 +13997,7 @@
     </x:row>
     <x:row r="435" spans="1:9">
       <x:c r="A435" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="B435" s="0" t="s">
         <x:v>10</x:v>
@@ -14026,7 +14026,7 @@
     </x:row>
     <x:row r="436" spans="1:9">
       <x:c r="A436" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="B436" s="0" t="s">
         <x:v>23</x:v>
@@ -14055,7 +14055,7 @@
     </x:row>
     <x:row r="437" spans="1:9">
       <x:c r="A437" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="B437" s="0" t="s">
         <x:v>23</x:v>
@@ -14084,7 +14084,7 @@
     </x:row>
     <x:row r="438" spans="1:9">
       <x:c r="A438" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="B438" s="0" t="s">
         <x:v>23</x:v>
@@ -14113,7 +14113,7 @@
     </x:row>
     <x:row r="439" spans="1:9">
       <x:c r="A439" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="B439" s="0" t="s">
         <x:v>27</x:v>
@@ -14142,7 +14142,7 @@
     </x:row>
     <x:row r="440" spans="1:9">
       <x:c r="A440" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="B440" s="0" t="s">
         <x:v>27</x:v>
@@ -14171,7 +14171,7 @@
     </x:row>
     <x:row r="441" spans="1:9">
       <x:c r="A441" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="B441" s="0" t="s">
         <x:v>27</x:v>
@@ -14200,7 +14200,7 @@
     </x:row>
     <x:row r="442" spans="1:9">
       <x:c r="A442" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="B442" s="0" t="s">
         <x:v>31</x:v>
@@ -14229,7 +14229,7 @@
     </x:row>
     <x:row r="443" spans="1:9">
       <x:c r="A443" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="B443" s="0" t="s">
         <x:v>31</x:v>
@@ -14258,7 +14258,7 @@
     </x:row>
     <x:row r="444" spans="1:9">
       <x:c r="A444" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="B444" s="0" t="s">
         <x:v>31</x:v>
@@ -14287,7 +14287,7 @@
     </x:row>
     <x:row r="445" spans="1:9">
       <x:c r="A445" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B445" s="0" t="s">
         <x:v>10</x:v>
@@ -14316,7 +14316,7 @@
     </x:row>
     <x:row r="446" spans="1:9">
       <x:c r="A446" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B446" s="0" t="s">
         <x:v>10</x:v>
@@ -14345,7 +14345,7 @@
     </x:row>
     <x:row r="447" spans="1:9">
       <x:c r="A447" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B447" s="0" t="s">
         <x:v>10</x:v>
@@ -14360,13 +14360,13 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="F447" s="1" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="G447" s="1" t="s">
         <x:v>211</x:v>
       </x:c>
-      <x:c r="G447" s="1" t="s">
+      <x:c r="H447" s="1" t="s">
         <x:v>212</x:v>
-      </x:c>
-      <x:c r="H447" s="1" t="s">
-        <x:v>213</x:v>
       </x:c>
       <x:c r="I447" s="0" t="s">
         <x:v>12</x:v>
@@ -14374,7 +14374,7 @@
     </x:row>
     <x:row r="448" spans="1:9">
       <x:c r="A448" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B448" s="0" t="s">
         <x:v>23</x:v>
@@ -14403,7 +14403,7 @@
     </x:row>
     <x:row r="449" spans="1:9">
       <x:c r="A449" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B449" s="0" t="s">
         <x:v>23</x:v>
@@ -14432,7 +14432,7 @@
     </x:row>
     <x:row r="450" spans="1:9">
       <x:c r="A450" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B450" s="0" t="s">
         <x:v>23</x:v>
@@ -14461,7 +14461,7 @@
     </x:row>
     <x:row r="451" spans="1:9">
       <x:c r="A451" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B451" s="0" t="s">
         <x:v>27</x:v>
@@ -14490,7 +14490,7 @@
     </x:row>
     <x:row r="452" spans="1:9">
       <x:c r="A452" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B452" s="0" t="s">
         <x:v>27</x:v>
@@ -14519,7 +14519,7 @@
     </x:row>
     <x:row r="453" spans="1:9">
       <x:c r="A453" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B453" s="0" t="s">
         <x:v>27</x:v>
@@ -14548,7 +14548,7 @@
     </x:row>
     <x:row r="454" spans="1:9">
       <x:c r="A454" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B454" s="0" t="s">
         <x:v>31</x:v>
@@ -14577,7 +14577,7 @@
     </x:row>
     <x:row r="455" spans="1:9">
       <x:c r="A455" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B455" s="0" t="s">
         <x:v>31</x:v>
@@ -14606,7 +14606,7 @@
     </x:row>
     <x:row r="456" spans="1:9">
       <x:c r="A456" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B456" s="0" t="s">
         <x:v>31</x:v>
@@ -14635,7 +14635,7 @@
     </x:row>
     <x:row r="457" spans="1:9">
       <x:c r="A457" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B457" s="0" t="s">
         <x:v>32</x:v>
@@ -14664,7 +14664,7 @@
     </x:row>
     <x:row r="458" spans="1:9">
       <x:c r="A458" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B458" s="0" t="s">
         <x:v>32</x:v>
@@ -14693,7 +14693,7 @@
     </x:row>
     <x:row r="459" spans="1:9">
       <x:c r="A459" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B459" s="0" t="s">
         <x:v>32</x:v>
@@ -14722,7 +14722,7 @@
     </x:row>
     <x:row r="460" spans="1:9">
       <x:c r="A460" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B460" s="0" t="s">
         <x:v>10</x:v>
@@ -14751,7 +14751,7 @@
     </x:row>
     <x:row r="461" spans="1:9">
       <x:c r="A461" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B461" s="0" t="s">
         <x:v>10</x:v>
@@ -14780,7 +14780,7 @@
     </x:row>
     <x:row r="462" spans="1:9">
       <x:c r="A462" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B462" s="0" t="s">
         <x:v>10</x:v>
@@ -14809,7 +14809,7 @@
     </x:row>
     <x:row r="463" spans="1:9">
       <x:c r="A463" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B463" s="0" t="s">
         <x:v>23</x:v>
@@ -14838,7 +14838,7 @@
     </x:row>
     <x:row r="464" spans="1:9">
       <x:c r="A464" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B464" s="0" t="s">
         <x:v>23</x:v>
@@ -14867,7 +14867,7 @@
     </x:row>
     <x:row r="465" spans="1:9">
       <x:c r="A465" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B465" s="0" t="s">
         <x:v>23</x:v>
@@ -14896,7 +14896,7 @@
     </x:row>
     <x:row r="466" spans="1:9">
       <x:c r="A466" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B466" s="0" t="s">
         <x:v>27</x:v>
@@ -14925,7 +14925,7 @@
     </x:row>
     <x:row r="467" spans="1:9">
       <x:c r="A467" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B467" s="0" t="s">
         <x:v>27</x:v>
@@ -14954,7 +14954,7 @@
     </x:row>
     <x:row r="468" spans="1:9">
       <x:c r="A468" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B468" s="0" t="s">
         <x:v>27</x:v>
@@ -14983,7 +14983,7 @@
     </x:row>
     <x:row r="469" spans="1:9">
       <x:c r="A469" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B469" s="0" t="s">
         <x:v>31</x:v>
@@ -15012,7 +15012,7 @@
     </x:row>
     <x:row r="470" spans="1:9">
       <x:c r="A470" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B470" s="0" t="s">
         <x:v>31</x:v>
@@ -15041,7 +15041,7 @@
     </x:row>
     <x:row r="471" spans="1:9">
       <x:c r="A471" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B471" s="0" t="s">
         <x:v>31</x:v>
@@ -15070,7 +15070,7 @@
     </x:row>
     <x:row r="472" spans="1:9">
       <x:c r="A472" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B472" s="0" t="s">
         <x:v>32</x:v>
@@ -15099,7 +15099,7 @@
     </x:row>
     <x:row r="473" spans="1:9">
       <x:c r="A473" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B473" s="0" t="s">
         <x:v>32</x:v>
@@ -15128,7 +15128,7 @@
     </x:row>
     <x:row r="474" spans="1:9">
       <x:c r="A474" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B474" s="0" t="s">
         <x:v>32</x:v>
@@ -15157,7 +15157,7 @@
     </x:row>
     <x:row r="475" spans="1:9">
       <x:c r="A475" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="B475" s="0" t="s">
         <x:v>10</x:v>
@@ -15186,7 +15186,7 @@
     </x:row>
     <x:row r="476" spans="1:9">
       <x:c r="A476" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="B476" s="0" t="s">
         <x:v>10</x:v>
@@ -15215,7 +15215,7 @@
     </x:row>
     <x:row r="477" spans="1:9">
       <x:c r="A477" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="B477" s="0" t="s">
         <x:v>10</x:v>
@@ -15244,7 +15244,7 @@
     </x:row>
     <x:row r="478" spans="1:9">
       <x:c r="A478" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="B478" s="0" t="s">
         <x:v>23</x:v>
@@ -15273,7 +15273,7 @@
     </x:row>
     <x:row r="479" spans="1:9">
       <x:c r="A479" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="B479" s="0" t="s">
         <x:v>23</x:v>
@@ -15302,7 +15302,7 @@
     </x:row>
     <x:row r="480" spans="1:9">
       <x:c r="A480" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="B480" s="0" t="s">
         <x:v>23</x:v>
@@ -15331,7 +15331,7 @@
     </x:row>
     <x:row r="481" spans="1:9">
       <x:c r="A481" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="B481" s="0" t="s">
         <x:v>27</x:v>
@@ -15360,7 +15360,7 @@
     </x:row>
     <x:row r="482" spans="1:9">
       <x:c r="A482" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="B482" s="0" t="s">
         <x:v>27</x:v>
@@ -15389,7 +15389,7 @@
     </x:row>
     <x:row r="483" spans="1:9">
       <x:c r="A483" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="B483" s="0" t="s">
         <x:v>27</x:v>
@@ -15418,7 +15418,7 @@
     </x:row>
     <x:row r="484" spans="1:9">
       <x:c r="A484" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="B484" s="0" t="s">
         <x:v>32</x:v>
@@ -15447,7 +15447,7 @@
     </x:row>
     <x:row r="485" spans="1:9">
       <x:c r="A485" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="B485" s="0" t="s">
         <x:v>32</x:v>
@@ -15476,7 +15476,7 @@
     </x:row>
     <x:row r="486" spans="1:9">
       <x:c r="A486" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="B486" s="0" t="s">
         <x:v>32</x:v>
@@ -15505,7 +15505,7 @@
     </x:row>
     <x:row r="487" spans="1:9">
       <x:c r="A487" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="B487" s="0" t="s">
         <x:v>10</x:v>
@@ -15534,7 +15534,7 @@
     </x:row>
     <x:row r="488" spans="1:9">
       <x:c r="A488" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="B488" s="0" t="s">
         <x:v>10</x:v>
@@ -15563,7 +15563,7 @@
     </x:row>
     <x:row r="489" spans="1:9">
       <x:c r="A489" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="B489" s="0" t="s">
         <x:v>10</x:v>
@@ -15592,7 +15592,7 @@
     </x:row>
     <x:row r="490" spans="1:9">
       <x:c r="A490" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="B490" s="0" t="s">
         <x:v>23</x:v>
@@ -15621,7 +15621,7 @@
     </x:row>
     <x:row r="491" spans="1:9">
       <x:c r="A491" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="B491" s="0" t="s">
         <x:v>23</x:v>
@@ -15650,7 +15650,7 @@
     </x:row>
     <x:row r="492" spans="1:9">
       <x:c r="A492" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="B492" s="0" t="s">
         <x:v>27</x:v>
@@ -15679,7 +15679,7 @@
     </x:row>
     <x:row r="493" spans="1:9">
       <x:c r="A493" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="B493" s="0" t="s">
         <x:v>27</x:v>
@@ -15708,7 +15708,7 @@
     </x:row>
     <x:row r="494" spans="1:9">
       <x:c r="A494" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="B494" s="0" t="s">
         <x:v>27</x:v>
@@ -15737,7 +15737,7 @@
     </x:row>
     <x:row r="495" spans="1:9">
       <x:c r="A495" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B495" s="0" t="s">
         <x:v>10</x:v>
@@ -15766,7 +15766,7 @@
     </x:row>
     <x:row r="496" spans="1:9">
       <x:c r="A496" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B496" s="0" t="s">
         <x:v>10</x:v>
@@ -15795,7 +15795,7 @@
     </x:row>
     <x:row r="497" spans="1:9">
       <x:c r="A497" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B497" s="0" t="s">
         <x:v>10</x:v>
@@ -15824,7 +15824,7 @@
     </x:row>
     <x:row r="498" spans="1:9">
       <x:c r="A498" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B498" s="0" t="s">
         <x:v>27</x:v>
@@ -15853,7 +15853,7 @@
     </x:row>
     <x:row r="499" spans="1:9">
       <x:c r="A499" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B499" s="0" t="s">
         <x:v>27</x:v>
@@ -15882,7 +15882,7 @@
     </x:row>
     <x:row r="500" spans="1:9">
       <x:c r="A500" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B500" s="0" t="s">
         <x:v>27</x:v>
@@ -15911,7 +15911,7 @@
     </x:row>
     <x:row r="501" spans="1:9">
       <x:c r="A501" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B501" s="0" t="s">
         <x:v>10</x:v>
@@ -15940,7 +15940,7 @@
     </x:row>
     <x:row r="502" spans="1:9">
       <x:c r="A502" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B502" s="0" t="s">
         <x:v>10</x:v>
@@ -15969,7 +15969,7 @@
     </x:row>
     <x:row r="503" spans="1:9">
       <x:c r="A503" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B503" s="0" t="s">
         <x:v>10</x:v>
@@ -15998,7 +15998,7 @@
     </x:row>
     <x:row r="504" spans="1:9">
       <x:c r="A504" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B504" s="0" t="s">
         <x:v>47</x:v>
@@ -16027,7 +16027,7 @@
     </x:row>
     <x:row r="505" spans="1:9">
       <x:c r="A505" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B505" s="0" t="s">
         <x:v>47</x:v>
@@ -16056,7 +16056,7 @@
     </x:row>
     <x:row r="506" spans="1:9">
       <x:c r="A506" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B506" s="0" t="s">
         <x:v>23</x:v>
@@ -16085,7 +16085,7 @@
     </x:row>
     <x:row r="507" spans="1:9">
       <x:c r="A507" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B507" s="0" t="s">
         <x:v>23</x:v>
@@ -16114,7 +16114,7 @@
     </x:row>
     <x:row r="508" spans="1:9">
       <x:c r="A508" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B508" s="0" t="s">
         <x:v>23</x:v>
@@ -16143,7 +16143,7 @@
     </x:row>
     <x:row r="509" spans="1:9">
       <x:c r="A509" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B509" s="0" t="s">
         <x:v>27</x:v>
@@ -16172,7 +16172,7 @@
     </x:row>
     <x:row r="510" spans="1:9">
       <x:c r="A510" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B510" s="0" t="s">
         <x:v>27</x:v>
@@ -16201,7 +16201,7 @@
     </x:row>
     <x:row r="511" spans="1:9">
       <x:c r="A511" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B511" s="0" t="s">
         <x:v>27</x:v>
@@ -16230,7 +16230,7 @@
     </x:row>
     <x:row r="512" spans="1:9">
       <x:c r="A512" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B512" s="0" t="s">
         <x:v>31</x:v>
@@ -16259,7 +16259,7 @@
     </x:row>
     <x:row r="513" spans="1:9">
       <x:c r="A513" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B513" s="0" t="s">
         <x:v>31</x:v>
@@ -16288,7 +16288,7 @@
     </x:row>
     <x:row r="514" spans="1:9">
       <x:c r="A514" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B514" s="0" t="s">
         <x:v>31</x:v>
@@ -16317,7 +16317,7 @@
     </x:row>
     <x:row r="515" spans="1:9">
       <x:c r="A515" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B515" s="0" t="s">
         <x:v>32</x:v>
@@ -16346,7 +16346,7 @@
     </x:row>
     <x:row r="516" spans="1:9">
       <x:c r="A516" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B516" s="0" t="s">
         <x:v>32</x:v>
@@ -16375,7 +16375,7 @@
     </x:row>
     <x:row r="517" spans="1:9">
       <x:c r="A517" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B517" s="0" t="s">
         <x:v>32</x:v>
@@ -16404,7 +16404,7 @@
     </x:row>
     <x:row r="518" spans="1:9">
       <x:c r="A518" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B518" s="0" t="s">
         <x:v>10</x:v>
@@ -16433,7 +16433,7 @@
     </x:row>
     <x:row r="519" spans="1:9">
       <x:c r="A519" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B519" s="0" t="s">
         <x:v>10</x:v>
@@ -16462,7 +16462,7 @@
     </x:row>
     <x:row r="520" spans="1:9">
       <x:c r="A520" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B520" s="0" t="s">
         <x:v>23</x:v>
@@ -16491,7 +16491,7 @@
     </x:row>
     <x:row r="521" spans="1:9">
       <x:c r="A521" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B521" s="0" t="s">
         <x:v>23</x:v>
@@ -16520,7 +16520,7 @@
     </x:row>
     <x:row r="522" spans="1:9">
       <x:c r="A522" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B522" s="0" t="s">
         <x:v>23</x:v>
@@ -16549,7 +16549,7 @@
     </x:row>
     <x:row r="523" spans="1:9">
       <x:c r="A523" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B523" s="0" t="s">
         <x:v>27</x:v>
@@ -16578,7 +16578,7 @@
     </x:row>
     <x:row r="524" spans="1:9">
       <x:c r="A524" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B524" s="0" t="s">
         <x:v>27</x:v>
@@ -16607,7 +16607,7 @@
     </x:row>
     <x:row r="525" spans="1:9">
       <x:c r="A525" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B525" s="0" t="s">
         <x:v>27</x:v>
@@ -16636,7 +16636,7 @@
     </x:row>
     <x:row r="526" spans="1:9">
       <x:c r="A526" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B526" s="0" t="s">
         <x:v>31</x:v>
@@ -16665,7 +16665,7 @@
     </x:row>
     <x:row r="527" spans="1:9">
       <x:c r="A527" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B527" s="0" t="s">
         <x:v>31</x:v>
@@ -16694,7 +16694,7 @@
     </x:row>
     <x:row r="528" spans="1:9">
       <x:c r="A528" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B528" s="0" t="s">
         <x:v>31</x:v>
@@ -16723,7 +16723,7 @@
     </x:row>
     <x:row r="529" spans="1:9">
       <x:c r="A529" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B529" s="0" t="s">
         <x:v>10</x:v>
@@ -16752,7 +16752,7 @@
     </x:row>
     <x:row r="530" spans="1:9">
       <x:c r="A530" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B530" s="0" t="s">
         <x:v>10</x:v>
@@ -16781,7 +16781,7 @@
     </x:row>
     <x:row r="531" spans="1:9">
       <x:c r="A531" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B531" s="0" t="s">
         <x:v>10</x:v>
@@ -16810,7 +16810,7 @@
     </x:row>
     <x:row r="532" spans="1:9">
       <x:c r="A532" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B532" s="0" t="s">
         <x:v>23</x:v>
@@ -16839,7 +16839,7 @@
     </x:row>
     <x:row r="533" spans="1:9">
       <x:c r="A533" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B533" s="0" t="s">
         <x:v>23</x:v>
@@ -16868,7 +16868,7 @@
     </x:row>
     <x:row r="534" spans="1:9">
       <x:c r="A534" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B534" s="0" t="s">
         <x:v>23</x:v>
@@ -16897,7 +16897,7 @@
     </x:row>
     <x:row r="535" spans="1:9">
       <x:c r="A535" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B535" s="0" t="s">
         <x:v>27</x:v>
@@ -16926,7 +16926,7 @@
     </x:row>
     <x:row r="536" spans="1:9">
       <x:c r="A536" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B536" s="0" t="s">
         <x:v>27</x:v>
@@ -16955,7 +16955,7 @@
     </x:row>
     <x:row r="537" spans="1:9">
       <x:c r="A537" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B537" s="0" t="s">
         <x:v>27</x:v>
@@ -16984,7 +16984,7 @@
     </x:row>
     <x:row r="538" spans="1:9">
       <x:c r="A538" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B538" s="0" t="s">
         <x:v>31</x:v>
@@ -17013,7 +17013,7 @@
     </x:row>
     <x:row r="539" spans="1:9">
       <x:c r="A539" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B539" s="0" t="s">
         <x:v>31</x:v>
@@ -17042,7 +17042,7 @@
     </x:row>
     <x:row r="540" spans="1:9">
       <x:c r="A540" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B540" s="0" t="s">
         <x:v>32</x:v>
@@ -17071,7 +17071,7 @@
     </x:row>
     <x:row r="541" spans="1:9">
       <x:c r="A541" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B541" s="0" t="s">
         <x:v>32</x:v>
@@ -17100,7 +17100,7 @@
     </x:row>
     <x:row r="542" spans="1:9">
       <x:c r="A542" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B542" s="0" t="s">
         <x:v>10</x:v>
@@ -17129,7 +17129,7 @@
     </x:row>
     <x:row r="543" spans="1:9">
       <x:c r="A543" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B543" s="0" t="s">
         <x:v>10</x:v>
@@ -17158,7 +17158,7 @@
     </x:row>
     <x:row r="544" spans="1:9">
       <x:c r="A544" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B544" s="0" t="s">
         <x:v>10</x:v>
@@ -17187,7 +17187,7 @@
     </x:row>
     <x:row r="545" spans="1:9">
       <x:c r="A545" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B545" s="0" t="s">
         <x:v>27</x:v>
@@ -17216,7 +17216,7 @@
     </x:row>
     <x:row r="546" spans="1:9">
       <x:c r="A546" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B546" s="0" t="s">
         <x:v>27</x:v>
@@ -17245,7 +17245,7 @@
     </x:row>
     <x:row r="547" spans="1:9">
       <x:c r="A547" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B547" s="0" t="s">
         <x:v>27</x:v>
@@ -17274,7 +17274,7 @@
     </x:row>
     <x:row r="548" spans="1:9">
       <x:c r="A548" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B548" s="0" t="s">
         <x:v>10</x:v>
@@ -17303,7 +17303,7 @@
     </x:row>
     <x:row r="549" spans="1:9">
       <x:c r="A549" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B549" s="0" t="s">
         <x:v>10</x:v>
@@ -17332,7 +17332,7 @@
     </x:row>
     <x:row r="550" spans="1:9">
       <x:c r="A550" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B550" s="0" t="s">
         <x:v>10</x:v>
@@ -17361,7 +17361,7 @@
     </x:row>
     <x:row r="551" spans="1:9">
       <x:c r="A551" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B551" s="0" t="s">
         <x:v>23</x:v>
@@ -17390,7 +17390,7 @@
     </x:row>
     <x:row r="552" spans="1:9">
       <x:c r="A552" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B552" s="0" t="s">
         <x:v>23</x:v>
@@ -17419,7 +17419,7 @@
     </x:row>
     <x:row r="553" spans="1:9">
       <x:c r="A553" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B553" s="0" t="s">
         <x:v>27</x:v>
@@ -17448,7 +17448,7 @@
     </x:row>
     <x:row r="554" spans="1:9">
       <x:c r="A554" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B554" s="0" t="s">
         <x:v>27</x:v>
@@ -17477,7 +17477,7 @@
     </x:row>
     <x:row r="555" spans="1:9">
       <x:c r="A555" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B555" s="0" t="s">
         <x:v>27</x:v>
@@ -17506,7 +17506,7 @@
     </x:row>
     <x:row r="556" spans="1:9">
       <x:c r="A556" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B556" s="0" t="s">
         <x:v>65</x:v>
@@ -17535,7 +17535,7 @@
     </x:row>
     <x:row r="557" spans="1:9">
       <x:c r="A557" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B557" s="0" t="s">
         <x:v>65</x:v>
@@ -17564,7 +17564,7 @@
     </x:row>
     <x:row r="558" spans="1:9">
       <x:c r="A558" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B558" s="0" t="s">
         <x:v>32</x:v>
@@ -17593,7 +17593,7 @@
     </x:row>
     <x:row r="559" spans="1:9">
       <x:c r="A559" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B559" s="0" t="s">
         <x:v>32</x:v>
@@ -17622,7 +17622,7 @@
     </x:row>
     <x:row r="560" spans="1:9">
       <x:c r="A560" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B560" s="0" t="s">
         <x:v>32</x:v>
@@ -17651,7 +17651,7 @@
     </x:row>
     <x:row r="561" spans="1:9">
       <x:c r="A561" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B561" s="0" t="s">
         <x:v>10</x:v>
@@ -17680,7 +17680,7 @@
     </x:row>
     <x:row r="562" spans="1:9">
       <x:c r="A562" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B562" s="0" t="s">
         <x:v>10</x:v>
@@ -17709,7 +17709,7 @@
     </x:row>
     <x:row r="563" spans="1:9">
       <x:c r="A563" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B563" s="0" t="s">
         <x:v>10</x:v>
@@ -17738,7 +17738,7 @@
     </x:row>
     <x:row r="564" spans="1:9">
       <x:c r="A564" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B564" s="0" t="s">
         <x:v>23</x:v>
@@ -17767,7 +17767,7 @@
     </x:row>
     <x:row r="565" spans="1:9">
       <x:c r="A565" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B565" s="0" t="s">
         <x:v>23</x:v>
@@ -17796,7 +17796,7 @@
     </x:row>
     <x:row r="566" spans="1:9">
       <x:c r="A566" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B566" s="0" t="s">
         <x:v>23</x:v>
@@ -17825,7 +17825,7 @@
     </x:row>
     <x:row r="567" spans="1:9">
       <x:c r="A567" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B567" s="0" t="s">
         <x:v>27</x:v>
@@ -17854,7 +17854,7 @@
     </x:row>
     <x:row r="568" spans="1:9">
       <x:c r="A568" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B568" s="0" t="s">
         <x:v>27</x:v>
@@ -17883,7 +17883,7 @@
     </x:row>
     <x:row r="569" spans="1:9">
       <x:c r="A569" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B569" s="0" t="s">
         <x:v>27</x:v>
@@ -17912,7 +17912,7 @@
     </x:row>
     <x:row r="570" spans="1:9">
       <x:c r="A570" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B570" s="0" t="s">
         <x:v>65</x:v>
@@ -17941,7 +17941,7 @@
     </x:row>
     <x:row r="571" spans="1:9">
       <x:c r="A571" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B571" s="0" t="s">
         <x:v>65</x:v>
@@ -17970,7 +17970,7 @@
     </x:row>
     <x:row r="572" spans="1:9">
       <x:c r="A572" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B572" s="0" t="s">
         <x:v>31</x:v>
@@ -17999,7 +17999,7 @@
     </x:row>
     <x:row r="573" spans="1:9">
       <x:c r="A573" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B573" s="0" t="s">
         <x:v>31</x:v>
@@ -18028,7 +18028,7 @@
     </x:row>
     <x:row r="574" spans="1:9">
       <x:c r="A574" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B574" s="0" t="s">
         <x:v>31</x:v>
@@ -18057,7 +18057,7 @@
     </x:row>
     <x:row r="575" spans="1:9">
       <x:c r="A575" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B575" s="0" t="s">
         <x:v>32</x:v>
@@ -18086,7 +18086,7 @@
     </x:row>
     <x:row r="576" spans="1:9">
       <x:c r="A576" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B576" s="0" t="s">
         <x:v>32</x:v>
@@ -18115,7 +18115,7 @@
     </x:row>
     <x:row r="577" spans="1:9">
       <x:c r="A577" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B577" s="0" t="s">
         <x:v>32</x:v>
@@ -18144,7 +18144,7 @@
     </x:row>
     <x:row r="578" spans="1:9">
       <x:c r="A578" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B578" s="0" t="s">
         <x:v>10</x:v>
@@ -18173,7 +18173,7 @@
     </x:row>
     <x:row r="579" spans="1:9">
       <x:c r="A579" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B579" s="0" t="s">
         <x:v>10</x:v>
@@ -18202,7 +18202,7 @@
     </x:row>
     <x:row r="580" spans="1:9">
       <x:c r="A580" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B580" s="0" t="s">
         <x:v>27</x:v>
@@ -18231,7 +18231,7 @@
     </x:row>
     <x:row r="581" spans="1:9">
       <x:c r="A581" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B581" s="0" t="s">
         <x:v>27</x:v>
@@ -18260,7 +18260,7 @@
     </x:row>
     <x:row r="582" spans="1:9">
       <x:c r="A582" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B582" s="0" t="s">
         <x:v>27</x:v>
@@ -18289,7 +18289,7 @@
     </x:row>
     <x:row r="583" spans="1:9">
       <x:c r="A583" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B583" s="0" t="s">
         <x:v>10</x:v>
@@ -18318,7 +18318,7 @@
     </x:row>
     <x:row r="584" spans="1:9">
       <x:c r="A584" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B584" s="0" t="s">
         <x:v>10</x:v>
@@ -18347,7 +18347,7 @@
     </x:row>
     <x:row r="585" spans="1:9">
       <x:c r="A585" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B585" s="0" t="s">
         <x:v>10</x:v>
@@ -18376,7 +18376,7 @@
     </x:row>
     <x:row r="586" spans="1:9">
       <x:c r="A586" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B586" s="0" t="s">
         <x:v>23</x:v>
@@ -18405,7 +18405,7 @@
     </x:row>
     <x:row r="587" spans="1:9">
       <x:c r="A587" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B587" s="0" t="s">
         <x:v>23</x:v>
@@ -18434,7 +18434,7 @@
     </x:row>
     <x:row r="588" spans="1:9">
       <x:c r="A588" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B588" s="0" t="s">
         <x:v>23</x:v>
@@ -18463,7 +18463,7 @@
     </x:row>
     <x:row r="589" spans="1:9">
       <x:c r="A589" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B589" s="0" t="s">
         <x:v>27</x:v>
@@ -18492,7 +18492,7 @@
     </x:row>
     <x:row r="590" spans="1:9">
       <x:c r="A590" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B590" s="0" t="s">
         <x:v>27</x:v>
@@ -18521,7 +18521,7 @@
     </x:row>
     <x:row r="591" spans="1:9">
       <x:c r="A591" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B591" s="0" t="s">
         <x:v>27</x:v>
@@ -18550,7 +18550,7 @@
     </x:row>
     <x:row r="592" spans="1:9">
       <x:c r="A592" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B592" s="0" t="s">
         <x:v>65</x:v>
@@ -18579,7 +18579,7 @@
     </x:row>
     <x:row r="593" spans="1:9">
       <x:c r="A593" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B593" s="0" t="s">
         <x:v>65</x:v>
@@ -18608,7 +18608,7 @@
     </x:row>
     <x:row r="594" spans="1:9">
       <x:c r="A594" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B594" s="0" t="s">
         <x:v>65</x:v>
@@ -18637,7 +18637,7 @@
     </x:row>
     <x:row r="595" spans="1:9">
       <x:c r="A595" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B595" s="0" t="s">
         <x:v>31</x:v>
@@ -18666,7 +18666,7 @@
     </x:row>
     <x:row r="596" spans="1:9">
       <x:c r="A596" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B596" s="0" t="s">
         <x:v>31</x:v>
@@ -18695,7 +18695,7 @@
     </x:row>
     <x:row r="597" spans="1:9">
       <x:c r="A597" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B597" s="0" t="s">
         <x:v>31</x:v>
@@ -18724,7 +18724,7 @@
     </x:row>
     <x:row r="598" spans="1:9">
       <x:c r="A598" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B598" s="0" t="s">
         <x:v>32</x:v>
@@ -18753,7 +18753,7 @@
     </x:row>
     <x:row r="599" spans="1:9">
       <x:c r="A599" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B599" s="0" t="s">
         <x:v>32</x:v>
@@ -18782,7 +18782,7 @@
     </x:row>
     <x:row r="600" spans="1:9">
       <x:c r="A600" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B600" s="0" t="s">
         <x:v>32</x:v>
@@ -18811,7 +18811,7 @@
     </x:row>
     <x:row r="601" spans="1:9">
       <x:c r="A601" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B601" s="0" t="s">
         <x:v>10</x:v>
@@ -18840,7 +18840,7 @@
     </x:row>
     <x:row r="602" spans="1:9">
       <x:c r="A602" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B602" s="0" t="s">
         <x:v>10</x:v>
@@ -18869,7 +18869,7 @@
     </x:row>
     <x:row r="603" spans="1:9">
       <x:c r="A603" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B603" s="0" t="s">
         <x:v>10</x:v>
@@ -18898,7 +18898,7 @@
     </x:row>
     <x:row r="604" spans="1:9">
       <x:c r="A604" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B604" s="0" t="s">
         <x:v>23</x:v>
@@ -18927,7 +18927,7 @@
     </x:row>
     <x:row r="605" spans="1:9">
       <x:c r="A605" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B605" s="0" t="s">
         <x:v>23</x:v>
@@ -18956,7 +18956,7 @@
     </x:row>
     <x:row r="606" spans="1:9">
       <x:c r="A606" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B606" s="0" t="s">
         <x:v>23</x:v>
@@ -18985,7 +18985,7 @@
     </x:row>
     <x:row r="607" spans="1:9">
       <x:c r="A607" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B607" s="0" t="s">
         <x:v>27</x:v>
@@ -19014,7 +19014,7 @@
     </x:row>
     <x:row r="608" spans="1:9">
       <x:c r="A608" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B608" s="0" t="s">
         <x:v>27</x:v>
@@ -19043,7 +19043,7 @@
     </x:row>
     <x:row r="609" spans="1:9">
       <x:c r="A609" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B609" s="0" t="s">
         <x:v>27</x:v>
@@ -19072,7 +19072,7 @@
     </x:row>
     <x:row r="610" spans="1:9">
       <x:c r="A610" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B610" s="0" t="s">
         <x:v>32</x:v>
@@ -19101,7 +19101,7 @@
     </x:row>
     <x:row r="611" spans="1:9">
       <x:c r="A611" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B611" s="0" t="s">
         <x:v>32</x:v>
@@ -19130,7 +19130,7 @@
     </x:row>
     <x:row r="612" spans="1:9">
       <x:c r="A612" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="B612" s="0" t="s">
         <x:v>10</x:v>
@@ -19159,7 +19159,7 @@
     </x:row>
     <x:row r="613" spans="1:9">
       <x:c r="A613" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="B613" s="0" t="s">
         <x:v>10</x:v>
@@ -19188,7 +19188,7 @@
     </x:row>
     <x:row r="614" spans="1:9">
       <x:c r="A614" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="B614" s="0" t="s">
         <x:v>10</x:v>
@@ -19217,7 +19217,7 @@
     </x:row>
     <x:row r="615" spans="1:9">
       <x:c r="A615" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="B615" s="0" t="s">
         <x:v>27</x:v>
@@ -19246,7 +19246,7 @@
     </x:row>
     <x:row r="616" spans="1:9">
       <x:c r="A616" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="B616" s="0" t="s">
         <x:v>27</x:v>
@@ -19275,7 +19275,7 @@
     </x:row>
     <x:row r="617" spans="1:9">
       <x:c r="A617" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B617" s="0" t="s">
         <x:v>10</x:v>
@@ -19304,7 +19304,7 @@
     </x:row>
     <x:row r="618" spans="1:9">
       <x:c r="A618" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B618" s="0" t="s">
         <x:v>10</x:v>
@@ -19333,7 +19333,7 @@
     </x:row>
     <x:row r="619" spans="1:9">
       <x:c r="A619" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B619" s="0" t="s">
         <x:v>10</x:v>
@@ -19362,7 +19362,7 @@
     </x:row>
     <x:row r="620" spans="1:9">
       <x:c r="A620" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B620" s="0" t="s">
         <x:v>23</x:v>
@@ -19391,7 +19391,7 @@
     </x:row>
     <x:row r="621" spans="1:9">
       <x:c r="A621" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B621" s="0" t="s">
         <x:v>23</x:v>
@@ -19420,7 +19420,7 @@
     </x:row>
     <x:row r="622" spans="1:9">
       <x:c r="A622" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B622" s="0" t="s">
         <x:v>23</x:v>
@@ -19449,7 +19449,7 @@
     </x:row>
     <x:row r="623" spans="1:9">
       <x:c r="A623" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B623" s="0" t="s">
         <x:v>27</x:v>
@@ -19478,7 +19478,7 @@
     </x:row>
     <x:row r="624" spans="1:9">
       <x:c r="A624" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B624" s="0" t="s">
         <x:v>27</x:v>
@@ -19507,7 +19507,7 @@
     </x:row>
     <x:row r="625" spans="1:9">
       <x:c r="A625" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B625" s="0" t="s">
         <x:v>27</x:v>
@@ -19536,7 +19536,7 @@
     </x:row>
     <x:row r="626" spans="1:9">
       <x:c r="A626" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B626" s="0" t="s">
         <x:v>65</x:v>
@@ -19565,7 +19565,7 @@
     </x:row>
     <x:row r="627" spans="1:9">
       <x:c r="A627" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B627" s="0" t="s">
         <x:v>65</x:v>
@@ -19594,7 +19594,7 @@
     </x:row>
     <x:row r="628" spans="1:9">
       <x:c r="A628" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B628" s="0" t="s">
         <x:v>31</x:v>
@@ -19623,7 +19623,7 @@
     </x:row>
     <x:row r="629" spans="1:9">
       <x:c r="A629" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B629" s="0" t="s">
         <x:v>31</x:v>
@@ -19652,7 +19652,7 @@
     </x:row>
     <x:row r="630" spans="1:9">
       <x:c r="A630" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B630" s="0" t="s">
         <x:v>31</x:v>
@@ -19681,7 +19681,7 @@
     </x:row>
     <x:row r="631" spans="1:9">
       <x:c r="A631" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B631" s="0" t="s">
         <x:v>32</x:v>
@@ -19710,7 +19710,7 @@
     </x:row>
     <x:row r="632" spans="1:9">
       <x:c r="A632" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B632" s="0" t="s">
         <x:v>32</x:v>
@@ -19739,7 +19739,7 @@
     </x:row>
     <x:row r="633" spans="1:9">
       <x:c r="A633" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B633" s="0" t="s">
         <x:v>10</x:v>
@@ -19768,7 +19768,7 @@
     </x:row>
     <x:row r="634" spans="1:9">
       <x:c r="A634" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B634" s="0" t="s">
         <x:v>10</x:v>
@@ -19789,7 +19789,7 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="H634" s="1" t="s">
-        <x:v>230</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="I634" s="0" t="s">
         <x:v>12</x:v>
@@ -19797,7 +19797,7 @@
     </x:row>
     <x:row r="635" spans="1:9">
       <x:c r="A635" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B635" s="0" t="s">
         <x:v>10</x:v>
@@ -19812,10 +19812,10 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="F635" s="1" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="G635" s="1" t="s">
         <x:v>231</x:v>
-      </x:c>
-      <x:c r="G635" s="1" t="s">
-        <x:v>232</x:v>
       </x:c>
       <x:c r="H635" s="1" t="s">
         <x:v>138</x:v>
@@ -19826,7 +19826,7 @@
     </x:row>
     <x:row r="636" spans="1:9">
       <x:c r="A636" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B636" s="0" t="s">
         <x:v>47</x:v>
@@ -19855,7 +19855,7 @@
     </x:row>
     <x:row r="637" spans="1:9">
       <x:c r="A637" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B637" s="0" t="s">
         <x:v>47</x:v>
@@ -19884,7 +19884,7 @@
     </x:row>
     <x:row r="638" spans="1:9">
       <x:c r="A638" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B638" s="0" t="s">
         <x:v>47</x:v>
@@ -19913,7 +19913,7 @@
     </x:row>
     <x:row r="639" spans="1:9">
       <x:c r="A639" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B639" s="0" t="s">
         <x:v>23</x:v>
@@ -19942,7 +19942,7 @@
     </x:row>
     <x:row r="640" spans="1:9">
       <x:c r="A640" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B640" s="0" t="s">
         <x:v>23</x:v>
@@ -19971,7 +19971,7 @@
     </x:row>
     <x:row r="641" spans="1:9">
       <x:c r="A641" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B641" s="0" t="s">
         <x:v>23</x:v>
@@ -20000,7 +20000,7 @@
     </x:row>
     <x:row r="642" spans="1:9">
       <x:c r="A642" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B642" s="0" t="s">
         <x:v>27</x:v>
@@ -20029,7 +20029,7 @@
     </x:row>
     <x:row r="643" spans="1:9">
       <x:c r="A643" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B643" s="0" t="s">
         <x:v>27</x:v>
@@ -20058,7 +20058,7 @@
     </x:row>
     <x:row r="644" spans="1:9">
       <x:c r="A644" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B644" s="0" t="s">
         <x:v>27</x:v>
@@ -20087,7 +20087,7 @@
     </x:row>
     <x:row r="645" spans="1:9">
       <x:c r="A645" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B645" s="0" t="s">
         <x:v>31</x:v>
@@ -20116,7 +20116,7 @@
     </x:row>
     <x:row r="646" spans="1:9">
       <x:c r="A646" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B646" s="0" t="s">
         <x:v>31</x:v>
@@ -20145,7 +20145,7 @@
     </x:row>
     <x:row r="647" spans="1:9">
       <x:c r="A647" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B647" s="0" t="s">
         <x:v>31</x:v>
@@ -20174,7 +20174,7 @@
     </x:row>
     <x:row r="648" spans="1:9">
       <x:c r="A648" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B648" s="0" t="s">
         <x:v>32</x:v>
@@ -20203,7 +20203,7 @@
     </x:row>
     <x:row r="649" spans="1:9">
       <x:c r="A649" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B649" s="0" t="s">
         <x:v>32</x:v>
@@ -20232,7 +20232,7 @@
     </x:row>
     <x:row r="650" spans="1:9">
       <x:c r="A650" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B650" s="0" t="s">
         <x:v>32</x:v>
@@ -20261,7 +20261,7 @@
     </x:row>
     <x:row r="651" spans="1:9">
       <x:c r="A651" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="B651" s="0" t="s">
         <x:v>10</x:v>
@@ -20290,7 +20290,7 @@
     </x:row>
     <x:row r="652" spans="1:9">
       <x:c r="A652" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="B652" s="0" t="s">
         <x:v>10</x:v>
@@ -20319,7 +20319,7 @@
     </x:row>
     <x:row r="653" spans="1:9">
       <x:c r="A653" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="B653" s="0" t="s">
         <x:v>10</x:v>
@@ -20348,7 +20348,7 @@
     </x:row>
     <x:row r="654" spans="1:9">
       <x:c r="A654" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="B654" s="0" t="s">
         <x:v>23</x:v>
@@ -20377,7 +20377,7 @@
     </x:row>
     <x:row r="655" spans="1:9">
       <x:c r="A655" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="B655" s="0" t="s">
         <x:v>23</x:v>
@@ -20406,7 +20406,7 @@
     </x:row>
     <x:row r="656" spans="1:9">
       <x:c r="A656" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="B656" s="0" t="s">
         <x:v>27</x:v>
@@ -20435,7 +20435,7 @@
     </x:row>
     <x:row r="657" spans="1:9">
       <x:c r="A657" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="B657" s="0" t="s">
         <x:v>27</x:v>
@@ -20464,7 +20464,7 @@
     </x:row>
     <x:row r="658" spans="1:9">
       <x:c r="A658" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="B658" s="0" t="s">
         <x:v>27</x:v>
@@ -20493,7 +20493,7 @@
     </x:row>
     <x:row r="659" spans="1:9">
       <x:c r="A659" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="B659" s="0" t="s">
         <x:v>65</x:v>
@@ -20522,7 +20522,7 @@
     </x:row>
     <x:row r="660" spans="1:9">
       <x:c r="A660" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="B660" s="0" t="s">
         <x:v>65</x:v>
@@ -20551,7 +20551,7 @@
     </x:row>
     <x:row r="661" spans="1:9">
       <x:c r="A661" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B661" s="0" t="s">
         <x:v>10</x:v>
@@ -20580,7 +20580,7 @@
     </x:row>
     <x:row r="662" spans="1:9">
       <x:c r="A662" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B662" s="0" t="s">
         <x:v>10</x:v>
@@ -20609,7 +20609,7 @@
     </x:row>
     <x:row r="663" spans="1:9">
       <x:c r="A663" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B663" s="0" t="s">
         <x:v>10</x:v>
@@ -20624,10 +20624,10 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="F663" s="1" t="s">
-        <x:v>235</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="G663" s="1" t="s">
-        <x:v>213</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="H663" s="1" t="s">
         <x:v>114</x:v>
@@ -20638,7 +20638,7 @@
     </x:row>
     <x:row r="664" spans="1:9">
       <x:c r="A664" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B664" s="0" t="s">
         <x:v>23</x:v>
@@ -20667,7 +20667,7 @@
     </x:row>
     <x:row r="665" spans="1:9">
       <x:c r="A665" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B665" s="0" t="s">
         <x:v>23</x:v>
@@ -20696,7 +20696,7 @@
     </x:row>
     <x:row r="666" spans="1:9">
       <x:c r="A666" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B666" s="0" t="s">
         <x:v>23</x:v>
@@ -20725,7 +20725,7 @@
     </x:row>
     <x:row r="667" spans="1:9">
       <x:c r="A667" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B667" s="0" t="s">
         <x:v>27</x:v>
@@ -20754,7 +20754,7 @@
     </x:row>
     <x:row r="668" spans="1:9">
       <x:c r="A668" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B668" s="0" t="s">
         <x:v>27</x:v>
@@ -20783,7 +20783,7 @@
     </x:row>
     <x:row r="669" spans="1:9">
       <x:c r="A669" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B669" s="0" t="s">
         <x:v>27</x:v>
@@ -20812,7 +20812,7 @@
     </x:row>
     <x:row r="670" spans="1:9">
       <x:c r="A670" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B670" s="0" t="s">
         <x:v>65</x:v>
@@ -20841,7 +20841,7 @@
     </x:row>
     <x:row r="671" spans="1:9">
       <x:c r="A671" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B671" s="0" t="s">
         <x:v>65</x:v>
@@ -20870,7 +20870,7 @@
     </x:row>
     <x:row r="672" spans="1:9">
       <x:c r="A672" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B672" s="0" t="s">
         <x:v>65</x:v>
@@ -20899,7 +20899,7 @@
     </x:row>
     <x:row r="673" spans="1:9">
       <x:c r="A673" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B673" s="0" t="s">
         <x:v>31</x:v>
@@ -20928,7 +20928,7 @@
     </x:row>
     <x:row r="674" spans="1:9">
       <x:c r="A674" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B674" s="0" t="s">
         <x:v>31</x:v>
@@ -20957,7 +20957,7 @@
     </x:row>
     <x:row r="675" spans="1:9">
       <x:c r="A675" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B675" s="0" t="s">
         <x:v>31</x:v>
@@ -20986,7 +20986,7 @@
     </x:row>
     <x:row r="676" spans="1:9">
       <x:c r="A676" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B676" s="0" t="s">
         <x:v>32</x:v>
@@ -21015,7 +21015,7 @@
     </x:row>
     <x:row r="677" spans="1:9">
       <x:c r="A677" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B677" s="0" t="s">
         <x:v>32</x:v>
@@ -21044,7 +21044,7 @@
     </x:row>
     <x:row r="678" spans="1:9">
       <x:c r="A678" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B678" s="0" t="s">
         <x:v>32</x:v>
@@ -21073,7 +21073,7 @@
     </x:row>
     <x:row r="679" spans="1:9">
       <x:c r="A679" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B679" s="0" t="s">
         <x:v>10</x:v>
@@ -21102,7 +21102,7 @@
     </x:row>
     <x:row r="680" spans="1:9">
       <x:c r="A680" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B680" s="0" t="s">
         <x:v>10</x:v>
@@ -21131,7 +21131,7 @@
     </x:row>
     <x:row r="681" spans="1:9">
       <x:c r="A681" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B681" s="0" t="s">
         <x:v>10</x:v>
@@ -21160,7 +21160,7 @@
     </x:row>
     <x:row r="682" spans="1:9">
       <x:c r="A682" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B682" s="0" t="s">
         <x:v>23</x:v>
@@ -21189,7 +21189,7 @@
     </x:row>
     <x:row r="683" spans="1:9">
       <x:c r="A683" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B683" s="0" t="s">
         <x:v>23</x:v>
@@ -21218,7 +21218,7 @@
     </x:row>
     <x:row r="684" spans="1:9">
       <x:c r="A684" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B684" s="0" t="s">
         <x:v>23</x:v>
@@ -21247,7 +21247,7 @@
     </x:row>
     <x:row r="685" spans="1:9">
       <x:c r="A685" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B685" s="0" t="s">
         <x:v>27</x:v>
@@ -21276,7 +21276,7 @@
     </x:row>
     <x:row r="686" spans="1:9">
       <x:c r="A686" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B686" s="0" t="s">
         <x:v>27</x:v>
@@ -21305,7 +21305,7 @@
     </x:row>
     <x:row r="687" spans="1:9">
       <x:c r="A687" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B687" s="0" t="s">
         <x:v>27</x:v>
@@ -21334,7 +21334,7 @@
     </x:row>
     <x:row r="688" spans="1:9">
       <x:c r="A688" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B688" s="0" t="s">
         <x:v>31</x:v>
@@ -21363,7 +21363,7 @@
     </x:row>
     <x:row r="689" spans="1:9">
       <x:c r="A689" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B689" s="0" t="s">
         <x:v>31</x:v>
@@ -21392,7 +21392,7 @@
     </x:row>
     <x:row r="690" spans="1:9">
       <x:c r="A690" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B690" s="0" t="s">
         <x:v>31</x:v>
@@ -21421,7 +21421,7 @@
     </x:row>
     <x:row r="691" spans="1:9">
       <x:c r="A691" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B691" s="0" t="s">
         <x:v>32</x:v>
@@ -21450,7 +21450,7 @@
     </x:row>
     <x:row r="692" spans="1:9">
       <x:c r="A692" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B692" s="0" t="s">
         <x:v>32</x:v>
@@ -21479,7 +21479,7 @@
     </x:row>
     <x:row r="693" spans="1:9">
       <x:c r="A693" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B693" s="0" t="s">
         <x:v>32</x:v>
@@ -21508,7 +21508,7 @@
     </x:row>
     <x:row r="694" spans="1:9">
       <x:c r="A694" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B694" s="0" t="s">
         <x:v>10</x:v>
@@ -21523,7 +21523,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="F694" s="1" t="s">
-        <x:v>230</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="G694" s="1" t="s">
         <x:v>82</x:v>
@@ -21537,7 +21537,7 @@
     </x:row>
     <x:row r="695" spans="1:9">
       <x:c r="A695" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B695" s="0" t="s">
         <x:v>10</x:v>
@@ -21549,10 +21549,10 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E695" s="1" t="s">
+        <x:v>237</x:v>
+      </x:c>
+      <x:c r="F695" s="1" t="s">
         <x:v>238</x:v>
-      </x:c>
-      <x:c r="F695" s="1" t="s">
-        <x:v>239</x:v>
       </x:c>
       <x:c r="G695" s="1" t="s">
         <x:v>62</x:v>
@@ -21566,7 +21566,7 @@
     </x:row>
     <x:row r="696" spans="1:9">
       <x:c r="A696" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B696" s="0" t="s">
         <x:v>10</x:v>
@@ -21578,16 +21578,16 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E696" s="1" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="F696" s="1" t="s">
         <x:v>97</x:v>
       </x:c>
       <x:c r="G696" s="1" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="H696" s="1" t="s">
         <x:v>240</x:v>
-      </x:c>
-      <x:c r="H696" s="1" t="s">
-        <x:v>241</x:v>
       </x:c>
       <x:c r="I696" s="0" t="s">
         <x:v>12</x:v>
@@ -21595,7 +21595,7 @@
     </x:row>
     <x:row r="697" spans="1:9">
       <x:c r="A697" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B697" s="0" t="s">
         <x:v>23</x:v>
@@ -21624,7 +21624,7 @@
     </x:row>
     <x:row r="698" spans="1:9">
       <x:c r="A698" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B698" s="0" t="s">
         <x:v>23</x:v>
@@ -21653,7 +21653,7 @@
     </x:row>
     <x:row r="699" spans="1:9">
       <x:c r="A699" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B699" s="0" t="s">
         <x:v>23</x:v>
@@ -21682,7 +21682,7 @@
     </x:row>
     <x:row r="700" spans="1:9">
       <x:c r="A700" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B700" s="0" t="s">
         <x:v>27</x:v>
@@ -21711,7 +21711,7 @@
     </x:row>
     <x:row r="701" spans="1:9">
       <x:c r="A701" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B701" s="0" t="s">
         <x:v>27</x:v>
@@ -21740,7 +21740,7 @@
     </x:row>
     <x:row r="702" spans="1:9">
       <x:c r="A702" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B702" s="0" t="s">
         <x:v>27</x:v>
@@ -21769,7 +21769,7 @@
     </x:row>
     <x:row r="703" spans="1:9">
       <x:c r="A703" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B703" s="0" t="s">
         <x:v>65</x:v>
@@ -21798,7 +21798,7 @@
     </x:row>
     <x:row r="704" spans="1:9">
       <x:c r="A704" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B704" s="0" t="s">
         <x:v>65</x:v>
@@ -21827,7 +21827,7 @@
     </x:row>
     <x:row r="705" spans="1:9">
       <x:c r="A705" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B705" s="0" t="s">
         <x:v>31</x:v>
@@ -21856,7 +21856,7 @@
     </x:row>
     <x:row r="706" spans="1:9">
       <x:c r="A706" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B706" s="0" t="s">
         <x:v>31</x:v>
@@ -21885,7 +21885,7 @@
     </x:row>
     <x:row r="707" spans="1:9">
       <x:c r="A707" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B707" s="0" t="s">
         <x:v>31</x:v>
@@ -21914,7 +21914,7 @@
     </x:row>
     <x:row r="708" spans="1:9">
       <x:c r="A708" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B708" s="0" t="s">
         <x:v>32</x:v>
@@ -21943,7 +21943,7 @@
     </x:row>
     <x:row r="709" spans="1:9">
       <x:c r="A709" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B709" s="0" t="s">
         <x:v>32</x:v>
@@ -21972,7 +21972,7 @@
     </x:row>
     <x:row r="710" spans="1:9">
       <x:c r="A710" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B710" s="0" t="s">
         <x:v>32</x:v>
@@ -22001,7 +22001,7 @@
     </x:row>
     <x:row r="711" spans="1:9">
       <x:c r="A711" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="B711" s="0" t="s">
         <x:v>10</x:v>
@@ -22030,7 +22030,7 @@
     </x:row>
     <x:row r="712" spans="1:9">
       <x:c r="A712" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="B712" s="0" t="s">
         <x:v>10</x:v>
@@ -22059,7 +22059,7 @@
     </x:row>
     <x:row r="713" spans="1:9">
       <x:c r="A713" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="B713" s="0" t="s">
         <x:v>23</x:v>
@@ -22088,7 +22088,7 @@
     </x:row>
     <x:row r="714" spans="1:9">
       <x:c r="A714" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="B714" s="0" t="s">
         <x:v>23</x:v>
@@ -22117,7 +22117,7 @@
     </x:row>
     <x:row r="715" spans="1:9">
       <x:c r="A715" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="B715" s="0" t="s">
         <x:v>27</x:v>
@@ -22146,7 +22146,7 @@
     </x:row>
     <x:row r="716" spans="1:9">
       <x:c r="A716" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="B716" s="0" t="s">
         <x:v>27</x:v>
@@ -22175,7 +22175,7 @@
     </x:row>
     <x:row r="717" spans="1:9">
       <x:c r="A717" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="B717" s="0" t="s">
         <x:v>27</x:v>
@@ -22204,7 +22204,7 @@
     </x:row>
     <x:row r="718" spans="1:9">
       <x:c r="A718" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="B718" s="0" t="s">
         <x:v>31</x:v>
@@ -22233,7 +22233,7 @@
     </x:row>
     <x:row r="719" spans="1:9">
       <x:c r="A719" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="B719" s="0" t="s">
         <x:v>31</x:v>
@@ -22262,7 +22262,7 @@
     </x:row>
     <x:row r="720" spans="1:9">
       <x:c r="A720" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="B720" s="0" t="s">
         <x:v>31</x:v>
@@ -22291,7 +22291,7 @@
     </x:row>
     <x:row r="721" spans="1:9">
       <x:c r="A721" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="B721" s="0" t="s">
         <x:v>32</x:v>
@@ -22320,7 +22320,7 @@
     </x:row>
     <x:row r="722" spans="1:9">
       <x:c r="A722" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="B722" s="0" t="s">
         <x:v>32</x:v>
@@ -22349,7 +22349,7 @@
     </x:row>
     <x:row r="723" spans="1:9">
       <x:c r="A723" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B723" s="0" t="s">
         <x:v>10</x:v>
@@ -22378,7 +22378,7 @@
     </x:row>
     <x:row r="724" spans="1:9">
       <x:c r="A724" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B724" s="0" t="s">
         <x:v>10</x:v>
@@ -22407,7 +22407,7 @@
     </x:row>
     <x:row r="725" spans="1:9">
       <x:c r="A725" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B725" s="0" t="s">
         <x:v>10</x:v>
@@ -22436,7 +22436,7 @@
     </x:row>
     <x:row r="726" spans="1:9">
       <x:c r="A726" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B726" s="0" t="s">
         <x:v>23</x:v>
@@ -22465,7 +22465,7 @@
     </x:row>
     <x:row r="727" spans="1:9">
       <x:c r="A727" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B727" s="0" t="s">
         <x:v>23</x:v>
@@ -22494,7 +22494,7 @@
     </x:row>
     <x:row r="728" spans="1:9">
       <x:c r="A728" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B728" s="0" t="s">
         <x:v>23</x:v>
@@ -22523,7 +22523,7 @@
     </x:row>
     <x:row r="729" spans="1:9">
       <x:c r="A729" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B729" s="0" t="s">
         <x:v>27</x:v>
@@ -22552,7 +22552,7 @@
     </x:row>
     <x:row r="730" spans="1:9">
       <x:c r="A730" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B730" s="0" t="s">
         <x:v>27</x:v>
@@ -22581,7 +22581,7 @@
     </x:row>
     <x:row r="731" spans="1:9">
       <x:c r="A731" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B731" s="0" t="s">
         <x:v>27</x:v>
@@ -22610,7 +22610,7 @@
     </x:row>
     <x:row r="732" spans="1:9">
       <x:c r="A732" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B732" s="0" t="s">
         <x:v>31</x:v>
@@ -22639,7 +22639,7 @@
     </x:row>
     <x:row r="733" spans="1:9">
       <x:c r="A733" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B733" s="0" t="s">
         <x:v>31</x:v>
@@ -22668,7 +22668,7 @@
     </x:row>
     <x:row r="734" spans="1:9">
       <x:c r="A734" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B734" s="0" t="s">
         <x:v>31</x:v>
@@ -22697,7 +22697,7 @@
     </x:row>
     <x:row r="735" spans="1:9">
       <x:c r="A735" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B735" s="0" t="s">
         <x:v>32</x:v>
@@ -22726,7 +22726,7 @@
     </x:row>
     <x:row r="736" spans="1:9">
       <x:c r="A736" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B736" s="0" t="s">
         <x:v>32</x:v>
@@ -22755,7 +22755,7 @@
     </x:row>
     <x:row r="737" spans="1:9">
       <x:c r="A737" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B737" s="0" t="s">
         <x:v>10</x:v>
@@ -22784,7 +22784,7 @@
     </x:row>
     <x:row r="738" spans="1:9">
       <x:c r="A738" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B738" s="0" t="s">
         <x:v>10</x:v>
@@ -22813,7 +22813,7 @@
     </x:row>
     <x:row r="739" spans="1:9">
       <x:c r="A739" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B739" s="0" t="s">
         <x:v>10</x:v>
@@ -22842,7 +22842,7 @@
     </x:row>
     <x:row r="740" spans="1:9">
       <x:c r="A740" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B740" s="0" t="s">
         <x:v>23</x:v>
@@ -22871,7 +22871,7 @@
     </x:row>
     <x:row r="741" spans="1:9">
       <x:c r="A741" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B741" s="0" t="s">
         <x:v>23</x:v>
@@ -22900,7 +22900,7 @@
     </x:row>
     <x:row r="742" spans="1:9">
       <x:c r="A742" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B742" s="0" t="s">
         <x:v>23</x:v>
@@ -22929,7 +22929,7 @@
     </x:row>
     <x:row r="743" spans="1:9">
       <x:c r="A743" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B743" s="0" t="s">
         <x:v>27</x:v>
@@ -22958,7 +22958,7 @@
     </x:row>
     <x:row r="744" spans="1:9">
       <x:c r="A744" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B744" s="0" t="s">
         <x:v>27</x:v>
@@ -22987,7 +22987,7 @@
     </x:row>
     <x:row r="745" spans="1:9">
       <x:c r="A745" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B745" s="0" t="s">
         <x:v>27</x:v>
@@ -23016,7 +23016,7 @@
     </x:row>
     <x:row r="746" spans="1:9">
       <x:c r="A746" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B746" s="0" t="s">
         <x:v>31</x:v>
@@ -23045,7 +23045,7 @@
     </x:row>
     <x:row r="747" spans="1:9">
       <x:c r="A747" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B747" s="0" t="s">
         <x:v>31</x:v>
@@ -23074,7 +23074,7 @@
     </x:row>
     <x:row r="748" spans="1:9">
       <x:c r="A748" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B748" s="0" t="s">
         <x:v>31</x:v>
@@ -23103,7 +23103,7 @@
     </x:row>
     <x:row r="749" spans="1:9">
       <x:c r="A749" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B749" s="0" t="s">
         <x:v>32</x:v>
@@ -23132,7 +23132,7 @@
     </x:row>
     <x:row r="750" spans="1:9">
       <x:c r="A750" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B750" s="0" t="s">
         <x:v>32</x:v>
@@ -23161,7 +23161,7 @@
     </x:row>
     <x:row r="751" spans="1:9">
       <x:c r="A751" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B751" s="0" t="s">
         <x:v>32</x:v>
@@ -23190,7 +23190,7 @@
     </x:row>
     <x:row r="752" spans="1:9">
       <x:c r="A752" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B752" s="0" t="s">
         <x:v>10</x:v>
@@ -23219,7 +23219,7 @@
     </x:row>
     <x:row r="753" spans="1:9">
       <x:c r="A753" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B753" s="0" t="s">
         <x:v>10</x:v>
@@ -23248,7 +23248,7 @@
     </x:row>
     <x:row r="754" spans="1:9">
       <x:c r="A754" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B754" s="0" t="s">
         <x:v>10</x:v>
@@ -23277,7 +23277,7 @@
     </x:row>
     <x:row r="755" spans="1:9">
       <x:c r="A755" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B755" s="0" t="s">
         <x:v>23</x:v>
@@ -23306,7 +23306,7 @@
     </x:row>
     <x:row r="756" spans="1:9">
       <x:c r="A756" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B756" s="0" t="s">
         <x:v>23</x:v>
@@ -23335,7 +23335,7 @@
     </x:row>
     <x:row r="757" spans="1:9">
       <x:c r="A757" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B757" s="0" t="s">
         <x:v>27</x:v>
@@ -23364,7 +23364,7 @@
     </x:row>
     <x:row r="758" spans="1:9">
       <x:c r="A758" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B758" s="0" t="s">
         <x:v>27</x:v>
@@ -23393,7 +23393,7 @@
     </x:row>
     <x:row r="759" spans="1:9">
       <x:c r="A759" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B759" s="0" t="s">
         <x:v>27</x:v>
@@ -23422,7 +23422,7 @@
     </x:row>
     <x:row r="760" spans="1:9">
       <x:c r="A760" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B760" s="0" t="s">
         <x:v>31</x:v>
@@ -23451,7 +23451,7 @@
     </x:row>
     <x:row r="761" spans="1:9">
       <x:c r="A761" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B761" s="0" t="s">
         <x:v>31</x:v>
@@ -23480,7 +23480,7 @@
     </x:row>
     <x:row r="762" spans="1:9">
       <x:c r="A762" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B762" s="0" t="s">
         <x:v>31</x:v>
@@ -23509,7 +23509,7 @@
     </x:row>
     <x:row r="763" spans="1:9">
       <x:c r="A763" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B763" s="0" t="s">
         <x:v>10</x:v>
@@ -23524,7 +23524,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="F763" s="1" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="G763" s="1" t="s">
         <x:v>46</x:v>
@@ -23538,7 +23538,7 @@
     </x:row>
     <x:row r="764" spans="1:9">
       <x:c r="A764" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B764" s="0" t="s">
         <x:v>10</x:v>
@@ -23553,7 +23553,7 @@
         <x:v>150</x:v>
       </x:c>
       <x:c r="F764" s="1" t="s">
-        <x:v>248</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="G764" s="1" t="s">
         <x:v>145</x:v>
@@ -23567,7 +23567,7 @@
     </x:row>
     <x:row r="765" spans="1:9">
       <x:c r="A765" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B765" s="0" t="s">
         <x:v>10</x:v>
@@ -23582,13 +23582,13 @@
         <x:v>202</x:v>
       </x:c>
       <x:c r="F765" s="1" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="G765" s="1" t="s">
         <x:v>249</x:v>
       </x:c>
-      <x:c r="G765" s="1" t="s">
+      <x:c r="H765" s="1" t="s">
         <x:v>250</x:v>
-      </x:c>
-      <x:c r="H765" s="1" t="s">
-        <x:v>251</x:v>
       </x:c>
       <x:c r="I765" s="0" t="s">
         <x:v>12</x:v>
@@ -23596,7 +23596,7 @@
     </x:row>
     <x:row r="766" spans="1:9">
       <x:c r="A766" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B766" s="0" t="s">
         <x:v>47</x:v>
@@ -23625,7 +23625,7 @@
     </x:row>
     <x:row r="767" spans="1:9">
       <x:c r="A767" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B767" s="0" t="s">
         <x:v>47</x:v>
@@ -23654,7 +23654,7 @@
     </x:row>
     <x:row r="768" spans="1:9">
       <x:c r="A768" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B768" s="0" t="s">
         <x:v>47</x:v>
@@ -23683,7 +23683,7 @@
     </x:row>
     <x:row r="769" spans="1:9">
       <x:c r="A769" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B769" s="0" t="s">
         <x:v>23</x:v>
@@ -23712,7 +23712,7 @@
     </x:row>
     <x:row r="770" spans="1:9">
       <x:c r="A770" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B770" s="0" t="s">
         <x:v>23</x:v>
@@ -23741,7 +23741,7 @@
     </x:row>
     <x:row r="771" spans="1:9">
       <x:c r="A771" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B771" s="0" t="s">
         <x:v>23</x:v>
@@ -23770,7 +23770,7 @@
     </x:row>
     <x:row r="772" spans="1:9">
       <x:c r="A772" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B772" s="0" t="s">
         <x:v>27</x:v>
@@ -23799,7 +23799,7 @@
     </x:row>
     <x:row r="773" spans="1:9">
       <x:c r="A773" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B773" s="0" t="s">
         <x:v>27</x:v>
@@ -23828,7 +23828,7 @@
     </x:row>
     <x:row r="774" spans="1:9">
       <x:c r="A774" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B774" s="0" t="s">
         <x:v>27</x:v>
@@ -23843,13 +23843,13 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="F774" s="1" t="s">
-        <x:v>252</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="G774" s="1" t="s">
         <x:v>199</x:v>
       </x:c>
       <x:c r="H774" s="1" t="s">
-        <x:v>230</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="I774" s="0" t="s">
         <x:v>12</x:v>
@@ -23857,7 +23857,7 @@
     </x:row>
     <x:row r="775" spans="1:9">
       <x:c r="A775" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B775" s="0" t="s">
         <x:v>65</x:v>
@@ -23886,7 +23886,7 @@
     </x:row>
     <x:row r="776" spans="1:9">
       <x:c r="A776" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B776" s="0" t="s">
         <x:v>65</x:v>
@@ -23915,7 +23915,7 @@
     </x:row>
     <x:row r="777" spans="1:9">
       <x:c r="A777" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B777" s="0" t="s">
         <x:v>65</x:v>
@@ -23944,7 +23944,7 @@
     </x:row>
     <x:row r="778" spans="1:9">
       <x:c r="A778" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B778" s="0" t="s">
         <x:v>31</x:v>
@@ -23973,7 +23973,7 @@
     </x:row>
     <x:row r="779" spans="1:9">
       <x:c r="A779" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B779" s="0" t="s">
         <x:v>31</x:v>
@@ -24002,7 +24002,7 @@
     </x:row>
     <x:row r="780" spans="1:9">
       <x:c r="A780" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B780" s="0" t="s">
         <x:v>31</x:v>
@@ -24031,7 +24031,7 @@
     </x:row>
     <x:row r="781" spans="1:9">
       <x:c r="A781" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B781" s="0" t="s">
         <x:v>32</x:v>
@@ -24060,7 +24060,7 @@
     </x:row>
     <x:row r="782" spans="1:9">
       <x:c r="A782" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B782" s="0" t="s">
         <x:v>32</x:v>
@@ -24089,7 +24089,7 @@
     </x:row>
     <x:row r="783" spans="1:9">
       <x:c r="A783" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B783" s="0" t="s">
         <x:v>32</x:v>
@@ -24107,7 +24107,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="G783" s="1" t="s">
-        <x:v>253</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="H783" s="1" t="s">
         <x:v>132</x:v>
@@ -24118,7 +24118,7 @@
     </x:row>
     <x:row r="784" spans="1:9">
       <x:c r="A784" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="B784" s="0" t="s">
         <x:v>10</x:v>
@@ -24147,7 +24147,7 @@
     </x:row>
     <x:row r="785" spans="1:9">
       <x:c r="A785" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="B785" s="0" t="s">
         <x:v>10</x:v>
@@ -24176,7 +24176,7 @@
     </x:row>
     <x:row r="786" spans="1:9">
       <x:c r="A786" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="B786" s="0" t="s">
         <x:v>10</x:v>
@@ -24205,7 +24205,7 @@
     </x:row>
     <x:row r="787" spans="1:9">
       <x:c r="A787" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="B787" s="0" t="s">
         <x:v>23</x:v>
@@ -24234,7 +24234,7 @@
     </x:row>
     <x:row r="788" spans="1:9">
       <x:c r="A788" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="B788" s="0" t="s">
         <x:v>23</x:v>
@@ -24263,7 +24263,7 @@
     </x:row>
     <x:row r="789" spans="1:9">
       <x:c r="A789" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="B789" s="0" t="s">
         <x:v>23</x:v>
@@ -24292,7 +24292,7 @@
     </x:row>
     <x:row r="790" spans="1:9">
       <x:c r="A790" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="B790" s="0" t="s">
         <x:v>27</x:v>
@@ -24321,7 +24321,7 @@
     </x:row>
     <x:row r="791" spans="1:9">
       <x:c r="A791" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="B791" s="0" t="s">
         <x:v>27</x:v>
@@ -24350,7 +24350,7 @@
     </x:row>
     <x:row r="792" spans="1:9">
       <x:c r="A792" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="B792" s="0" t="s">
         <x:v>27</x:v>
@@ -24379,7 +24379,7 @@
     </x:row>
     <x:row r="793" spans="1:9">
       <x:c r="A793" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="B793" s="0" t="s">
         <x:v>65</x:v>
@@ -24408,7 +24408,7 @@
     </x:row>
     <x:row r="794" spans="1:9">
       <x:c r="A794" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="B794" s="0" t="s">
         <x:v>65</x:v>
@@ -24437,7 +24437,7 @@
     </x:row>
     <x:row r="795" spans="1:9">
       <x:c r="A795" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="B795" s="0" t="s">
         <x:v>65</x:v>
@@ -24466,7 +24466,7 @@
     </x:row>
     <x:row r="796" spans="1:9">
       <x:c r="A796" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="B796" s="0" t="s">
         <x:v>31</x:v>
@@ -24495,7 +24495,7 @@
     </x:row>
     <x:row r="797" spans="1:9">
       <x:c r="A797" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="B797" s="0" t="s">
         <x:v>31</x:v>
@@ -24524,7 +24524,7 @@
     </x:row>
     <x:row r="798" spans="1:9">
       <x:c r="A798" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="B798" s="0" t="s">
         <x:v>31</x:v>
@@ -24553,7 +24553,7 @@
     </x:row>
     <x:row r="799" spans="1:9">
       <x:c r="A799" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="B799" s="0" t="s">
         <x:v>32</x:v>
@@ -24582,7 +24582,7 @@
     </x:row>
     <x:row r="800" spans="1:9">
       <x:c r="A800" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="B800" s="0" t="s">
         <x:v>32</x:v>
@@ -24611,7 +24611,7 @@
     </x:row>
     <x:row r="801" spans="1:9">
       <x:c r="A801" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="B801" s="0" t="s">
         <x:v>32</x:v>
@@ -24640,7 +24640,7 @@
     </x:row>
     <x:row r="802" spans="1:9">
       <x:c r="A802" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="B802" s="0" t="s">
         <x:v>10</x:v>
@@ -24669,7 +24669,7 @@
     </x:row>
     <x:row r="803" spans="1:9">
       <x:c r="A803" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="B803" s="0" t="s">
         <x:v>10</x:v>
@@ -24698,7 +24698,7 @@
     </x:row>
     <x:row r="804" spans="1:9">
       <x:c r="A804" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="B804" s="0" t="s">
         <x:v>10</x:v>
@@ -24727,7 +24727,7 @@
     </x:row>
     <x:row r="805" spans="1:9">
       <x:c r="A805" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="B805" s="0" t="s">
         <x:v>23</x:v>
@@ -24756,7 +24756,7 @@
     </x:row>
     <x:row r="806" spans="1:9">
       <x:c r="A806" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="B806" s="0" t="s">
         <x:v>23</x:v>
@@ -24785,7 +24785,7 @@
     </x:row>
     <x:row r="807" spans="1:9">
       <x:c r="A807" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="B807" s="0" t="s">
         <x:v>23</x:v>
@@ -24814,7 +24814,7 @@
     </x:row>
     <x:row r="808" spans="1:9">
       <x:c r="A808" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="B808" s="0" t="s">
         <x:v>27</x:v>
@@ -24843,7 +24843,7 @@
     </x:row>
     <x:row r="809" spans="1:9">
       <x:c r="A809" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="B809" s="0" t="s">
         <x:v>27</x:v>
@@ -24872,7 +24872,7 @@
     </x:row>
     <x:row r="810" spans="1:9">
       <x:c r="A810" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="B810" s="0" t="s">
         <x:v>27</x:v>
@@ -24901,7 +24901,7 @@
     </x:row>
     <x:row r="811" spans="1:9">
       <x:c r="A811" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="B811" s="0" t="s">
         <x:v>31</x:v>
@@ -24930,7 +24930,7 @@
     </x:row>
     <x:row r="812" spans="1:9">
       <x:c r="A812" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="B812" s="0" t="s">
         <x:v>31</x:v>
@@ -24959,7 +24959,7 @@
     </x:row>
     <x:row r="813" spans="1:9">
       <x:c r="A813" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="B813" s="0" t="s">
         <x:v>31</x:v>
@@ -24988,7 +24988,7 @@
     </x:row>
     <x:row r="814" spans="1:9">
       <x:c r="A814" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="B814" s="0" t="s">
         <x:v>32</x:v>
@@ -25017,7 +25017,7 @@
     </x:row>
     <x:row r="815" spans="1:9">
       <x:c r="A815" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="B815" s="0" t="s">
         <x:v>32</x:v>
@@ -25046,7 +25046,7 @@
     </x:row>
     <x:row r="816" spans="1:9">
       <x:c r="A816" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="B816" s="0" t="s">
         <x:v>32</x:v>
@@ -25075,7 +25075,7 @@
     </x:row>
     <x:row r="817" spans="1:9">
       <x:c r="A817" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B817" s="0" t="s">
         <x:v>10</x:v>
@@ -25104,7 +25104,7 @@
     </x:row>
     <x:row r="818" spans="1:9">
       <x:c r="A818" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B818" s="0" t="s">
         <x:v>10</x:v>
@@ -25133,7 +25133,7 @@
     </x:row>
     <x:row r="819" spans="1:9">
       <x:c r="A819" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B819" s="0" t="s">
         <x:v>10</x:v>
@@ -25162,7 +25162,7 @@
     </x:row>
     <x:row r="820" spans="1:9">
       <x:c r="A820" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B820" s="0" t="s">
         <x:v>23</x:v>
@@ -25191,7 +25191,7 @@
     </x:row>
     <x:row r="821" spans="1:9">
       <x:c r="A821" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B821" s="0" t="s">
         <x:v>23</x:v>
@@ -25220,7 +25220,7 @@
     </x:row>
     <x:row r="822" spans="1:9">
       <x:c r="A822" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B822" s="0" t="s">
         <x:v>23</x:v>
@@ -25249,7 +25249,7 @@
     </x:row>
     <x:row r="823" spans="1:9">
       <x:c r="A823" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B823" s="0" t="s">
         <x:v>27</x:v>
@@ -25278,7 +25278,7 @@
     </x:row>
     <x:row r="824" spans="1:9">
       <x:c r="A824" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B824" s="0" t="s">
         <x:v>27</x:v>
@@ -25307,7 +25307,7 @@
     </x:row>
     <x:row r="825" spans="1:9">
       <x:c r="A825" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B825" s="0" t="s">
         <x:v>27</x:v>
@@ -25336,7 +25336,7 @@
     </x:row>
     <x:row r="826" spans="1:9">
       <x:c r="A826" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B826" s="0" t="s">
         <x:v>65</x:v>
@@ -25365,7 +25365,7 @@
     </x:row>
     <x:row r="827" spans="1:9">
       <x:c r="A827" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B827" s="0" t="s">
         <x:v>65</x:v>
@@ -25394,7 +25394,7 @@
     </x:row>
     <x:row r="828" spans="1:9">
       <x:c r="A828" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B828" s="0" t="s">
         <x:v>32</x:v>
@@ -25423,7 +25423,7 @@
     </x:row>
     <x:row r="829" spans="1:9">
       <x:c r="A829" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B829" s="0" t="s">
         <x:v>32</x:v>
@@ -25452,7 +25452,7 @@
     </x:row>
     <x:row r="830" spans="1:9">
       <x:c r="A830" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B830" s="0" t="s">
         <x:v>32</x:v>
@@ -25481,7 +25481,7 @@
     </x:row>
     <x:row r="831" spans="1:9">
       <x:c r="A831" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B831" s="0" t="s">
         <x:v>10</x:v>
@@ -25510,7 +25510,7 @@
     </x:row>
     <x:row r="832" spans="1:9">
       <x:c r="A832" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B832" s="0" t="s">
         <x:v>10</x:v>
@@ -25539,7 +25539,7 @@
     </x:row>
     <x:row r="833" spans="1:9">
       <x:c r="A833" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B833" s="0" t="s">
         <x:v>23</x:v>
@@ -25568,7 +25568,7 @@
     </x:row>
     <x:row r="834" spans="1:9">
       <x:c r="A834" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B834" s="0" t="s">
         <x:v>23</x:v>
@@ -25597,7 +25597,7 @@
     </x:row>
     <x:row r="835" spans="1:9">
       <x:c r="A835" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B835" s="0" t="s">
         <x:v>27</x:v>
@@ -25626,7 +25626,7 @@
     </x:row>
     <x:row r="836" spans="1:9">
       <x:c r="A836" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B836" s="0" t="s">
         <x:v>27</x:v>
@@ -25655,7 +25655,7 @@
     </x:row>
     <x:row r="837" spans="1:9">
       <x:c r="A837" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B837" s="0" t="s">
         <x:v>27</x:v>
@@ -25684,7 +25684,7 @@
     </x:row>
     <x:row r="838" spans="1:9">
       <x:c r="A838" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B838" s="0" t="s">
         <x:v>31</x:v>
@@ -25713,7 +25713,7 @@
     </x:row>
     <x:row r="839" spans="1:9">
       <x:c r="A839" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B839" s="0" t="s">
         <x:v>31</x:v>
@@ -25742,7 +25742,7 @@
     </x:row>
     <x:row r="840" spans="1:9">
       <x:c r="A840" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B840" s="0" t="s">
         <x:v>10</x:v>
@@ -25771,7 +25771,7 @@
     </x:row>
     <x:row r="841" spans="1:9">
       <x:c r="A841" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B841" s="0" t="s">
         <x:v>10</x:v>
@@ -25800,7 +25800,7 @@
     </x:row>
     <x:row r="842" spans="1:9">
       <x:c r="A842" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B842" s="0" t="s">
         <x:v>10</x:v>
@@ -25829,7 +25829,7 @@
     </x:row>
     <x:row r="843" spans="1:9">
       <x:c r="A843" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B843" s="0" t="s">
         <x:v>23</x:v>
@@ -25858,7 +25858,7 @@
     </x:row>
     <x:row r="844" spans="1:9">
       <x:c r="A844" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B844" s="0" t="s">
         <x:v>23</x:v>
@@ -25887,7 +25887,7 @@
     </x:row>
     <x:row r="845" spans="1:9">
       <x:c r="A845" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B845" s="0" t="s">
         <x:v>23</x:v>
@@ -25916,7 +25916,7 @@
     </x:row>
     <x:row r="846" spans="1:9">
       <x:c r="A846" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B846" s="0" t="s">
         <x:v>27</x:v>
@@ -25945,7 +25945,7 @@
     </x:row>
     <x:row r="847" spans="1:9">
       <x:c r="A847" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B847" s="0" t="s">
         <x:v>27</x:v>
@@ -25974,7 +25974,7 @@
     </x:row>
     <x:row r="848" spans="1:9">
       <x:c r="A848" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B848" s="0" t="s">
         <x:v>27</x:v>
@@ -26003,7 +26003,7 @@
     </x:row>
     <x:row r="849" spans="1:9">
       <x:c r="A849" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B849" s="0" t="s">
         <x:v>65</x:v>
@@ -26032,7 +26032,7 @@
     </x:row>
     <x:row r="850" spans="1:9">
       <x:c r="A850" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B850" s="0" t="s">
         <x:v>65</x:v>
@@ -26061,7 +26061,7 @@
     </x:row>
     <x:row r="851" spans="1:9">
       <x:c r="A851" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B851" s="0" t="s">
         <x:v>65</x:v>
@@ -26090,7 +26090,7 @@
     </x:row>
     <x:row r="852" spans="1:9">
       <x:c r="A852" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B852" s="0" t="s">
         <x:v>31</x:v>
@@ -26119,7 +26119,7 @@
     </x:row>
     <x:row r="853" spans="1:9">
       <x:c r="A853" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B853" s="0" t="s">
         <x:v>31</x:v>
@@ -26148,7 +26148,7 @@
     </x:row>
     <x:row r="854" spans="1:9">
       <x:c r="A854" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B854" s="0" t="s">
         <x:v>31</x:v>
@@ -26177,7 +26177,7 @@
     </x:row>
     <x:row r="855" spans="1:9">
       <x:c r="A855" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B855" s="0" t="s">
         <x:v>32</x:v>
@@ -26206,7 +26206,7 @@
     </x:row>
     <x:row r="856" spans="1:9">
       <x:c r="A856" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B856" s="0" t="s">
         <x:v>32</x:v>
@@ -26235,7 +26235,7 @@
     </x:row>
     <x:row r="857" spans="1:9">
       <x:c r="A857" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B857" s="0" t="s">
         <x:v>32</x:v>
@@ -26264,7 +26264,7 @@
     </x:row>
     <x:row r="858" spans="1:9">
       <x:c r="A858" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B858" s="0" t="s">
         <x:v>10</x:v>
@@ -26293,7 +26293,7 @@
     </x:row>
     <x:row r="859" spans="1:9">
       <x:c r="A859" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B859" s="0" t="s">
         <x:v>10</x:v>
@@ -26322,7 +26322,7 @@
     </x:row>
     <x:row r="860" spans="1:9">
       <x:c r="A860" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B860" s="0" t="s">
         <x:v>10</x:v>
@@ -26351,7 +26351,7 @@
     </x:row>
     <x:row r="861" spans="1:9">
       <x:c r="A861" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B861" s="0" t="s">
         <x:v>23</x:v>
@@ -26380,7 +26380,7 @@
     </x:row>
     <x:row r="862" spans="1:9">
       <x:c r="A862" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B862" s="0" t="s">
         <x:v>23</x:v>
@@ -26409,7 +26409,7 @@
     </x:row>
     <x:row r="863" spans="1:9">
       <x:c r="A863" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B863" s="0" t="s">
         <x:v>23</x:v>
@@ -26438,7 +26438,7 @@
     </x:row>
     <x:row r="864" spans="1:9">
       <x:c r="A864" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B864" s="0" t="s">
         <x:v>27</x:v>
@@ -26467,7 +26467,7 @@
     </x:row>
     <x:row r="865" spans="1:9">
       <x:c r="A865" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B865" s="0" t="s">
         <x:v>27</x:v>
@@ -26496,7 +26496,7 @@
     </x:row>
     <x:row r="866" spans="1:9">
       <x:c r="A866" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B866" s="0" t="s">
         <x:v>27</x:v>
@@ -26525,7 +26525,7 @@
     </x:row>
     <x:row r="867" spans="1:9">
       <x:c r="A867" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B867" s="0" t="s">
         <x:v>31</x:v>
@@ -26554,7 +26554,7 @@
     </x:row>
     <x:row r="868" spans="1:9">
       <x:c r="A868" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B868" s="0" t="s">
         <x:v>31</x:v>
@@ -26583,7 +26583,7 @@
     </x:row>
     <x:row r="869" spans="1:9">
       <x:c r="A869" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B869" s="0" t="s">
         <x:v>31</x:v>
@@ -26612,7 +26612,7 @@
     </x:row>
     <x:row r="870" spans="1:9">
       <x:c r="A870" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B870" s="0" t="s">
         <x:v>32</x:v>
@@ -26641,7 +26641,7 @@
     </x:row>
     <x:row r="871" spans="1:9">
       <x:c r="A871" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B871" s="0" t="s">
         <x:v>32</x:v>
@@ -26670,7 +26670,7 @@
     </x:row>
     <x:row r="872" spans="1:9">
       <x:c r="A872" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B872" s="0" t="s">
         <x:v>10</x:v>
@@ -26685,13 +26685,13 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="F872" s="1" t="s">
+        <x:v>260</x:v>
+      </x:c>
+      <x:c r="G872" s="1" t="s">
         <x:v>261</x:v>
       </x:c>
-      <x:c r="G872" s="1" t="s">
+      <x:c r="H872" s="1" t="s">
         <x:v>262</x:v>
-      </x:c>
-      <x:c r="H872" s="1" t="s">
-        <x:v>263</x:v>
       </x:c>
       <x:c r="I872" s="0" t="s">
         <x:v>12</x:v>
@@ -26699,7 +26699,7 @@
     </x:row>
     <x:row r="873" spans="1:9">
       <x:c r="A873" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B873" s="0" t="s">
         <x:v>10</x:v>
@@ -26711,16 +26711,16 @@
         <x:v>168</x:v>
       </x:c>
       <x:c r="E873" s="1" t="s">
+        <x:v>263</x:v>
+      </x:c>
+      <x:c r="F873" s="1" t="s">
         <x:v>264</x:v>
       </x:c>
-      <x:c r="F873" s="1" t="s">
+      <x:c r="G873" s="1" t="s">
         <x:v>265</x:v>
       </x:c>
-      <x:c r="G873" s="1" t="s">
+      <x:c r="H873" s="1" t="s">
         <x:v>266</x:v>
-      </x:c>
-      <x:c r="H873" s="1" t="s">
-        <x:v>267</x:v>
       </x:c>
       <x:c r="I873" s="0" t="s">
         <x:v>13</x:v>
@@ -26728,7 +26728,7 @@
     </x:row>
     <x:row r="874" spans="1:9">
       <x:c r="A874" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B874" s="0" t="s">
         <x:v>10</x:v>
@@ -26740,16 +26740,16 @@
         <x:v>146</x:v>
       </x:c>
       <x:c r="E874" s="1" t="s">
+        <x:v>267</x:v>
+      </x:c>
+      <x:c r="F874" s="1" t="s">
         <x:v>268</x:v>
       </x:c>
-      <x:c r="F874" s="1" t="s">
+      <x:c r="G874" s="1" t="s">
         <x:v>269</x:v>
       </x:c>
-      <x:c r="G874" s="1" t="s">
+      <x:c r="H874" s="1" t="s">
         <x:v>270</x:v>
-      </x:c>
-      <x:c r="H874" s="1" t="s">
-        <x:v>271</x:v>
       </x:c>
       <x:c r="I874" s="0" t="s">
         <x:v>13</x:v>
@@ -26757,7 +26757,7 @@
     </x:row>
     <x:row r="875" spans="1:9">
       <x:c r="A875" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B875" s="0" t="s">
         <x:v>47</x:v>
@@ -26786,7 +26786,7 @@
     </x:row>
     <x:row r="876" spans="1:9">
       <x:c r="A876" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B876" s="0" t="s">
         <x:v>47</x:v>
@@ -26815,7 +26815,7 @@
     </x:row>
     <x:row r="877" spans="1:9">
       <x:c r="A877" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B877" s="0" t="s">
         <x:v>47</x:v>
@@ -26844,7 +26844,7 @@
     </x:row>
     <x:row r="878" spans="1:9">
       <x:c r="A878" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B878" s="0" t="s">
         <x:v>23</x:v>
@@ -26873,7 +26873,7 @@
     </x:row>
     <x:row r="879" spans="1:9">
       <x:c r="A879" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B879" s="0" t="s">
         <x:v>23</x:v>
@@ -26902,7 +26902,7 @@
     </x:row>
     <x:row r="880" spans="1:9">
       <x:c r="A880" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B880" s="0" t="s">
         <x:v>23</x:v>
@@ -26931,7 +26931,7 @@
     </x:row>
     <x:row r="881" spans="1:9">
       <x:c r="A881" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B881" s="0" t="s">
         <x:v>27</x:v>
@@ -26946,7 +26946,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="F881" s="1" t="s">
-        <x:v>272</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="G881" s="1" t="s">
         <x:v>108</x:v>
@@ -26960,7 +26960,7 @@
     </x:row>
     <x:row r="882" spans="1:9">
       <x:c r="A882" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B882" s="0" t="s">
         <x:v>27</x:v>
@@ -26975,7 +26975,7 @@
         <x:v>188</x:v>
       </x:c>
       <x:c r="F882" s="1" t="s">
-        <x:v>273</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="G882" s="1" t="s">
         <x:v>153</x:v>
@@ -26989,7 +26989,7 @@
     </x:row>
     <x:row r="883" spans="1:9">
       <x:c r="A883" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B883" s="0" t="s">
         <x:v>27</x:v>
@@ -27001,16 +27001,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E883" s="1" t="s">
+        <x:v>273</x:v>
+      </x:c>
+      <x:c r="F883" s="1" t="s">
         <x:v>274</x:v>
       </x:c>
-      <x:c r="F883" s="1" t="s">
+      <x:c r="G883" s="1" t="s">
         <x:v>275</x:v>
       </x:c>
-      <x:c r="G883" s="1" t="s">
+      <x:c r="H883" s="1" t="s">
         <x:v>276</x:v>
-      </x:c>
-      <x:c r="H883" s="1" t="s">
-        <x:v>277</x:v>
       </x:c>
       <x:c r="I883" s="0" t="s">
         <x:v>12</x:v>
@@ -27018,7 +27018,7 @@
     </x:row>
     <x:row r="884" spans="1:9">
       <x:c r="A884" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B884" s="0" t="s">
         <x:v>65</x:v>
@@ -27047,7 +27047,7 @@
     </x:row>
     <x:row r="885" spans="1:9">
       <x:c r="A885" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B885" s="0" t="s">
         <x:v>65</x:v>
@@ -27076,7 +27076,7 @@
     </x:row>
     <x:row r="886" spans="1:9">
       <x:c r="A886" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B886" s="0" t="s">
         <x:v>31</x:v>
@@ -27105,7 +27105,7 @@
     </x:row>
     <x:row r="887" spans="1:9">
       <x:c r="A887" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B887" s="0" t="s">
         <x:v>31</x:v>
@@ -27134,7 +27134,7 @@
     </x:row>
     <x:row r="888" spans="1:9">
       <x:c r="A888" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B888" s="0" t="s">
         <x:v>31</x:v>
@@ -27146,7 +27146,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E888" s="1" t="s">
-        <x:v>213</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="F888" s="1" t="s">
         <x:v>42</x:v>
@@ -27163,7 +27163,7 @@
     </x:row>
     <x:row r="889" spans="1:9">
       <x:c r="A889" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B889" s="0" t="s">
         <x:v>32</x:v>
@@ -27192,7 +27192,7 @@
     </x:row>
     <x:row r="890" spans="1:9">
       <x:c r="A890" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B890" s="0" t="s">
         <x:v>32</x:v>
@@ -27210,7 +27210,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="G890" s="1" t="s">
-        <x:v>278</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="H890" s="1" t="s">
         <x:v>73</x:v>
@@ -27221,7 +27221,7 @@
     </x:row>
     <x:row r="891" spans="1:9">
       <x:c r="A891" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B891" s="0" t="s">
         <x:v>32</x:v>
@@ -27236,7 +27236,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="F891" s="1" t="s">
-        <x:v>252</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="G891" s="1" t="s">
         <x:v>202</x:v>
@@ -27250,7 +27250,7 @@
     </x:row>
     <x:row r="892" spans="1:9">
       <x:c r="A892" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="B892" s="0" t="s">
         <x:v>10</x:v>
@@ -27279,7 +27279,7 @@
     </x:row>
     <x:row r="893" spans="1:9">
       <x:c r="A893" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="B893" s="0" t="s">
         <x:v>10</x:v>
@@ -27308,7 +27308,7 @@
     </x:row>
     <x:row r="894" spans="1:9">
       <x:c r="A894" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="B894" s="0" t="s">
         <x:v>10</x:v>
@@ -27337,7 +27337,7 @@
     </x:row>
     <x:row r="895" spans="1:9">
       <x:c r="A895" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="B895" s="0" t="s">
         <x:v>23</x:v>
@@ -27366,7 +27366,7 @@
     </x:row>
     <x:row r="896" spans="1:9">
       <x:c r="A896" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="B896" s="0" t="s">
         <x:v>23</x:v>
@@ -27395,7 +27395,7 @@
     </x:row>
     <x:row r="897" spans="1:9">
       <x:c r="A897" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="B897" s="0" t="s">
         <x:v>23</x:v>
@@ -27424,7 +27424,7 @@
     </x:row>
     <x:row r="898" spans="1:9">
       <x:c r="A898" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="B898" s="0" t="s">
         <x:v>27</x:v>
@@ -27453,7 +27453,7 @@
     </x:row>
     <x:row r="899" spans="1:9">
       <x:c r="A899" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="B899" s="0" t="s">
         <x:v>27</x:v>
@@ -27482,7 +27482,7 @@
     </x:row>
     <x:row r="900" spans="1:9">
       <x:c r="A900" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="B900" s="0" t="s">
         <x:v>27</x:v>
@@ -27511,7 +27511,7 @@
     </x:row>
     <x:row r="901" spans="1:9">
       <x:c r="A901" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="B901" s="0" t="s">
         <x:v>31</x:v>
@@ -27540,7 +27540,7 @@
     </x:row>
     <x:row r="902" spans="1:9">
       <x:c r="A902" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="B902" s="0" t="s">
         <x:v>31</x:v>
@@ -27569,7 +27569,7 @@
     </x:row>
     <x:row r="903" spans="1:9">
       <x:c r="A903" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="B903" s="0" t="s">
         <x:v>31</x:v>
@@ -27598,7 +27598,7 @@
     </x:row>
     <x:row r="904" spans="1:9">
       <x:c r="A904" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B904" s="0" t="s">
         <x:v>10</x:v>
@@ -27627,7 +27627,7 @@
     </x:row>
     <x:row r="905" spans="1:9">
       <x:c r="A905" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B905" s="0" t="s">
         <x:v>10</x:v>
@@ -27656,7 +27656,7 @@
     </x:row>
     <x:row r="906" spans="1:9">
       <x:c r="A906" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B906" s="0" t="s">
         <x:v>10</x:v>
@@ -27685,7 +27685,7 @@
     </x:row>
     <x:row r="907" spans="1:9">
       <x:c r="A907" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B907" s="0" t="s">
         <x:v>23</x:v>
@@ -27714,7 +27714,7 @@
     </x:row>
     <x:row r="908" spans="1:9">
       <x:c r="A908" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B908" s="0" t="s">
         <x:v>23</x:v>
@@ -27743,7 +27743,7 @@
     </x:row>
     <x:row r="909" spans="1:9">
       <x:c r="A909" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B909" s="0" t="s">
         <x:v>23</x:v>
@@ -27772,7 +27772,7 @@
     </x:row>
     <x:row r="910" spans="1:9">
       <x:c r="A910" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B910" s="0" t="s">
         <x:v>27</x:v>
@@ -27801,7 +27801,7 @@
     </x:row>
     <x:row r="911" spans="1:9">
       <x:c r="A911" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B911" s="0" t="s">
         <x:v>27</x:v>
@@ -27830,7 +27830,7 @@
     </x:row>
     <x:row r="912" spans="1:9">
       <x:c r="A912" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B912" s="0" t="s">
         <x:v>27</x:v>
@@ -27859,7 +27859,7 @@
     </x:row>
     <x:row r="913" spans="1:9">
       <x:c r="A913" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B913" s="0" t="s">
         <x:v>31</x:v>
@@ -27888,7 +27888,7 @@
     </x:row>
     <x:row r="914" spans="1:9">
       <x:c r="A914" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B914" s="0" t="s">
         <x:v>31</x:v>
@@ -27917,7 +27917,7 @@
     </x:row>
     <x:row r="915" spans="1:9">
       <x:c r="A915" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B915" s="0" t="s">
         <x:v>31</x:v>
@@ -27946,7 +27946,7 @@
     </x:row>
     <x:row r="916" spans="1:9">
       <x:c r="A916" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B916" s="0" t="s">
         <x:v>32</x:v>
@@ -27975,7 +27975,7 @@
     </x:row>
     <x:row r="917" spans="1:9">
       <x:c r="A917" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B917" s="0" t="s">
         <x:v>32</x:v>
@@ -28004,7 +28004,7 @@
     </x:row>
     <x:row r="918" spans="1:9">
       <x:c r="A918" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B918" s="0" t="s">
         <x:v>10</x:v>
@@ -28033,7 +28033,7 @@
     </x:row>
     <x:row r="919" spans="1:9">
       <x:c r="A919" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B919" s="0" t="s">
         <x:v>10</x:v>
@@ -28062,7 +28062,7 @@
     </x:row>
     <x:row r="920" spans="1:9">
       <x:c r="A920" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B920" s="0" t="s">
         <x:v>10</x:v>
@@ -28091,7 +28091,7 @@
     </x:row>
     <x:row r="921" spans="1:9">
       <x:c r="A921" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B921" s="0" t="s">
         <x:v>23</x:v>
@@ -28120,7 +28120,7 @@
     </x:row>
     <x:row r="922" spans="1:9">
       <x:c r="A922" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B922" s="0" t="s">
         <x:v>23</x:v>
@@ -28149,7 +28149,7 @@
     </x:row>
     <x:row r="923" spans="1:9">
       <x:c r="A923" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B923" s="0" t="s">
         <x:v>23</x:v>
@@ -28178,7 +28178,7 @@
     </x:row>
     <x:row r="924" spans="1:9">
       <x:c r="A924" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B924" s="0" t="s">
         <x:v>27</x:v>
@@ -28207,7 +28207,7 @@
     </x:row>
     <x:row r="925" spans="1:9">
       <x:c r="A925" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B925" s="0" t="s">
         <x:v>27</x:v>
@@ -28236,7 +28236,7 @@
     </x:row>
     <x:row r="926" spans="1:9">
       <x:c r="A926" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B926" s="0" t="s">
         <x:v>27</x:v>
@@ -28265,7 +28265,7 @@
     </x:row>
     <x:row r="927" spans="1:9">
       <x:c r="A927" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B927" s="0" t="s">
         <x:v>31</x:v>
@@ -28294,7 +28294,7 @@
     </x:row>
     <x:row r="928" spans="1:9">
       <x:c r="A928" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B928" s="0" t="s">
         <x:v>31</x:v>
@@ -28323,7 +28323,7 @@
     </x:row>
     <x:row r="929" spans="1:9">
       <x:c r="A929" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B929" s="0" t="s">
         <x:v>10</x:v>
@@ -28352,7 +28352,7 @@
     </x:row>
     <x:row r="930" spans="1:9">
       <x:c r="A930" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B930" s="0" t="s">
         <x:v>10</x:v>
@@ -28381,7 +28381,7 @@
     </x:row>
     <x:row r="931" spans="1:9">
       <x:c r="A931" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B931" s="0" t="s">
         <x:v>10</x:v>
@@ -28410,7 +28410,7 @@
     </x:row>
     <x:row r="932" spans="1:9">
       <x:c r="A932" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B932" s="0" t="s">
         <x:v>47</x:v>
@@ -28439,7 +28439,7 @@
     </x:row>
     <x:row r="933" spans="1:9">
       <x:c r="A933" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B933" s="0" t="s">
         <x:v>47</x:v>
@@ -28468,7 +28468,7 @@
     </x:row>
     <x:row r="934" spans="1:9">
       <x:c r="A934" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B934" s="0" t="s">
         <x:v>47</x:v>
@@ -28497,7 +28497,7 @@
     </x:row>
     <x:row r="935" spans="1:9">
       <x:c r="A935" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B935" s="0" t="s">
         <x:v>23</x:v>
@@ -28526,7 +28526,7 @@
     </x:row>
     <x:row r="936" spans="1:9">
       <x:c r="A936" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B936" s="0" t="s">
         <x:v>23</x:v>
@@ -28555,7 +28555,7 @@
     </x:row>
     <x:row r="937" spans="1:9">
       <x:c r="A937" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B937" s="0" t="s">
         <x:v>23</x:v>
@@ -28584,7 +28584,7 @@
     </x:row>
     <x:row r="938" spans="1:9">
       <x:c r="A938" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B938" s="0" t="s">
         <x:v>27</x:v>
@@ -28613,7 +28613,7 @@
     </x:row>
     <x:row r="939" spans="1:9">
       <x:c r="A939" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B939" s="0" t="s">
         <x:v>27</x:v>
@@ -28642,7 +28642,7 @@
     </x:row>
     <x:row r="940" spans="1:9">
       <x:c r="A940" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B940" s="0" t="s">
         <x:v>27</x:v>
@@ -28671,7 +28671,7 @@
     </x:row>
     <x:row r="941" spans="1:9">
       <x:c r="A941" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B941" s="0" t="s">
         <x:v>31</x:v>
@@ -28700,7 +28700,7 @@
     </x:row>
     <x:row r="942" spans="1:9">
       <x:c r="A942" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B942" s="0" t="s">
         <x:v>31</x:v>
@@ -28729,7 +28729,7 @@
     </x:row>
     <x:row r="943" spans="1:9">
       <x:c r="A943" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B943" s="0" t="s">
         <x:v>31</x:v>
@@ -28758,7 +28758,7 @@
     </x:row>
     <x:row r="944" spans="1:9">
       <x:c r="A944" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B944" s="0" t="s">
         <x:v>32</x:v>
@@ -28787,7 +28787,7 @@
     </x:row>
     <x:row r="945" spans="1:9">
       <x:c r="A945" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B945" s="0" t="s">
         <x:v>32</x:v>
@@ -28816,7 +28816,7 @@
     </x:row>
     <x:row r="946" spans="1:9">
       <x:c r="A946" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B946" s="0" t="s">
         <x:v>32</x:v>
@@ -28845,7 +28845,7 @@
     </x:row>
     <x:row r="947" spans="1:9">
       <x:c r="A947" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B947" s="0" t="s">
         <x:v>10</x:v>
@@ -28874,7 +28874,7 @@
     </x:row>
     <x:row r="948" spans="1:9">
       <x:c r="A948" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B948" s="0" t="s">
         <x:v>10</x:v>
@@ -28903,7 +28903,7 @@
     </x:row>
     <x:row r="949" spans="1:9">
       <x:c r="A949" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B949" s="0" t="s">
         <x:v>10</x:v>
@@ -28932,7 +28932,7 @@
     </x:row>
     <x:row r="950" spans="1:9">
       <x:c r="A950" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B950" s="0" t="s">
         <x:v>23</x:v>
@@ -28961,7 +28961,7 @@
     </x:row>
     <x:row r="951" spans="1:9">
       <x:c r="A951" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B951" s="0" t="s">
         <x:v>23</x:v>
@@ -28990,7 +28990,7 @@
     </x:row>
     <x:row r="952" spans="1:9">
       <x:c r="A952" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B952" s="0" t="s">
         <x:v>23</x:v>
@@ -29019,7 +29019,7 @@
     </x:row>
     <x:row r="953" spans="1:9">
       <x:c r="A953" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B953" s="0" t="s">
         <x:v>27</x:v>
@@ -29048,7 +29048,7 @@
     </x:row>
     <x:row r="954" spans="1:9">
       <x:c r="A954" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B954" s="0" t="s">
         <x:v>27</x:v>
@@ -29077,7 +29077,7 @@
     </x:row>
     <x:row r="955" spans="1:9">
       <x:c r="A955" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B955" s="0" t="s">
         <x:v>27</x:v>
@@ -29106,7 +29106,7 @@
     </x:row>
     <x:row r="956" spans="1:9">
       <x:c r="A956" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B956" s="0" t="s">
         <x:v>10</x:v>
@@ -29135,7 +29135,7 @@
     </x:row>
     <x:row r="957" spans="1:9">
       <x:c r="A957" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B957" s="0" t="s">
         <x:v>10</x:v>
@@ -29164,7 +29164,7 @@
     </x:row>
     <x:row r="958" spans="1:9">
       <x:c r="A958" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B958" s="0" t="s">
         <x:v>10</x:v>
@@ -29193,7 +29193,7 @@
     </x:row>
     <x:row r="959" spans="1:9">
       <x:c r="A959" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B959" s="0" t="s">
         <x:v>47</x:v>
@@ -29222,7 +29222,7 @@
     </x:row>
     <x:row r="960" spans="1:9">
       <x:c r="A960" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B960" s="0" t="s">
         <x:v>47</x:v>
@@ -29251,7 +29251,7 @@
     </x:row>
     <x:row r="961" spans="1:9">
       <x:c r="A961" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B961" s="0" t="s">
         <x:v>47</x:v>
@@ -29280,7 +29280,7 @@
     </x:row>
     <x:row r="962" spans="1:9">
       <x:c r="A962" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B962" s="0" t="s">
         <x:v>23</x:v>
@@ -29309,7 +29309,7 @@
     </x:row>
     <x:row r="963" spans="1:9">
       <x:c r="A963" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B963" s="0" t="s">
         <x:v>23</x:v>
@@ -29338,7 +29338,7 @@
     </x:row>
     <x:row r="964" spans="1:9">
       <x:c r="A964" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B964" s="0" t="s">
         <x:v>23</x:v>
@@ -29367,7 +29367,7 @@
     </x:row>
     <x:row r="965" spans="1:9">
       <x:c r="A965" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B965" s="0" t="s">
         <x:v>27</x:v>
@@ -29396,7 +29396,7 @@
     </x:row>
     <x:row r="966" spans="1:9">
       <x:c r="A966" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B966" s="0" t="s">
         <x:v>27</x:v>
@@ -29425,7 +29425,7 @@
     </x:row>
     <x:row r="967" spans="1:9">
       <x:c r="A967" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B967" s="0" t="s">
         <x:v>27</x:v>
@@ -29454,7 +29454,7 @@
     </x:row>
     <x:row r="968" spans="1:9">
       <x:c r="A968" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B968" s="0" t="s">
         <x:v>31</x:v>
@@ -29483,7 +29483,7 @@
     </x:row>
     <x:row r="969" spans="1:9">
       <x:c r="A969" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B969" s="0" t="s">
         <x:v>31</x:v>
@@ -29512,7 +29512,7 @@
     </x:row>
     <x:row r="970" spans="1:9">
       <x:c r="A970" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B970" s="0" t="s">
         <x:v>31</x:v>
@@ -29541,7 +29541,7 @@
     </x:row>
     <x:row r="971" spans="1:9">
       <x:c r="A971" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B971" s="0" t="s">
         <x:v>32</x:v>
@@ -29570,7 +29570,7 @@
     </x:row>
     <x:row r="972" spans="1:9">
       <x:c r="A972" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B972" s="0" t="s">
         <x:v>32</x:v>
@@ -29599,7 +29599,7 @@
     </x:row>
     <x:row r="973" spans="1:9">
       <x:c r="A973" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B973" s="0" t="s">
         <x:v>10</x:v>
@@ -29628,7 +29628,7 @@
     </x:row>
     <x:row r="974" spans="1:9">
       <x:c r="A974" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B974" s="0" t="s">
         <x:v>10</x:v>
@@ -29657,7 +29657,7 @@
     </x:row>
     <x:row r="975" spans="1:9">
       <x:c r="A975" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B975" s="0" t="s">
         <x:v>10</x:v>
@@ -29672,7 +29672,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="F975" s="1" t="s">
-        <x:v>286</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="G975" s="1" t="s">
         <x:v>63</x:v>
@@ -29686,7 +29686,7 @@
     </x:row>
     <x:row r="976" spans="1:9">
       <x:c r="A976" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B976" s="0" t="s">
         <x:v>47</x:v>
@@ -29715,7 +29715,7 @@
     </x:row>
     <x:row r="977" spans="1:9">
       <x:c r="A977" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B977" s="0" t="s">
         <x:v>47</x:v>
@@ -29744,7 +29744,7 @@
     </x:row>
     <x:row r="978" spans="1:9">
       <x:c r="A978" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B978" s="0" t="s">
         <x:v>47</x:v>
@@ -29773,7 +29773,7 @@
     </x:row>
     <x:row r="979" spans="1:9">
       <x:c r="A979" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B979" s="0" t="s">
         <x:v>23</x:v>
@@ -29802,7 +29802,7 @@
     </x:row>
     <x:row r="980" spans="1:9">
       <x:c r="A980" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B980" s="0" t="s">
         <x:v>23</x:v>
@@ -29831,7 +29831,7 @@
     </x:row>
     <x:row r="981" spans="1:9">
       <x:c r="A981" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B981" s="0" t="s">
         <x:v>23</x:v>
@@ -29860,7 +29860,7 @@
     </x:row>
     <x:row r="982" spans="1:9">
       <x:c r="A982" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B982" s="0" t="s">
         <x:v>27</x:v>
@@ -29889,7 +29889,7 @@
     </x:row>
     <x:row r="983" spans="1:9">
       <x:c r="A983" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B983" s="0" t="s">
         <x:v>27</x:v>
@@ -29904,7 +29904,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="F983" s="1" t="s">
-        <x:v>287</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="G983" s="1" t="s">
         <x:v>188</x:v>
@@ -29918,7 +29918,7 @@
     </x:row>
     <x:row r="984" spans="1:9">
       <x:c r="A984" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B984" s="0" t="s">
         <x:v>27</x:v>
@@ -29933,10 +29933,10 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="F984" s="1" t="s">
+        <x:v>287</x:v>
+      </x:c>
+      <x:c r="G984" s="1" t="s">
         <x:v>288</x:v>
-      </x:c>
-      <x:c r="G984" s="1" t="s">
-        <x:v>289</x:v>
       </x:c>
       <x:c r="H984" s="1" t="s">
         <x:v>84</x:v>
@@ -29947,7 +29947,7 @@
     </x:row>
     <x:row r="985" spans="1:9">
       <x:c r="A985" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B985" s="0" t="s">
         <x:v>65</x:v>
@@ -29976,7 +29976,7 @@
     </x:row>
     <x:row r="986" spans="1:9">
       <x:c r="A986" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B986" s="0" t="s">
         <x:v>65</x:v>
@@ -30005,7 +30005,7 @@
     </x:row>
     <x:row r="987" spans="1:9">
       <x:c r="A987" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B987" s="0" t="s">
         <x:v>65</x:v>
@@ -30034,7 +30034,7 @@
     </x:row>
     <x:row r="988" spans="1:9">
       <x:c r="A988" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B988" s="0" t="s">
         <x:v>31</x:v>
@@ -30063,7 +30063,7 @@
     </x:row>
     <x:row r="989" spans="1:9">
       <x:c r="A989" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B989" s="0" t="s">
         <x:v>31</x:v>
@@ -30075,7 +30075,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="E989" s="1" t="s">
-        <x:v>290</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="F989" s="1" t="s">
         <x:v>20</x:v>
@@ -30092,7 +30092,7 @@
     </x:row>
     <x:row r="990" spans="1:9">
       <x:c r="A990" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B990" s="0" t="s">
         <x:v>31</x:v>
@@ -30104,7 +30104,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E990" s="1" t="s">
-        <x:v>291</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="F990" s="1" t="s">
         <x:v>20</x:v>
@@ -30121,7 +30121,7 @@
     </x:row>
     <x:row r="991" spans="1:9">
       <x:c r="A991" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B991" s="0" t="s">
         <x:v>32</x:v>
@@ -30150,7 +30150,7 @@
     </x:row>
     <x:row r="992" spans="1:9">
       <x:c r="A992" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B992" s="0" t="s">
         <x:v>32</x:v>
@@ -30168,7 +30168,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="G992" s="1" t="s">
-        <x:v>292</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="H992" s="1" t="s">
         <x:v>78</x:v>
@@ -30179,7 +30179,7 @@
     </x:row>
     <x:row r="993" spans="1:9">
       <x:c r="A993" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B993" s="0" t="s">
         <x:v>32</x:v>
@@ -30197,7 +30197,7 @@
         <x:v>168</x:v>
       </x:c>
       <x:c r="G993" s="1" t="s">
-        <x:v>293</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="H993" s="1" t="s">
         <x:v>119</x:v>
@@ -30208,7 +30208,7 @@
     </x:row>
     <x:row r="994" spans="1:9">
       <x:c r="A994" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B994" s="0" t="s">
         <x:v>10</x:v>
@@ -30237,7 +30237,7 @@
     </x:row>
     <x:row r="995" spans="1:9">
       <x:c r="A995" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B995" s="0" t="s">
         <x:v>10</x:v>
@@ -30266,7 +30266,7 @@
     </x:row>
     <x:row r="996" spans="1:9">
       <x:c r="A996" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B996" s="0" t="s">
         <x:v>10</x:v>
@@ -30295,10 +30295,10 @@
     </x:row>
     <x:row r="997" spans="1:9">
       <x:c r="A997" s="0" t="s">
+        <x:v>293</x:v>
+      </x:c>
+      <x:c r="B997" s="0" t="s">
         <x:v>294</x:v>
-      </x:c>
-      <x:c r="B997" s="0" t="s">
-        <x:v>295</x:v>
       </x:c>
       <x:c r="C997" s="1" t="s">
         <x:v>16</x:v>
@@ -30324,10 +30324,10 @@
     </x:row>
     <x:row r="998" spans="1:9">
       <x:c r="A998" s="0" t="s">
+        <x:v>293</x:v>
+      </x:c>
+      <x:c r="B998" s="0" t="s">
         <x:v>294</x:v>
-      </x:c>
-      <x:c r="B998" s="0" t="s">
-        <x:v>295</x:v>
       </x:c>
       <x:c r="C998" s="1" t="s">
         <x:v>19</x:v>
@@ -30353,7 +30353,7 @@
     </x:row>
     <x:row r="999" spans="1:9">
       <x:c r="A999" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B999" s="0" t="s">
         <x:v>47</x:v>
@@ -30382,7 +30382,7 @@
     </x:row>
     <x:row r="1000" spans="1:9">
       <x:c r="A1000" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B1000" s="0" t="s">
         <x:v>47</x:v>
@@ -30411,7 +30411,7 @@
     </x:row>
     <x:row r="1001" spans="1:9">
       <x:c r="A1001" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B1001" s="0" t="s">
         <x:v>47</x:v>
@@ -30440,7 +30440,7 @@
     </x:row>
     <x:row r="1002" spans="1:9">
       <x:c r="A1002" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B1002" s="0" t="s">
         <x:v>23</x:v>
@@ -30469,7 +30469,7 @@
     </x:row>
     <x:row r="1003" spans="1:9">
       <x:c r="A1003" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B1003" s="0" t="s">
         <x:v>23</x:v>
@@ -30498,7 +30498,7 @@
     </x:row>
     <x:row r="1004" spans="1:9">
       <x:c r="A1004" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B1004" s="0" t="s">
         <x:v>23</x:v>
@@ -30527,7 +30527,7 @@
     </x:row>
     <x:row r="1005" spans="1:9">
       <x:c r="A1005" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B1005" s="0" t="s">
         <x:v>27</x:v>
@@ -30556,7 +30556,7 @@
     </x:row>
     <x:row r="1006" spans="1:9">
       <x:c r="A1006" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B1006" s="0" t="s">
         <x:v>27</x:v>
@@ -30585,7 +30585,7 @@
     </x:row>
     <x:row r="1007" spans="1:9">
       <x:c r="A1007" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B1007" s="0" t="s">
         <x:v>27</x:v>
@@ -30614,7 +30614,7 @@
     </x:row>
     <x:row r="1008" spans="1:9">
       <x:c r="A1008" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B1008" s="0" t="s">
         <x:v>65</x:v>
@@ -30643,7 +30643,7 @@
     </x:row>
     <x:row r="1009" spans="1:9">
       <x:c r="A1009" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B1009" s="0" t="s">
         <x:v>65</x:v>
@@ -30672,7 +30672,7 @@
     </x:row>
     <x:row r="1010" spans="1:9">
       <x:c r="A1010" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B1010" s="0" t="s">
         <x:v>65</x:v>
@@ -30701,7 +30701,7 @@
     </x:row>
     <x:row r="1011" spans="1:9">
       <x:c r="A1011" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B1011" s="0" t="s">
         <x:v>31</x:v>
@@ -30730,7 +30730,7 @@
     </x:row>
     <x:row r="1012" spans="1:9">
       <x:c r="A1012" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B1012" s="0" t="s">
         <x:v>31</x:v>
@@ -30759,7 +30759,7 @@
     </x:row>
     <x:row r="1013" spans="1:9">
       <x:c r="A1013" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B1013" s="0" t="s">
         <x:v>31</x:v>
@@ -30788,7 +30788,7 @@
     </x:row>
     <x:row r="1014" spans="1:9">
       <x:c r="A1014" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B1014" s="0" t="s">
         <x:v>32</x:v>
@@ -30817,7 +30817,7 @@
     </x:row>
     <x:row r="1015" spans="1:9">
       <x:c r="A1015" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B1015" s="0" t="s">
         <x:v>32</x:v>
@@ -30846,7 +30846,7 @@
     </x:row>
     <x:row r="1016" spans="1:9">
       <x:c r="A1016" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B1016" s="0" t="s">
         <x:v>32</x:v>
@@ -30875,7 +30875,7 @@
     </x:row>
     <x:row r="1017" spans="1:9">
       <x:c r="A1017" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1017" s="0" t="s">
         <x:v>10</x:v>
@@ -30904,7 +30904,7 @@
     </x:row>
     <x:row r="1018" spans="1:9">
       <x:c r="A1018" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1018" s="0" t="s">
         <x:v>10</x:v>
@@ -30933,7 +30933,7 @@
     </x:row>
     <x:row r="1019" spans="1:9">
       <x:c r="A1019" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1019" s="0" t="s">
         <x:v>10</x:v>
@@ -30962,7 +30962,7 @@
     </x:row>
     <x:row r="1020" spans="1:9">
       <x:c r="A1020" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1020" s="0" t="s">
         <x:v>47</x:v>
@@ -30991,7 +30991,7 @@
     </x:row>
     <x:row r="1021" spans="1:9">
       <x:c r="A1021" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1021" s="0" t="s">
         <x:v>47</x:v>
@@ -31020,7 +31020,7 @@
     </x:row>
     <x:row r="1022" spans="1:9">
       <x:c r="A1022" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1022" s="0" t="s">
         <x:v>23</x:v>
@@ -31049,7 +31049,7 @@
     </x:row>
     <x:row r="1023" spans="1:9">
       <x:c r="A1023" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1023" s="0" t="s">
         <x:v>23</x:v>
@@ -31078,7 +31078,7 @@
     </x:row>
     <x:row r="1024" spans="1:9">
       <x:c r="A1024" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1024" s="0" t="s">
         <x:v>23</x:v>
@@ -31107,7 +31107,7 @@
     </x:row>
     <x:row r="1025" spans="1:9">
       <x:c r="A1025" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1025" s="0" t="s">
         <x:v>27</x:v>
@@ -31136,7 +31136,7 @@
     </x:row>
     <x:row r="1026" spans="1:9">
       <x:c r="A1026" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1026" s="0" t="s">
         <x:v>27</x:v>
@@ -31165,7 +31165,7 @@
     </x:row>
     <x:row r="1027" spans="1:9">
       <x:c r="A1027" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1027" s="0" t="s">
         <x:v>27</x:v>
@@ -31194,7 +31194,7 @@
     </x:row>
     <x:row r="1028" spans="1:9">
       <x:c r="A1028" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1028" s="0" t="s">
         <x:v>31</x:v>
@@ -31223,7 +31223,7 @@
     </x:row>
     <x:row r="1029" spans="1:9">
       <x:c r="A1029" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1029" s="0" t="s">
         <x:v>31</x:v>
@@ -31252,7 +31252,7 @@
     </x:row>
     <x:row r="1030" spans="1:9">
       <x:c r="A1030" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1030" s="0" t="s">
         <x:v>31</x:v>
@@ -31281,7 +31281,7 @@
     </x:row>
     <x:row r="1031" spans="1:9">
       <x:c r="A1031" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1031" s="0" t="s">
         <x:v>32</x:v>
@@ -31310,7 +31310,7 @@
     </x:row>
     <x:row r="1032" spans="1:9">
       <x:c r="A1032" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1032" s="0" t="s">
         <x:v>32</x:v>
@@ -31339,7 +31339,7 @@
     </x:row>
     <x:row r="1033" spans="1:9">
       <x:c r="A1033" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1033" s="0" t="s">
         <x:v>32</x:v>
@@ -31368,7 +31368,7 @@
     </x:row>
     <x:row r="1034" spans="1:9">
       <x:c r="A1034" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B1034" s="0" t="s">
         <x:v>10</x:v>
@@ -31386,7 +31386,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="G1034" s="1" t="s">
-        <x:v>298</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="H1034" s="1" t="s">
         <x:v>76</x:v>
@@ -31397,7 +31397,7 @@
     </x:row>
     <x:row r="1035" spans="1:9">
       <x:c r="A1035" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B1035" s="0" t="s">
         <x:v>10</x:v>
@@ -31409,7 +31409,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E1035" s="1" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="F1035" s="1" t="s">
         <x:v>44</x:v>
@@ -31418,7 +31418,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="H1035" s="1" t="s">
-        <x:v>213</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="I1035" s="0" t="s">
         <x:v>12</x:v>
@@ -31426,7 +31426,7 @@
     </x:row>
     <x:row r="1036" spans="1:9">
       <x:c r="A1036" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B1036" s="0" t="s">
         <x:v>10</x:v>
@@ -31438,16 +31438,16 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E1036" s="1" t="s">
-        <x:v>272</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="F1036" s="1" t="s">
         <x:v>128</x:v>
       </x:c>
       <x:c r="G1036" s="1" t="s">
+        <x:v>298</x:v>
+      </x:c>
+      <x:c r="H1036" s="1" t="s">
         <x:v>299</x:v>
-      </x:c>
-      <x:c r="H1036" s="1" t="s">
-        <x:v>300</x:v>
       </x:c>
       <x:c r="I1036" s="0" t="s">
         <x:v>12</x:v>
@@ -31455,7 +31455,7 @@
     </x:row>
     <x:row r="1037" spans="1:9">
       <x:c r="A1037" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B1037" s="0" t="s">
         <x:v>47</x:v>
@@ -31484,7 +31484,7 @@
     </x:row>
     <x:row r="1038" spans="1:9">
       <x:c r="A1038" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B1038" s="0" t="s">
         <x:v>47</x:v>
@@ -31513,7 +31513,7 @@
     </x:row>
     <x:row r="1039" spans="1:9">
       <x:c r="A1039" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B1039" s="0" t="s">
         <x:v>47</x:v>
@@ -31542,7 +31542,7 @@
     </x:row>
     <x:row r="1040" spans="1:9">
       <x:c r="A1040" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B1040" s="0" t="s">
         <x:v>23</x:v>
@@ -31571,7 +31571,7 @@
     </x:row>
     <x:row r="1041" spans="1:9">
       <x:c r="A1041" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B1041" s="0" t="s">
         <x:v>23</x:v>
@@ -31600,7 +31600,7 @@
     </x:row>
     <x:row r="1042" spans="1:9">
       <x:c r="A1042" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B1042" s="0" t="s">
         <x:v>23</x:v>
@@ -31629,7 +31629,7 @@
     </x:row>
     <x:row r="1043" spans="1:9">
       <x:c r="A1043" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B1043" s="0" t="s">
         <x:v>27</x:v>
@@ -31658,7 +31658,7 @@
     </x:row>
     <x:row r="1044" spans="1:9">
       <x:c r="A1044" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B1044" s="0" t="s">
         <x:v>27</x:v>
@@ -31670,13 +31670,13 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E1044" s="1" t="s">
-        <x:v>235</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="F1044" s="1" t="s">
-        <x:v>263</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="G1044" s="1" t="s">
-        <x:v>292</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="H1044" s="1" t="s">
         <x:v>200</x:v>
@@ -31687,7 +31687,7 @@
     </x:row>
     <x:row r="1045" spans="1:9">
       <x:c r="A1045" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B1045" s="0" t="s">
         <x:v>27</x:v>
@@ -31699,7 +31699,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E1045" s="1" t="s">
-        <x:v>301</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="F1045" s="1" t="s">
         <x:v>86</x:v>
@@ -31716,7 +31716,7 @@
     </x:row>
     <x:row r="1046" spans="1:9">
       <x:c r="A1046" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B1046" s="0" t="s">
         <x:v>65</x:v>
@@ -31745,7 +31745,7 @@
     </x:row>
     <x:row r="1047" spans="1:9">
       <x:c r="A1047" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B1047" s="0" t="s">
         <x:v>65</x:v>
@@ -31774,7 +31774,7 @@
     </x:row>
     <x:row r="1048" spans="1:9">
       <x:c r="A1048" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B1048" s="0" t="s">
         <x:v>65</x:v>
@@ -31803,7 +31803,7 @@
     </x:row>
     <x:row r="1049" spans="1:9">
       <x:c r="A1049" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B1049" s="0" t="s">
         <x:v>31</x:v>
@@ -31832,7 +31832,7 @@
     </x:row>
     <x:row r="1050" spans="1:9">
       <x:c r="A1050" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B1050" s="0" t="s">
         <x:v>31</x:v>
@@ -31861,7 +31861,7 @@
     </x:row>
     <x:row r="1051" spans="1:9">
       <x:c r="A1051" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B1051" s="0" t="s">
         <x:v>31</x:v>
@@ -31890,7 +31890,7 @@
     </x:row>
     <x:row r="1052" spans="1:9">
       <x:c r="A1052" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B1052" s="0" t="s">
         <x:v>32</x:v>
@@ -31919,7 +31919,7 @@
     </x:row>
     <x:row r="1053" spans="1:9">
       <x:c r="A1053" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B1053" s="0" t="s">
         <x:v>32</x:v>
@@ -31948,7 +31948,7 @@
     </x:row>
     <x:row r="1054" spans="1:9">
       <x:c r="A1054" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B1054" s="0" t="s">
         <x:v>32</x:v>
@@ -31977,7 +31977,7 @@
     </x:row>
     <x:row r="1055" spans="1:9">
       <x:c r="A1055" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B1055" s="0" t="s">
         <x:v>10</x:v>
@@ -32006,7 +32006,7 @@
     </x:row>
     <x:row r="1056" spans="1:9">
       <x:c r="A1056" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B1056" s="0" t="s">
         <x:v>10</x:v>
@@ -32018,13 +32018,13 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E1056" s="1" t="s">
+        <x:v>302</x:v>
+      </x:c>
+      <x:c r="F1056" s="1" t="s">
         <x:v>303</x:v>
       </x:c>
-      <x:c r="F1056" s="1" t="s">
+      <x:c r="G1056" s="1" t="s">
         <x:v>304</x:v>
-      </x:c>
-      <x:c r="G1056" s="1" t="s">
-        <x:v>305</x:v>
       </x:c>
       <x:c r="H1056" s="1" t="s">
         <x:v>107</x:v>
@@ -32035,7 +32035,7 @@
     </x:row>
     <x:row r="1057" spans="1:9">
       <x:c r="A1057" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B1057" s="0" t="s">
         <x:v>10</x:v>
@@ -32047,16 +32047,16 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E1057" s="1" t="s">
-        <x:v>208</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="F1057" s="1" t="s">
+        <x:v>305</x:v>
+      </x:c>
+      <x:c r="G1057" s="1" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="H1057" s="1" t="s">
         <x:v>306</x:v>
-      </x:c>
-      <x:c r="G1057" s="1" t="s">
-        <x:v>273</x:v>
-      </x:c>
-      <x:c r="H1057" s="1" t="s">
-        <x:v>307</x:v>
       </x:c>
       <x:c r="I1057" s="0" t="s">
         <x:v>12</x:v>
@@ -32064,10 +32064,10 @@
     </x:row>
     <x:row r="1058" spans="1:9">
       <x:c r="A1058" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B1058" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="C1058" s="1" t="s">
         <x:v>11</x:v>
@@ -32093,10 +32093,10 @@
     </x:row>
     <x:row r="1059" spans="1:9">
       <x:c r="A1059" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B1059" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="C1059" s="1" t="s">
         <x:v>16</x:v>
@@ -32122,10 +32122,10 @@
     </x:row>
     <x:row r="1060" spans="1:9">
       <x:c r="A1060" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B1060" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="C1060" s="1" t="s">
         <x:v>19</x:v>
@@ -32151,7 +32151,7 @@
     </x:row>
     <x:row r="1061" spans="1:9">
       <x:c r="A1061" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B1061" s="0" t="s">
         <x:v>47</x:v>
@@ -32180,7 +32180,7 @@
     </x:row>
     <x:row r="1062" spans="1:9">
       <x:c r="A1062" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B1062" s="0" t="s">
         <x:v>47</x:v>
@@ -32209,7 +32209,7 @@
     </x:row>
     <x:row r="1063" spans="1:9">
       <x:c r="A1063" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B1063" s="0" t="s">
         <x:v>47</x:v>
@@ -32238,7 +32238,7 @@
     </x:row>
     <x:row r="1064" spans="1:9">
       <x:c r="A1064" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B1064" s="0" t="s">
         <x:v>23</x:v>
@@ -32267,7 +32267,7 @@
     </x:row>
     <x:row r="1065" spans="1:9">
       <x:c r="A1065" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B1065" s="0" t="s">
         <x:v>23</x:v>
@@ -32296,7 +32296,7 @@
     </x:row>
     <x:row r="1066" spans="1:9">
       <x:c r="A1066" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B1066" s="0" t="s">
         <x:v>23</x:v>
@@ -32325,7 +32325,7 @@
     </x:row>
     <x:row r="1067" spans="1:9">
       <x:c r="A1067" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B1067" s="0" t="s">
         <x:v>27</x:v>
@@ -32354,7 +32354,7 @@
     </x:row>
     <x:row r="1068" spans="1:9">
       <x:c r="A1068" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B1068" s="0" t="s">
         <x:v>27</x:v>
@@ -32366,7 +32366,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E1068" s="1" t="s">
-        <x:v>231</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="F1068" s="1" t="s">
         <x:v>86</x:v>
@@ -32383,7 +32383,7 @@
     </x:row>
     <x:row r="1069" spans="1:9">
       <x:c r="A1069" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B1069" s="0" t="s">
         <x:v>27</x:v>
@@ -32395,16 +32395,16 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="E1069" s="1" t="s">
-        <x:v>304</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="F1069" s="1" t="s">
+        <x:v>307</x:v>
+      </x:c>
+      <x:c r="G1069" s="1" t="s">
         <x:v>308</x:v>
       </x:c>
-      <x:c r="G1069" s="1" t="s">
+      <x:c r="H1069" s="1" t="s">
         <x:v>309</x:v>
-      </x:c>
-      <x:c r="H1069" s="1" t="s">
-        <x:v>185</x:v>
       </x:c>
       <x:c r="I1069" s="0" t="s">
         <x:v>12</x:v>
@@ -32412,7 +32412,7 @@
     </x:row>
     <x:row r="1070" spans="1:9">
       <x:c r="A1070" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B1070" s="0" t="s">
         <x:v>310</x:v>
@@ -32441,7 +32441,7 @@
     </x:row>
     <x:row r="1071" spans="1:9">
       <x:c r="A1071" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B1071" s="0" t="s">
         <x:v>310</x:v>
@@ -32470,7 +32470,7 @@
     </x:row>
     <x:row r="1072" spans="1:9">
       <x:c r="A1072" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B1072" s="0" t="s">
         <x:v>310</x:v>
@@ -32499,7 +32499,7 @@
     </x:row>
     <x:row r="1073" spans="1:9">
       <x:c r="A1073" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B1073" s="0" t="s">
         <x:v>65</x:v>
@@ -32528,7 +32528,7 @@
     </x:row>
     <x:row r="1074" spans="1:9">
       <x:c r="A1074" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B1074" s="0" t="s">
         <x:v>65</x:v>
@@ -32557,7 +32557,7 @@
     </x:row>
     <x:row r="1075" spans="1:9">
       <x:c r="A1075" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B1075" s="0" t="s">
         <x:v>65</x:v>
@@ -32586,7 +32586,7 @@
     </x:row>
     <x:row r="1076" spans="1:9">
       <x:c r="A1076" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B1076" s="0" t="s">
         <x:v>31</x:v>
@@ -32598,7 +32598,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E1076" s="1" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="F1076" s="1" t="s">
         <x:v>25</x:v>
@@ -32615,7 +32615,7 @@
     </x:row>
     <x:row r="1077" spans="1:9">
       <x:c r="A1077" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B1077" s="0" t="s">
         <x:v>31</x:v>
@@ -32644,7 +32644,7 @@
     </x:row>
     <x:row r="1078" spans="1:9">
       <x:c r="A1078" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B1078" s="0" t="s">
         <x:v>31</x:v>
@@ -32673,7 +32673,7 @@
     </x:row>
     <x:row r="1079" spans="1:9">
       <x:c r="A1079" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B1079" s="0" t="s">
         <x:v>32</x:v>
@@ -32702,7 +32702,7 @@
     </x:row>
     <x:row r="1080" spans="1:9">
       <x:c r="A1080" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B1080" s="0" t="s">
         <x:v>32</x:v>
@@ -32717,7 +32717,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="F1080" s="1" t="s">
-        <x:v>230</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="G1080" s="1" t="s">
         <x:v>38</x:v>
@@ -32731,7 +32731,7 @@
     </x:row>
     <x:row r="1081" spans="1:9">
       <x:c r="A1081" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B1081" s="0" t="s">
         <x:v>32</x:v>
@@ -32746,10 +32746,10 @@
         <x:v>198</x:v>
       </x:c>
       <x:c r="F1081" s="1" t="s">
-        <x:v>290</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="G1081" s="1" t="s">
-        <x:v>253</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="H1081" s="1" t="s">
         <x:v>43</x:v>
@@ -36330,7 +36330,7 @@
         <x:v>319</x:v>
       </x:c>
       <x:c r="B1205" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="C1205" s="1" t="s">
         <x:v>11</x:v>
@@ -36359,7 +36359,7 @@
         <x:v>319</x:v>
       </x:c>
       <x:c r="B1206" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="C1206" s="1" t="s">
         <x:v>19</x:v>
@@ -36629,7 +36629,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E1215" s="1" t="s">
-        <x:v>286</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="F1215" s="1" t="s">
         <x:v>323</x:v>
@@ -36638,7 +36638,7 @@
         <x:v>324</x:v>
       </x:c>
       <x:c r="H1215" s="1" t="s">
-        <x:v>300</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="I1215" s="0" t="s">
         <x:v>12</x:v>
@@ -37432,7 +37432,7 @@
         <x:v>326</x:v>
       </x:c>
       <x:c r="B1243" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="C1243" s="1" t="s">
         <x:v>11</x:v>
@@ -37461,7 +37461,7 @@
         <x:v>326</x:v>
       </x:c>
       <x:c r="B1244" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="C1244" s="1" t="s">
         <x:v>19</x:v>
@@ -38021,7 +38021,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E1263" s="1" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="F1263" s="1" t="s">
         <x:v>79</x:v>
@@ -38050,7 +38050,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="E1264" s="1" t="s">
-        <x:v>286</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="F1264" s="1" t="s">
         <x:v>94</x:v>
@@ -38282,7 +38282,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E1272" s="1" t="s">
-        <x:v>278</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="F1272" s="1" t="s">
         <x:v>84</x:v>
@@ -38314,7 +38314,7 @@
         <x:v>331</x:v>
       </x:c>
       <x:c r="F1273" s="1" t="s">
-        <x:v>231</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="G1273" s="1" t="s">
         <x:v>332</x:v>
@@ -38395,7 +38395,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="D1276" s="1" t="s">
-        <x:v>238</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="E1276" s="1" t="s">
         <x:v>90</x:v>
@@ -38491,7 +38491,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="G1279" s="1" t="s">
-        <x:v>241</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="H1279" s="1" t="s">
         <x:v>201</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -400,13 +400,13 @@
     <x:t>162</x:t>
   </x:si>
   <x:si>
-    <x:t>172</x:t>
+    <x:t>173</x:t>
   </x:si>
   <x:si>
     <x:t>208</x:t>
   </x:si>
   <x:si>
-    <x:t>216</x:t>
+    <x:t>217</x:t>
   </x:si>
   <x:si>
     <x:t>25</x:t>
@@ -535,7 +535,7 @@
     <x:t>530</x:t>
   </x:si>
   <x:si>
-    <x:t>1038</x:t>
+    <x:t>1039</x:t>
   </x:si>
   <x:si>
     <x:t>1001</x:t>
@@ -550,7 +550,7 @@
     <x:t>675</x:t>
   </x:si>
   <x:si>
-    <x:t>1372</x:t>
+    <x:t>1373</x:t>
   </x:si>
   <x:si>
     <x:t>1264</x:t>
@@ -880,9 +880,6 @@
     <x:t>167</x:t>
   </x:si>
   <x:si>
-    <x:t>173</x:t>
-  </x:si>
-  <x:si>
     <x:t>101</x:t>
   </x:si>
   <x:si>
@@ -908,6 +905,9 @@
   </x:si>
   <x:si>
     <x:t>93</x:t>
+  </x:si>
+  <x:si>
+    <x:t>172</x:t>
   </x:si>
   <x:si>
     <x:t>284</x:t>
@@ -23547,7 +23547,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D764" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E764" s="1" t="s">
         <x:v>150</x:v>
@@ -23576,7 +23576,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="D765" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E765" s="1" t="s">
         <x:v>202</x:v>
@@ -29936,7 +29936,7 @@
         <x:v>287</x:v>
       </x:c>
       <x:c r="G984" s="1" t="s">
-        <x:v>288</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="H984" s="1" t="s">
         <x:v>84</x:v>
@@ -30075,7 +30075,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="E989" s="1" t="s">
-        <x:v>289</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="F989" s="1" t="s">
         <x:v>20</x:v>
@@ -30104,7 +30104,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E990" s="1" t="s">
-        <x:v>290</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="F990" s="1" t="s">
         <x:v>20</x:v>
@@ -30168,7 +30168,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="G992" s="1" t="s">
-        <x:v>291</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="H992" s="1" t="s">
         <x:v>78</x:v>
@@ -30197,7 +30197,7 @@
         <x:v>168</x:v>
       </x:c>
       <x:c r="G993" s="1" t="s">
-        <x:v>292</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="H993" s="1" t="s">
         <x:v>119</x:v>
@@ -30208,7 +30208,7 @@
     </x:row>
     <x:row r="994" spans="1:9">
       <x:c r="A994" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B994" s="0" t="s">
         <x:v>10</x:v>
@@ -30237,7 +30237,7 @@
     </x:row>
     <x:row r="995" spans="1:9">
       <x:c r="A995" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B995" s="0" t="s">
         <x:v>10</x:v>
@@ -30266,7 +30266,7 @@
     </x:row>
     <x:row r="996" spans="1:9">
       <x:c r="A996" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B996" s="0" t="s">
         <x:v>10</x:v>
@@ -30295,10 +30295,10 @@
     </x:row>
     <x:row r="997" spans="1:9">
       <x:c r="A997" s="0" t="s">
+        <x:v>292</x:v>
+      </x:c>
+      <x:c r="B997" s="0" t="s">
         <x:v>293</x:v>
-      </x:c>
-      <x:c r="B997" s="0" t="s">
-        <x:v>294</x:v>
       </x:c>
       <x:c r="C997" s="1" t="s">
         <x:v>16</x:v>
@@ -30324,10 +30324,10 @@
     </x:row>
     <x:row r="998" spans="1:9">
       <x:c r="A998" s="0" t="s">
+        <x:v>292</x:v>
+      </x:c>
+      <x:c r="B998" s="0" t="s">
         <x:v>293</x:v>
-      </x:c>
-      <x:c r="B998" s="0" t="s">
-        <x:v>294</x:v>
       </x:c>
       <x:c r="C998" s="1" t="s">
         <x:v>19</x:v>
@@ -30353,7 +30353,7 @@
     </x:row>
     <x:row r="999" spans="1:9">
       <x:c r="A999" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B999" s="0" t="s">
         <x:v>47</x:v>
@@ -30382,7 +30382,7 @@
     </x:row>
     <x:row r="1000" spans="1:9">
       <x:c r="A1000" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B1000" s="0" t="s">
         <x:v>47</x:v>
@@ -30411,7 +30411,7 @@
     </x:row>
     <x:row r="1001" spans="1:9">
       <x:c r="A1001" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B1001" s="0" t="s">
         <x:v>47</x:v>
@@ -30440,7 +30440,7 @@
     </x:row>
     <x:row r="1002" spans="1:9">
       <x:c r="A1002" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B1002" s="0" t="s">
         <x:v>23</x:v>
@@ -30469,7 +30469,7 @@
     </x:row>
     <x:row r="1003" spans="1:9">
       <x:c r="A1003" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B1003" s="0" t="s">
         <x:v>23</x:v>
@@ -30498,7 +30498,7 @@
     </x:row>
     <x:row r="1004" spans="1:9">
       <x:c r="A1004" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B1004" s="0" t="s">
         <x:v>23</x:v>
@@ -30527,7 +30527,7 @@
     </x:row>
     <x:row r="1005" spans="1:9">
       <x:c r="A1005" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B1005" s="0" t="s">
         <x:v>27</x:v>
@@ -30556,7 +30556,7 @@
     </x:row>
     <x:row r="1006" spans="1:9">
       <x:c r="A1006" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B1006" s="0" t="s">
         <x:v>27</x:v>
@@ -30585,7 +30585,7 @@
     </x:row>
     <x:row r="1007" spans="1:9">
       <x:c r="A1007" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B1007" s="0" t="s">
         <x:v>27</x:v>
@@ -30614,7 +30614,7 @@
     </x:row>
     <x:row r="1008" spans="1:9">
       <x:c r="A1008" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B1008" s="0" t="s">
         <x:v>65</x:v>
@@ -30643,7 +30643,7 @@
     </x:row>
     <x:row r="1009" spans="1:9">
       <x:c r="A1009" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B1009" s="0" t="s">
         <x:v>65</x:v>
@@ -30672,7 +30672,7 @@
     </x:row>
     <x:row r="1010" spans="1:9">
       <x:c r="A1010" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B1010" s="0" t="s">
         <x:v>65</x:v>
@@ -30701,7 +30701,7 @@
     </x:row>
     <x:row r="1011" spans="1:9">
       <x:c r="A1011" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B1011" s="0" t="s">
         <x:v>31</x:v>
@@ -30730,7 +30730,7 @@
     </x:row>
     <x:row r="1012" spans="1:9">
       <x:c r="A1012" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B1012" s="0" t="s">
         <x:v>31</x:v>
@@ -30759,7 +30759,7 @@
     </x:row>
     <x:row r="1013" spans="1:9">
       <x:c r="A1013" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B1013" s="0" t="s">
         <x:v>31</x:v>
@@ -30788,7 +30788,7 @@
     </x:row>
     <x:row r="1014" spans="1:9">
       <x:c r="A1014" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B1014" s="0" t="s">
         <x:v>32</x:v>
@@ -30817,7 +30817,7 @@
     </x:row>
     <x:row r="1015" spans="1:9">
       <x:c r="A1015" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B1015" s="0" t="s">
         <x:v>32</x:v>
@@ -30846,7 +30846,7 @@
     </x:row>
     <x:row r="1016" spans="1:9">
       <x:c r="A1016" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B1016" s="0" t="s">
         <x:v>32</x:v>
@@ -30875,7 +30875,7 @@
     </x:row>
     <x:row r="1017" spans="1:9">
       <x:c r="A1017" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1017" s="0" t="s">
         <x:v>10</x:v>
@@ -30904,7 +30904,7 @@
     </x:row>
     <x:row r="1018" spans="1:9">
       <x:c r="A1018" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1018" s="0" t="s">
         <x:v>10</x:v>
@@ -30933,7 +30933,7 @@
     </x:row>
     <x:row r="1019" spans="1:9">
       <x:c r="A1019" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1019" s="0" t="s">
         <x:v>10</x:v>
@@ -30962,7 +30962,7 @@
     </x:row>
     <x:row r="1020" spans="1:9">
       <x:c r="A1020" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1020" s="0" t="s">
         <x:v>47</x:v>
@@ -30991,7 +30991,7 @@
     </x:row>
     <x:row r="1021" spans="1:9">
       <x:c r="A1021" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1021" s="0" t="s">
         <x:v>47</x:v>
@@ -31020,7 +31020,7 @@
     </x:row>
     <x:row r="1022" spans="1:9">
       <x:c r="A1022" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1022" s="0" t="s">
         <x:v>23</x:v>
@@ -31049,7 +31049,7 @@
     </x:row>
     <x:row r="1023" spans="1:9">
       <x:c r="A1023" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1023" s="0" t="s">
         <x:v>23</x:v>
@@ -31078,7 +31078,7 @@
     </x:row>
     <x:row r="1024" spans="1:9">
       <x:c r="A1024" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1024" s="0" t="s">
         <x:v>23</x:v>
@@ -31107,7 +31107,7 @@
     </x:row>
     <x:row r="1025" spans="1:9">
       <x:c r="A1025" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1025" s="0" t="s">
         <x:v>27</x:v>
@@ -31136,7 +31136,7 @@
     </x:row>
     <x:row r="1026" spans="1:9">
       <x:c r="A1026" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1026" s="0" t="s">
         <x:v>27</x:v>
@@ -31165,7 +31165,7 @@
     </x:row>
     <x:row r="1027" spans="1:9">
       <x:c r="A1027" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1027" s="0" t="s">
         <x:v>27</x:v>
@@ -31194,7 +31194,7 @@
     </x:row>
     <x:row r="1028" spans="1:9">
       <x:c r="A1028" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1028" s="0" t="s">
         <x:v>31</x:v>
@@ -31223,7 +31223,7 @@
     </x:row>
     <x:row r="1029" spans="1:9">
       <x:c r="A1029" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1029" s="0" t="s">
         <x:v>31</x:v>
@@ -31252,7 +31252,7 @@
     </x:row>
     <x:row r="1030" spans="1:9">
       <x:c r="A1030" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1030" s="0" t="s">
         <x:v>31</x:v>
@@ -31281,7 +31281,7 @@
     </x:row>
     <x:row r="1031" spans="1:9">
       <x:c r="A1031" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1031" s="0" t="s">
         <x:v>32</x:v>
@@ -31310,7 +31310,7 @@
     </x:row>
     <x:row r="1032" spans="1:9">
       <x:c r="A1032" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1032" s="0" t="s">
         <x:v>32</x:v>
@@ -31339,7 +31339,7 @@
     </x:row>
     <x:row r="1033" spans="1:9">
       <x:c r="A1033" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1033" s="0" t="s">
         <x:v>32</x:v>
@@ -31368,7 +31368,7 @@
     </x:row>
     <x:row r="1034" spans="1:9">
       <x:c r="A1034" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1034" s="0" t="s">
         <x:v>10</x:v>
@@ -31386,7 +31386,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="G1034" s="1" t="s">
-        <x:v>297</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="H1034" s="1" t="s">
         <x:v>76</x:v>
@@ -31397,7 +31397,7 @@
     </x:row>
     <x:row r="1035" spans="1:9">
       <x:c r="A1035" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1035" s="0" t="s">
         <x:v>10</x:v>
@@ -31426,7 +31426,7 @@
     </x:row>
     <x:row r="1036" spans="1:9">
       <x:c r="A1036" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1036" s="0" t="s">
         <x:v>10</x:v>
@@ -31441,7 +31441,7 @@
         <x:v>271</x:v>
       </x:c>
       <x:c r="F1036" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="G1036" s="1" t="s">
         <x:v>298</x:v>
@@ -31455,7 +31455,7 @@
     </x:row>
     <x:row r="1037" spans="1:9">
       <x:c r="A1037" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1037" s="0" t="s">
         <x:v>47</x:v>
@@ -31484,7 +31484,7 @@
     </x:row>
     <x:row r="1038" spans="1:9">
       <x:c r="A1038" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1038" s="0" t="s">
         <x:v>47</x:v>
@@ -31513,7 +31513,7 @@
     </x:row>
     <x:row r="1039" spans="1:9">
       <x:c r="A1039" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1039" s="0" t="s">
         <x:v>47</x:v>
@@ -31542,7 +31542,7 @@
     </x:row>
     <x:row r="1040" spans="1:9">
       <x:c r="A1040" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1040" s="0" t="s">
         <x:v>23</x:v>
@@ -31571,7 +31571,7 @@
     </x:row>
     <x:row r="1041" spans="1:9">
       <x:c r="A1041" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1041" s="0" t="s">
         <x:v>23</x:v>
@@ -31600,7 +31600,7 @@
     </x:row>
     <x:row r="1042" spans="1:9">
       <x:c r="A1042" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1042" s="0" t="s">
         <x:v>23</x:v>
@@ -31629,7 +31629,7 @@
     </x:row>
     <x:row r="1043" spans="1:9">
       <x:c r="A1043" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1043" s="0" t="s">
         <x:v>27</x:v>
@@ -31658,7 +31658,7 @@
     </x:row>
     <x:row r="1044" spans="1:9">
       <x:c r="A1044" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1044" s="0" t="s">
         <x:v>27</x:v>
@@ -31676,7 +31676,7 @@
         <x:v>262</x:v>
       </x:c>
       <x:c r="G1044" s="1" t="s">
-        <x:v>291</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="H1044" s="1" t="s">
         <x:v>200</x:v>
@@ -31687,7 +31687,7 @@
     </x:row>
     <x:row r="1045" spans="1:9">
       <x:c r="A1045" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1045" s="0" t="s">
         <x:v>27</x:v>
@@ -31716,7 +31716,7 @@
     </x:row>
     <x:row r="1046" spans="1:9">
       <x:c r="A1046" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1046" s="0" t="s">
         <x:v>65</x:v>
@@ -31745,7 +31745,7 @@
     </x:row>
     <x:row r="1047" spans="1:9">
       <x:c r="A1047" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1047" s="0" t="s">
         <x:v>65</x:v>
@@ -31774,7 +31774,7 @@
     </x:row>
     <x:row r="1048" spans="1:9">
       <x:c r="A1048" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1048" s="0" t="s">
         <x:v>65</x:v>
@@ -31803,7 +31803,7 @@
     </x:row>
     <x:row r="1049" spans="1:9">
       <x:c r="A1049" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1049" s="0" t="s">
         <x:v>31</x:v>
@@ -31832,7 +31832,7 @@
     </x:row>
     <x:row r="1050" spans="1:9">
       <x:c r="A1050" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1050" s="0" t="s">
         <x:v>31</x:v>
@@ -31861,7 +31861,7 @@
     </x:row>
     <x:row r="1051" spans="1:9">
       <x:c r="A1051" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1051" s="0" t="s">
         <x:v>31</x:v>
@@ -31890,7 +31890,7 @@
     </x:row>
     <x:row r="1052" spans="1:9">
       <x:c r="A1052" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1052" s="0" t="s">
         <x:v>32</x:v>
@@ -31919,7 +31919,7 @@
     </x:row>
     <x:row r="1053" spans="1:9">
       <x:c r="A1053" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1053" s="0" t="s">
         <x:v>32</x:v>
@@ -31948,7 +31948,7 @@
     </x:row>
     <x:row r="1054" spans="1:9">
       <x:c r="A1054" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1054" s="0" t="s">
         <x:v>32</x:v>
@@ -32067,7 +32067,7 @@
         <x:v>301</x:v>
       </x:c>
       <x:c r="B1058" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="C1058" s="1" t="s">
         <x:v>11</x:v>
@@ -32096,7 +32096,7 @@
         <x:v>301</x:v>
       </x:c>
       <x:c r="B1059" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="C1059" s="1" t="s">
         <x:v>16</x:v>
@@ -32125,7 +32125,7 @@
         <x:v>301</x:v>
       </x:c>
       <x:c r="B1060" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="C1060" s="1" t="s">
         <x:v>19</x:v>
@@ -32746,7 +32746,7 @@
         <x:v>198</x:v>
       </x:c>
       <x:c r="F1081" s="1" t="s">
-        <x:v>289</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="G1081" s="1" t="s">
         <x:v>252</x:v>
@@ -36330,7 +36330,7 @@
         <x:v>319</x:v>
       </x:c>
       <x:c r="B1205" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="C1205" s="1" t="s">
         <x:v>11</x:v>
@@ -36359,7 +36359,7 @@
         <x:v>319</x:v>
       </x:c>
       <x:c r="B1206" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="C1206" s="1" t="s">
         <x:v>19</x:v>
@@ -37432,7 +37432,7 @@
         <x:v>326</x:v>
       </x:c>
       <x:c r="B1243" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="C1243" s="1" t="s">
         <x:v>11</x:v>
@@ -37461,7 +37461,7 @@
         <x:v>326</x:v>
       </x:c>
       <x:c r="B1244" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="C1244" s="1" t="s">
         <x:v>19</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -307,7 +307,7 @@
     <x:t>248</x:t>
   </x:si>
   <x:si>
-    <x:t>191</x:t>
+    <x:t>192</x:t>
   </x:si>
   <x:si>
     <x:t>61</x:t>
@@ -319,7 +319,7 @@
     <x:t>320</x:t>
   </x:si>
   <x:si>
-    <x:t>260</x:t>
+    <x:t>261</x:t>
   </x:si>
   <x:si>
     <x:t>75</x:t>
@@ -733,6 +733,9 @@
     <x:t>129</x:t>
   </x:si>
   <x:si>
+    <x:t>191</x:t>
+  </x:si>
+  <x:si>
     <x:t>212</x:t>
   </x:si>
   <x:si>
@@ -929,9 +932,6 @@
   </x:si>
   <x:si>
     <x:t>232</x:t>
-  </x:si>
-  <x:si>
-    <x:t>261</x:t>
   </x:si>
   <x:si>
     <x:t>144</x:t>
@@ -21581,13 +21581,13 @@
         <x:v>238</x:v>
       </x:c>
       <x:c r="F696" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="G696" s="1" t="s">
-        <x:v>239</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="H696" s="1" t="s">
-        <x:v>240</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="I696" s="0" t="s">
         <x:v>12</x:v>
@@ -22001,7 +22001,7 @@
     </x:row>
     <x:row r="711" spans="1:9">
       <x:c r="A711" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B711" s="0" t="s">
         <x:v>10</x:v>
@@ -22030,7 +22030,7 @@
     </x:row>
     <x:row r="712" spans="1:9">
       <x:c r="A712" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B712" s="0" t="s">
         <x:v>10</x:v>
@@ -22059,7 +22059,7 @@
     </x:row>
     <x:row r="713" spans="1:9">
       <x:c r="A713" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B713" s="0" t="s">
         <x:v>23</x:v>
@@ -22088,7 +22088,7 @@
     </x:row>
     <x:row r="714" spans="1:9">
       <x:c r="A714" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B714" s="0" t="s">
         <x:v>23</x:v>
@@ -22117,7 +22117,7 @@
     </x:row>
     <x:row r="715" spans="1:9">
       <x:c r="A715" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B715" s="0" t="s">
         <x:v>27</x:v>
@@ -22146,7 +22146,7 @@
     </x:row>
     <x:row r="716" spans="1:9">
       <x:c r="A716" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B716" s="0" t="s">
         <x:v>27</x:v>
@@ -22175,7 +22175,7 @@
     </x:row>
     <x:row r="717" spans="1:9">
       <x:c r="A717" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B717" s="0" t="s">
         <x:v>27</x:v>
@@ -22204,7 +22204,7 @@
     </x:row>
     <x:row r="718" spans="1:9">
       <x:c r="A718" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B718" s="0" t="s">
         <x:v>31</x:v>
@@ -22233,7 +22233,7 @@
     </x:row>
     <x:row r="719" spans="1:9">
       <x:c r="A719" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B719" s="0" t="s">
         <x:v>31</x:v>
@@ -22262,7 +22262,7 @@
     </x:row>
     <x:row r="720" spans="1:9">
       <x:c r="A720" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B720" s="0" t="s">
         <x:v>31</x:v>
@@ -22291,7 +22291,7 @@
     </x:row>
     <x:row r="721" spans="1:9">
       <x:c r="A721" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B721" s="0" t="s">
         <x:v>32</x:v>
@@ -22320,7 +22320,7 @@
     </x:row>
     <x:row r="722" spans="1:9">
       <x:c r="A722" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B722" s="0" t="s">
         <x:v>32</x:v>
@@ -22349,7 +22349,7 @@
     </x:row>
     <x:row r="723" spans="1:9">
       <x:c r="A723" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B723" s="0" t="s">
         <x:v>10</x:v>
@@ -22378,7 +22378,7 @@
     </x:row>
     <x:row r="724" spans="1:9">
       <x:c r="A724" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B724" s="0" t="s">
         <x:v>10</x:v>
@@ -22407,7 +22407,7 @@
     </x:row>
     <x:row r="725" spans="1:9">
       <x:c r="A725" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B725" s="0" t="s">
         <x:v>10</x:v>
@@ -22436,7 +22436,7 @@
     </x:row>
     <x:row r="726" spans="1:9">
       <x:c r="A726" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B726" s="0" t="s">
         <x:v>23</x:v>
@@ -22465,7 +22465,7 @@
     </x:row>
     <x:row r="727" spans="1:9">
       <x:c r="A727" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B727" s="0" t="s">
         <x:v>23</x:v>
@@ -22494,7 +22494,7 @@
     </x:row>
     <x:row r="728" spans="1:9">
       <x:c r="A728" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B728" s="0" t="s">
         <x:v>23</x:v>
@@ -22523,7 +22523,7 @@
     </x:row>
     <x:row r="729" spans="1:9">
       <x:c r="A729" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B729" s="0" t="s">
         <x:v>27</x:v>
@@ -22552,7 +22552,7 @@
     </x:row>
     <x:row r="730" spans="1:9">
       <x:c r="A730" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B730" s="0" t="s">
         <x:v>27</x:v>
@@ -22581,7 +22581,7 @@
     </x:row>
     <x:row r="731" spans="1:9">
       <x:c r="A731" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B731" s="0" t="s">
         <x:v>27</x:v>
@@ -22610,7 +22610,7 @@
     </x:row>
     <x:row r="732" spans="1:9">
       <x:c r="A732" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B732" s="0" t="s">
         <x:v>31</x:v>
@@ -22639,7 +22639,7 @@
     </x:row>
     <x:row r="733" spans="1:9">
       <x:c r="A733" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B733" s="0" t="s">
         <x:v>31</x:v>
@@ -22668,7 +22668,7 @@
     </x:row>
     <x:row r="734" spans="1:9">
       <x:c r="A734" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B734" s="0" t="s">
         <x:v>31</x:v>
@@ -22697,7 +22697,7 @@
     </x:row>
     <x:row r="735" spans="1:9">
       <x:c r="A735" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B735" s="0" t="s">
         <x:v>32</x:v>
@@ -22726,7 +22726,7 @@
     </x:row>
     <x:row r="736" spans="1:9">
       <x:c r="A736" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B736" s="0" t="s">
         <x:v>32</x:v>
@@ -22755,7 +22755,7 @@
     </x:row>
     <x:row r="737" spans="1:9">
       <x:c r="A737" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B737" s="0" t="s">
         <x:v>10</x:v>
@@ -22784,7 +22784,7 @@
     </x:row>
     <x:row r="738" spans="1:9">
       <x:c r="A738" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B738" s="0" t="s">
         <x:v>10</x:v>
@@ -22813,7 +22813,7 @@
     </x:row>
     <x:row r="739" spans="1:9">
       <x:c r="A739" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B739" s="0" t="s">
         <x:v>10</x:v>
@@ -22842,7 +22842,7 @@
     </x:row>
     <x:row r="740" spans="1:9">
       <x:c r="A740" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B740" s="0" t="s">
         <x:v>23</x:v>
@@ -22871,7 +22871,7 @@
     </x:row>
     <x:row r="741" spans="1:9">
       <x:c r="A741" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B741" s="0" t="s">
         <x:v>23</x:v>
@@ -22900,7 +22900,7 @@
     </x:row>
     <x:row r="742" spans="1:9">
       <x:c r="A742" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B742" s="0" t="s">
         <x:v>23</x:v>
@@ -22929,7 +22929,7 @@
     </x:row>
     <x:row r="743" spans="1:9">
       <x:c r="A743" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B743" s="0" t="s">
         <x:v>27</x:v>
@@ -22958,7 +22958,7 @@
     </x:row>
     <x:row r="744" spans="1:9">
       <x:c r="A744" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B744" s="0" t="s">
         <x:v>27</x:v>
@@ -22987,7 +22987,7 @@
     </x:row>
     <x:row r="745" spans="1:9">
       <x:c r="A745" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B745" s="0" t="s">
         <x:v>27</x:v>
@@ -23016,7 +23016,7 @@
     </x:row>
     <x:row r="746" spans="1:9">
       <x:c r="A746" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B746" s="0" t="s">
         <x:v>31</x:v>
@@ -23045,7 +23045,7 @@
     </x:row>
     <x:row r="747" spans="1:9">
       <x:c r="A747" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B747" s="0" t="s">
         <x:v>31</x:v>
@@ -23074,7 +23074,7 @@
     </x:row>
     <x:row r="748" spans="1:9">
       <x:c r="A748" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B748" s="0" t="s">
         <x:v>31</x:v>
@@ -23103,7 +23103,7 @@
     </x:row>
     <x:row r="749" spans="1:9">
       <x:c r="A749" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B749" s="0" t="s">
         <x:v>32</x:v>
@@ -23132,7 +23132,7 @@
     </x:row>
     <x:row r="750" spans="1:9">
       <x:c r="A750" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B750" s="0" t="s">
         <x:v>32</x:v>
@@ -23161,7 +23161,7 @@
     </x:row>
     <x:row r="751" spans="1:9">
       <x:c r="A751" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B751" s="0" t="s">
         <x:v>32</x:v>
@@ -23190,7 +23190,7 @@
     </x:row>
     <x:row r="752" spans="1:9">
       <x:c r="A752" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B752" s="0" t="s">
         <x:v>10</x:v>
@@ -23219,7 +23219,7 @@
     </x:row>
     <x:row r="753" spans="1:9">
       <x:c r="A753" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B753" s="0" t="s">
         <x:v>10</x:v>
@@ -23248,7 +23248,7 @@
     </x:row>
     <x:row r="754" spans="1:9">
       <x:c r="A754" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B754" s="0" t="s">
         <x:v>10</x:v>
@@ -23277,7 +23277,7 @@
     </x:row>
     <x:row r="755" spans="1:9">
       <x:c r="A755" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B755" s="0" t="s">
         <x:v>23</x:v>
@@ -23306,7 +23306,7 @@
     </x:row>
     <x:row r="756" spans="1:9">
       <x:c r="A756" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B756" s="0" t="s">
         <x:v>23</x:v>
@@ -23335,7 +23335,7 @@
     </x:row>
     <x:row r="757" spans="1:9">
       <x:c r="A757" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B757" s="0" t="s">
         <x:v>27</x:v>
@@ -23364,7 +23364,7 @@
     </x:row>
     <x:row r="758" spans="1:9">
       <x:c r="A758" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B758" s="0" t="s">
         <x:v>27</x:v>
@@ -23393,7 +23393,7 @@
     </x:row>
     <x:row r="759" spans="1:9">
       <x:c r="A759" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B759" s="0" t="s">
         <x:v>27</x:v>
@@ -23422,7 +23422,7 @@
     </x:row>
     <x:row r="760" spans="1:9">
       <x:c r="A760" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B760" s="0" t="s">
         <x:v>31</x:v>
@@ -23451,7 +23451,7 @@
     </x:row>
     <x:row r="761" spans="1:9">
       <x:c r="A761" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B761" s="0" t="s">
         <x:v>31</x:v>
@@ -23480,7 +23480,7 @@
     </x:row>
     <x:row r="762" spans="1:9">
       <x:c r="A762" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B762" s="0" t="s">
         <x:v>31</x:v>
@@ -23509,7 +23509,7 @@
     </x:row>
     <x:row r="763" spans="1:9">
       <x:c r="A763" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B763" s="0" t="s">
         <x:v>10</x:v>
@@ -23524,7 +23524,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="F763" s="1" t="s">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="G763" s="1" t="s">
         <x:v>46</x:v>
@@ -23538,7 +23538,7 @@
     </x:row>
     <x:row r="764" spans="1:9">
       <x:c r="A764" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B764" s="0" t="s">
         <x:v>10</x:v>
@@ -23553,7 +23553,7 @@
         <x:v>150</x:v>
       </x:c>
       <x:c r="F764" s="1" t="s">
-        <x:v>247</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="G764" s="1" t="s">
         <x:v>145</x:v>
@@ -23567,7 +23567,7 @@
     </x:row>
     <x:row r="765" spans="1:9">
       <x:c r="A765" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B765" s="0" t="s">
         <x:v>10</x:v>
@@ -23582,13 +23582,13 @@
         <x:v>202</x:v>
       </x:c>
       <x:c r="F765" s="1" t="s">
-        <x:v>248</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="G765" s="1" t="s">
-        <x:v>249</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="H765" s="1" t="s">
-        <x:v>250</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="I765" s="0" t="s">
         <x:v>12</x:v>
@@ -23596,7 +23596,7 @@
     </x:row>
     <x:row r="766" spans="1:9">
       <x:c r="A766" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B766" s="0" t="s">
         <x:v>47</x:v>
@@ -23625,7 +23625,7 @@
     </x:row>
     <x:row r="767" spans="1:9">
       <x:c r="A767" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B767" s="0" t="s">
         <x:v>47</x:v>
@@ -23654,7 +23654,7 @@
     </x:row>
     <x:row r="768" spans="1:9">
       <x:c r="A768" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B768" s="0" t="s">
         <x:v>47</x:v>
@@ -23683,7 +23683,7 @@
     </x:row>
     <x:row r="769" spans="1:9">
       <x:c r="A769" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B769" s="0" t="s">
         <x:v>23</x:v>
@@ -23712,7 +23712,7 @@
     </x:row>
     <x:row r="770" spans="1:9">
       <x:c r="A770" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B770" s="0" t="s">
         <x:v>23</x:v>
@@ -23741,7 +23741,7 @@
     </x:row>
     <x:row r="771" spans="1:9">
       <x:c r="A771" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B771" s="0" t="s">
         <x:v>23</x:v>
@@ -23770,7 +23770,7 @@
     </x:row>
     <x:row r="772" spans="1:9">
       <x:c r="A772" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B772" s="0" t="s">
         <x:v>27</x:v>
@@ -23799,7 +23799,7 @@
     </x:row>
     <x:row r="773" spans="1:9">
       <x:c r="A773" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B773" s="0" t="s">
         <x:v>27</x:v>
@@ -23828,7 +23828,7 @@
     </x:row>
     <x:row r="774" spans="1:9">
       <x:c r="A774" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B774" s="0" t="s">
         <x:v>27</x:v>
@@ -23843,7 +23843,7 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="F774" s="1" t="s">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="G774" s="1" t="s">
         <x:v>199</x:v>
@@ -23857,7 +23857,7 @@
     </x:row>
     <x:row r="775" spans="1:9">
       <x:c r="A775" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B775" s="0" t="s">
         <x:v>65</x:v>
@@ -23886,7 +23886,7 @@
     </x:row>
     <x:row r="776" spans="1:9">
       <x:c r="A776" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B776" s="0" t="s">
         <x:v>65</x:v>
@@ -23915,7 +23915,7 @@
     </x:row>
     <x:row r="777" spans="1:9">
       <x:c r="A777" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B777" s="0" t="s">
         <x:v>65</x:v>
@@ -23944,7 +23944,7 @@
     </x:row>
     <x:row r="778" spans="1:9">
       <x:c r="A778" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B778" s="0" t="s">
         <x:v>31</x:v>
@@ -23973,7 +23973,7 @@
     </x:row>
     <x:row r="779" spans="1:9">
       <x:c r="A779" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B779" s="0" t="s">
         <x:v>31</x:v>
@@ -24002,7 +24002,7 @@
     </x:row>
     <x:row r="780" spans="1:9">
       <x:c r="A780" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B780" s="0" t="s">
         <x:v>31</x:v>
@@ -24031,7 +24031,7 @@
     </x:row>
     <x:row r="781" spans="1:9">
       <x:c r="A781" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B781" s="0" t="s">
         <x:v>32</x:v>
@@ -24060,7 +24060,7 @@
     </x:row>
     <x:row r="782" spans="1:9">
       <x:c r="A782" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B782" s="0" t="s">
         <x:v>32</x:v>
@@ -24089,7 +24089,7 @@
     </x:row>
     <x:row r="783" spans="1:9">
       <x:c r="A783" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B783" s="0" t="s">
         <x:v>32</x:v>
@@ -24107,7 +24107,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="G783" s="1" t="s">
-        <x:v>252</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="H783" s="1" t="s">
         <x:v>132</x:v>
@@ -24118,7 +24118,7 @@
     </x:row>
     <x:row r="784" spans="1:9">
       <x:c r="A784" s="0" t="s">
-        <x:v>253</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="B784" s="0" t="s">
         <x:v>10</x:v>
@@ -24147,7 +24147,7 @@
     </x:row>
     <x:row r="785" spans="1:9">
       <x:c r="A785" s="0" t="s">
-        <x:v>253</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="B785" s="0" t="s">
         <x:v>10</x:v>
@@ -24176,7 +24176,7 @@
     </x:row>
     <x:row r="786" spans="1:9">
       <x:c r="A786" s="0" t="s">
-        <x:v>253</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="B786" s="0" t="s">
         <x:v>10</x:v>
@@ -24205,7 +24205,7 @@
     </x:row>
     <x:row r="787" spans="1:9">
       <x:c r="A787" s="0" t="s">
-        <x:v>253</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="B787" s="0" t="s">
         <x:v>23</x:v>
@@ -24234,7 +24234,7 @@
     </x:row>
     <x:row r="788" spans="1:9">
       <x:c r="A788" s="0" t="s">
-        <x:v>253</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="B788" s="0" t="s">
         <x:v>23</x:v>
@@ -24263,7 +24263,7 @@
     </x:row>
     <x:row r="789" spans="1:9">
       <x:c r="A789" s="0" t="s">
-        <x:v>253</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="B789" s="0" t="s">
         <x:v>23</x:v>
@@ -24292,7 +24292,7 @@
     </x:row>
     <x:row r="790" spans="1:9">
       <x:c r="A790" s="0" t="s">
-        <x:v>253</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="B790" s="0" t="s">
         <x:v>27</x:v>
@@ -24321,7 +24321,7 @@
     </x:row>
     <x:row r="791" spans="1:9">
       <x:c r="A791" s="0" t="s">
-        <x:v>253</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="B791" s="0" t="s">
         <x:v>27</x:v>
@@ -24350,7 +24350,7 @@
     </x:row>
     <x:row r="792" spans="1:9">
       <x:c r="A792" s="0" t="s">
-        <x:v>253</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="B792" s="0" t="s">
         <x:v>27</x:v>
@@ -24379,7 +24379,7 @@
     </x:row>
     <x:row r="793" spans="1:9">
       <x:c r="A793" s="0" t="s">
-        <x:v>253</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="B793" s="0" t="s">
         <x:v>65</x:v>
@@ -24408,7 +24408,7 @@
     </x:row>
     <x:row r="794" spans="1:9">
       <x:c r="A794" s="0" t="s">
-        <x:v>253</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="B794" s="0" t="s">
         <x:v>65</x:v>
@@ -24437,7 +24437,7 @@
     </x:row>
     <x:row r="795" spans="1:9">
       <x:c r="A795" s="0" t="s">
-        <x:v>253</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="B795" s="0" t="s">
         <x:v>65</x:v>
@@ -24466,7 +24466,7 @@
     </x:row>
     <x:row r="796" spans="1:9">
       <x:c r="A796" s="0" t="s">
-        <x:v>253</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="B796" s="0" t="s">
         <x:v>31</x:v>
@@ -24495,7 +24495,7 @@
     </x:row>
     <x:row r="797" spans="1:9">
       <x:c r="A797" s="0" t="s">
-        <x:v>253</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="B797" s="0" t="s">
         <x:v>31</x:v>
@@ -24524,7 +24524,7 @@
     </x:row>
     <x:row r="798" spans="1:9">
       <x:c r="A798" s="0" t="s">
-        <x:v>253</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="B798" s="0" t="s">
         <x:v>31</x:v>
@@ -24553,7 +24553,7 @@
     </x:row>
     <x:row r="799" spans="1:9">
       <x:c r="A799" s="0" t="s">
-        <x:v>253</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="B799" s="0" t="s">
         <x:v>32</x:v>
@@ -24582,7 +24582,7 @@
     </x:row>
     <x:row r="800" spans="1:9">
       <x:c r="A800" s="0" t="s">
-        <x:v>253</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="B800" s="0" t="s">
         <x:v>32</x:v>
@@ -24611,7 +24611,7 @@
     </x:row>
     <x:row r="801" spans="1:9">
       <x:c r="A801" s="0" t="s">
-        <x:v>253</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="B801" s="0" t="s">
         <x:v>32</x:v>
@@ -24640,7 +24640,7 @@
     </x:row>
     <x:row r="802" spans="1:9">
       <x:c r="A802" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B802" s="0" t="s">
         <x:v>10</x:v>
@@ -24669,7 +24669,7 @@
     </x:row>
     <x:row r="803" spans="1:9">
       <x:c r="A803" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B803" s="0" t="s">
         <x:v>10</x:v>
@@ -24698,7 +24698,7 @@
     </x:row>
     <x:row r="804" spans="1:9">
       <x:c r="A804" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B804" s="0" t="s">
         <x:v>10</x:v>
@@ -24727,7 +24727,7 @@
     </x:row>
     <x:row r="805" spans="1:9">
       <x:c r="A805" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B805" s="0" t="s">
         <x:v>23</x:v>
@@ -24756,7 +24756,7 @@
     </x:row>
     <x:row r="806" spans="1:9">
       <x:c r="A806" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B806" s="0" t="s">
         <x:v>23</x:v>
@@ -24785,7 +24785,7 @@
     </x:row>
     <x:row r="807" spans="1:9">
       <x:c r="A807" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B807" s="0" t="s">
         <x:v>23</x:v>
@@ -24814,7 +24814,7 @@
     </x:row>
     <x:row r="808" spans="1:9">
       <x:c r="A808" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B808" s="0" t="s">
         <x:v>27</x:v>
@@ -24843,7 +24843,7 @@
     </x:row>
     <x:row r="809" spans="1:9">
       <x:c r="A809" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B809" s="0" t="s">
         <x:v>27</x:v>
@@ -24872,7 +24872,7 @@
     </x:row>
     <x:row r="810" spans="1:9">
       <x:c r="A810" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B810" s="0" t="s">
         <x:v>27</x:v>
@@ -24901,7 +24901,7 @@
     </x:row>
     <x:row r="811" spans="1:9">
       <x:c r="A811" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B811" s="0" t="s">
         <x:v>31</x:v>
@@ -24930,7 +24930,7 @@
     </x:row>
     <x:row r="812" spans="1:9">
       <x:c r="A812" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B812" s="0" t="s">
         <x:v>31</x:v>
@@ -24959,7 +24959,7 @@
     </x:row>
     <x:row r="813" spans="1:9">
       <x:c r="A813" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B813" s="0" t="s">
         <x:v>31</x:v>
@@ -24988,7 +24988,7 @@
     </x:row>
     <x:row r="814" spans="1:9">
       <x:c r="A814" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B814" s="0" t="s">
         <x:v>32</x:v>
@@ -25017,7 +25017,7 @@
     </x:row>
     <x:row r="815" spans="1:9">
       <x:c r="A815" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B815" s="0" t="s">
         <x:v>32</x:v>
@@ -25046,7 +25046,7 @@
     </x:row>
     <x:row r="816" spans="1:9">
       <x:c r="A816" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B816" s="0" t="s">
         <x:v>32</x:v>
@@ -25075,7 +25075,7 @@
     </x:row>
     <x:row r="817" spans="1:9">
       <x:c r="A817" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B817" s="0" t="s">
         <x:v>10</x:v>
@@ -25104,7 +25104,7 @@
     </x:row>
     <x:row r="818" spans="1:9">
       <x:c r="A818" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B818" s="0" t="s">
         <x:v>10</x:v>
@@ -25133,7 +25133,7 @@
     </x:row>
     <x:row r="819" spans="1:9">
       <x:c r="A819" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B819" s="0" t="s">
         <x:v>10</x:v>
@@ -25162,7 +25162,7 @@
     </x:row>
     <x:row r="820" spans="1:9">
       <x:c r="A820" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B820" s="0" t="s">
         <x:v>23</x:v>
@@ -25191,7 +25191,7 @@
     </x:row>
     <x:row r="821" spans="1:9">
       <x:c r="A821" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B821" s="0" t="s">
         <x:v>23</x:v>
@@ -25220,7 +25220,7 @@
     </x:row>
     <x:row r="822" spans="1:9">
       <x:c r="A822" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B822" s="0" t="s">
         <x:v>23</x:v>
@@ -25249,7 +25249,7 @@
     </x:row>
     <x:row r="823" spans="1:9">
       <x:c r="A823" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B823" s="0" t="s">
         <x:v>27</x:v>
@@ -25278,7 +25278,7 @@
     </x:row>
     <x:row r="824" spans="1:9">
       <x:c r="A824" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B824" s="0" t="s">
         <x:v>27</x:v>
@@ -25307,7 +25307,7 @@
     </x:row>
     <x:row r="825" spans="1:9">
       <x:c r="A825" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B825" s="0" t="s">
         <x:v>27</x:v>
@@ -25336,7 +25336,7 @@
     </x:row>
     <x:row r="826" spans="1:9">
       <x:c r="A826" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B826" s="0" t="s">
         <x:v>65</x:v>
@@ -25365,7 +25365,7 @@
     </x:row>
     <x:row r="827" spans="1:9">
       <x:c r="A827" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B827" s="0" t="s">
         <x:v>65</x:v>
@@ -25394,7 +25394,7 @@
     </x:row>
     <x:row r="828" spans="1:9">
       <x:c r="A828" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B828" s="0" t="s">
         <x:v>32</x:v>
@@ -25423,7 +25423,7 @@
     </x:row>
     <x:row r="829" spans="1:9">
       <x:c r="A829" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B829" s="0" t="s">
         <x:v>32</x:v>
@@ -25452,7 +25452,7 @@
     </x:row>
     <x:row r="830" spans="1:9">
       <x:c r="A830" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B830" s="0" t="s">
         <x:v>32</x:v>
@@ -25481,7 +25481,7 @@
     </x:row>
     <x:row r="831" spans="1:9">
       <x:c r="A831" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B831" s="0" t="s">
         <x:v>10</x:v>
@@ -25510,7 +25510,7 @@
     </x:row>
     <x:row r="832" spans="1:9">
       <x:c r="A832" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B832" s="0" t="s">
         <x:v>10</x:v>
@@ -25539,7 +25539,7 @@
     </x:row>
     <x:row r="833" spans="1:9">
       <x:c r="A833" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B833" s="0" t="s">
         <x:v>23</x:v>
@@ -25568,7 +25568,7 @@
     </x:row>
     <x:row r="834" spans="1:9">
       <x:c r="A834" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B834" s="0" t="s">
         <x:v>23</x:v>
@@ -25597,7 +25597,7 @@
     </x:row>
     <x:row r="835" spans="1:9">
       <x:c r="A835" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B835" s="0" t="s">
         <x:v>27</x:v>
@@ -25626,7 +25626,7 @@
     </x:row>
     <x:row r="836" spans="1:9">
       <x:c r="A836" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B836" s="0" t="s">
         <x:v>27</x:v>
@@ -25655,7 +25655,7 @@
     </x:row>
     <x:row r="837" spans="1:9">
       <x:c r="A837" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B837" s="0" t="s">
         <x:v>27</x:v>
@@ -25684,7 +25684,7 @@
     </x:row>
     <x:row r="838" spans="1:9">
       <x:c r="A838" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B838" s="0" t="s">
         <x:v>31</x:v>
@@ -25713,7 +25713,7 @@
     </x:row>
     <x:row r="839" spans="1:9">
       <x:c r="A839" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B839" s="0" t="s">
         <x:v>31</x:v>
@@ -25742,7 +25742,7 @@
     </x:row>
     <x:row r="840" spans="1:9">
       <x:c r="A840" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B840" s="0" t="s">
         <x:v>10</x:v>
@@ -25771,7 +25771,7 @@
     </x:row>
     <x:row r="841" spans="1:9">
       <x:c r="A841" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B841" s="0" t="s">
         <x:v>10</x:v>
@@ -25800,7 +25800,7 @@
     </x:row>
     <x:row r="842" spans="1:9">
       <x:c r="A842" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B842" s="0" t="s">
         <x:v>10</x:v>
@@ -25829,7 +25829,7 @@
     </x:row>
     <x:row r="843" spans="1:9">
       <x:c r="A843" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B843" s="0" t="s">
         <x:v>23</x:v>
@@ -25858,7 +25858,7 @@
     </x:row>
     <x:row r="844" spans="1:9">
       <x:c r="A844" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B844" s="0" t="s">
         <x:v>23</x:v>
@@ -25887,7 +25887,7 @@
     </x:row>
     <x:row r="845" spans="1:9">
       <x:c r="A845" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B845" s="0" t="s">
         <x:v>23</x:v>
@@ -25916,7 +25916,7 @@
     </x:row>
     <x:row r="846" spans="1:9">
       <x:c r="A846" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B846" s="0" t="s">
         <x:v>27</x:v>
@@ -25945,7 +25945,7 @@
     </x:row>
     <x:row r="847" spans="1:9">
       <x:c r="A847" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B847" s="0" t="s">
         <x:v>27</x:v>
@@ -25974,7 +25974,7 @@
     </x:row>
     <x:row r="848" spans="1:9">
       <x:c r="A848" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B848" s="0" t="s">
         <x:v>27</x:v>
@@ -26003,7 +26003,7 @@
     </x:row>
     <x:row r="849" spans="1:9">
       <x:c r="A849" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B849" s="0" t="s">
         <x:v>65</x:v>
@@ -26032,7 +26032,7 @@
     </x:row>
     <x:row r="850" spans="1:9">
       <x:c r="A850" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B850" s="0" t="s">
         <x:v>65</x:v>
@@ -26061,7 +26061,7 @@
     </x:row>
     <x:row r="851" spans="1:9">
       <x:c r="A851" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B851" s="0" t="s">
         <x:v>65</x:v>
@@ -26090,7 +26090,7 @@
     </x:row>
     <x:row r="852" spans="1:9">
       <x:c r="A852" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B852" s="0" t="s">
         <x:v>31</x:v>
@@ -26119,7 +26119,7 @@
     </x:row>
     <x:row r="853" spans="1:9">
       <x:c r="A853" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B853" s="0" t="s">
         <x:v>31</x:v>
@@ -26148,7 +26148,7 @@
     </x:row>
     <x:row r="854" spans="1:9">
       <x:c r="A854" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B854" s="0" t="s">
         <x:v>31</x:v>
@@ -26177,7 +26177,7 @@
     </x:row>
     <x:row r="855" spans="1:9">
       <x:c r="A855" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B855" s="0" t="s">
         <x:v>32</x:v>
@@ -26206,7 +26206,7 @@
     </x:row>
     <x:row r="856" spans="1:9">
       <x:c r="A856" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B856" s="0" t="s">
         <x:v>32</x:v>
@@ -26235,7 +26235,7 @@
     </x:row>
     <x:row r="857" spans="1:9">
       <x:c r="A857" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B857" s="0" t="s">
         <x:v>32</x:v>
@@ -26264,7 +26264,7 @@
     </x:row>
     <x:row r="858" spans="1:9">
       <x:c r="A858" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B858" s="0" t="s">
         <x:v>10</x:v>
@@ -26293,7 +26293,7 @@
     </x:row>
     <x:row r="859" spans="1:9">
       <x:c r="A859" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B859" s="0" t="s">
         <x:v>10</x:v>
@@ -26322,7 +26322,7 @@
     </x:row>
     <x:row r="860" spans="1:9">
       <x:c r="A860" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B860" s="0" t="s">
         <x:v>10</x:v>
@@ -26351,7 +26351,7 @@
     </x:row>
     <x:row r="861" spans="1:9">
       <x:c r="A861" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B861" s="0" t="s">
         <x:v>23</x:v>
@@ -26380,7 +26380,7 @@
     </x:row>
     <x:row r="862" spans="1:9">
       <x:c r="A862" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B862" s="0" t="s">
         <x:v>23</x:v>
@@ -26409,7 +26409,7 @@
     </x:row>
     <x:row r="863" spans="1:9">
       <x:c r="A863" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B863" s="0" t="s">
         <x:v>23</x:v>
@@ -26438,7 +26438,7 @@
     </x:row>
     <x:row r="864" spans="1:9">
       <x:c r="A864" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B864" s="0" t="s">
         <x:v>27</x:v>
@@ -26467,7 +26467,7 @@
     </x:row>
     <x:row r="865" spans="1:9">
       <x:c r="A865" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B865" s="0" t="s">
         <x:v>27</x:v>
@@ -26496,7 +26496,7 @@
     </x:row>
     <x:row r="866" spans="1:9">
       <x:c r="A866" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B866" s="0" t="s">
         <x:v>27</x:v>
@@ -26525,7 +26525,7 @@
     </x:row>
     <x:row r="867" spans="1:9">
       <x:c r="A867" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B867" s="0" t="s">
         <x:v>31</x:v>
@@ -26554,7 +26554,7 @@
     </x:row>
     <x:row r="868" spans="1:9">
       <x:c r="A868" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B868" s="0" t="s">
         <x:v>31</x:v>
@@ -26583,7 +26583,7 @@
     </x:row>
     <x:row r="869" spans="1:9">
       <x:c r="A869" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B869" s="0" t="s">
         <x:v>31</x:v>
@@ -26612,7 +26612,7 @@
     </x:row>
     <x:row r="870" spans="1:9">
       <x:c r="A870" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B870" s="0" t="s">
         <x:v>32</x:v>
@@ -26641,7 +26641,7 @@
     </x:row>
     <x:row r="871" spans="1:9">
       <x:c r="A871" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B871" s="0" t="s">
         <x:v>32</x:v>
@@ -26670,7 +26670,7 @@
     </x:row>
     <x:row r="872" spans="1:9">
       <x:c r="A872" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B872" s="0" t="s">
         <x:v>10</x:v>
@@ -26685,13 +26685,13 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="F872" s="1" t="s">
-        <x:v>260</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="G872" s="1" t="s">
-        <x:v>261</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="H872" s="1" t="s">
-        <x:v>262</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="I872" s="0" t="s">
         <x:v>12</x:v>
@@ -26699,7 +26699,7 @@
     </x:row>
     <x:row r="873" spans="1:9">
       <x:c r="A873" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B873" s="0" t="s">
         <x:v>10</x:v>
@@ -26711,16 +26711,16 @@
         <x:v>168</x:v>
       </x:c>
       <x:c r="E873" s="1" t="s">
-        <x:v>263</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="F873" s="1" t="s">
-        <x:v>264</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="G873" s="1" t="s">
-        <x:v>265</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="H873" s="1" t="s">
-        <x:v>266</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="I873" s="0" t="s">
         <x:v>13</x:v>
@@ -26728,7 +26728,7 @@
     </x:row>
     <x:row r="874" spans="1:9">
       <x:c r="A874" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B874" s="0" t="s">
         <x:v>10</x:v>
@@ -26740,16 +26740,16 @@
         <x:v>146</x:v>
       </x:c>
       <x:c r="E874" s="1" t="s">
-        <x:v>267</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="F874" s="1" t="s">
-        <x:v>268</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="G874" s="1" t="s">
-        <x:v>269</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="H874" s="1" t="s">
-        <x:v>270</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="I874" s="0" t="s">
         <x:v>13</x:v>
@@ -26757,7 +26757,7 @@
     </x:row>
     <x:row r="875" spans="1:9">
       <x:c r="A875" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B875" s="0" t="s">
         <x:v>47</x:v>
@@ -26786,7 +26786,7 @@
     </x:row>
     <x:row r="876" spans="1:9">
       <x:c r="A876" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B876" s="0" t="s">
         <x:v>47</x:v>
@@ -26815,7 +26815,7 @@
     </x:row>
     <x:row r="877" spans="1:9">
       <x:c r="A877" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B877" s="0" t="s">
         <x:v>47</x:v>
@@ -26844,7 +26844,7 @@
     </x:row>
     <x:row r="878" spans="1:9">
       <x:c r="A878" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B878" s="0" t="s">
         <x:v>23</x:v>
@@ -26873,7 +26873,7 @@
     </x:row>
     <x:row r="879" spans="1:9">
       <x:c r="A879" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B879" s="0" t="s">
         <x:v>23</x:v>
@@ -26902,7 +26902,7 @@
     </x:row>
     <x:row r="880" spans="1:9">
       <x:c r="A880" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B880" s="0" t="s">
         <x:v>23</x:v>
@@ -26931,7 +26931,7 @@
     </x:row>
     <x:row r="881" spans="1:9">
       <x:c r="A881" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B881" s="0" t="s">
         <x:v>27</x:v>
@@ -26946,7 +26946,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="F881" s="1" t="s">
-        <x:v>271</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="G881" s="1" t="s">
         <x:v>108</x:v>
@@ -26960,7 +26960,7 @@
     </x:row>
     <x:row r="882" spans="1:9">
       <x:c r="A882" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B882" s="0" t="s">
         <x:v>27</x:v>
@@ -26975,7 +26975,7 @@
         <x:v>188</x:v>
       </x:c>
       <x:c r="F882" s="1" t="s">
-        <x:v>272</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="G882" s="1" t="s">
         <x:v>153</x:v>
@@ -26989,7 +26989,7 @@
     </x:row>
     <x:row r="883" spans="1:9">
       <x:c r="A883" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B883" s="0" t="s">
         <x:v>27</x:v>
@@ -27001,16 +27001,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E883" s="1" t="s">
-        <x:v>273</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="F883" s="1" t="s">
-        <x:v>274</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="G883" s="1" t="s">
-        <x:v>275</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="H883" s="1" t="s">
-        <x:v>276</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="I883" s="0" t="s">
         <x:v>12</x:v>
@@ -27018,7 +27018,7 @@
     </x:row>
     <x:row r="884" spans="1:9">
       <x:c r="A884" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B884" s="0" t="s">
         <x:v>65</x:v>
@@ -27047,7 +27047,7 @@
     </x:row>
     <x:row r="885" spans="1:9">
       <x:c r="A885" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B885" s="0" t="s">
         <x:v>65</x:v>
@@ -27076,7 +27076,7 @@
     </x:row>
     <x:row r="886" spans="1:9">
       <x:c r="A886" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B886" s="0" t="s">
         <x:v>31</x:v>
@@ -27105,7 +27105,7 @@
     </x:row>
     <x:row r="887" spans="1:9">
       <x:c r="A887" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B887" s="0" t="s">
         <x:v>31</x:v>
@@ -27134,7 +27134,7 @@
     </x:row>
     <x:row r="888" spans="1:9">
       <x:c r="A888" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B888" s="0" t="s">
         <x:v>31</x:v>
@@ -27163,7 +27163,7 @@
     </x:row>
     <x:row r="889" spans="1:9">
       <x:c r="A889" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B889" s="0" t="s">
         <x:v>32</x:v>
@@ -27192,7 +27192,7 @@
     </x:row>
     <x:row r="890" spans="1:9">
       <x:c r="A890" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B890" s="0" t="s">
         <x:v>32</x:v>
@@ -27210,7 +27210,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="G890" s="1" t="s">
-        <x:v>277</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="H890" s="1" t="s">
         <x:v>73</x:v>
@@ -27221,7 +27221,7 @@
     </x:row>
     <x:row r="891" spans="1:9">
       <x:c r="A891" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B891" s="0" t="s">
         <x:v>32</x:v>
@@ -27236,7 +27236,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="F891" s="1" t="s">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="G891" s="1" t="s">
         <x:v>202</x:v>
@@ -27250,7 +27250,7 @@
     </x:row>
     <x:row r="892" spans="1:9">
       <x:c r="A892" s="0" t="s">
-        <x:v>278</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B892" s="0" t="s">
         <x:v>10</x:v>
@@ -27279,7 +27279,7 @@
     </x:row>
     <x:row r="893" spans="1:9">
       <x:c r="A893" s="0" t="s">
-        <x:v>278</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B893" s="0" t="s">
         <x:v>10</x:v>
@@ -27308,7 +27308,7 @@
     </x:row>
     <x:row r="894" spans="1:9">
       <x:c r="A894" s="0" t="s">
-        <x:v>278</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B894" s="0" t="s">
         <x:v>10</x:v>
@@ -27337,7 +27337,7 @@
     </x:row>
     <x:row r="895" spans="1:9">
       <x:c r="A895" s="0" t="s">
-        <x:v>278</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B895" s="0" t="s">
         <x:v>23</x:v>
@@ -27366,7 +27366,7 @@
     </x:row>
     <x:row r="896" spans="1:9">
       <x:c r="A896" s="0" t="s">
-        <x:v>278</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B896" s="0" t="s">
         <x:v>23</x:v>
@@ -27395,7 +27395,7 @@
     </x:row>
     <x:row r="897" spans="1:9">
       <x:c r="A897" s="0" t="s">
-        <x:v>278</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B897" s="0" t="s">
         <x:v>23</x:v>
@@ -27424,7 +27424,7 @@
     </x:row>
     <x:row r="898" spans="1:9">
       <x:c r="A898" s="0" t="s">
-        <x:v>278</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B898" s="0" t="s">
         <x:v>27</x:v>
@@ -27453,7 +27453,7 @@
     </x:row>
     <x:row r="899" spans="1:9">
       <x:c r="A899" s="0" t="s">
-        <x:v>278</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B899" s="0" t="s">
         <x:v>27</x:v>
@@ -27482,7 +27482,7 @@
     </x:row>
     <x:row r="900" spans="1:9">
       <x:c r="A900" s="0" t="s">
-        <x:v>278</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B900" s="0" t="s">
         <x:v>27</x:v>
@@ -27511,7 +27511,7 @@
     </x:row>
     <x:row r="901" spans="1:9">
       <x:c r="A901" s="0" t="s">
-        <x:v>278</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B901" s="0" t="s">
         <x:v>31</x:v>
@@ -27540,7 +27540,7 @@
     </x:row>
     <x:row r="902" spans="1:9">
       <x:c r="A902" s="0" t="s">
-        <x:v>278</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B902" s="0" t="s">
         <x:v>31</x:v>
@@ -27569,7 +27569,7 @@
     </x:row>
     <x:row r="903" spans="1:9">
       <x:c r="A903" s="0" t="s">
-        <x:v>278</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B903" s="0" t="s">
         <x:v>31</x:v>
@@ -27598,7 +27598,7 @@
     </x:row>
     <x:row r="904" spans="1:9">
       <x:c r="A904" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B904" s="0" t="s">
         <x:v>10</x:v>
@@ -27627,7 +27627,7 @@
     </x:row>
     <x:row r="905" spans="1:9">
       <x:c r="A905" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B905" s="0" t="s">
         <x:v>10</x:v>
@@ -27656,7 +27656,7 @@
     </x:row>
     <x:row r="906" spans="1:9">
       <x:c r="A906" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B906" s="0" t="s">
         <x:v>10</x:v>
@@ -27685,7 +27685,7 @@
     </x:row>
     <x:row r="907" spans="1:9">
       <x:c r="A907" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B907" s="0" t="s">
         <x:v>23</x:v>
@@ -27714,7 +27714,7 @@
     </x:row>
     <x:row r="908" spans="1:9">
       <x:c r="A908" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B908" s="0" t="s">
         <x:v>23</x:v>
@@ -27743,7 +27743,7 @@
     </x:row>
     <x:row r="909" spans="1:9">
       <x:c r="A909" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B909" s="0" t="s">
         <x:v>23</x:v>
@@ -27772,7 +27772,7 @@
     </x:row>
     <x:row r="910" spans="1:9">
       <x:c r="A910" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B910" s="0" t="s">
         <x:v>27</x:v>
@@ -27801,7 +27801,7 @@
     </x:row>
     <x:row r="911" spans="1:9">
       <x:c r="A911" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B911" s="0" t="s">
         <x:v>27</x:v>
@@ -27830,7 +27830,7 @@
     </x:row>
     <x:row r="912" spans="1:9">
       <x:c r="A912" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B912" s="0" t="s">
         <x:v>27</x:v>
@@ -27859,7 +27859,7 @@
     </x:row>
     <x:row r="913" spans="1:9">
       <x:c r="A913" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B913" s="0" t="s">
         <x:v>31</x:v>
@@ -27888,7 +27888,7 @@
     </x:row>
     <x:row r="914" spans="1:9">
       <x:c r="A914" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B914" s="0" t="s">
         <x:v>31</x:v>
@@ -27917,7 +27917,7 @@
     </x:row>
     <x:row r="915" spans="1:9">
       <x:c r="A915" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B915" s="0" t="s">
         <x:v>31</x:v>
@@ -27946,7 +27946,7 @@
     </x:row>
     <x:row r="916" spans="1:9">
       <x:c r="A916" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B916" s="0" t="s">
         <x:v>32</x:v>
@@ -27975,7 +27975,7 @@
     </x:row>
     <x:row r="917" spans="1:9">
       <x:c r="A917" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B917" s="0" t="s">
         <x:v>32</x:v>
@@ -28004,7 +28004,7 @@
     </x:row>
     <x:row r="918" spans="1:9">
       <x:c r="A918" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B918" s="0" t="s">
         <x:v>10</x:v>
@@ -28033,7 +28033,7 @@
     </x:row>
     <x:row r="919" spans="1:9">
       <x:c r="A919" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B919" s="0" t="s">
         <x:v>10</x:v>
@@ -28062,7 +28062,7 @@
     </x:row>
     <x:row r="920" spans="1:9">
       <x:c r="A920" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B920" s="0" t="s">
         <x:v>10</x:v>
@@ -28091,7 +28091,7 @@
     </x:row>
     <x:row r="921" spans="1:9">
       <x:c r="A921" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B921" s="0" t="s">
         <x:v>23</x:v>
@@ -28120,7 +28120,7 @@
     </x:row>
     <x:row r="922" spans="1:9">
       <x:c r="A922" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B922" s="0" t="s">
         <x:v>23</x:v>
@@ -28149,7 +28149,7 @@
     </x:row>
     <x:row r="923" spans="1:9">
       <x:c r="A923" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B923" s="0" t="s">
         <x:v>23</x:v>
@@ -28178,7 +28178,7 @@
     </x:row>
     <x:row r="924" spans="1:9">
       <x:c r="A924" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B924" s="0" t="s">
         <x:v>27</x:v>
@@ -28207,7 +28207,7 @@
     </x:row>
     <x:row r="925" spans="1:9">
       <x:c r="A925" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B925" s="0" t="s">
         <x:v>27</x:v>
@@ -28236,7 +28236,7 @@
     </x:row>
     <x:row r="926" spans="1:9">
       <x:c r="A926" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B926" s="0" t="s">
         <x:v>27</x:v>
@@ -28265,7 +28265,7 @@
     </x:row>
     <x:row r="927" spans="1:9">
       <x:c r="A927" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B927" s="0" t="s">
         <x:v>31</x:v>
@@ -28294,7 +28294,7 @@
     </x:row>
     <x:row r="928" spans="1:9">
       <x:c r="A928" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B928" s="0" t="s">
         <x:v>31</x:v>
@@ -28323,7 +28323,7 @@
     </x:row>
     <x:row r="929" spans="1:9">
       <x:c r="A929" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B929" s="0" t="s">
         <x:v>10</x:v>
@@ -28352,7 +28352,7 @@
     </x:row>
     <x:row r="930" spans="1:9">
       <x:c r="A930" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B930" s="0" t="s">
         <x:v>10</x:v>
@@ -28381,7 +28381,7 @@
     </x:row>
     <x:row r="931" spans="1:9">
       <x:c r="A931" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B931" s="0" t="s">
         <x:v>10</x:v>
@@ -28410,7 +28410,7 @@
     </x:row>
     <x:row r="932" spans="1:9">
       <x:c r="A932" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B932" s="0" t="s">
         <x:v>47</x:v>
@@ -28439,7 +28439,7 @@
     </x:row>
     <x:row r="933" spans="1:9">
       <x:c r="A933" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B933" s="0" t="s">
         <x:v>47</x:v>
@@ -28468,7 +28468,7 @@
     </x:row>
     <x:row r="934" spans="1:9">
       <x:c r="A934" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B934" s="0" t="s">
         <x:v>47</x:v>
@@ -28497,7 +28497,7 @@
     </x:row>
     <x:row r="935" spans="1:9">
       <x:c r="A935" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B935" s="0" t="s">
         <x:v>23</x:v>
@@ -28526,7 +28526,7 @@
     </x:row>
     <x:row r="936" spans="1:9">
       <x:c r="A936" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B936" s="0" t="s">
         <x:v>23</x:v>
@@ -28555,7 +28555,7 @@
     </x:row>
     <x:row r="937" spans="1:9">
       <x:c r="A937" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B937" s="0" t="s">
         <x:v>23</x:v>
@@ -28584,7 +28584,7 @@
     </x:row>
     <x:row r="938" spans="1:9">
       <x:c r="A938" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B938" s="0" t="s">
         <x:v>27</x:v>
@@ -28613,7 +28613,7 @@
     </x:row>
     <x:row r="939" spans="1:9">
       <x:c r="A939" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B939" s="0" t="s">
         <x:v>27</x:v>
@@ -28642,7 +28642,7 @@
     </x:row>
     <x:row r="940" spans="1:9">
       <x:c r="A940" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B940" s="0" t="s">
         <x:v>27</x:v>
@@ -28671,7 +28671,7 @@
     </x:row>
     <x:row r="941" spans="1:9">
       <x:c r="A941" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B941" s="0" t="s">
         <x:v>31</x:v>
@@ -28700,7 +28700,7 @@
     </x:row>
     <x:row r="942" spans="1:9">
       <x:c r="A942" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B942" s="0" t="s">
         <x:v>31</x:v>
@@ -28729,7 +28729,7 @@
     </x:row>
     <x:row r="943" spans="1:9">
       <x:c r="A943" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B943" s="0" t="s">
         <x:v>31</x:v>
@@ -28758,7 +28758,7 @@
     </x:row>
     <x:row r="944" spans="1:9">
       <x:c r="A944" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B944" s="0" t="s">
         <x:v>32</x:v>
@@ -28787,7 +28787,7 @@
     </x:row>
     <x:row r="945" spans="1:9">
       <x:c r="A945" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B945" s="0" t="s">
         <x:v>32</x:v>
@@ -28816,7 +28816,7 @@
     </x:row>
     <x:row r="946" spans="1:9">
       <x:c r="A946" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B946" s="0" t="s">
         <x:v>32</x:v>
@@ -28845,7 +28845,7 @@
     </x:row>
     <x:row r="947" spans="1:9">
       <x:c r="A947" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B947" s="0" t="s">
         <x:v>10</x:v>
@@ -28874,7 +28874,7 @@
     </x:row>
     <x:row r="948" spans="1:9">
       <x:c r="A948" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B948" s="0" t="s">
         <x:v>10</x:v>
@@ -28903,7 +28903,7 @@
     </x:row>
     <x:row r="949" spans="1:9">
       <x:c r="A949" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B949" s="0" t="s">
         <x:v>10</x:v>
@@ -28932,7 +28932,7 @@
     </x:row>
     <x:row r="950" spans="1:9">
       <x:c r="A950" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B950" s="0" t="s">
         <x:v>23</x:v>
@@ -28961,7 +28961,7 @@
     </x:row>
     <x:row r="951" spans="1:9">
       <x:c r="A951" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B951" s="0" t="s">
         <x:v>23</x:v>
@@ -28990,7 +28990,7 @@
     </x:row>
     <x:row r="952" spans="1:9">
       <x:c r="A952" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B952" s="0" t="s">
         <x:v>23</x:v>
@@ -29019,7 +29019,7 @@
     </x:row>
     <x:row r="953" spans="1:9">
       <x:c r="A953" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B953" s="0" t="s">
         <x:v>27</x:v>
@@ -29048,7 +29048,7 @@
     </x:row>
     <x:row r="954" spans="1:9">
       <x:c r="A954" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B954" s="0" t="s">
         <x:v>27</x:v>
@@ -29077,7 +29077,7 @@
     </x:row>
     <x:row r="955" spans="1:9">
       <x:c r="A955" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B955" s="0" t="s">
         <x:v>27</x:v>
@@ -29106,7 +29106,7 @@
     </x:row>
     <x:row r="956" spans="1:9">
       <x:c r="A956" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B956" s="0" t="s">
         <x:v>10</x:v>
@@ -29135,7 +29135,7 @@
     </x:row>
     <x:row r="957" spans="1:9">
       <x:c r="A957" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B957" s="0" t="s">
         <x:v>10</x:v>
@@ -29164,7 +29164,7 @@
     </x:row>
     <x:row r="958" spans="1:9">
       <x:c r="A958" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B958" s="0" t="s">
         <x:v>10</x:v>
@@ -29193,7 +29193,7 @@
     </x:row>
     <x:row r="959" spans="1:9">
       <x:c r="A959" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B959" s="0" t="s">
         <x:v>47</x:v>
@@ -29222,7 +29222,7 @@
     </x:row>
     <x:row r="960" spans="1:9">
       <x:c r="A960" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B960" s="0" t="s">
         <x:v>47</x:v>
@@ -29251,7 +29251,7 @@
     </x:row>
     <x:row r="961" spans="1:9">
       <x:c r="A961" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B961" s="0" t="s">
         <x:v>47</x:v>
@@ -29280,7 +29280,7 @@
     </x:row>
     <x:row r="962" spans="1:9">
       <x:c r="A962" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B962" s="0" t="s">
         <x:v>23</x:v>
@@ -29309,7 +29309,7 @@
     </x:row>
     <x:row r="963" spans="1:9">
       <x:c r="A963" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B963" s="0" t="s">
         <x:v>23</x:v>
@@ -29338,7 +29338,7 @@
     </x:row>
     <x:row r="964" spans="1:9">
       <x:c r="A964" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B964" s="0" t="s">
         <x:v>23</x:v>
@@ -29367,7 +29367,7 @@
     </x:row>
     <x:row r="965" spans="1:9">
       <x:c r="A965" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B965" s="0" t="s">
         <x:v>27</x:v>
@@ -29396,7 +29396,7 @@
     </x:row>
     <x:row r="966" spans="1:9">
       <x:c r="A966" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B966" s="0" t="s">
         <x:v>27</x:v>
@@ -29425,7 +29425,7 @@
     </x:row>
     <x:row r="967" spans="1:9">
       <x:c r="A967" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B967" s="0" t="s">
         <x:v>27</x:v>
@@ -29454,7 +29454,7 @@
     </x:row>
     <x:row r="968" spans="1:9">
       <x:c r="A968" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B968" s="0" t="s">
         <x:v>31</x:v>
@@ -29483,7 +29483,7 @@
     </x:row>
     <x:row r="969" spans="1:9">
       <x:c r="A969" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B969" s="0" t="s">
         <x:v>31</x:v>
@@ -29512,7 +29512,7 @@
     </x:row>
     <x:row r="970" spans="1:9">
       <x:c r="A970" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B970" s="0" t="s">
         <x:v>31</x:v>
@@ -29541,7 +29541,7 @@
     </x:row>
     <x:row r="971" spans="1:9">
       <x:c r="A971" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B971" s="0" t="s">
         <x:v>32</x:v>
@@ -29570,7 +29570,7 @@
     </x:row>
     <x:row r="972" spans="1:9">
       <x:c r="A972" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B972" s="0" t="s">
         <x:v>32</x:v>
@@ -29599,7 +29599,7 @@
     </x:row>
     <x:row r="973" spans="1:9">
       <x:c r="A973" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B973" s="0" t="s">
         <x:v>10</x:v>
@@ -29628,7 +29628,7 @@
     </x:row>
     <x:row r="974" spans="1:9">
       <x:c r="A974" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B974" s="0" t="s">
         <x:v>10</x:v>
@@ -29657,7 +29657,7 @@
     </x:row>
     <x:row r="975" spans="1:9">
       <x:c r="A975" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B975" s="0" t="s">
         <x:v>10</x:v>
@@ -29672,7 +29672,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="F975" s="1" t="s">
-        <x:v>285</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="G975" s="1" t="s">
         <x:v>63</x:v>
@@ -29686,7 +29686,7 @@
     </x:row>
     <x:row r="976" spans="1:9">
       <x:c r="A976" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B976" s="0" t="s">
         <x:v>47</x:v>
@@ -29715,7 +29715,7 @@
     </x:row>
     <x:row r="977" spans="1:9">
       <x:c r="A977" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B977" s="0" t="s">
         <x:v>47</x:v>
@@ -29744,7 +29744,7 @@
     </x:row>
     <x:row r="978" spans="1:9">
       <x:c r="A978" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B978" s="0" t="s">
         <x:v>47</x:v>
@@ -29773,7 +29773,7 @@
     </x:row>
     <x:row r="979" spans="1:9">
       <x:c r="A979" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B979" s="0" t="s">
         <x:v>23</x:v>
@@ -29802,7 +29802,7 @@
     </x:row>
     <x:row r="980" spans="1:9">
       <x:c r="A980" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B980" s="0" t="s">
         <x:v>23</x:v>
@@ -29831,7 +29831,7 @@
     </x:row>
     <x:row r="981" spans="1:9">
       <x:c r="A981" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B981" s="0" t="s">
         <x:v>23</x:v>
@@ -29860,7 +29860,7 @@
     </x:row>
     <x:row r="982" spans="1:9">
       <x:c r="A982" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B982" s="0" t="s">
         <x:v>27</x:v>
@@ -29889,7 +29889,7 @@
     </x:row>
     <x:row r="983" spans="1:9">
       <x:c r="A983" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B983" s="0" t="s">
         <x:v>27</x:v>
@@ -29904,7 +29904,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="F983" s="1" t="s">
-        <x:v>286</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="G983" s="1" t="s">
         <x:v>188</x:v>
@@ -29918,7 +29918,7 @@
     </x:row>
     <x:row r="984" spans="1:9">
       <x:c r="A984" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B984" s="0" t="s">
         <x:v>27</x:v>
@@ -29933,7 +29933,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="F984" s="1" t="s">
-        <x:v>287</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="G984" s="1" t="s">
         <x:v>128</x:v>
@@ -29947,7 +29947,7 @@
     </x:row>
     <x:row r="985" spans="1:9">
       <x:c r="A985" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B985" s="0" t="s">
         <x:v>65</x:v>
@@ -29976,7 +29976,7 @@
     </x:row>
     <x:row r="986" spans="1:9">
       <x:c r="A986" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B986" s="0" t="s">
         <x:v>65</x:v>
@@ -30005,7 +30005,7 @@
     </x:row>
     <x:row r="987" spans="1:9">
       <x:c r="A987" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B987" s="0" t="s">
         <x:v>65</x:v>
@@ -30034,7 +30034,7 @@
     </x:row>
     <x:row r="988" spans="1:9">
       <x:c r="A988" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B988" s="0" t="s">
         <x:v>31</x:v>
@@ -30063,7 +30063,7 @@
     </x:row>
     <x:row r="989" spans="1:9">
       <x:c r="A989" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B989" s="0" t="s">
         <x:v>31</x:v>
@@ -30075,7 +30075,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="E989" s="1" t="s">
-        <x:v>288</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="F989" s="1" t="s">
         <x:v>20</x:v>
@@ -30092,7 +30092,7 @@
     </x:row>
     <x:row r="990" spans="1:9">
       <x:c r="A990" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B990" s="0" t="s">
         <x:v>31</x:v>
@@ -30104,7 +30104,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E990" s="1" t="s">
-        <x:v>289</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="F990" s="1" t="s">
         <x:v>20</x:v>
@@ -30121,7 +30121,7 @@
     </x:row>
     <x:row r="991" spans="1:9">
       <x:c r="A991" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B991" s="0" t="s">
         <x:v>32</x:v>
@@ -30150,7 +30150,7 @@
     </x:row>
     <x:row r="992" spans="1:9">
       <x:c r="A992" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B992" s="0" t="s">
         <x:v>32</x:v>
@@ -30168,7 +30168,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="G992" s="1" t="s">
-        <x:v>290</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="H992" s="1" t="s">
         <x:v>78</x:v>
@@ -30179,7 +30179,7 @@
     </x:row>
     <x:row r="993" spans="1:9">
       <x:c r="A993" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B993" s="0" t="s">
         <x:v>32</x:v>
@@ -30197,7 +30197,7 @@
         <x:v>168</x:v>
       </x:c>
       <x:c r="G993" s="1" t="s">
-        <x:v>291</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="H993" s="1" t="s">
         <x:v>119</x:v>
@@ -30208,7 +30208,7 @@
     </x:row>
     <x:row r="994" spans="1:9">
       <x:c r="A994" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B994" s="0" t="s">
         <x:v>10</x:v>
@@ -30237,7 +30237,7 @@
     </x:row>
     <x:row r="995" spans="1:9">
       <x:c r="A995" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B995" s="0" t="s">
         <x:v>10</x:v>
@@ -30266,7 +30266,7 @@
     </x:row>
     <x:row r="996" spans="1:9">
       <x:c r="A996" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B996" s="0" t="s">
         <x:v>10</x:v>
@@ -30295,10 +30295,10 @@
     </x:row>
     <x:row r="997" spans="1:9">
       <x:c r="A997" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B997" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="C997" s="1" t="s">
         <x:v>16</x:v>
@@ -30324,10 +30324,10 @@
     </x:row>
     <x:row r="998" spans="1:9">
       <x:c r="A998" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B998" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="C998" s="1" t="s">
         <x:v>19</x:v>
@@ -30353,7 +30353,7 @@
     </x:row>
     <x:row r="999" spans="1:9">
       <x:c r="A999" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B999" s="0" t="s">
         <x:v>47</x:v>
@@ -30382,7 +30382,7 @@
     </x:row>
     <x:row r="1000" spans="1:9">
       <x:c r="A1000" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B1000" s="0" t="s">
         <x:v>47</x:v>
@@ -30411,7 +30411,7 @@
     </x:row>
     <x:row r="1001" spans="1:9">
       <x:c r="A1001" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B1001" s="0" t="s">
         <x:v>47</x:v>
@@ -30440,7 +30440,7 @@
     </x:row>
     <x:row r="1002" spans="1:9">
       <x:c r="A1002" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B1002" s="0" t="s">
         <x:v>23</x:v>
@@ -30469,7 +30469,7 @@
     </x:row>
     <x:row r="1003" spans="1:9">
       <x:c r="A1003" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B1003" s="0" t="s">
         <x:v>23</x:v>
@@ -30498,7 +30498,7 @@
     </x:row>
     <x:row r="1004" spans="1:9">
       <x:c r="A1004" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B1004" s="0" t="s">
         <x:v>23</x:v>
@@ -30527,7 +30527,7 @@
     </x:row>
     <x:row r="1005" spans="1:9">
       <x:c r="A1005" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B1005" s="0" t="s">
         <x:v>27</x:v>
@@ -30556,7 +30556,7 @@
     </x:row>
     <x:row r="1006" spans="1:9">
       <x:c r="A1006" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B1006" s="0" t="s">
         <x:v>27</x:v>
@@ -30585,7 +30585,7 @@
     </x:row>
     <x:row r="1007" spans="1:9">
       <x:c r="A1007" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B1007" s="0" t="s">
         <x:v>27</x:v>
@@ -30614,7 +30614,7 @@
     </x:row>
     <x:row r="1008" spans="1:9">
       <x:c r="A1008" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B1008" s="0" t="s">
         <x:v>65</x:v>
@@ -30643,7 +30643,7 @@
     </x:row>
     <x:row r="1009" spans="1:9">
       <x:c r="A1009" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B1009" s="0" t="s">
         <x:v>65</x:v>
@@ -30672,7 +30672,7 @@
     </x:row>
     <x:row r="1010" spans="1:9">
       <x:c r="A1010" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B1010" s="0" t="s">
         <x:v>65</x:v>
@@ -30701,7 +30701,7 @@
     </x:row>
     <x:row r="1011" spans="1:9">
       <x:c r="A1011" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B1011" s="0" t="s">
         <x:v>31</x:v>
@@ -30730,7 +30730,7 @@
     </x:row>
     <x:row r="1012" spans="1:9">
       <x:c r="A1012" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B1012" s="0" t="s">
         <x:v>31</x:v>
@@ -30759,7 +30759,7 @@
     </x:row>
     <x:row r="1013" spans="1:9">
       <x:c r="A1013" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B1013" s="0" t="s">
         <x:v>31</x:v>
@@ -30788,7 +30788,7 @@
     </x:row>
     <x:row r="1014" spans="1:9">
       <x:c r="A1014" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B1014" s="0" t="s">
         <x:v>32</x:v>
@@ -30817,7 +30817,7 @@
     </x:row>
     <x:row r="1015" spans="1:9">
       <x:c r="A1015" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B1015" s="0" t="s">
         <x:v>32</x:v>
@@ -30846,7 +30846,7 @@
     </x:row>
     <x:row r="1016" spans="1:9">
       <x:c r="A1016" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B1016" s="0" t="s">
         <x:v>32</x:v>
@@ -30875,7 +30875,7 @@
     </x:row>
     <x:row r="1017" spans="1:9">
       <x:c r="A1017" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1017" s="0" t="s">
         <x:v>10</x:v>
@@ -30904,7 +30904,7 @@
     </x:row>
     <x:row r="1018" spans="1:9">
       <x:c r="A1018" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1018" s="0" t="s">
         <x:v>10</x:v>
@@ -30933,7 +30933,7 @@
     </x:row>
     <x:row r="1019" spans="1:9">
       <x:c r="A1019" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1019" s="0" t="s">
         <x:v>10</x:v>
@@ -30962,7 +30962,7 @@
     </x:row>
     <x:row r="1020" spans="1:9">
       <x:c r="A1020" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1020" s="0" t="s">
         <x:v>47</x:v>
@@ -30991,7 +30991,7 @@
     </x:row>
     <x:row r="1021" spans="1:9">
       <x:c r="A1021" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1021" s="0" t="s">
         <x:v>47</x:v>
@@ -31020,7 +31020,7 @@
     </x:row>
     <x:row r="1022" spans="1:9">
       <x:c r="A1022" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1022" s="0" t="s">
         <x:v>23</x:v>
@@ -31049,7 +31049,7 @@
     </x:row>
     <x:row r="1023" spans="1:9">
       <x:c r="A1023" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1023" s="0" t="s">
         <x:v>23</x:v>
@@ -31078,7 +31078,7 @@
     </x:row>
     <x:row r="1024" spans="1:9">
       <x:c r="A1024" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1024" s="0" t="s">
         <x:v>23</x:v>
@@ -31107,7 +31107,7 @@
     </x:row>
     <x:row r="1025" spans="1:9">
       <x:c r="A1025" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1025" s="0" t="s">
         <x:v>27</x:v>
@@ -31136,7 +31136,7 @@
     </x:row>
     <x:row r="1026" spans="1:9">
       <x:c r="A1026" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1026" s="0" t="s">
         <x:v>27</x:v>
@@ -31165,7 +31165,7 @@
     </x:row>
     <x:row r="1027" spans="1:9">
       <x:c r="A1027" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1027" s="0" t="s">
         <x:v>27</x:v>
@@ -31194,7 +31194,7 @@
     </x:row>
     <x:row r="1028" spans="1:9">
       <x:c r="A1028" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1028" s="0" t="s">
         <x:v>31</x:v>
@@ -31223,7 +31223,7 @@
     </x:row>
     <x:row r="1029" spans="1:9">
       <x:c r="A1029" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1029" s="0" t="s">
         <x:v>31</x:v>
@@ -31252,7 +31252,7 @@
     </x:row>
     <x:row r="1030" spans="1:9">
       <x:c r="A1030" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1030" s="0" t="s">
         <x:v>31</x:v>
@@ -31281,7 +31281,7 @@
     </x:row>
     <x:row r="1031" spans="1:9">
       <x:c r="A1031" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1031" s="0" t="s">
         <x:v>32</x:v>
@@ -31310,7 +31310,7 @@
     </x:row>
     <x:row r="1032" spans="1:9">
       <x:c r="A1032" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1032" s="0" t="s">
         <x:v>32</x:v>
@@ -31339,7 +31339,7 @@
     </x:row>
     <x:row r="1033" spans="1:9">
       <x:c r="A1033" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1033" s="0" t="s">
         <x:v>32</x:v>
@@ -31368,7 +31368,7 @@
     </x:row>
     <x:row r="1034" spans="1:9">
       <x:c r="A1034" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B1034" s="0" t="s">
         <x:v>10</x:v>
@@ -31386,7 +31386,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="G1034" s="1" t="s">
-        <x:v>296</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="H1034" s="1" t="s">
         <x:v>76</x:v>
@@ -31397,7 +31397,7 @@
     </x:row>
     <x:row r="1035" spans="1:9">
       <x:c r="A1035" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B1035" s="0" t="s">
         <x:v>10</x:v>
@@ -31409,13 +31409,13 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E1035" s="1" t="s">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="F1035" s="1" t="s">
         <x:v>44</x:v>
       </x:c>
       <x:c r="G1035" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="H1035" s="1" t="s">
         <x:v>212</x:v>
@@ -31426,7 +31426,7 @@
     </x:row>
     <x:row r="1036" spans="1:9">
       <x:c r="A1036" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B1036" s="0" t="s">
         <x:v>10</x:v>
@@ -31438,16 +31438,16 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E1036" s="1" t="s">
-        <x:v>271</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="F1036" s="1" t="s">
-        <x:v>297</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="G1036" s="1" t="s">
-        <x:v>298</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="H1036" s="1" t="s">
-        <x:v>299</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="I1036" s="0" t="s">
         <x:v>12</x:v>
@@ -31455,7 +31455,7 @@
     </x:row>
     <x:row r="1037" spans="1:9">
       <x:c r="A1037" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B1037" s="0" t="s">
         <x:v>47</x:v>
@@ -31484,7 +31484,7 @@
     </x:row>
     <x:row r="1038" spans="1:9">
       <x:c r="A1038" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B1038" s="0" t="s">
         <x:v>47</x:v>
@@ -31513,7 +31513,7 @@
     </x:row>
     <x:row r="1039" spans="1:9">
       <x:c r="A1039" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B1039" s="0" t="s">
         <x:v>47</x:v>
@@ -31542,7 +31542,7 @@
     </x:row>
     <x:row r="1040" spans="1:9">
       <x:c r="A1040" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B1040" s="0" t="s">
         <x:v>23</x:v>
@@ -31571,7 +31571,7 @@
     </x:row>
     <x:row r="1041" spans="1:9">
       <x:c r="A1041" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B1041" s="0" t="s">
         <x:v>23</x:v>
@@ -31600,7 +31600,7 @@
     </x:row>
     <x:row r="1042" spans="1:9">
       <x:c r="A1042" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B1042" s="0" t="s">
         <x:v>23</x:v>
@@ -31629,7 +31629,7 @@
     </x:row>
     <x:row r="1043" spans="1:9">
       <x:c r="A1043" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B1043" s="0" t="s">
         <x:v>27</x:v>
@@ -31658,7 +31658,7 @@
     </x:row>
     <x:row r="1044" spans="1:9">
       <x:c r="A1044" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B1044" s="0" t="s">
         <x:v>27</x:v>
@@ -31673,10 +31673,10 @@
         <x:v>234</x:v>
       </x:c>
       <x:c r="F1044" s="1" t="s">
-        <x:v>262</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="G1044" s="1" t="s">
-        <x:v>290</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="H1044" s="1" t="s">
         <x:v>200</x:v>
@@ -31687,7 +31687,7 @@
     </x:row>
     <x:row r="1045" spans="1:9">
       <x:c r="A1045" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B1045" s="0" t="s">
         <x:v>27</x:v>
@@ -31699,7 +31699,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E1045" s="1" t="s">
-        <x:v>300</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="F1045" s="1" t="s">
         <x:v>86</x:v>
@@ -31716,7 +31716,7 @@
     </x:row>
     <x:row r="1046" spans="1:9">
       <x:c r="A1046" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B1046" s="0" t="s">
         <x:v>65</x:v>
@@ -31745,7 +31745,7 @@
     </x:row>
     <x:row r="1047" spans="1:9">
       <x:c r="A1047" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B1047" s="0" t="s">
         <x:v>65</x:v>
@@ -31774,7 +31774,7 @@
     </x:row>
     <x:row r="1048" spans="1:9">
       <x:c r="A1048" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B1048" s="0" t="s">
         <x:v>65</x:v>
@@ -31803,7 +31803,7 @@
     </x:row>
     <x:row r="1049" spans="1:9">
       <x:c r="A1049" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B1049" s="0" t="s">
         <x:v>31</x:v>
@@ -31832,7 +31832,7 @@
     </x:row>
     <x:row r="1050" spans="1:9">
       <x:c r="A1050" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B1050" s="0" t="s">
         <x:v>31</x:v>
@@ -31861,7 +31861,7 @@
     </x:row>
     <x:row r="1051" spans="1:9">
       <x:c r="A1051" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B1051" s="0" t="s">
         <x:v>31</x:v>
@@ -31890,7 +31890,7 @@
     </x:row>
     <x:row r="1052" spans="1:9">
       <x:c r="A1052" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B1052" s="0" t="s">
         <x:v>32</x:v>
@@ -31919,7 +31919,7 @@
     </x:row>
     <x:row r="1053" spans="1:9">
       <x:c r="A1053" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B1053" s="0" t="s">
         <x:v>32</x:v>
@@ -31948,7 +31948,7 @@
     </x:row>
     <x:row r="1054" spans="1:9">
       <x:c r="A1054" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B1054" s="0" t="s">
         <x:v>32</x:v>
@@ -31977,7 +31977,7 @@
     </x:row>
     <x:row r="1055" spans="1:9">
       <x:c r="A1055" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1055" s="0" t="s">
         <x:v>10</x:v>
@@ -32006,7 +32006,7 @@
     </x:row>
     <x:row r="1056" spans="1:9">
       <x:c r="A1056" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1056" s="0" t="s">
         <x:v>10</x:v>
@@ -32018,13 +32018,13 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E1056" s="1" t="s">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="F1056" s="1" t="s">
-        <x:v>303</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="G1056" s="1" t="s">
-        <x:v>304</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="H1056" s="1" t="s">
         <x:v>107</x:v>
@@ -32035,7 +32035,7 @@
     </x:row>
     <x:row r="1057" spans="1:9">
       <x:c r="A1057" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1057" s="0" t="s">
         <x:v>10</x:v>
@@ -32050,10 +32050,10 @@
         <x:v>207</x:v>
       </x:c>
       <x:c r="F1057" s="1" t="s">
-        <x:v>305</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G1057" s="1" t="s">
-        <x:v>272</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="H1057" s="1" t="s">
         <x:v>306</x:v>
@@ -32064,10 +32064,10 @@
     </x:row>
     <x:row r="1058" spans="1:9">
       <x:c r="A1058" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1058" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="C1058" s="1" t="s">
         <x:v>11</x:v>
@@ -32093,10 +32093,10 @@
     </x:row>
     <x:row r="1059" spans="1:9">
       <x:c r="A1059" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1059" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="C1059" s="1" t="s">
         <x:v>16</x:v>
@@ -32122,10 +32122,10 @@
     </x:row>
     <x:row r="1060" spans="1:9">
       <x:c r="A1060" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1060" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="C1060" s="1" t="s">
         <x:v>19</x:v>
@@ -32151,7 +32151,7 @@
     </x:row>
     <x:row r="1061" spans="1:9">
       <x:c r="A1061" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1061" s="0" t="s">
         <x:v>47</x:v>
@@ -32180,7 +32180,7 @@
     </x:row>
     <x:row r="1062" spans="1:9">
       <x:c r="A1062" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1062" s="0" t="s">
         <x:v>47</x:v>
@@ -32209,7 +32209,7 @@
     </x:row>
     <x:row r="1063" spans="1:9">
       <x:c r="A1063" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1063" s="0" t="s">
         <x:v>47</x:v>
@@ -32238,7 +32238,7 @@
     </x:row>
     <x:row r="1064" spans="1:9">
       <x:c r="A1064" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1064" s="0" t="s">
         <x:v>23</x:v>
@@ -32267,7 +32267,7 @@
     </x:row>
     <x:row r="1065" spans="1:9">
       <x:c r="A1065" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1065" s="0" t="s">
         <x:v>23</x:v>
@@ -32296,7 +32296,7 @@
     </x:row>
     <x:row r="1066" spans="1:9">
       <x:c r="A1066" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1066" s="0" t="s">
         <x:v>23</x:v>
@@ -32325,7 +32325,7 @@
     </x:row>
     <x:row r="1067" spans="1:9">
       <x:c r="A1067" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1067" s="0" t="s">
         <x:v>27</x:v>
@@ -32354,7 +32354,7 @@
     </x:row>
     <x:row r="1068" spans="1:9">
       <x:c r="A1068" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1068" s="0" t="s">
         <x:v>27</x:v>
@@ -32383,7 +32383,7 @@
     </x:row>
     <x:row r="1069" spans="1:9">
       <x:c r="A1069" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1069" s="0" t="s">
         <x:v>27</x:v>
@@ -32395,7 +32395,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="E1069" s="1" t="s">
-        <x:v>303</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="F1069" s="1" t="s">
         <x:v>307</x:v>
@@ -32412,7 +32412,7 @@
     </x:row>
     <x:row r="1070" spans="1:9">
       <x:c r="A1070" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1070" s="0" t="s">
         <x:v>310</x:v>
@@ -32441,7 +32441,7 @@
     </x:row>
     <x:row r="1071" spans="1:9">
       <x:c r="A1071" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1071" s="0" t="s">
         <x:v>310</x:v>
@@ -32470,7 +32470,7 @@
     </x:row>
     <x:row r="1072" spans="1:9">
       <x:c r="A1072" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1072" s="0" t="s">
         <x:v>310</x:v>
@@ -32499,7 +32499,7 @@
     </x:row>
     <x:row r="1073" spans="1:9">
       <x:c r="A1073" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1073" s="0" t="s">
         <x:v>65</x:v>
@@ -32528,7 +32528,7 @@
     </x:row>
     <x:row r="1074" spans="1:9">
       <x:c r="A1074" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1074" s="0" t="s">
         <x:v>65</x:v>
@@ -32557,7 +32557,7 @@
     </x:row>
     <x:row r="1075" spans="1:9">
       <x:c r="A1075" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1075" s="0" t="s">
         <x:v>65</x:v>
@@ -32586,7 +32586,7 @@
     </x:row>
     <x:row r="1076" spans="1:9">
       <x:c r="A1076" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1076" s="0" t="s">
         <x:v>31</x:v>
@@ -32598,7 +32598,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E1076" s="1" t="s">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="F1076" s="1" t="s">
         <x:v>25</x:v>
@@ -32615,7 +32615,7 @@
     </x:row>
     <x:row r="1077" spans="1:9">
       <x:c r="A1077" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1077" s="0" t="s">
         <x:v>31</x:v>
@@ -32644,7 +32644,7 @@
     </x:row>
     <x:row r="1078" spans="1:9">
       <x:c r="A1078" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1078" s="0" t="s">
         <x:v>31</x:v>
@@ -32656,7 +32656,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="E1078" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="F1078" s="1" t="s">
         <x:v>131</x:v>
@@ -32673,7 +32673,7 @@
     </x:row>
     <x:row r="1079" spans="1:9">
       <x:c r="A1079" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1079" s="0" t="s">
         <x:v>32</x:v>
@@ -32702,7 +32702,7 @@
     </x:row>
     <x:row r="1080" spans="1:9">
       <x:c r="A1080" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1080" s="0" t="s">
         <x:v>32</x:v>
@@ -32731,7 +32731,7 @@
     </x:row>
     <x:row r="1081" spans="1:9">
       <x:c r="A1081" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1081" s="0" t="s">
         <x:v>32</x:v>
@@ -32746,10 +32746,10 @@
         <x:v>198</x:v>
       </x:c>
       <x:c r="F1081" s="1" t="s">
-        <x:v>288</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="G1081" s="1" t="s">
-        <x:v>252</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="H1081" s="1" t="s">
         <x:v>43</x:v>
@@ -36330,7 +36330,7 @@
         <x:v>319</x:v>
       </x:c>
       <x:c r="B1205" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="C1205" s="1" t="s">
         <x:v>11</x:v>
@@ -36359,7 +36359,7 @@
         <x:v>319</x:v>
       </x:c>
       <x:c r="B1206" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="C1206" s="1" t="s">
         <x:v>19</x:v>
@@ -36629,7 +36629,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E1215" s="1" t="s">
-        <x:v>285</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="F1215" s="1" t="s">
         <x:v>323</x:v>
@@ -36638,7 +36638,7 @@
         <x:v>324</x:v>
       </x:c>
       <x:c r="H1215" s="1" t="s">
-        <x:v>299</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="I1215" s="0" t="s">
         <x:v>12</x:v>
@@ -37432,7 +37432,7 @@
         <x:v>326</x:v>
       </x:c>
       <x:c r="B1243" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="C1243" s="1" t="s">
         <x:v>11</x:v>
@@ -37461,7 +37461,7 @@
         <x:v>326</x:v>
       </x:c>
       <x:c r="B1244" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="C1244" s="1" t="s">
         <x:v>19</x:v>
@@ -38021,7 +38021,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E1263" s="1" t="s">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="F1263" s="1" t="s">
         <x:v>79</x:v>
@@ -38050,7 +38050,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="E1264" s="1" t="s">
-        <x:v>285</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="F1264" s="1" t="s">
         <x:v>94</x:v>
@@ -38282,7 +38282,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E1272" s="1" t="s">
-        <x:v>277</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="F1272" s="1" t="s">
         <x:v>84</x:v>
@@ -38491,7 +38491,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="G1279" s="1" t="s">
-        <x:v>240</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="H1279" s="1" t="s">
         <x:v>201</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -529,10 +529,13 @@
     <x:t>334</x:t>
   </x:si>
   <x:si>
+    <x:t>93</x:t>
+  </x:si>
+  <x:si>
     <x:t>226</x:t>
   </x:si>
   <x:si>
-    <x:t>530</x:t>
+    <x:t>531</x:t>
   </x:si>
   <x:si>
     <x:t>1039</x:t>
@@ -547,7 +550,7 @@
     <x:t>318</x:t>
   </x:si>
   <x:si>
-    <x:t>675</x:t>
+    <x:t>676</x:t>
   </x:si>
   <x:si>
     <x:t>1373</x:t>
@@ -556,7 +559,7 @@
     <x:t>1264</x:t>
   </x:si>
   <x:si>
-    <x:t>533</x:t>
+    <x:t>534</x:t>
   </x:si>
   <x:si>
     <x:t>126</x:t>
@@ -907,9 +910,6 @@
     <x:t>St. Louis</x:t>
   </x:si>
   <x:si>
-    <x:t>93</x:t>
-  </x:si>
-  <x:si>
     <x:t>172</x:t>
   </x:si>
   <x:si>
@@ -986,9 +986,6 @@
   </x:si>
   <x:si>
     <x:t>238</x:t>
-  </x:si>
-  <x:si>
-    <x:t>196</x:t>
   </x:si>
   <x:si>
     <x:t>Watonwan</x:t>
@@ -13351,7 +13348,7 @@
         <x:v>153</x:v>
       </x:c>
       <x:c r="H412" s="1" t="s">
-        <x:v>168</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="I412" s="0" t="s">
         <x:v>14</x:v>
@@ -13368,19 +13365,19 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D413" s="1" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="E413" s="1" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="F413" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="G413" s="1" t="s">
-        <x:v>174</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="H413" s="1" t="s">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I413" s="0" t="s">
         <x:v>14</x:v>
@@ -13397,19 +13394,19 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="D414" s="1" t="s">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="E414" s="1" t="s">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="F414" s="1" t="s">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="G414" s="1" t="s">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="H414" s="1" t="s">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="I414" s="0" t="s">
         <x:v>24</x:v>
@@ -13548,10 +13545,10 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="F419" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="G419" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="H419" s="1" t="s">
         <x:v>64</x:v>
@@ -13571,19 +13568,19 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="D420" s="1" t="s">
-        <x:v>182</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="E420" s="1" t="s">
         <x:v>150</x:v>
       </x:c>
       <x:c r="F420" s="1" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="G420" s="1" t="s">
         <x:v>183</x:v>
       </x:c>
-      <x:c r="G420" s="1" t="s">
-        <x:v>182</x:v>
-      </x:c>
       <x:c r="H420" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="I420" s="0" t="s">
         <x:v>12</x:v>
@@ -13603,16 +13600,16 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E421" s="1" t="s">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="F421" s="1" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="G421" s="1" t="s">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="H421" s="1" t="s">
-        <x:v>188</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="I421" s="0" t="s">
         <x:v>12</x:v>
@@ -13632,16 +13629,16 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="E422" s="1" t="s">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="F422" s="1" t="s">
-        <x:v>190</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="G422" s="1" t="s">
-        <x:v>191</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="H422" s="1" t="s">
-        <x:v>192</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="I422" s="0" t="s">
         <x:v>12</x:v>
@@ -13661,16 +13658,16 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E423" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="F423" s="1" t="s">
-        <x:v>194</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="G423" s="1" t="s">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="H423" s="1" t="s">
-        <x:v>196</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="I423" s="0" t="s">
         <x:v>12</x:v>
@@ -13812,7 +13809,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="G428" s="1" t="s">
-        <x:v>197</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="H428" s="1" t="s">
         <x:v>61</x:v>
@@ -13835,13 +13832,13 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E429" s="1" t="s">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="F429" s="1" t="s">
         <x:v>141</x:v>
       </x:c>
       <x:c r="G429" s="1" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="H429" s="1" t="s">
         <x:v>43</x:v>
@@ -13867,10 +13864,10 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="F430" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="G430" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="H430" s="1" t="s">
         <x:v>114</x:v>
@@ -13893,16 +13890,16 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E431" s="1" t="s">
-        <x:v>202</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="F431" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="G431" s="1" t="s">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="H431" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="I431" s="0" t="s">
         <x:v>12</x:v>
@@ -13922,16 +13919,16 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E432" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="F432" s="1" t="s">
-        <x:v>205</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="G432" s="1" t="s">
-        <x:v>206</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="H432" s="1" t="s">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="I432" s="0" t="s">
         <x:v>12</x:v>
@@ -13939,7 +13936,7 @@
     </x:row>
     <x:row r="433" spans="1:9">
       <x:c r="A433" s="0" t="s">
-        <x:v>208</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B433" s="0" t="s">
         <x:v>10</x:v>
@@ -13968,7 +13965,7 @@
     </x:row>
     <x:row r="434" spans="1:9">
       <x:c r="A434" s="0" t="s">
-        <x:v>208</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B434" s="0" t="s">
         <x:v>10</x:v>
@@ -13997,7 +13994,7 @@
     </x:row>
     <x:row r="435" spans="1:9">
       <x:c r="A435" s="0" t="s">
-        <x:v>208</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B435" s="0" t="s">
         <x:v>10</x:v>
@@ -14026,7 +14023,7 @@
     </x:row>
     <x:row r="436" spans="1:9">
       <x:c r="A436" s="0" t="s">
-        <x:v>208</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B436" s="0" t="s">
         <x:v>23</x:v>
@@ -14055,7 +14052,7 @@
     </x:row>
     <x:row r="437" spans="1:9">
       <x:c r="A437" s="0" t="s">
-        <x:v>208</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B437" s="0" t="s">
         <x:v>23</x:v>
@@ -14084,7 +14081,7 @@
     </x:row>
     <x:row r="438" spans="1:9">
       <x:c r="A438" s="0" t="s">
-        <x:v>208</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B438" s="0" t="s">
         <x:v>23</x:v>
@@ -14113,7 +14110,7 @@
     </x:row>
     <x:row r="439" spans="1:9">
       <x:c r="A439" s="0" t="s">
-        <x:v>208</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B439" s="0" t="s">
         <x:v>27</x:v>
@@ -14142,7 +14139,7 @@
     </x:row>
     <x:row r="440" spans="1:9">
       <x:c r="A440" s="0" t="s">
-        <x:v>208</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B440" s="0" t="s">
         <x:v>27</x:v>
@@ -14171,7 +14168,7 @@
     </x:row>
     <x:row r="441" spans="1:9">
       <x:c r="A441" s="0" t="s">
-        <x:v>208</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B441" s="0" t="s">
         <x:v>27</x:v>
@@ -14200,7 +14197,7 @@
     </x:row>
     <x:row r="442" spans="1:9">
       <x:c r="A442" s="0" t="s">
-        <x:v>208</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B442" s="0" t="s">
         <x:v>31</x:v>
@@ -14229,7 +14226,7 @@
     </x:row>
     <x:row r="443" spans="1:9">
       <x:c r="A443" s="0" t="s">
-        <x:v>208</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B443" s="0" t="s">
         <x:v>31</x:v>
@@ -14258,7 +14255,7 @@
     </x:row>
     <x:row r="444" spans="1:9">
       <x:c r="A444" s="0" t="s">
-        <x:v>208</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B444" s="0" t="s">
         <x:v>31</x:v>
@@ -14287,7 +14284,7 @@
     </x:row>
     <x:row r="445" spans="1:9">
       <x:c r="A445" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B445" s="0" t="s">
         <x:v>10</x:v>
@@ -14316,7 +14313,7 @@
     </x:row>
     <x:row r="446" spans="1:9">
       <x:c r="A446" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B446" s="0" t="s">
         <x:v>10</x:v>
@@ -14345,7 +14342,7 @@
     </x:row>
     <x:row r="447" spans="1:9">
       <x:c r="A447" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B447" s="0" t="s">
         <x:v>10</x:v>
@@ -14360,13 +14357,13 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="F447" s="1" t="s">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="G447" s="1" t="s">
-        <x:v>211</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="H447" s="1" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="I447" s="0" t="s">
         <x:v>12</x:v>
@@ -14374,7 +14371,7 @@
     </x:row>
     <x:row r="448" spans="1:9">
       <x:c r="A448" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B448" s="0" t="s">
         <x:v>23</x:v>
@@ -14403,7 +14400,7 @@
     </x:row>
     <x:row r="449" spans="1:9">
       <x:c r="A449" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B449" s="0" t="s">
         <x:v>23</x:v>
@@ -14432,7 +14429,7 @@
     </x:row>
     <x:row r="450" spans="1:9">
       <x:c r="A450" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B450" s="0" t="s">
         <x:v>23</x:v>
@@ -14461,7 +14458,7 @@
     </x:row>
     <x:row r="451" spans="1:9">
       <x:c r="A451" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B451" s="0" t="s">
         <x:v>27</x:v>
@@ -14490,7 +14487,7 @@
     </x:row>
     <x:row r="452" spans="1:9">
       <x:c r="A452" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B452" s="0" t="s">
         <x:v>27</x:v>
@@ -14519,7 +14516,7 @@
     </x:row>
     <x:row r="453" spans="1:9">
       <x:c r="A453" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B453" s="0" t="s">
         <x:v>27</x:v>
@@ -14537,7 +14534,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="G453" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="H453" s="1" t="s">
         <x:v>38</x:v>
@@ -14548,7 +14545,7 @@
     </x:row>
     <x:row r="454" spans="1:9">
       <x:c r="A454" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B454" s="0" t="s">
         <x:v>31</x:v>
@@ -14577,7 +14574,7 @@
     </x:row>
     <x:row r="455" spans="1:9">
       <x:c r="A455" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B455" s="0" t="s">
         <x:v>31</x:v>
@@ -14606,7 +14603,7 @@
     </x:row>
     <x:row r="456" spans="1:9">
       <x:c r="A456" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B456" s="0" t="s">
         <x:v>31</x:v>
@@ -14635,7 +14632,7 @@
     </x:row>
     <x:row r="457" spans="1:9">
       <x:c r="A457" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B457" s="0" t="s">
         <x:v>32</x:v>
@@ -14664,7 +14661,7 @@
     </x:row>
     <x:row r="458" spans="1:9">
       <x:c r="A458" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B458" s="0" t="s">
         <x:v>32</x:v>
@@ -14693,7 +14690,7 @@
     </x:row>
     <x:row r="459" spans="1:9">
       <x:c r="A459" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B459" s="0" t="s">
         <x:v>32</x:v>
@@ -14722,7 +14719,7 @@
     </x:row>
     <x:row r="460" spans="1:9">
       <x:c r="A460" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="B460" s="0" t="s">
         <x:v>10</x:v>
@@ -14751,7 +14748,7 @@
     </x:row>
     <x:row r="461" spans="1:9">
       <x:c r="A461" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="B461" s="0" t="s">
         <x:v>10</x:v>
@@ -14780,7 +14777,7 @@
     </x:row>
     <x:row r="462" spans="1:9">
       <x:c r="A462" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="B462" s="0" t="s">
         <x:v>10</x:v>
@@ -14809,7 +14806,7 @@
     </x:row>
     <x:row r="463" spans="1:9">
       <x:c r="A463" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="B463" s="0" t="s">
         <x:v>23</x:v>
@@ -14838,7 +14835,7 @@
     </x:row>
     <x:row r="464" spans="1:9">
       <x:c r="A464" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="B464" s="0" t="s">
         <x:v>23</x:v>
@@ -14867,7 +14864,7 @@
     </x:row>
     <x:row r="465" spans="1:9">
       <x:c r="A465" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="B465" s="0" t="s">
         <x:v>23</x:v>
@@ -14896,7 +14893,7 @@
     </x:row>
     <x:row r="466" spans="1:9">
       <x:c r="A466" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="B466" s="0" t="s">
         <x:v>27</x:v>
@@ -14925,7 +14922,7 @@
     </x:row>
     <x:row r="467" spans="1:9">
       <x:c r="A467" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="B467" s="0" t="s">
         <x:v>27</x:v>
@@ -14954,7 +14951,7 @@
     </x:row>
     <x:row r="468" spans="1:9">
       <x:c r="A468" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="B468" s="0" t="s">
         <x:v>27</x:v>
@@ -14983,7 +14980,7 @@
     </x:row>
     <x:row r="469" spans="1:9">
       <x:c r="A469" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="B469" s="0" t="s">
         <x:v>31</x:v>
@@ -15012,7 +15009,7 @@
     </x:row>
     <x:row r="470" spans="1:9">
       <x:c r="A470" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="B470" s="0" t="s">
         <x:v>31</x:v>
@@ -15041,7 +15038,7 @@
     </x:row>
     <x:row r="471" spans="1:9">
       <x:c r="A471" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="B471" s="0" t="s">
         <x:v>31</x:v>
@@ -15070,7 +15067,7 @@
     </x:row>
     <x:row r="472" spans="1:9">
       <x:c r="A472" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="B472" s="0" t="s">
         <x:v>32</x:v>
@@ -15099,7 +15096,7 @@
     </x:row>
     <x:row r="473" spans="1:9">
       <x:c r="A473" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="B473" s="0" t="s">
         <x:v>32</x:v>
@@ -15128,7 +15125,7 @@
     </x:row>
     <x:row r="474" spans="1:9">
       <x:c r="A474" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="B474" s="0" t="s">
         <x:v>32</x:v>
@@ -15157,7 +15154,7 @@
     </x:row>
     <x:row r="475" spans="1:9">
       <x:c r="A475" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="B475" s="0" t="s">
         <x:v>10</x:v>
@@ -15186,7 +15183,7 @@
     </x:row>
     <x:row r="476" spans="1:9">
       <x:c r="A476" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="B476" s="0" t="s">
         <x:v>10</x:v>
@@ -15215,7 +15212,7 @@
     </x:row>
     <x:row r="477" spans="1:9">
       <x:c r="A477" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="B477" s="0" t="s">
         <x:v>10</x:v>
@@ -15244,7 +15241,7 @@
     </x:row>
     <x:row r="478" spans="1:9">
       <x:c r="A478" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="B478" s="0" t="s">
         <x:v>23</x:v>
@@ -15273,7 +15270,7 @@
     </x:row>
     <x:row r="479" spans="1:9">
       <x:c r="A479" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="B479" s="0" t="s">
         <x:v>23</x:v>
@@ -15302,7 +15299,7 @@
     </x:row>
     <x:row r="480" spans="1:9">
       <x:c r="A480" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="B480" s="0" t="s">
         <x:v>23</x:v>
@@ -15331,7 +15328,7 @@
     </x:row>
     <x:row r="481" spans="1:9">
       <x:c r="A481" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="B481" s="0" t="s">
         <x:v>27</x:v>
@@ -15360,7 +15357,7 @@
     </x:row>
     <x:row r="482" spans="1:9">
       <x:c r="A482" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="B482" s="0" t="s">
         <x:v>27</x:v>
@@ -15389,7 +15386,7 @@
     </x:row>
     <x:row r="483" spans="1:9">
       <x:c r="A483" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="B483" s="0" t="s">
         <x:v>27</x:v>
@@ -15418,7 +15415,7 @@
     </x:row>
     <x:row r="484" spans="1:9">
       <x:c r="A484" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="B484" s="0" t="s">
         <x:v>32</x:v>
@@ -15447,7 +15444,7 @@
     </x:row>
     <x:row r="485" spans="1:9">
       <x:c r="A485" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="B485" s="0" t="s">
         <x:v>32</x:v>
@@ -15476,7 +15473,7 @@
     </x:row>
     <x:row r="486" spans="1:9">
       <x:c r="A486" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="B486" s="0" t="s">
         <x:v>32</x:v>
@@ -15505,7 +15502,7 @@
     </x:row>
     <x:row r="487" spans="1:9">
       <x:c r="A487" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B487" s="0" t="s">
         <x:v>10</x:v>
@@ -15534,7 +15531,7 @@
     </x:row>
     <x:row r="488" spans="1:9">
       <x:c r="A488" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B488" s="0" t="s">
         <x:v>10</x:v>
@@ -15563,7 +15560,7 @@
     </x:row>
     <x:row r="489" spans="1:9">
       <x:c r="A489" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B489" s="0" t="s">
         <x:v>10</x:v>
@@ -15592,7 +15589,7 @@
     </x:row>
     <x:row r="490" spans="1:9">
       <x:c r="A490" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B490" s="0" t="s">
         <x:v>23</x:v>
@@ -15621,7 +15618,7 @@
     </x:row>
     <x:row r="491" spans="1:9">
       <x:c r="A491" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B491" s="0" t="s">
         <x:v>23</x:v>
@@ -15650,7 +15647,7 @@
     </x:row>
     <x:row r="492" spans="1:9">
       <x:c r="A492" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B492" s="0" t="s">
         <x:v>27</x:v>
@@ -15679,7 +15676,7 @@
     </x:row>
     <x:row r="493" spans="1:9">
       <x:c r="A493" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B493" s="0" t="s">
         <x:v>27</x:v>
@@ -15708,7 +15705,7 @@
     </x:row>
     <x:row r="494" spans="1:9">
       <x:c r="A494" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B494" s="0" t="s">
         <x:v>27</x:v>
@@ -15737,7 +15734,7 @@
     </x:row>
     <x:row r="495" spans="1:9">
       <x:c r="A495" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B495" s="0" t="s">
         <x:v>10</x:v>
@@ -15766,7 +15763,7 @@
     </x:row>
     <x:row r="496" spans="1:9">
       <x:c r="A496" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B496" s="0" t="s">
         <x:v>10</x:v>
@@ -15795,7 +15792,7 @@
     </x:row>
     <x:row r="497" spans="1:9">
       <x:c r="A497" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B497" s="0" t="s">
         <x:v>10</x:v>
@@ -15824,7 +15821,7 @@
     </x:row>
     <x:row r="498" spans="1:9">
       <x:c r="A498" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B498" s="0" t="s">
         <x:v>27</x:v>
@@ -15853,7 +15850,7 @@
     </x:row>
     <x:row r="499" spans="1:9">
       <x:c r="A499" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B499" s="0" t="s">
         <x:v>27</x:v>
@@ -15882,7 +15879,7 @@
     </x:row>
     <x:row r="500" spans="1:9">
       <x:c r="A500" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B500" s="0" t="s">
         <x:v>27</x:v>
@@ -15911,7 +15908,7 @@
     </x:row>
     <x:row r="501" spans="1:9">
       <x:c r="A501" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B501" s="0" t="s">
         <x:v>10</x:v>
@@ -15940,7 +15937,7 @@
     </x:row>
     <x:row r="502" spans="1:9">
       <x:c r="A502" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B502" s="0" t="s">
         <x:v>10</x:v>
@@ -15969,7 +15966,7 @@
     </x:row>
     <x:row r="503" spans="1:9">
       <x:c r="A503" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B503" s="0" t="s">
         <x:v>10</x:v>
@@ -15998,7 +15995,7 @@
     </x:row>
     <x:row r="504" spans="1:9">
       <x:c r="A504" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B504" s="0" t="s">
         <x:v>47</x:v>
@@ -16027,7 +16024,7 @@
     </x:row>
     <x:row r="505" spans="1:9">
       <x:c r="A505" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B505" s="0" t="s">
         <x:v>47</x:v>
@@ -16056,7 +16053,7 @@
     </x:row>
     <x:row r="506" spans="1:9">
       <x:c r="A506" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B506" s="0" t="s">
         <x:v>23</x:v>
@@ -16085,7 +16082,7 @@
     </x:row>
     <x:row r="507" spans="1:9">
       <x:c r="A507" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B507" s="0" t="s">
         <x:v>23</x:v>
@@ -16114,7 +16111,7 @@
     </x:row>
     <x:row r="508" spans="1:9">
       <x:c r="A508" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B508" s="0" t="s">
         <x:v>23</x:v>
@@ -16143,7 +16140,7 @@
     </x:row>
     <x:row r="509" spans="1:9">
       <x:c r="A509" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B509" s="0" t="s">
         <x:v>27</x:v>
@@ -16172,7 +16169,7 @@
     </x:row>
     <x:row r="510" spans="1:9">
       <x:c r="A510" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B510" s="0" t="s">
         <x:v>27</x:v>
@@ -16201,7 +16198,7 @@
     </x:row>
     <x:row r="511" spans="1:9">
       <x:c r="A511" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B511" s="0" t="s">
         <x:v>27</x:v>
@@ -16230,7 +16227,7 @@
     </x:row>
     <x:row r="512" spans="1:9">
       <x:c r="A512" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B512" s="0" t="s">
         <x:v>31</x:v>
@@ -16259,7 +16256,7 @@
     </x:row>
     <x:row r="513" spans="1:9">
       <x:c r="A513" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B513" s="0" t="s">
         <x:v>31</x:v>
@@ -16288,7 +16285,7 @@
     </x:row>
     <x:row r="514" spans="1:9">
       <x:c r="A514" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B514" s="0" t="s">
         <x:v>31</x:v>
@@ -16317,7 +16314,7 @@
     </x:row>
     <x:row r="515" spans="1:9">
       <x:c r="A515" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B515" s="0" t="s">
         <x:v>32</x:v>
@@ -16346,7 +16343,7 @@
     </x:row>
     <x:row r="516" spans="1:9">
       <x:c r="A516" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B516" s="0" t="s">
         <x:v>32</x:v>
@@ -16375,7 +16372,7 @@
     </x:row>
     <x:row r="517" spans="1:9">
       <x:c r="A517" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B517" s="0" t="s">
         <x:v>32</x:v>
@@ -16404,7 +16401,7 @@
     </x:row>
     <x:row r="518" spans="1:9">
       <x:c r="A518" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B518" s="0" t="s">
         <x:v>10</x:v>
@@ -16433,7 +16430,7 @@
     </x:row>
     <x:row r="519" spans="1:9">
       <x:c r="A519" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B519" s="0" t="s">
         <x:v>10</x:v>
@@ -16462,7 +16459,7 @@
     </x:row>
     <x:row r="520" spans="1:9">
       <x:c r="A520" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B520" s="0" t="s">
         <x:v>23</x:v>
@@ -16491,7 +16488,7 @@
     </x:row>
     <x:row r="521" spans="1:9">
       <x:c r="A521" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B521" s="0" t="s">
         <x:v>23</x:v>
@@ -16520,7 +16517,7 @@
     </x:row>
     <x:row r="522" spans="1:9">
       <x:c r="A522" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B522" s="0" t="s">
         <x:v>23</x:v>
@@ -16549,7 +16546,7 @@
     </x:row>
     <x:row r="523" spans="1:9">
       <x:c r="A523" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B523" s="0" t="s">
         <x:v>27</x:v>
@@ -16578,7 +16575,7 @@
     </x:row>
     <x:row r="524" spans="1:9">
       <x:c r="A524" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B524" s="0" t="s">
         <x:v>27</x:v>
@@ -16607,7 +16604,7 @@
     </x:row>
     <x:row r="525" spans="1:9">
       <x:c r="A525" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B525" s="0" t="s">
         <x:v>27</x:v>
@@ -16636,7 +16633,7 @@
     </x:row>
     <x:row r="526" spans="1:9">
       <x:c r="A526" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B526" s="0" t="s">
         <x:v>31</x:v>
@@ -16665,7 +16662,7 @@
     </x:row>
     <x:row r="527" spans="1:9">
       <x:c r="A527" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B527" s="0" t="s">
         <x:v>31</x:v>
@@ -16694,7 +16691,7 @@
     </x:row>
     <x:row r="528" spans="1:9">
       <x:c r="A528" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B528" s="0" t="s">
         <x:v>31</x:v>
@@ -16723,7 +16720,7 @@
     </x:row>
     <x:row r="529" spans="1:9">
       <x:c r="A529" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B529" s="0" t="s">
         <x:v>10</x:v>
@@ -16752,7 +16749,7 @@
     </x:row>
     <x:row r="530" spans="1:9">
       <x:c r="A530" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B530" s="0" t="s">
         <x:v>10</x:v>
@@ -16781,7 +16778,7 @@
     </x:row>
     <x:row r="531" spans="1:9">
       <x:c r="A531" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B531" s="0" t="s">
         <x:v>10</x:v>
@@ -16810,7 +16807,7 @@
     </x:row>
     <x:row r="532" spans="1:9">
       <x:c r="A532" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B532" s="0" t="s">
         <x:v>23</x:v>
@@ -16839,7 +16836,7 @@
     </x:row>
     <x:row r="533" spans="1:9">
       <x:c r="A533" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B533" s="0" t="s">
         <x:v>23</x:v>
@@ -16868,7 +16865,7 @@
     </x:row>
     <x:row r="534" spans="1:9">
       <x:c r="A534" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B534" s="0" t="s">
         <x:v>23</x:v>
@@ -16897,7 +16894,7 @@
     </x:row>
     <x:row r="535" spans="1:9">
       <x:c r="A535" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B535" s="0" t="s">
         <x:v>27</x:v>
@@ -16926,7 +16923,7 @@
     </x:row>
     <x:row r="536" spans="1:9">
       <x:c r="A536" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B536" s="0" t="s">
         <x:v>27</x:v>
@@ -16955,7 +16952,7 @@
     </x:row>
     <x:row r="537" spans="1:9">
       <x:c r="A537" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B537" s="0" t="s">
         <x:v>27</x:v>
@@ -16984,7 +16981,7 @@
     </x:row>
     <x:row r="538" spans="1:9">
       <x:c r="A538" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B538" s="0" t="s">
         <x:v>31</x:v>
@@ -17013,7 +17010,7 @@
     </x:row>
     <x:row r="539" spans="1:9">
       <x:c r="A539" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B539" s="0" t="s">
         <x:v>31</x:v>
@@ -17042,7 +17039,7 @@
     </x:row>
     <x:row r="540" spans="1:9">
       <x:c r="A540" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B540" s="0" t="s">
         <x:v>32</x:v>
@@ -17071,7 +17068,7 @@
     </x:row>
     <x:row r="541" spans="1:9">
       <x:c r="A541" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B541" s="0" t="s">
         <x:v>32</x:v>
@@ -17100,7 +17097,7 @@
     </x:row>
     <x:row r="542" spans="1:9">
       <x:c r="A542" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B542" s="0" t="s">
         <x:v>10</x:v>
@@ -17129,7 +17126,7 @@
     </x:row>
     <x:row r="543" spans="1:9">
       <x:c r="A543" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B543" s="0" t="s">
         <x:v>10</x:v>
@@ -17158,7 +17155,7 @@
     </x:row>
     <x:row r="544" spans="1:9">
       <x:c r="A544" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B544" s="0" t="s">
         <x:v>10</x:v>
@@ -17187,7 +17184,7 @@
     </x:row>
     <x:row r="545" spans="1:9">
       <x:c r="A545" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B545" s="0" t="s">
         <x:v>27</x:v>
@@ -17216,7 +17213,7 @@
     </x:row>
     <x:row r="546" spans="1:9">
       <x:c r="A546" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B546" s="0" t="s">
         <x:v>27</x:v>
@@ -17245,7 +17242,7 @@
     </x:row>
     <x:row r="547" spans="1:9">
       <x:c r="A547" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B547" s="0" t="s">
         <x:v>27</x:v>
@@ -17274,7 +17271,7 @@
     </x:row>
     <x:row r="548" spans="1:9">
       <x:c r="A548" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B548" s="0" t="s">
         <x:v>10</x:v>
@@ -17303,7 +17300,7 @@
     </x:row>
     <x:row r="549" spans="1:9">
       <x:c r="A549" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B549" s="0" t="s">
         <x:v>10</x:v>
@@ -17332,7 +17329,7 @@
     </x:row>
     <x:row r="550" spans="1:9">
       <x:c r="A550" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B550" s="0" t="s">
         <x:v>10</x:v>
@@ -17361,7 +17358,7 @@
     </x:row>
     <x:row r="551" spans="1:9">
       <x:c r="A551" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B551" s="0" t="s">
         <x:v>23</x:v>
@@ -17390,7 +17387,7 @@
     </x:row>
     <x:row r="552" spans="1:9">
       <x:c r="A552" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B552" s="0" t="s">
         <x:v>23</x:v>
@@ -17419,7 +17416,7 @@
     </x:row>
     <x:row r="553" spans="1:9">
       <x:c r="A553" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B553" s="0" t="s">
         <x:v>27</x:v>
@@ -17448,7 +17445,7 @@
     </x:row>
     <x:row r="554" spans="1:9">
       <x:c r="A554" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B554" s="0" t="s">
         <x:v>27</x:v>
@@ -17477,7 +17474,7 @@
     </x:row>
     <x:row r="555" spans="1:9">
       <x:c r="A555" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B555" s="0" t="s">
         <x:v>27</x:v>
@@ -17506,7 +17503,7 @@
     </x:row>
     <x:row r="556" spans="1:9">
       <x:c r="A556" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B556" s="0" t="s">
         <x:v>65</x:v>
@@ -17535,7 +17532,7 @@
     </x:row>
     <x:row r="557" spans="1:9">
       <x:c r="A557" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B557" s="0" t="s">
         <x:v>65</x:v>
@@ -17564,7 +17561,7 @@
     </x:row>
     <x:row r="558" spans="1:9">
       <x:c r="A558" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B558" s="0" t="s">
         <x:v>32</x:v>
@@ -17593,7 +17590,7 @@
     </x:row>
     <x:row r="559" spans="1:9">
       <x:c r="A559" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B559" s="0" t="s">
         <x:v>32</x:v>
@@ -17622,7 +17619,7 @@
     </x:row>
     <x:row r="560" spans="1:9">
       <x:c r="A560" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B560" s="0" t="s">
         <x:v>32</x:v>
@@ -17651,7 +17648,7 @@
     </x:row>
     <x:row r="561" spans="1:9">
       <x:c r="A561" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B561" s="0" t="s">
         <x:v>10</x:v>
@@ -17680,7 +17677,7 @@
     </x:row>
     <x:row r="562" spans="1:9">
       <x:c r="A562" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B562" s="0" t="s">
         <x:v>10</x:v>
@@ -17709,7 +17706,7 @@
     </x:row>
     <x:row r="563" spans="1:9">
       <x:c r="A563" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B563" s="0" t="s">
         <x:v>10</x:v>
@@ -17738,7 +17735,7 @@
     </x:row>
     <x:row r="564" spans="1:9">
       <x:c r="A564" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B564" s="0" t="s">
         <x:v>23</x:v>
@@ -17767,7 +17764,7 @@
     </x:row>
     <x:row r="565" spans="1:9">
       <x:c r="A565" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B565" s="0" t="s">
         <x:v>23</x:v>
@@ -17796,7 +17793,7 @@
     </x:row>
     <x:row r="566" spans="1:9">
       <x:c r="A566" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B566" s="0" t="s">
         <x:v>23</x:v>
@@ -17825,7 +17822,7 @@
     </x:row>
     <x:row r="567" spans="1:9">
       <x:c r="A567" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B567" s="0" t="s">
         <x:v>27</x:v>
@@ -17854,7 +17851,7 @@
     </x:row>
     <x:row r="568" spans="1:9">
       <x:c r="A568" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B568" s="0" t="s">
         <x:v>27</x:v>
@@ -17883,7 +17880,7 @@
     </x:row>
     <x:row r="569" spans="1:9">
       <x:c r="A569" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B569" s="0" t="s">
         <x:v>27</x:v>
@@ -17912,7 +17909,7 @@
     </x:row>
     <x:row r="570" spans="1:9">
       <x:c r="A570" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B570" s="0" t="s">
         <x:v>65</x:v>
@@ -17941,7 +17938,7 @@
     </x:row>
     <x:row r="571" spans="1:9">
       <x:c r="A571" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B571" s="0" t="s">
         <x:v>65</x:v>
@@ -17970,7 +17967,7 @@
     </x:row>
     <x:row r="572" spans="1:9">
       <x:c r="A572" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B572" s="0" t="s">
         <x:v>31</x:v>
@@ -17999,7 +17996,7 @@
     </x:row>
     <x:row r="573" spans="1:9">
       <x:c r="A573" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B573" s="0" t="s">
         <x:v>31</x:v>
@@ -18028,7 +18025,7 @@
     </x:row>
     <x:row r="574" spans="1:9">
       <x:c r="A574" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B574" s="0" t="s">
         <x:v>31</x:v>
@@ -18057,7 +18054,7 @@
     </x:row>
     <x:row r="575" spans="1:9">
       <x:c r="A575" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B575" s="0" t="s">
         <x:v>32</x:v>
@@ -18086,7 +18083,7 @@
     </x:row>
     <x:row r="576" spans="1:9">
       <x:c r="A576" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B576" s="0" t="s">
         <x:v>32</x:v>
@@ -18115,7 +18112,7 @@
     </x:row>
     <x:row r="577" spans="1:9">
       <x:c r="A577" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B577" s="0" t="s">
         <x:v>32</x:v>
@@ -18144,7 +18141,7 @@
     </x:row>
     <x:row r="578" spans="1:9">
       <x:c r="A578" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B578" s="0" t="s">
         <x:v>10</x:v>
@@ -18173,7 +18170,7 @@
     </x:row>
     <x:row r="579" spans="1:9">
       <x:c r="A579" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B579" s="0" t="s">
         <x:v>10</x:v>
@@ -18202,7 +18199,7 @@
     </x:row>
     <x:row r="580" spans="1:9">
       <x:c r="A580" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B580" s="0" t="s">
         <x:v>27</x:v>
@@ -18231,7 +18228,7 @@
     </x:row>
     <x:row r="581" spans="1:9">
       <x:c r="A581" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B581" s="0" t="s">
         <x:v>27</x:v>
@@ -18260,7 +18257,7 @@
     </x:row>
     <x:row r="582" spans="1:9">
       <x:c r="A582" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B582" s="0" t="s">
         <x:v>27</x:v>
@@ -18289,7 +18286,7 @@
     </x:row>
     <x:row r="583" spans="1:9">
       <x:c r="A583" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B583" s="0" t="s">
         <x:v>10</x:v>
@@ -18318,7 +18315,7 @@
     </x:row>
     <x:row r="584" spans="1:9">
       <x:c r="A584" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B584" s="0" t="s">
         <x:v>10</x:v>
@@ -18347,7 +18344,7 @@
     </x:row>
     <x:row r="585" spans="1:9">
       <x:c r="A585" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B585" s="0" t="s">
         <x:v>10</x:v>
@@ -18376,7 +18373,7 @@
     </x:row>
     <x:row r="586" spans="1:9">
       <x:c r="A586" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B586" s="0" t="s">
         <x:v>23</x:v>
@@ -18405,7 +18402,7 @@
     </x:row>
     <x:row r="587" spans="1:9">
       <x:c r="A587" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B587" s="0" t="s">
         <x:v>23</x:v>
@@ -18434,7 +18431,7 @@
     </x:row>
     <x:row r="588" spans="1:9">
       <x:c r="A588" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B588" s="0" t="s">
         <x:v>23</x:v>
@@ -18463,7 +18460,7 @@
     </x:row>
     <x:row r="589" spans="1:9">
       <x:c r="A589" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B589" s="0" t="s">
         <x:v>27</x:v>
@@ -18492,7 +18489,7 @@
     </x:row>
     <x:row r="590" spans="1:9">
       <x:c r="A590" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B590" s="0" t="s">
         <x:v>27</x:v>
@@ -18521,7 +18518,7 @@
     </x:row>
     <x:row r="591" spans="1:9">
       <x:c r="A591" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B591" s="0" t="s">
         <x:v>27</x:v>
@@ -18550,7 +18547,7 @@
     </x:row>
     <x:row r="592" spans="1:9">
       <x:c r="A592" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B592" s="0" t="s">
         <x:v>65</x:v>
@@ -18579,7 +18576,7 @@
     </x:row>
     <x:row r="593" spans="1:9">
       <x:c r="A593" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B593" s="0" t="s">
         <x:v>65</x:v>
@@ -18608,7 +18605,7 @@
     </x:row>
     <x:row r="594" spans="1:9">
       <x:c r="A594" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B594" s="0" t="s">
         <x:v>65</x:v>
@@ -18637,7 +18634,7 @@
     </x:row>
     <x:row r="595" spans="1:9">
       <x:c r="A595" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B595" s="0" t="s">
         <x:v>31</x:v>
@@ -18666,7 +18663,7 @@
     </x:row>
     <x:row r="596" spans="1:9">
       <x:c r="A596" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B596" s="0" t="s">
         <x:v>31</x:v>
@@ -18695,7 +18692,7 @@
     </x:row>
     <x:row r="597" spans="1:9">
       <x:c r="A597" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B597" s="0" t="s">
         <x:v>31</x:v>
@@ -18724,7 +18721,7 @@
     </x:row>
     <x:row r="598" spans="1:9">
       <x:c r="A598" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B598" s="0" t="s">
         <x:v>32</x:v>
@@ -18753,7 +18750,7 @@
     </x:row>
     <x:row r="599" spans="1:9">
       <x:c r="A599" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B599" s="0" t="s">
         <x:v>32</x:v>
@@ -18782,7 +18779,7 @@
     </x:row>
     <x:row r="600" spans="1:9">
       <x:c r="A600" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B600" s="0" t="s">
         <x:v>32</x:v>
@@ -18811,7 +18808,7 @@
     </x:row>
     <x:row r="601" spans="1:9">
       <x:c r="A601" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="B601" s="0" t="s">
         <x:v>10</x:v>
@@ -18840,7 +18837,7 @@
     </x:row>
     <x:row r="602" spans="1:9">
       <x:c r="A602" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="B602" s="0" t="s">
         <x:v>10</x:v>
@@ -18869,7 +18866,7 @@
     </x:row>
     <x:row r="603" spans="1:9">
       <x:c r="A603" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="B603" s="0" t="s">
         <x:v>10</x:v>
@@ -18898,7 +18895,7 @@
     </x:row>
     <x:row r="604" spans="1:9">
       <x:c r="A604" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="B604" s="0" t="s">
         <x:v>23</x:v>
@@ -18927,7 +18924,7 @@
     </x:row>
     <x:row r="605" spans="1:9">
       <x:c r="A605" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="B605" s="0" t="s">
         <x:v>23</x:v>
@@ -18956,7 +18953,7 @@
     </x:row>
     <x:row r="606" spans="1:9">
       <x:c r="A606" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="B606" s="0" t="s">
         <x:v>23</x:v>
@@ -18985,7 +18982,7 @@
     </x:row>
     <x:row r="607" spans="1:9">
       <x:c r="A607" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="B607" s="0" t="s">
         <x:v>27</x:v>
@@ -19014,7 +19011,7 @@
     </x:row>
     <x:row r="608" spans="1:9">
       <x:c r="A608" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="B608" s="0" t="s">
         <x:v>27</x:v>
@@ -19043,7 +19040,7 @@
     </x:row>
     <x:row r="609" spans="1:9">
       <x:c r="A609" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="B609" s="0" t="s">
         <x:v>27</x:v>
@@ -19072,7 +19069,7 @@
     </x:row>
     <x:row r="610" spans="1:9">
       <x:c r="A610" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="B610" s="0" t="s">
         <x:v>32</x:v>
@@ -19101,7 +19098,7 @@
     </x:row>
     <x:row r="611" spans="1:9">
       <x:c r="A611" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="B611" s="0" t="s">
         <x:v>32</x:v>
@@ -19130,7 +19127,7 @@
     </x:row>
     <x:row r="612" spans="1:9">
       <x:c r="A612" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B612" s="0" t="s">
         <x:v>10</x:v>
@@ -19159,7 +19156,7 @@
     </x:row>
     <x:row r="613" spans="1:9">
       <x:c r="A613" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B613" s="0" t="s">
         <x:v>10</x:v>
@@ -19188,7 +19185,7 @@
     </x:row>
     <x:row r="614" spans="1:9">
       <x:c r="A614" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B614" s="0" t="s">
         <x:v>10</x:v>
@@ -19217,7 +19214,7 @@
     </x:row>
     <x:row r="615" spans="1:9">
       <x:c r="A615" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B615" s="0" t="s">
         <x:v>27</x:v>
@@ -19246,7 +19243,7 @@
     </x:row>
     <x:row r="616" spans="1:9">
       <x:c r="A616" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B616" s="0" t="s">
         <x:v>27</x:v>
@@ -19275,7 +19272,7 @@
     </x:row>
     <x:row r="617" spans="1:9">
       <x:c r="A617" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B617" s="0" t="s">
         <x:v>10</x:v>
@@ -19304,7 +19301,7 @@
     </x:row>
     <x:row r="618" spans="1:9">
       <x:c r="A618" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B618" s="0" t="s">
         <x:v>10</x:v>
@@ -19333,7 +19330,7 @@
     </x:row>
     <x:row r="619" spans="1:9">
       <x:c r="A619" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B619" s="0" t="s">
         <x:v>10</x:v>
@@ -19362,7 +19359,7 @@
     </x:row>
     <x:row r="620" spans="1:9">
       <x:c r="A620" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B620" s="0" t="s">
         <x:v>23</x:v>
@@ -19391,7 +19388,7 @@
     </x:row>
     <x:row r="621" spans="1:9">
       <x:c r="A621" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B621" s="0" t="s">
         <x:v>23</x:v>
@@ -19420,7 +19417,7 @@
     </x:row>
     <x:row r="622" spans="1:9">
       <x:c r="A622" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B622" s="0" t="s">
         <x:v>23</x:v>
@@ -19449,7 +19446,7 @@
     </x:row>
     <x:row r="623" spans="1:9">
       <x:c r="A623" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B623" s="0" t="s">
         <x:v>27</x:v>
@@ -19478,7 +19475,7 @@
     </x:row>
     <x:row r="624" spans="1:9">
       <x:c r="A624" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B624" s="0" t="s">
         <x:v>27</x:v>
@@ -19507,7 +19504,7 @@
     </x:row>
     <x:row r="625" spans="1:9">
       <x:c r="A625" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B625" s="0" t="s">
         <x:v>27</x:v>
@@ -19536,7 +19533,7 @@
     </x:row>
     <x:row r="626" spans="1:9">
       <x:c r="A626" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B626" s="0" t="s">
         <x:v>65</x:v>
@@ -19565,7 +19562,7 @@
     </x:row>
     <x:row r="627" spans="1:9">
       <x:c r="A627" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B627" s="0" t="s">
         <x:v>65</x:v>
@@ -19594,7 +19591,7 @@
     </x:row>
     <x:row r="628" spans="1:9">
       <x:c r="A628" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B628" s="0" t="s">
         <x:v>31</x:v>
@@ -19623,7 +19620,7 @@
     </x:row>
     <x:row r="629" spans="1:9">
       <x:c r="A629" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B629" s="0" t="s">
         <x:v>31</x:v>
@@ -19652,7 +19649,7 @@
     </x:row>
     <x:row r="630" spans="1:9">
       <x:c r="A630" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B630" s="0" t="s">
         <x:v>31</x:v>
@@ -19681,7 +19678,7 @@
     </x:row>
     <x:row r="631" spans="1:9">
       <x:c r="A631" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B631" s="0" t="s">
         <x:v>32</x:v>
@@ -19710,7 +19707,7 @@
     </x:row>
     <x:row r="632" spans="1:9">
       <x:c r="A632" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B632" s="0" t="s">
         <x:v>32</x:v>
@@ -19739,7 +19736,7 @@
     </x:row>
     <x:row r="633" spans="1:9">
       <x:c r="A633" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B633" s="0" t="s">
         <x:v>10</x:v>
@@ -19768,7 +19765,7 @@
     </x:row>
     <x:row r="634" spans="1:9">
       <x:c r="A634" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B634" s="0" t="s">
         <x:v>10</x:v>
@@ -19789,7 +19786,7 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="H634" s="1" t="s">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="I634" s="0" t="s">
         <x:v>12</x:v>
@@ -19797,7 +19794,7 @@
     </x:row>
     <x:row r="635" spans="1:9">
       <x:c r="A635" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B635" s="0" t="s">
         <x:v>10</x:v>
@@ -19812,10 +19809,10 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="F635" s="1" t="s">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="G635" s="1" t="s">
-        <x:v>231</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="H635" s="1" t="s">
         <x:v>138</x:v>
@@ -19826,7 +19823,7 @@
     </x:row>
     <x:row r="636" spans="1:9">
       <x:c r="A636" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B636" s="0" t="s">
         <x:v>47</x:v>
@@ -19855,7 +19852,7 @@
     </x:row>
     <x:row r="637" spans="1:9">
       <x:c r="A637" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B637" s="0" t="s">
         <x:v>47</x:v>
@@ -19884,7 +19881,7 @@
     </x:row>
     <x:row r="638" spans="1:9">
       <x:c r="A638" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B638" s="0" t="s">
         <x:v>47</x:v>
@@ -19913,7 +19910,7 @@
     </x:row>
     <x:row r="639" spans="1:9">
       <x:c r="A639" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B639" s="0" t="s">
         <x:v>23</x:v>
@@ -19942,7 +19939,7 @@
     </x:row>
     <x:row r="640" spans="1:9">
       <x:c r="A640" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B640" s="0" t="s">
         <x:v>23</x:v>
@@ -19971,7 +19968,7 @@
     </x:row>
     <x:row r="641" spans="1:9">
       <x:c r="A641" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B641" s="0" t="s">
         <x:v>23</x:v>
@@ -20000,7 +19997,7 @@
     </x:row>
     <x:row r="642" spans="1:9">
       <x:c r="A642" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B642" s="0" t="s">
         <x:v>27</x:v>
@@ -20029,7 +20026,7 @@
     </x:row>
     <x:row r="643" spans="1:9">
       <x:c r="A643" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B643" s="0" t="s">
         <x:v>27</x:v>
@@ -20058,7 +20055,7 @@
     </x:row>
     <x:row r="644" spans="1:9">
       <x:c r="A644" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B644" s="0" t="s">
         <x:v>27</x:v>
@@ -20087,7 +20084,7 @@
     </x:row>
     <x:row r="645" spans="1:9">
       <x:c r="A645" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B645" s="0" t="s">
         <x:v>31</x:v>
@@ -20116,7 +20113,7 @@
     </x:row>
     <x:row r="646" spans="1:9">
       <x:c r="A646" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B646" s="0" t="s">
         <x:v>31</x:v>
@@ -20145,7 +20142,7 @@
     </x:row>
     <x:row r="647" spans="1:9">
       <x:c r="A647" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B647" s="0" t="s">
         <x:v>31</x:v>
@@ -20174,7 +20171,7 @@
     </x:row>
     <x:row r="648" spans="1:9">
       <x:c r="A648" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B648" s="0" t="s">
         <x:v>32</x:v>
@@ -20203,7 +20200,7 @@
     </x:row>
     <x:row r="649" spans="1:9">
       <x:c r="A649" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B649" s="0" t="s">
         <x:v>32</x:v>
@@ -20232,7 +20229,7 @@
     </x:row>
     <x:row r="650" spans="1:9">
       <x:c r="A650" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B650" s="0" t="s">
         <x:v>32</x:v>
@@ -20261,7 +20258,7 @@
     </x:row>
     <x:row r="651" spans="1:9">
       <x:c r="A651" s="0" t="s">
-        <x:v>232</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B651" s="0" t="s">
         <x:v>10</x:v>
@@ -20290,7 +20287,7 @@
     </x:row>
     <x:row r="652" spans="1:9">
       <x:c r="A652" s="0" t="s">
-        <x:v>232</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B652" s="0" t="s">
         <x:v>10</x:v>
@@ -20319,7 +20316,7 @@
     </x:row>
     <x:row r="653" spans="1:9">
       <x:c r="A653" s="0" t="s">
-        <x:v>232</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B653" s="0" t="s">
         <x:v>10</x:v>
@@ -20348,7 +20345,7 @@
     </x:row>
     <x:row r="654" spans="1:9">
       <x:c r="A654" s="0" t="s">
-        <x:v>232</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B654" s="0" t="s">
         <x:v>23</x:v>
@@ -20377,7 +20374,7 @@
     </x:row>
     <x:row r="655" spans="1:9">
       <x:c r="A655" s="0" t="s">
-        <x:v>232</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B655" s="0" t="s">
         <x:v>23</x:v>
@@ -20406,7 +20403,7 @@
     </x:row>
     <x:row r="656" spans="1:9">
       <x:c r="A656" s="0" t="s">
-        <x:v>232</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B656" s="0" t="s">
         <x:v>27</x:v>
@@ -20435,7 +20432,7 @@
     </x:row>
     <x:row r="657" spans="1:9">
       <x:c r="A657" s="0" t="s">
-        <x:v>232</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B657" s="0" t="s">
         <x:v>27</x:v>
@@ -20464,7 +20461,7 @@
     </x:row>
     <x:row r="658" spans="1:9">
       <x:c r="A658" s="0" t="s">
-        <x:v>232</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B658" s="0" t="s">
         <x:v>27</x:v>
@@ -20493,7 +20490,7 @@
     </x:row>
     <x:row r="659" spans="1:9">
       <x:c r="A659" s="0" t="s">
-        <x:v>232</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B659" s="0" t="s">
         <x:v>65</x:v>
@@ -20522,7 +20519,7 @@
     </x:row>
     <x:row r="660" spans="1:9">
       <x:c r="A660" s="0" t="s">
-        <x:v>232</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B660" s="0" t="s">
         <x:v>65</x:v>
@@ -20551,7 +20548,7 @@
     </x:row>
     <x:row r="661" spans="1:9">
       <x:c r="A661" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="B661" s="0" t="s">
         <x:v>10</x:v>
@@ -20580,7 +20577,7 @@
     </x:row>
     <x:row r="662" spans="1:9">
       <x:c r="A662" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="B662" s="0" t="s">
         <x:v>10</x:v>
@@ -20609,7 +20606,7 @@
     </x:row>
     <x:row r="663" spans="1:9">
       <x:c r="A663" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="B663" s="0" t="s">
         <x:v>10</x:v>
@@ -20624,10 +20621,10 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="F663" s="1" t="s">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="G663" s="1" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="H663" s="1" t="s">
         <x:v>114</x:v>
@@ -20638,7 +20635,7 @@
     </x:row>
     <x:row r="664" spans="1:9">
       <x:c r="A664" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="B664" s="0" t="s">
         <x:v>23</x:v>
@@ -20667,7 +20664,7 @@
     </x:row>
     <x:row r="665" spans="1:9">
       <x:c r="A665" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="B665" s="0" t="s">
         <x:v>23</x:v>
@@ -20696,7 +20693,7 @@
     </x:row>
     <x:row r="666" spans="1:9">
       <x:c r="A666" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="B666" s="0" t="s">
         <x:v>23</x:v>
@@ -20725,7 +20722,7 @@
     </x:row>
     <x:row r="667" spans="1:9">
       <x:c r="A667" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="B667" s="0" t="s">
         <x:v>27</x:v>
@@ -20754,7 +20751,7 @@
     </x:row>
     <x:row r="668" spans="1:9">
       <x:c r="A668" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="B668" s="0" t="s">
         <x:v>27</x:v>
@@ -20783,7 +20780,7 @@
     </x:row>
     <x:row r="669" spans="1:9">
       <x:c r="A669" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="B669" s="0" t="s">
         <x:v>27</x:v>
@@ -20812,7 +20809,7 @@
     </x:row>
     <x:row r="670" spans="1:9">
       <x:c r="A670" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="B670" s="0" t="s">
         <x:v>65</x:v>
@@ -20841,7 +20838,7 @@
     </x:row>
     <x:row r="671" spans="1:9">
       <x:c r="A671" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="B671" s="0" t="s">
         <x:v>65</x:v>
@@ -20870,7 +20867,7 @@
     </x:row>
     <x:row r="672" spans="1:9">
       <x:c r="A672" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="B672" s="0" t="s">
         <x:v>65</x:v>
@@ -20899,7 +20896,7 @@
     </x:row>
     <x:row r="673" spans="1:9">
       <x:c r="A673" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="B673" s="0" t="s">
         <x:v>31</x:v>
@@ -20928,7 +20925,7 @@
     </x:row>
     <x:row r="674" spans="1:9">
       <x:c r="A674" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="B674" s="0" t="s">
         <x:v>31</x:v>
@@ -20957,7 +20954,7 @@
     </x:row>
     <x:row r="675" spans="1:9">
       <x:c r="A675" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="B675" s="0" t="s">
         <x:v>31</x:v>
@@ -20986,7 +20983,7 @@
     </x:row>
     <x:row r="676" spans="1:9">
       <x:c r="A676" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="B676" s="0" t="s">
         <x:v>32</x:v>
@@ -21015,7 +21012,7 @@
     </x:row>
     <x:row r="677" spans="1:9">
       <x:c r="A677" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="B677" s="0" t="s">
         <x:v>32</x:v>
@@ -21044,7 +21041,7 @@
     </x:row>
     <x:row r="678" spans="1:9">
       <x:c r="A678" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="B678" s="0" t="s">
         <x:v>32</x:v>
@@ -21073,7 +21070,7 @@
     </x:row>
     <x:row r="679" spans="1:9">
       <x:c r="A679" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B679" s="0" t="s">
         <x:v>10</x:v>
@@ -21102,7 +21099,7 @@
     </x:row>
     <x:row r="680" spans="1:9">
       <x:c r="A680" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B680" s="0" t="s">
         <x:v>10</x:v>
@@ -21131,7 +21128,7 @@
     </x:row>
     <x:row r="681" spans="1:9">
       <x:c r="A681" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B681" s="0" t="s">
         <x:v>10</x:v>
@@ -21160,7 +21157,7 @@
     </x:row>
     <x:row r="682" spans="1:9">
       <x:c r="A682" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B682" s="0" t="s">
         <x:v>23</x:v>
@@ -21189,7 +21186,7 @@
     </x:row>
     <x:row r="683" spans="1:9">
       <x:c r="A683" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B683" s="0" t="s">
         <x:v>23</x:v>
@@ -21218,7 +21215,7 @@
     </x:row>
     <x:row r="684" spans="1:9">
       <x:c r="A684" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B684" s="0" t="s">
         <x:v>23</x:v>
@@ -21247,7 +21244,7 @@
     </x:row>
     <x:row r="685" spans="1:9">
       <x:c r="A685" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B685" s="0" t="s">
         <x:v>27</x:v>
@@ -21276,7 +21273,7 @@
     </x:row>
     <x:row r="686" spans="1:9">
       <x:c r="A686" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B686" s="0" t="s">
         <x:v>27</x:v>
@@ -21305,7 +21302,7 @@
     </x:row>
     <x:row r="687" spans="1:9">
       <x:c r="A687" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B687" s="0" t="s">
         <x:v>27</x:v>
@@ -21334,7 +21331,7 @@
     </x:row>
     <x:row r="688" spans="1:9">
       <x:c r="A688" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B688" s="0" t="s">
         <x:v>31</x:v>
@@ -21363,7 +21360,7 @@
     </x:row>
     <x:row r="689" spans="1:9">
       <x:c r="A689" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B689" s="0" t="s">
         <x:v>31</x:v>
@@ -21392,7 +21389,7 @@
     </x:row>
     <x:row r="690" spans="1:9">
       <x:c r="A690" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B690" s="0" t="s">
         <x:v>31</x:v>
@@ -21421,7 +21418,7 @@
     </x:row>
     <x:row r="691" spans="1:9">
       <x:c r="A691" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B691" s="0" t="s">
         <x:v>32</x:v>
@@ -21450,7 +21447,7 @@
     </x:row>
     <x:row r="692" spans="1:9">
       <x:c r="A692" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B692" s="0" t="s">
         <x:v>32</x:v>
@@ -21479,7 +21476,7 @@
     </x:row>
     <x:row r="693" spans="1:9">
       <x:c r="A693" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B693" s="0" t="s">
         <x:v>32</x:v>
@@ -21508,7 +21505,7 @@
     </x:row>
     <x:row r="694" spans="1:9">
       <x:c r="A694" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B694" s="0" t="s">
         <x:v>10</x:v>
@@ -21523,7 +21520,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="F694" s="1" t="s">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="G694" s="1" t="s">
         <x:v>82</x:v>
@@ -21537,7 +21534,7 @@
     </x:row>
     <x:row r="695" spans="1:9">
       <x:c r="A695" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B695" s="0" t="s">
         <x:v>10</x:v>
@@ -21549,10 +21546,10 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E695" s="1" t="s">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="F695" s="1" t="s">
-        <x:v>238</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="G695" s="1" t="s">
         <x:v>62</x:v>
@@ -21566,7 +21563,7 @@
     </x:row>
     <x:row r="696" spans="1:9">
       <x:c r="A696" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B696" s="0" t="s">
         <x:v>10</x:v>
@@ -21578,16 +21575,16 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E696" s="1" t="s">
-        <x:v>238</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="F696" s="1" t="s">
-        <x:v>239</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="G696" s="1" t="s">
-        <x:v>240</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="H696" s="1" t="s">
-        <x:v>241</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="I696" s="0" t="s">
         <x:v>12</x:v>
@@ -21595,7 +21592,7 @@
     </x:row>
     <x:row r="697" spans="1:9">
       <x:c r="A697" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B697" s="0" t="s">
         <x:v>23</x:v>
@@ -21624,7 +21621,7 @@
     </x:row>
     <x:row r="698" spans="1:9">
       <x:c r="A698" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B698" s="0" t="s">
         <x:v>23</x:v>
@@ -21653,7 +21650,7 @@
     </x:row>
     <x:row r="699" spans="1:9">
       <x:c r="A699" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B699" s="0" t="s">
         <x:v>23</x:v>
@@ -21682,7 +21679,7 @@
     </x:row>
     <x:row r="700" spans="1:9">
       <x:c r="A700" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B700" s="0" t="s">
         <x:v>27</x:v>
@@ -21711,7 +21708,7 @@
     </x:row>
     <x:row r="701" spans="1:9">
       <x:c r="A701" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B701" s="0" t="s">
         <x:v>27</x:v>
@@ -21740,7 +21737,7 @@
     </x:row>
     <x:row r="702" spans="1:9">
       <x:c r="A702" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B702" s="0" t="s">
         <x:v>27</x:v>
@@ -21769,7 +21766,7 @@
     </x:row>
     <x:row r="703" spans="1:9">
       <x:c r="A703" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B703" s="0" t="s">
         <x:v>65</x:v>
@@ -21798,7 +21795,7 @@
     </x:row>
     <x:row r="704" spans="1:9">
       <x:c r="A704" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B704" s="0" t="s">
         <x:v>65</x:v>
@@ -21827,7 +21824,7 @@
     </x:row>
     <x:row r="705" spans="1:9">
       <x:c r="A705" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B705" s="0" t="s">
         <x:v>31</x:v>
@@ -21856,7 +21853,7 @@
     </x:row>
     <x:row r="706" spans="1:9">
       <x:c r="A706" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B706" s="0" t="s">
         <x:v>31</x:v>
@@ -21885,7 +21882,7 @@
     </x:row>
     <x:row r="707" spans="1:9">
       <x:c r="A707" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B707" s="0" t="s">
         <x:v>31</x:v>
@@ -21914,7 +21911,7 @@
     </x:row>
     <x:row r="708" spans="1:9">
       <x:c r="A708" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B708" s="0" t="s">
         <x:v>32</x:v>
@@ -21943,7 +21940,7 @@
     </x:row>
     <x:row r="709" spans="1:9">
       <x:c r="A709" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B709" s="0" t="s">
         <x:v>32</x:v>
@@ -21972,7 +21969,7 @@
     </x:row>
     <x:row r="710" spans="1:9">
       <x:c r="A710" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B710" s="0" t="s">
         <x:v>32</x:v>
@@ -22001,7 +21998,7 @@
     </x:row>
     <x:row r="711" spans="1:9">
       <x:c r="A711" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B711" s="0" t="s">
         <x:v>10</x:v>
@@ -22030,7 +22027,7 @@
     </x:row>
     <x:row r="712" spans="1:9">
       <x:c r="A712" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B712" s="0" t="s">
         <x:v>10</x:v>
@@ -22059,7 +22056,7 @@
     </x:row>
     <x:row r="713" spans="1:9">
       <x:c r="A713" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B713" s="0" t="s">
         <x:v>23</x:v>
@@ -22088,7 +22085,7 @@
     </x:row>
     <x:row r="714" spans="1:9">
       <x:c r="A714" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B714" s="0" t="s">
         <x:v>23</x:v>
@@ -22117,7 +22114,7 @@
     </x:row>
     <x:row r="715" spans="1:9">
       <x:c r="A715" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B715" s="0" t="s">
         <x:v>27</x:v>
@@ -22146,7 +22143,7 @@
     </x:row>
     <x:row r="716" spans="1:9">
       <x:c r="A716" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B716" s="0" t="s">
         <x:v>27</x:v>
@@ -22175,7 +22172,7 @@
     </x:row>
     <x:row r="717" spans="1:9">
       <x:c r="A717" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B717" s="0" t="s">
         <x:v>27</x:v>
@@ -22204,7 +22201,7 @@
     </x:row>
     <x:row r="718" spans="1:9">
       <x:c r="A718" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B718" s="0" t="s">
         <x:v>31</x:v>
@@ -22233,7 +22230,7 @@
     </x:row>
     <x:row r="719" spans="1:9">
       <x:c r="A719" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B719" s="0" t="s">
         <x:v>31</x:v>
@@ -22262,7 +22259,7 @@
     </x:row>
     <x:row r="720" spans="1:9">
       <x:c r="A720" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B720" s="0" t="s">
         <x:v>31</x:v>
@@ -22291,7 +22288,7 @@
     </x:row>
     <x:row r="721" spans="1:9">
       <x:c r="A721" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B721" s="0" t="s">
         <x:v>32</x:v>
@@ -22320,7 +22317,7 @@
     </x:row>
     <x:row r="722" spans="1:9">
       <x:c r="A722" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B722" s="0" t="s">
         <x:v>32</x:v>
@@ -22349,7 +22346,7 @@
     </x:row>
     <x:row r="723" spans="1:9">
       <x:c r="A723" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B723" s="0" t="s">
         <x:v>10</x:v>
@@ -22378,7 +22375,7 @@
     </x:row>
     <x:row r="724" spans="1:9">
       <x:c r="A724" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B724" s="0" t="s">
         <x:v>10</x:v>
@@ -22407,7 +22404,7 @@
     </x:row>
     <x:row r="725" spans="1:9">
       <x:c r="A725" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B725" s="0" t="s">
         <x:v>10</x:v>
@@ -22436,7 +22433,7 @@
     </x:row>
     <x:row r="726" spans="1:9">
       <x:c r="A726" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B726" s="0" t="s">
         <x:v>23</x:v>
@@ -22465,7 +22462,7 @@
     </x:row>
     <x:row r="727" spans="1:9">
       <x:c r="A727" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B727" s="0" t="s">
         <x:v>23</x:v>
@@ -22494,7 +22491,7 @@
     </x:row>
     <x:row r="728" spans="1:9">
       <x:c r="A728" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B728" s="0" t="s">
         <x:v>23</x:v>
@@ -22523,7 +22520,7 @@
     </x:row>
     <x:row r="729" spans="1:9">
       <x:c r="A729" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B729" s="0" t="s">
         <x:v>27</x:v>
@@ -22552,7 +22549,7 @@
     </x:row>
     <x:row r="730" spans="1:9">
       <x:c r="A730" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B730" s="0" t="s">
         <x:v>27</x:v>
@@ -22581,7 +22578,7 @@
     </x:row>
     <x:row r="731" spans="1:9">
       <x:c r="A731" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B731" s="0" t="s">
         <x:v>27</x:v>
@@ -22610,7 +22607,7 @@
     </x:row>
     <x:row r="732" spans="1:9">
       <x:c r="A732" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B732" s="0" t="s">
         <x:v>31</x:v>
@@ -22639,7 +22636,7 @@
     </x:row>
     <x:row r="733" spans="1:9">
       <x:c r="A733" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B733" s="0" t="s">
         <x:v>31</x:v>
@@ -22668,7 +22665,7 @@
     </x:row>
     <x:row r="734" spans="1:9">
       <x:c r="A734" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B734" s="0" t="s">
         <x:v>31</x:v>
@@ -22697,7 +22694,7 @@
     </x:row>
     <x:row r="735" spans="1:9">
       <x:c r="A735" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B735" s="0" t="s">
         <x:v>32</x:v>
@@ -22726,7 +22723,7 @@
     </x:row>
     <x:row r="736" spans="1:9">
       <x:c r="A736" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B736" s="0" t="s">
         <x:v>32</x:v>
@@ -22755,7 +22752,7 @@
     </x:row>
     <x:row r="737" spans="1:9">
       <x:c r="A737" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B737" s="0" t="s">
         <x:v>10</x:v>
@@ -22784,7 +22781,7 @@
     </x:row>
     <x:row r="738" spans="1:9">
       <x:c r="A738" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B738" s="0" t="s">
         <x:v>10</x:v>
@@ -22813,7 +22810,7 @@
     </x:row>
     <x:row r="739" spans="1:9">
       <x:c r="A739" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B739" s="0" t="s">
         <x:v>10</x:v>
@@ -22842,7 +22839,7 @@
     </x:row>
     <x:row r="740" spans="1:9">
       <x:c r="A740" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B740" s="0" t="s">
         <x:v>23</x:v>
@@ -22871,7 +22868,7 @@
     </x:row>
     <x:row r="741" spans="1:9">
       <x:c r="A741" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B741" s="0" t="s">
         <x:v>23</x:v>
@@ -22900,7 +22897,7 @@
     </x:row>
     <x:row r="742" spans="1:9">
       <x:c r="A742" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B742" s="0" t="s">
         <x:v>23</x:v>
@@ -22929,7 +22926,7 @@
     </x:row>
     <x:row r="743" spans="1:9">
       <x:c r="A743" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B743" s="0" t="s">
         <x:v>27</x:v>
@@ -22958,7 +22955,7 @@
     </x:row>
     <x:row r="744" spans="1:9">
       <x:c r="A744" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B744" s="0" t="s">
         <x:v>27</x:v>
@@ -22987,7 +22984,7 @@
     </x:row>
     <x:row r="745" spans="1:9">
       <x:c r="A745" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B745" s="0" t="s">
         <x:v>27</x:v>
@@ -23016,7 +23013,7 @@
     </x:row>
     <x:row r="746" spans="1:9">
       <x:c r="A746" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B746" s="0" t="s">
         <x:v>31</x:v>
@@ -23045,7 +23042,7 @@
     </x:row>
     <x:row r="747" spans="1:9">
       <x:c r="A747" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B747" s="0" t="s">
         <x:v>31</x:v>
@@ -23074,7 +23071,7 @@
     </x:row>
     <x:row r="748" spans="1:9">
       <x:c r="A748" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B748" s="0" t="s">
         <x:v>31</x:v>
@@ -23103,7 +23100,7 @@
     </x:row>
     <x:row r="749" spans="1:9">
       <x:c r="A749" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B749" s="0" t="s">
         <x:v>32</x:v>
@@ -23132,7 +23129,7 @@
     </x:row>
     <x:row r="750" spans="1:9">
       <x:c r="A750" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B750" s="0" t="s">
         <x:v>32</x:v>
@@ -23161,7 +23158,7 @@
     </x:row>
     <x:row r="751" spans="1:9">
       <x:c r="A751" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B751" s="0" t="s">
         <x:v>32</x:v>
@@ -23190,7 +23187,7 @@
     </x:row>
     <x:row r="752" spans="1:9">
       <x:c r="A752" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B752" s="0" t="s">
         <x:v>10</x:v>
@@ -23219,7 +23216,7 @@
     </x:row>
     <x:row r="753" spans="1:9">
       <x:c r="A753" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B753" s="0" t="s">
         <x:v>10</x:v>
@@ -23248,7 +23245,7 @@
     </x:row>
     <x:row r="754" spans="1:9">
       <x:c r="A754" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B754" s="0" t="s">
         <x:v>10</x:v>
@@ -23277,7 +23274,7 @@
     </x:row>
     <x:row r="755" spans="1:9">
       <x:c r="A755" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B755" s="0" t="s">
         <x:v>23</x:v>
@@ -23306,7 +23303,7 @@
     </x:row>
     <x:row r="756" spans="1:9">
       <x:c r="A756" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B756" s="0" t="s">
         <x:v>23</x:v>
@@ -23335,7 +23332,7 @@
     </x:row>
     <x:row r="757" spans="1:9">
       <x:c r="A757" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B757" s="0" t="s">
         <x:v>27</x:v>
@@ -23364,7 +23361,7 @@
     </x:row>
     <x:row r="758" spans="1:9">
       <x:c r="A758" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B758" s="0" t="s">
         <x:v>27</x:v>
@@ -23393,7 +23390,7 @@
     </x:row>
     <x:row r="759" spans="1:9">
       <x:c r="A759" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B759" s="0" t="s">
         <x:v>27</x:v>
@@ -23422,7 +23419,7 @@
     </x:row>
     <x:row r="760" spans="1:9">
       <x:c r="A760" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B760" s="0" t="s">
         <x:v>31</x:v>
@@ -23451,7 +23448,7 @@
     </x:row>
     <x:row r="761" spans="1:9">
       <x:c r="A761" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B761" s="0" t="s">
         <x:v>31</x:v>
@@ -23480,7 +23477,7 @@
     </x:row>
     <x:row r="762" spans="1:9">
       <x:c r="A762" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B762" s="0" t="s">
         <x:v>31</x:v>
@@ -23509,7 +23506,7 @@
     </x:row>
     <x:row r="763" spans="1:9">
       <x:c r="A763" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B763" s="0" t="s">
         <x:v>10</x:v>
@@ -23524,7 +23521,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="F763" s="1" t="s">
-        <x:v>247</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="G763" s="1" t="s">
         <x:v>46</x:v>
@@ -23538,7 +23535,7 @@
     </x:row>
     <x:row r="764" spans="1:9">
       <x:c r="A764" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B764" s="0" t="s">
         <x:v>10</x:v>
@@ -23553,13 +23550,13 @@
         <x:v>150</x:v>
       </x:c>
       <x:c r="F764" s="1" t="s">
-        <x:v>248</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="G764" s="1" t="s">
         <x:v>145</x:v>
       </x:c>
       <x:c r="H764" s="1" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="I764" s="0" t="s">
         <x:v>12</x:v>
@@ -23567,7 +23564,7 @@
     </x:row>
     <x:row r="765" spans="1:9">
       <x:c r="A765" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B765" s="0" t="s">
         <x:v>10</x:v>
@@ -23579,16 +23576,16 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E765" s="1" t="s">
-        <x:v>202</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="F765" s="1" t="s">
-        <x:v>249</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="G765" s="1" t="s">
-        <x:v>250</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="H765" s="1" t="s">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="I765" s="0" t="s">
         <x:v>12</x:v>
@@ -23596,7 +23593,7 @@
     </x:row>
     <x:row r="766" spans="1:9">
       <x:c r="A766" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B766" s="0" t="s">
         <x:v>47</x:v>
@@ -23625,7 +23622,7 @@
     </x:row>
     <x:row r="767" spans="1:9">
       <x:c r="A767" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B767" s="0" t="s">
         <x:v>47</x:v>
@@ -23654,7 +23651,7 @@
     </x:row>
     <x:row r="768" spans="1:9">
       <x:c r="A768" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B768" s="0" t="s">
         <x:v>47</x:v>
@@ -23683,7 +23680,7 @@
     </x:row>
     <x:row r="769" spans="1:9">
       <x:c r="A769" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B769" s="0" t="s">
         <x:v>23</x:v>
@@ -23712,7 +23709,7 @@
     </x:row>
     <x:row r="770" spans="1:9">
       <x:c r="A770" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B770" s="0" t="s">
         <x:v>23</x:v>
@@ -23741,7 +23738,7 @@
     </x:row>
     <x:row r="771" spans="1:9">
       <x:c r="A771" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B771" s="0" t="s">
         <x:v>23</x:v>
@@ -23770,7 +23767,7 @@
     </x:row>
     <x:row r="772" spans="1:9">
       <x:c r="A772" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B772" s="0" t="s">
         <x:v>27</x:v>
@@ -23799,7 +23796,7 @@
     </x:row>
     <x:row r="773" spans="1:9">
       <x:c r="A773" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B773" s="0" t="s">
         <x:v>27</x:v>
@@ -23828,7 +23825,7 @@
     </x:row>
     <x:row r="774" spans="1:9">
       <x:c r="A774" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B774" s="0" t="s">
         <x:v>27</x:v>
@@ -23843,13 +23840,13 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="F774" s="1" t="s">
-        <x:v>252</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="G774" s="1" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="H774" s="1" t="s">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="I774" s="0" t="s">
         <x:v>12</x:v>
@@ -23857,7 +23854,7 @@
     </x:row>
     <x:row r="775" spans="1:9">
       <x:c r="A775" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B775" s="0" t="s">
         <x:v>65</x:v>
@@ -23886,7 +23883,7 @@
     </x:row>
     <x:row r="776" spans="1:9">
       <x:c r="A776" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B776" s="0" t="s">
         <x:v>65</x:v>
@@ -23915,7 +23912,7 @@
     </x:row>
     <x:row r="777" spans="1:9">
       <x:c r="A777" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B777" s="0" t="s">
         <x:v>65</x:v>
@@ -23944,7 +23941,7 @@
     </x:row>
     <x:row r="778" spans="1:9">
       <x:c r="A778" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B778" s="0" t="s">
         <x:v>31</x:v>
@@ -23973,7 +23970,7 @@
     </x:row>
     <x:row r="779" spans="1:9">
       <x:c r="A779" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B779" s="0" t="s">
         <x:v>31</x:v>
@@ -24002,7 +23999,7 @@
     </x:row>
     <x:row r="780" spans="1:9">
       <x:c r="A780" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B780" s="0" t="s">
         <x:v>31</x:v>
@@ -24031,7 +24028,7 @@
     </x:row>
     <x:row r="781" spans="1:9">
       <x:c r="A781" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B781" s="0" t="s">
         <x:v>32</x:v>
@@ -24060,7 +24057,7 @@
     </x:row>
     <x:row r="782" spans="1:9">
       <x:c r="A782" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B782" s="0" t="s">
         <x:v>32</x:v>
@@ -24089,7 +24086,7 @@
     </x:row>
     <x:row r="783" spans="1:9">
       <x:c r="A783" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B783" s="0" t="s">
         <x:v>32</x:v>
@@ -24107,7 +24104,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="G783" s="1" t="s">
-        <x:v>253</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="H783" s="1" t="s">
         <x:v>132</x:v>
@@ -24118,7 +24115,7 @@
     </x:row>
     <x:row r="784" spans="1:9">
       <x:c r="A784" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B784" s="0" t="s">
         <x:v>10</x:v>
@@ -24147,7 +24144,7 @@
     </x:row>
     <x:row r="785" spans="1:9">
       <x:c r="A785" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B785" s="0" t="s">
         <x:v>10</x:v>
@@ -24176,7 +24173,7 @@
     </x:row>
     <x:row r="786" spans="1:9">
       <x:c r="A786" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B786" s="0" t="s">
         <x:v>10</x:v>
@@ -24205,7 +24202,7 @@
     </x:row>
     <x:row r="787" spans="1:9">
       <x:c r="A787" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B787" s="0" t="s">
         <x:v>23</x:v>
@@ -24234,7 +24231,7 @@
     </x:row>
     <x:row r="788" spans="1:9">
       <x:c r="A788" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B788" s="0" t="s">
         <x:v>23</x:v>
@@ -24263,7 +24260,7 @@
     </x:row>
     <x:row r="789" spans="1:9">
       <x:c r="A789" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B789" s="0" t="s">
         <x:v>23</x:v>
@@ -24292,7 +24289,7 @@
     </x:row>
     <x:row r="790" spans="1:9">
       <x:c r="A790" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B790" s="0" t="s">
         <x:v>27</x:v>
@@ -24321,7 +24318,7 @@
     </x:row>
     <x:row r="791" spans="1:9">
       <x:c r="A791" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B791" s="0" t="s">
         <x:v>27</x:v>
@@ -24350,7 +24347,7 @@
     </x:row>
     <x:row r="792" spans="1:9">
       <x:c r="A792" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B792" s="0" t="s">
         <x:v>27</x:v>
@@ -24379,7 +24376,7 @@
     </x:row>
     <x:row r="793" spans="1:9">
       <x:c r="A793" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B793" s="0" t="s">
         <x:v>65</x:v>
@@ -24408,7 +24405,7 @@
     </x:row>
     <x:row r="794" spans="1:9">
       <x:c r="A794" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B794" s="0" t="s">
         <x:v>65</x:v>
@@ -24437,7 +24434,7 @@
     </x:row>
     <x:row r="795" spans="1:9">
       <x:c r="A795" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B795" s="0" t="s">
         <x:v>65</x:v>
@@ -24466,7 +24463,7 @@
     </x:row>
     <x:row r="796" spans="1:9">
       <x:c r="A796" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B796" s="0" t="s">
         <x:v>31</x:v>
@@ -24495,7 +24492,7 @@
     </x:row>
     <x:row r="797" spans="1:9">
       <x:c r="A797" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B797" s="0" t="s">
         <x:v>31</x:v>
@@ -24524,7 +24521,7 @@
     </x:row>
     <x:row r="798" spans="1:9">
       <x:c r="A798" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B798" s="0" t="s">
         <x:v>31</x:v>
@@ -24553,7 +24550,7 @@
     </x:row>
     <x:row r="799" spans="1:9">
       <x:c r="A799" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B799" s="0" t="s">
         <x:v>32</x:v>
@@ -24582,7 +24579,7 @@
     </x:row>
     <x:row r="800" spans="1:9">
       <x:c r="A800" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B800" s="0" t="s">
         <x:v>32</x:v>
@@ -24611,7 +24608,7 @@
     </x:row>
     <x:row r="801" spans="1:9">
       <x:c r="A801" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B801" s="0" t="s">
         <x:v>32</x:v>
@@ -24640,7 +24637,7 @@
     </x:row>
     <x:row r="802" spans="1:9">
       <x:c r="A802" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B802" s="0" t="s">
         <x:v>10</x:v>
@@ -24669,7 +24666,7 @@
     </x:row>
     <x:row r="803" spans="1:9">
       <x:c r="A803" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B803" s="0" t="s">
         <x:v>10</x:v>
@@ -24698,7 +24695,7 @@
     </x:row>
     <x:row r="804" spans="1:9">
       <x:c r="A804" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B804" s="0" t="s">
         <x:v>10</x:v>
@@ -24727,7 +24724,7 @@
     </x:row>
     <x:row r="805" spans="1:9">
       <x:c r="A805" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B805" s="0" t="s">
         <x:v>23</x:v>
@@ -24756,7 +24753,7 @@
     </x:row>
     <x:row r="806" spans="1:9">
       <x:c r="A806" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B806" s="0" t="s">
         <x:v>23</x:v>
@@ -24785,7 +24782,7 @@
     </x:row>
     <x:row r="807" spans="1:9">
       <x:c r="A807" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B807" s="0" t="s">
         <x:v>23</x:v>
@@ -24814,7 +24811,7 @@
     </x:row>
     <x:row r="808" spans="1:9">
       <x:c r="A808" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B808" s="0" t="s">
         <x:v>27</x:v>
@@ -24843,7 +24840,7 @@
     </x:row>
     <x:row r="809" spans="1:9">
       <x:c r="A809" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B809" s="0" t="s">
         <x:v>27</x:v>
@@ -24872,7 +24869,7 @@
     </x:row>
     <x:row r="810" spans="1:9">
       <x:c r="A810" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B810" s="0" t="s">
         <x:v>27</x:v>
@@ -24901,7 +24898,7 @@
     </x:row>
     <x:row r="811" spans="1:9">
       <x:c r="A811" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B811" s="0" t="s">
         <x:v>31</x:v>
@@ -24930,7 +24927,7 @@
     </x:row>
     <x:row r="812" spans="1:9">
       <x:c r="A812" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B812" s="0" t="s">
         <x:v>31</x:v>
@@ -24959,7 +24956,7 @@
     </x:row>
     <x:row r="813" spans="1:9">
       <x:c r="A813" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B813" s="0" t="s">
         <x:v>31</x:v>
@@ -24988,7 +24985,7 @@
     </x:row>
     <x:row r="814" spans="1:9">
       <x:c r="A814" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B814" s="0" t="s">
         <x:v>32</x:v>
@@ -25017,7 +25014,7 @@
     </x:row>
     <x:row r="815" spans="1:9">
       <x:c r="A815" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B815" s="0" t="s">
         <x:v>32</x:v>
@@ -25046,7 +25043,7 @@
     </x:row>
     <x:row r="816" spans="1:9">
       <x:c r="A816" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B816" s="0" t="s">
         <x:v>32</x:v>
@@ -25075,7 +25072,7 @@
     </x:row>
     <x:row r="817" spans="1:9">
       <x:c r="A817" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B817" s="0" t="s">
         <x:v>10</x:v>
@@ -25104,7 +25101,7 @@
     </x:row>
     <x:row r="818" spans="1:9">
       <x:c r="A818" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B818" s="0" t="s">
         <x:v>10</x:v>
@@ -25133,7 +25130,7 @@
     </x:row>
     <x:row r="819" spans="1:9">
       <x:c r="A819" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B819" s="0" t="s">
         <x:v>10</x:v>
@@ -25162,7 +25159,7 @@
     </x:row>
     <x:row r="820" spans="1:9">
       <x:c r="A820" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B820" s="0" t="s">
         <x:v>23</x:v>
@@ -25191,7 +25188,7 @@
     </x:row>
     <x:row r="821" spans="1:9">
       <x:c r="A821" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B821" s="0" t="s">
         <x:v>23</x:v>
@@ -25220,7 +25217,7 @@
     </x:row>
     <x:row r="822" spans="1:9">
       <x:c r="A822" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B822" s="0" t="s">
         <x:v>23</x:v>
@@ -25249,7 +25246,7 @@
     </x:row>
     <x:row r="823" spans="1:9">
       <x:c r="A823" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B823" s="0" t="s">
         <x:v>27</x:v>
@@ -25278,7 +25275,7 @@
     </x:row>
     <x:row r="824" spans="1:9">
       <x:c r="A824" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B824" s="0" t="s">
         <x:v>27</x:v>
@@ -25307,7 +25304,7 @@
     </x:row>
     <x:row r="825" spans="1:9">
       <x:c r="A825" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B825" s="0" t="s">
         <x:v>27</x:v>
@@ -25336,7 +25333,7 @@
     </x:row>
     <x:row r="826" spans="1:9">
       <x:c r="A826" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B826" s="0" t="s">
         <x:v>65</x:v>
@@ -25365,7 +25362,7 @@
     </x:row>
     <x:row r="827" spans="1:9">
       <x:c r="A827" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B827" s="0" t="s">
         <x:v>65</x:v>
@@ -25394,7 +25391,7 @@
     </x:row>
     <x:row r="828" spans="1:9">
       <x:c r="A828" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B828" s="0" t="s">
         <x:v>32</x:v>
@@ -25423,7 +25420,7 @@
     </x:row>
     <x:row r="829" spans="1:9">
       <x:c r="A829" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B829" s="0" t="s">
         <x:v>32</x:v>
@@ -25452,7 +25449,7 @@
     </x:row>
     <x:row r="830" spans="1:9">
       <x:c r="A830" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B830" s="0" t="s">
         <x:v>32</x:v>
@@ -25481,7 +25478,7 @@
     </x:row>
     <x:row r="831" spans="1:9">
       <x:c r="A831" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B831" s="0" t="s">
         <x:v>10</x:v>
@@ -25510,7 +25507,7 @@
     </x:row>
     <x:row r="832" spans="1:9">
       <x:c r="A832" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B832" s="0" t="s">
         <x:v>10</x:v>
@@ -25539,7 +25536,7 @@
     </x:row>
     <x:row r="833" spans="1:9">
       <x:c r="A833" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B833" s="0" t="s">
         <x:v>23</x:v>
@@ -25568,7 +25565,7 @@
     </x:row>
     <x:row r="834" spans="1:9">
       <x:c r="A834" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B834" s="0" t="s">
         <x:v>23</x:v>
@@ -25597,7 +25594,7 @@
     </x:row>
     <x:row r="835" spans="1:9">
       <x:c r="A835" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B835" s="0" t="s">
         <x:v>27</x:v>
@@ -25626,7 +25623,7 @@
     </x:row>
     <x:row r="836" spans="1:9">
       <x:c r="A836" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B836" s="0" t="s">
         <x:v>27</x:v>
@@ -25655,7 +25652,7 @@
     </x:row>
     <x:row r="837" spans="1:9">
       <x:c r="A837" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B837" s="0" t="s">
         <x:v>27</x:v>
@@ -25684,7 +25681,7 @@
     </x:row>
     <x:row r="838" spans="1:9">
       <x:c r="A838" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B838" s="0" t="s">
         <x:v>31</x:v>
@@ -25713,7 +25710,7 @@
     </x:row>
     <x:row r="839" spans="1:9">
       <x:c r="A839" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B839" s="0" t="s">
         <x:v>31</x:v>
@@ -25742,7 +25739,7 @@
     </x:row>
     <x:row r="840" spans="1:9">
       <x:c r="A840" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B840" s="0" t="s">
         <x:v>10</x:v>
@@ -25771,7 +25768,7 @@
     </x:row>
     <x:row r="841" spans="1:9">
       <x:c r="A841" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B841" s="0" t="s">
         <x:v>10</x:v>
@@ -25800,7 +25797,7 @@
     </x:row>
     <x:row r="842" spans="1:9">
       <x:c r="A842" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B842" s="0" t="s">
         <x:v>10</x:v>
@@ -25829,7 +25826,7 @@
     </x:row>
     <x:row r="843" spans="1:9">
       <x:c r="A843" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B843" s="0" t="s">
         <x:v>23</x:v>
@@ -25858,7 +25855,7 @@
     </x:row>
     <x:row r="844" spans="1:9">
       <x:c r="A844" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B844" s="0" t="s">
         <x:v>23</x:v>
@@ -25887,7 +25884,7 @@
     </x:row>
     <x:row r="845" spans="1:9">
       <x:c r="A845" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B845" s="0" t="s">
         <x:v>23</x:v>
@@ -25916,7 +25913,7 @@
     </x:row>
     <x:row r="846" spans="1:9">
       <x:c r="A846" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B846" s="0" t="s">
         <x:v>27</x:v>
@@ -25945,7 +25942,7 @@
     </x:row>
     <x:row r="847" spans="1:9">
       <x:c r="A847" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B847" s="0" t="s">
         <x:v>27</x:v>
@@ -25974,7 +25971,7 @@
     </x:row>
     <x:row r="848" spans="1:9">
       <x:c r="A848" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B848" s="0" t="s">
         <x:v>27</x:v>
@@ -26003,7 +26000,7 @@
     </x:row>
     <x:row r="849" spans="1:9">
       <x:c r="A849" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B849" s="0" t="s">
         <x:v>65</x:v>
@@ -26032,7 +26029,7 @@
     </x:row>
     <x:row r="850" spans="1:9">
       <x:c r="A850" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B850" s="0" t="s">
         <x:v>65</x:v>
@@ -26061,7 +26058,7 @@
     </x:row>
     <x:row r="851" spans="1:9">
       <x:c r="A851" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B851" s="0" t="s">
         <x:v>65</x:v>
@@ -26090,7 +26087,7 @@
     </x:row>
     <x:row r="852" spans="1:9">
       <x:c r="A852" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B852" s="0" t="s">
         <x:v>31</x:v>
@@ -26119,7 +26116,7 @@
     </x:row>
     <x:row r="853" spans="1:9">
       <x:c r="A853" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B853" s="0" t="s">
         <x:v>31</x:v>
@@ -26148,7 +26145,7 @@
     </x:row>
     <x:row r="854" spans="1:9">
       <x:c r="A854" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B854" s="0" t="s">
         <x:v>31</x:v>
@@ -26177,7 +26174,7 @@
     </x:row>
     <x:row r="855" spans="1:9">
       <x:c r="A855" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B855" s="0" t="s">
         <x:v>32</x:v>
@@ -26206,7 +26203,7 @@
     </x:row>
     <x:row r="856" spans="1:9">
       <x:c r="A856" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B856" s="0" t="s">
         <x:v>32</x:v>
@@ -26235,7 +26232,7 @@
     </x:row>
     <x:row r="857" spans="1:9">
       <x:c r="A857" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B857" s="0" t="s">
         <x:v>32</x:v>
@@ -26264,7 +26261,7 @@
     </x:row>
     <x:row r="858" spans="1:9">
       <x:c r="A858" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B858" s="0" t="s">
         <x:v>10</x:v>
@@ -26293,7 +26290,7 @@
     </x:row>
     <x:row r="859" spans="1:9">
       <x:c r="A859" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B859" s="0" t="s">
         <x:v>10</x:v>
@@ -26322,7 +26319,7 @@
     </x:row>
     <x:row r="860" spans="1:9">
       <x:c r="A860" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B860" s="0" t="s">
         <x:v>10</x:v>
@@ -26351,7 +26348,7 @@
     </x:row>
     <x:row r="861" spans="1:9">
       <x:c r="A861" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B861" s="0" t="s">
         <x:v>23</x:v>
@@ -26380,7 +26377,7 @@
     </x:row>
     <x:row r="862" spans="1:9">
       <x:c r="A862" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B862" s="0" t="s">
         <x:v>23</x:v>
@@ -26409,7 +26406,7 @@
     </x:row>
     <x:row r="863" spans="1:9">
       <x:c r="A863" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B863" s="0" t="s">
         <x:v>23</x:v>
@@ -26438,7 +26435,7 @@
     </x:row>
     <x:row r="864" spans="1:9">
       <x:c r="A864" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B864" s="0" t="s">
         <x:v>27</x:v>
@@ -26467,7 +26464,7 @@
     </x:row>
     <x:row r="865" spans="1:9">
       <x:c r="A865" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B865" s="0" t="s">
         <x:v>27</x:v>
@@ -26496,7 +26493,7 @@
     </x:row>
     <x:row r="866" spans="1:9">
       <x:c r="A866" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B866" s="0" t="s">
         <x:v>27</x:v>
@@ -26525,7 +26522,7 @@
     </x:row>
     <x:row r="867" spans="1:9">
       <x:c r="A867" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B867" s="0" t="s">
         <x:v>31</x:v>
@@ -26554,7 +26551,7 @@
     </x:row>
     <x:row r="868" spans="1:9">
       <x:c r="A868" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B868" s="0" t="s">
         <x:v>31</x:v>
@@ -26583,7 +26580,7 @@
     </x:row>
     <x:row r="869" spans="1:9">
       <x:c r="A869" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B869" s="0" t="s">
         <x:v>31</x:v>
@@ -26612,7 +26609,7 @@
     </x:row>
     <x:row r="870" spans="1:9">
       <x:c r="A870" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B870" s="0" t="s">
         <x:v>32</x:v>
@@ -26641,7 +26638,7 @@
     </x:row>
     <x:row r="871" spans="1:9">
       <x:c r="A871" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B871" s="0" t="s">
         <x:v>32</x:v>
@@ -26670,7 +26667,7 @@
     </x:row>
     <x:row r="872" spans="1:9">
       <x:c r="A872" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="B872" s="0" t="s">
         <x:v>10</x:v>
@@ -26685,13 +26682,13 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="F872" s="1" t="s">
-        <x:v>261</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="G872" s="1" t="s">
-        <x:v>262</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="H872" s="1" t="s">
-        <x:v>263</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="I872" s="0" t="s">
         <x:v>12</x:v>
@@ -26699,7 +26696,7 @@
     </x:row>
     <x:row r="873" spans="1:9">
       <x:c r="A873" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="B873" s="0" t="s">
         <x:v>10</x:v>
@@ -26711,16 +26708,16 @@
         <x:v>168</x:v>
       </x:c>
       <x:c r="E873" s="1" t="s">
-        <x:v>264</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="F873" s="1" t="s">
-        <x:v>265</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="G873" s="1" t="s">
-        <x:v>266</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="H873" s="1" t="s">
-        <x:v>267</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="I873" s="0" t="s">
         <x:v>13</x:v>
@@ -26728,7 +26725,7 @@
     </x:row>
     <x:row r="874" spans="1:9">
       <x:c r="A874" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="B874" s="0" t="s">
         <x:v>10</x:v>
@@ -26740,16 +26737,16 @@
         <x:v>146</x:v>
       </x:c>
       <x:c r="E874" s="1" t="s">
-        <x:v>268</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="F874" s="1" t="s">
-        <x:v>269</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="G874" s="1" t="s">
-        <x:v>270</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="H874" s="1" t="s">
-        <x:v>271</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="I874" s="0" t="s">
         <x:v>13</x:v>
@@ -26757,7 +26754,7 @@
     </x:row>
     <x:row r="875" spans="1:9">
       <x:c r="A875" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="B875" s="0" t="s">
         <x:v>47</x:v>
@@ -26786,7 +26783,7 @@
     </x:row>
     <x:row r="876" spans="1:9">
       <x:c r="A876" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="B876" s="0" t="s">
         <x:v>47</x:v>
@@ -26815,7 +26812,7 @@
     </x:row>
     <x:row r="877" spans="1:9">
       <x:c r="A877" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="B877" s="0" t="s">
         <x:v>47</x:v>
@@ -26844,7 +26841,7 @@
     </x:row>
     <x:row r="878" spans="1:9">
       <x:c r="A878" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="B878" s="0" t="s">
         <x:v>23</x:v>
@@ -26873,7 +26870,7 @@
     </x:row>
     <x:row r="879" spans="1:9">
       <x:c r="A879" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="B879" s="0" t="s">
         <x:v>23</x:v>
@@ -26902,7 +26899,7 @@
     </x:row>
     <x:row r="880" spans="1:9">
       <x:c r="A880" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="B880" s="0" t="s">
         <x:v>23</x:v>
@@ -26931,7 +26928,7 @@
     </x:row>
     <x:row r="881" spans="1:9">
       <x:c r="A881" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="B881" s="0" t="s">
         <x:v>27</x:v>
@@ -26946,7 +26943,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="F881" s="1" t="s">
-        <x:v>272</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="G881" s="1" t="s">
         <x:v>108</x:v>
@@ -26960,7 +26957,7 @@
     </x:row>
     <x:row r="882" spans="1:9">
       <x:c r="A882" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="B882" s="0" t="s">
         <x:v>27</x:v>
@@ -26972,10 +26969,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="E882" s="1" t="s">
-        <x:v>188</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="F882" s="1" t="s">
-        <x:v>273</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="G882" s="1" t="s">
         <x:v>153</x:v>
@@ -26989,7 +26986,7 @@
     </x:row>
     <x:row r="883" spans="1:9">
       <x:c r="A883" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="B883" s="0" t="s">
         <x:v>27</x:v>
@@ -27001,16 +26998,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E883" s="1" t="s">
-        <x:v>274</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="F883" s="1" t="s">
-        <x:v>275</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="G883" s="1" t="s">
-        <x:v>276</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="H883" s="1" t="s">
-        <x:v>277</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="I883" s="0" t="s">
         <x:v>12</x:v>
@@ -27018,7 +27015,7 @@
     </x:row>
     <x:row r="884" spans="1:9">
       <x:c r="A884" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="B884" s="0" t="s">
         <x:v>65</x:v>
@@ -27047,7 +27044,7 @@
     </x:row>
     <x:row r="885" spans="1:9">
       <x:c r="A885" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="B885" s="0" t="s">
         <x:v>65</x:v>
@@ -27076,7 +27073,7 @@
     </x:row>
     <x:row r="886" spans="1:9">
       <x:c r="A886" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="B886" s="0" t="s">
         <x:v>31</x:v>
@@ -27105,7 +27102,7 @@
     </x:row>
     <x:row r="887" spans="1:9">
       <x:c r="A887" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="B887" s="0" t="s">
         <x:v>31</x:v>
@@ -27134,7 +27131,7 @@
     </x:row>
     <x:row r="888" spans="1:9">
       <x:c r="A888" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="B888" s="0" t="s">
         <x:v>31</x:v>
@@ -27146,7 +27143,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E888" s="1" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="F888" s="1" t="s">
         <x:v>42</x:v>
@@ -27163,7 +27160,7 @@
     </x:row>
     <x:row r="889" spans="1:9">
       <x:c r="A889" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="B889" s="0" t="s">
         <x:v>32</x:v>
@@ -27192,7 +27189,7 @@
     </x:row>
     <x:row r="890" spans="1:9">
       <x:c r="A890" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="B890" s="0" t="s">
         <x:v>32</x:v>
@@ -27210,7 +27207,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="G890" s="1" t="s">
-        <x:v>278</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="H890" s="1" t="s">
         <x:v>73</x:v>
@@ -27221,7 +27218,7 @@
     </x:row>
     <x:row r="891" spans="1:9">
       <x:c r="A891" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="B891" s="0" t="s">
         <x:v>32</x:v>
@@ -27236,10 +27233,10 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="F891" s="1" t="s">
-        <x:v>252</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="G891" s="1" t="s">
-        <x:v>202</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="H891" s="1" t="s">
         <x:v>82</x:v>
@@ -27250,7 +27247,7 @@
     </x:row>
     <x:row r="892" spans="1:9">
       <x:c r="A892" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B892" s="0" t="s">
         <x:v>10</x:v>
@@ -27279,7 +27276,7 @@
     </x:row>
     <x:row r="893" spans="1:9">
       <x:c r="A893" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B893" s="0" t="s">
         <x:v>10</x:v>
@@ -27308,7 +27305,7 @@
     </x:row>
     <x:row r="894" spans="1:9">
       <x:c r="A894" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B894" s="0" t="s">
         <x:v>10</x:v>
@@ -27337,7 +27334,7 @@
     </x:row>
     <x:row r="895" spans="1:9">
       <x:c r="A895" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B895" s="0" t="s">
         <x:v>23</x:v>
@@ -27366,7 +27363,7 @@
     </x:row>
     <x:row r="896" spans="1:9">
       <x:c r="A896" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B896" s="0" t="s">
         <x:v>23</x:v>
@@ -27395,7 +27392,7 @@
     </x:row>
     <x:row r="897" spans="1:9">
       <x:c r="A897" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B897" s="0" t="s">
         <x:v>23</x:v>
@@ -27424,7 +27421,7 @@
     </x:row>
     <x:row r="898" spans="1:9">
       <x:c r="A898" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B898" s="0" t="s">
         <x:v>27</x:v>
@@ -27453,7 +27450,7 @@
     </x:row>
     <x:row r="899" spans="1:9">
       <x:c r="A899" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B899" s="0" t="s">
         <x:v>27</x:v>
@@ -27482,7 +27479,7 @@
     </x:row>
     <x:row r="900" spans="1:9">
       <x:c r="A900" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B900" s="0" t="s">
         <x:v>27</x:v>
@@ -27511,7 +27508,7 @@
     </x:row>
     <x:row r="901" spans="1:9">
       <x:c r="A901" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B901" s="0" t="s">
         <x:v>31</x:v>
@@ -27540,7 +27537,7 @@
     </x:row>
     <x:row r="902" spans="1:9">
       <x:c r="A902" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B902" s="0" t="s">
         <x:v>31</x:v>
@@ -27569,7 +27566,7 @@
     </x:row>
     <x:row r="903" spans="1:9">
       <x:c r="A903" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B903" s="0" t="s">
         <x:v>31</x:v>
@@ -27598,7 +27595,7 @@
     </x:row>
     <x:row r="904" spans="1:9">
       <x:c r="A904" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B904" s="0" t="s">
         <x:v>10</x:v>
@@ -27627,7 +27624,7 @@
     </x:row>
     <x:row r="905" spans="1:9">
       <x:c r="A905" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B905" s="0" t="s">
         <x:v>10</x:v>
@@ -27656,7 +27653,7 @@
     </x:row>
     <x:row r="906" spans="1:9">
       <x:c r="A906" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B906" s="0" t="s">
         <x:v>10</x:v>
@@ -27685,7 +27682,7 @@
     </x:row>
     <x:row r="907" spans="1:9">
       <x:c r="A907" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B907" s="0" t="s">
         <x:v>23</x:v>
@@ -27714,7 +27711,7 @@
     </x:row>
     <x:row r="908" spans="1:9">
       <x:c r="A908" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B908" s="0" t="s">
         <x:v>23</x:v>
@@ -27743,7 +27740,7 @@
     </x:row>
     <x:row r="909" spans="1:9">
       <x:c r="A909" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B909" s="0" t="s">
         <x:v>23</x:v>
@@ -27772,7 +27769,7 @@
     </x:row>
     <x:row r="910" spans="1:9">
       <x:c r="A910" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B910" s="0" t="s">
         <x:v>27</x:v>
@@ -27801,7 +27798,7 @@
     </x:row>
     <x:row r="911" spans="1:9">
       <x:c r="A911" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B911" s="0" t="s">
         <x:v>27</x:v>
@@ -27830,7 +27827,7 @@
     </x:row>
     <x:row r="912" spans="1:9">
       <x:c r="A912" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B912" s="0" t="s">
         <x:v>27</x:v>
@@ -27859,7 +27856,7 @@
     </x:row>
     <x:row r="913" spans="1:9">
       <x:c r="A913" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B913" s="0" t="s">
         <x:v>31</x:v>
@@ -27888,7 +27885,7 @@
     </x:row>
     <x:row r="914" spans="1:9">
       <x:c r="A914" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B914" s="0" t="s">
         <x:v>31</x:v>
@@ -27917,7 +27914,7 @@
     </x:row>
     <x:row r="915" spans="1:9">
       <x:c r="A915" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B915" s="0" t="s">
         <x:v>31</x:v>
@@ -27946,7 +27943,7 @@
     </x:row>
     <x:row r="916" spans="1:9">
       <x:c r="A916" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B916" s="0" t="s">
         <x:v>32</x:v>
@@ -27975,7 +27972,7 @@
     </x:row>
     <x:row r="917" spans="1:9">
       <x:c r="A917" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B917" s="0" t="s">
         <x:v>32</x:v>
@@ -28004,7 +28001,7 @@
     </x:row>
     <x:row r="918" spans="1:9">
       <x:c r="A918" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B918" s="0" t="s">
         <x:v>10</x:v>
@@ -28033,7 +28030,7 @@
     </x:row>
     <x:row r="919" spans="1:9">
       <x:c r="A919" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B919" s="0" t="s">
         <x:v>10</x:v>
@@ -28062,7 +28059,7 @@
     </x:row>
     <x:row r="920" spans="1:9">
       <x:c r="A920" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B920" s="0" t="s">
         <x:v>10</x:v>
@@ -28091,7 +28088,7 @@
     </x:row>
     <x:row r="921" spans="1:9">
       <x:c r="A921" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B921" s="0" t="s">
         <x:v>23</x:v>
@@ -28120,7 +28117,7 @@
     </x:row>
     <x:row r="922" spans="1:9">
       <x:c r="A922" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B922" s="0" t="s">
         <x:v>23</x:v>
@@ -28149,7 +28146,7 @@
     </x:row>
     <x:row r="923" spans="1:9">
       <x:c r="A923" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B923" s="0" t="s">
         <x:v>23</x:v>
@@ -28178,7 +28175,7 @@
     </x:row>
     <x:row r="924" spans="1:9">
       <x:c r="A924" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B924" s="0" t="s">
         <x:v>27</x:v>
@@ -28207,7 +28204,7 @@
     </x:row>
     <x:row r="925" spans="1:9">
       <x:c r="A925" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B925" s="0" t="s">
         <x:v>27</x:v>
@@ -28236,7 +28233,7 @@
     </x:row>
     <x:row r="926" spans="1:9">
       <x:c r="A926" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B926" s="0" t="s">
         <x:v>27</x:v>
@@ -28265,7 +28262,7 @@
     </x:row>
     <x:row r="927" spans="1:9">
       <x:c r="A927" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B927" s="0" t="s">
         <x:v>31</x:v>
@@ -28294,7 +28291,7 @@
     </x:row>
     <x:row r="928" spans="1:9">
       <x:c r="A928" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B928" s="0" t="s">
         <x:v>31</x:v>
@@ -28323,7 +28320,7 @@
     </x:row>
     <x:row r="929" spans="1:9">
       <x:c r="A929" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B929" s="0" t="s">
         <x:v>10</x:v>
@@ -28352,7 +28349,7 @@
     </x:row>
     <x:row r="930" spans="1:9">
       <x:c r="A930" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B930" s="0" t="s">
         <x:v>10</x:v>
@@ -28381,7 +28378,7 @@
     </x:row>
     <x:row r="931" spans="1:9">
       <x:c r="A931" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B931" s="0" t="s">
         <x:v>10</x:v>
@@ -28410,7 +28407,7 @@
     </x:row>
     <x:row r="932" spans="1:9">
       <x:c r="A932" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B932" s="0" t="s">
         <x:v>47</x:v>
@@ -28439,7 +28436,7 @@
     </x:row>
     <x:row r="933" spans="1:9">
       <x:c r="A933" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B933" s="0" t="s">
         <x:v>47</x:v>
@@ -28468,7 +28465,7 @@
     </x:row>
     <x:row r="934" spans="1:9">
       <x:c r="A934" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B934" s="0" t="s">
         <x:v>47</x:v>
@@ -28497,7 +28494,7 @@
     </x:row>
     <x:row r="935" spans="1:9">
       <x:c r="A935" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B935" s="0" t="s">
         <x:v>23</x:v>
@@ -28526,7 +28523,7 @@
     </x:row>
     <x:row r="936" spans="1:9">
       <x:c r="A936" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B936" s="0" t="s">
         <x:v>23</x:v>
@@ -28555,7 +28552,7 @@
     </x:row>
     <x:row r="937" spans="1:9">
       <x:c r="A937" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B937" s="0" t="s">
         <x:v>23</x:v>
@@ -28584,7 +28581,7 @@
     </x:row>
     <x:row r="938" spans="1:9">
       <x:c r="A938" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B938" s="0" t="s">
         <x:v>27</x:v>
@@ -28613,7 +28610,7 @@
     </x:row>
     <x:row r="939" spans="1:9">
       <x:c r="A939" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B939" s="0" t="s">
         <x:v>27</x:v>
@@ -28642,7 +28639,7 @@
     </x:row>
     <x:row r="940" spans="1:9">
       <x:c r="A940" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B940" s="0" t="s">
         <x:v>27</x:v>
@@ -28671,7 +28668,7 @@
     </x:row>
     <x:row r="941" spans="1:9">
       <x:c r="A941" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B941" s="0" t="s">
         <x:v>31</x:v>
@@ -28700,7 +28697,7 @@
     </x:row>
     <x:row r="942" spans="1:9">
       <x:c r="A942" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B942" s="0" t="s">
         <x:v>31</x:v>
@@ -28729,7 +28726,7 @@
     </x:row>
     <x:row r="943" spans="1:9">
       <x:c r="A943" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B943" s="0" t="s">
         <x:v>31</x:v>
@@ -28758,7 +28755,7 @@
     </x:row>
     <x:row r="944" spans="1:9">
       <x:c r="A944" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B944" s="0" t="s">
         <x:v>32</x:v>
@@ -28787,7 +28784,7 @@
     </x:row>
     <x:row r="945" spans="1:9">
       <x:c r="A945" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B945" s="0" t="s">
         <x:v>32</x:v>
@@ -28816,7 +28813,7 @@
     </x:row>
     <x:row r="946" spans="1:9">
       <x:c r="A946" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B946" s="0" t="s">
         <x:v>32</x:v>
@@ -28845,7 +28842,7 @@
     </x:row>
     <x:row r="947" spans="1:9">
       <x:c r="A947" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B947" s="0" t="s">
         <x:v>10</x:v>
@@ -28874,7 +28871,7 @@
     </x:row>
     <x:row r="948" spans="1:9">
       <x:c r="A948" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B948" s="0" t="s">
         <x:v>10</x:v>
@@ -28903,7 +28900,7 @@
     </x:row>
     <x:row r="949" spans="1:9">
       <x:c r="A949" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B949" s="0" t="s">
         <x:v>10</x:v>
@@ -28932,7 +28929,7 @@
     </x:row>
     <x:row r="950" spans="1:9">
       <x:c r="A950" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B950" s="0" t="s">
         <x:v>23</x:v>
@@ -28961,7 +28958,7 @@
     </x:row>
     <x:row r="951" spans="1:9">
       <x:c r="A951" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B951" s="0" t="s">
         <x:v>23</x:v>
@@ -28990,7 +28987,7 @@
     </x:row>
     <x:row r="952" spans="1:9">
       <x:c r="A952" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B952" s="0" t="s">
         <x:v>23</x:v>
@@ -29019,7 +29016,7 @@
     </x:row>
     <x:row r="953" spans="1:9">
       <x:c r="A953" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B953" s="0" t="s">
         <x:v>27</x:v>
@@ -29048,7 +29045,7 @@
     </x:row>
     <x:row r="954" spans="1:9">
       <x:c r="A954" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B954" s="0" t="s">
         <x:v>27</x:v>
@@ -29077,7 +29074,7 @@
     </x:row>
     <x:row r="955" spans="1:9">
       <x:c r="A955" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B955" s="0" t="s">
         <x:v>27</x:v>
@@ -29106,7 +29103,7 @@
     </x:row>
     <x:row r="956" spans="1:9">
       <x:c r="A956" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B956" s="0" t="s">
         <x:v>10</x:v>
@@ -29135,7 +29132,7 @@
     </x:row>
     <x:row r="957" spans="1:9">
       <x:c r="A957" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B957" s="0" t="s">
         <x:v>10</x:v>
@@ -29164,7 +29161,7 @@
     </x:row>
     <x:row r="958" spans="1:9">
       <x:c r="A958" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B958" s="0" t="s">
         <x:v>10</x:v>
@@ -29193,7 +29190,7 @@
     </x:row>
     <x:row r="959" spans="1:9">
       <x:c r="A959" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B959" s="0" t="s">
         <x:v>47</x:v>
@@ -29222,7 +29219,7 @@
     </x:row>
     <x:row r="960" spans="1:9">
       <x:c r="A960" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B960" s="0" t="s">
         <x:v>47</x:v>
@@ -29251,7 +29248,7 @@
     </x:row>
     <x:row r="961" spans="1:9">
       <x:c r="A961" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B961" s="0" t="s">
         <x:v>47</x:v>
@@ -29280,7 +29277,7 @@
     </x:row>
     <x:row r="962" spans="1:9">
       <x:c r="A962" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B962" s="0" t="s">
         <x:v>23</x:v>
@@ -29309,7 +29306,7 @@
     </x:row>
     <x:row r="963" spans="1:9">
       <x:c r="A963" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B963" s="0" t="s">
         <x:v>23</x:v>
@@ -29338,7 +29335,7 @@
     </x:row>
     <x:row r="964" spans="1:9">
       <x:c r="A964" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B964" s="0" t="s">
         <x:v>23</x:v>
@@ -29367,7 +29364,7 @@
     </x:row>
     <x:row r="965" spans="1:9">
       <x:c r="A965" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B965" s="0" t="s">
         <x:v>27</x:v>
@@ -29396,7 +29393,7 @@
     </x:row>
     <x:row r="966" spans="1:9">
       <x:c r="A966" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B966" s="0" t="s">
         <x:v>27</x:v>
@@ -29425,7 +29422,7 @@
     </x:row>
     <x:row r="967" spans="1:9">
       <x:c r="A967" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B967" s="0" t="s">
         <x:v>27</x:v>
@@ -29454,7 +29451,7 @@
     </x:row>
     <x:row r="968" spans="1:9">
       <x:c r="A968" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B968" s="0" t="s">
         <x:v>31</x:v>
@@ -29483,7 +29480,7 @@
     </x:row>
     <x:row r="969" spans="1:9">
       <x:c r="A969" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B969" s="0" t="s">
         <x:v>31</x:v>
@@ -29512,7 +29509,7 @@
     </x:row>
     <x:row r="970" spans="1:9">
       <x:c r="A970" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B970" s="0" t="s">
         <x:v>31</x:v>
@@ -29541,7 +29538,7 @@
     </x:row>
     <x:row r="971" spans="1:9">
       <x:c r="A971" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B971" s="0" t="s">
         <x:v>32</x:v>
@@ -29570,7 +29567,7 @@
     </x:row>
     <x:row r="972" spans="1:9">
       <x:c r="A972" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B972" s="0" t="s">
         <x:v>32</x:v>
@@ -29599,7 +29596,7 @@
     </x:row>
     <x:row r="973" spans="1:9">
       <x:c r="A973" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="B973" s="0" t="s">
         <x:v>10</x:v>
@@ -29628,7 +29625,7 @@
     </x:row>
     <x:row r="974" spans="1:9">
       <x:c r="A974" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="B974" s="0" t="s">
         <x:v>10</x:v>
@@ -29657,7 +29654,7 @@
     </x:row>
     <x:row r="975" spans="1:9">
       <x:c r="A975" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="B975" s="0" t="s">
         <x:v>10</x:v>
@@ -29672,7 +29669,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="F975" s="1" t="s">
-        <x:v>286</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="G975" s="1" t="s">
         <x:v>63</x:v>
@@ -29686,7 +29683,7 @@
     </x:row>
     <x:row r="976" spans="1:9">
       <x:c r="A976" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="B976" s="0" t="s">
         <x:v>47</x:v>
@@ -29715,7 +29712,7 @@
     </x:row>
     <x:row r="977" spans="1:9">
       <x:c r="A977" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="B977" s="0" t="s">
         <x:v>47</x:v>
@@ -29744,7 +29741,7 @@
     </x:row>
     <x:row r="978" spans="1:9">
       <x:c r="A978" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="B978" s="0" t="s">
         <x:v>47</x:v>
@@ -29773,7 +29770,7 @@
     </x:row>
     <x:row r="979" spans="1:9">
       <x:c r="A979" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="B979" s="0" t="s">
         <x:v>23</x:v>
@@ -29802,7 +29799,7 @@
     </x:row>
     <x:row r="980" spans="1:9">
       <x:c r="A980" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="B980" s="0" t="s">
         <x:v>23</x:v>
@@ -29831,7 +29828,7 @@
     </x:row>
     <x:row r="981" spans="1:9">
       <x:c r="A981" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="B981" s="0" t="s">
         <x:v>23</x:v>
@@ -29860,7 +29857,7 @@
     </x:row>
     <x:row r="982" spans="1:9">
       <x:c r="A982" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="B982" s="0" t="s">
         <x:v>27</x:v>
@@ -29889,7 +29886,7 @@
     </x:row>
     <x:row r="983" spans="1:9">
       <x:c r="A983" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="B983" s="0" t="s">
         <x:v>27</x:v>
@@ -29904,13 +29901,13 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="F983" s="1" t="s">
-        <x:v>287</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="G983" s="1" t="s">
-        <x:v>188</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="H983" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="I983" s="0" t="s">
         <x:v>12</x:v>
@@ -29918,7 +29915,7 @@
     </x:row>
     <x:row r="984" spans="1:9">
       <x:c r="A984" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="B984" s="0" t="s">
         <x:v>27</x:v>
@@ -29933,7 +29930,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="F984" s="1" t="s">
-        <x:v>288</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="G984" s="1" t="s">
         <x:v>128</x:v>
@@ -29947,7 +29944,7 @@
     </x:row>
     <x:row r="985" spans="1:9">
       <x:c r="A985" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="B985" s="0" t="s">
         <x:v>65</x:v>
@@ -29976,7 +29973,7 @@
     </x:row>
     <x:row r="986" spans="1:9">
       <x:c r="A986" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="B986" s="0" t="s">
         <x:v>65</x:v>
@@ -30005,7 +30002,7 @@
     </x:row>
     <x:row r="987" spans="1:9">
       <x:c r="A987" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="B987" s="0" t="s">
         <x:v>65</x:v>
@@ -30034,7 +30031,7 @@
     </x:row>
     <x:row r="988" spans="1:9">
       <x:c r="A988" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="B988" s="0" t="s">
         <x:v>31</x:v>
@@ -30063,7 +30060,7 @@
     </x:row>
     <x:row r="989" spans="1:9">
       <x:c r="A989" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="B989" s="0" t="s">
         <x:v>31</x:v>
@@ -30075,7 +30072,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="E989" s="1" t="s">
-        <x:v>289</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="F989" s="1" t="s">
         <x:v>20</x:v>
@@ -30092,7 +30089,7 @@
     </x:row>
     <x:row r="990" spans="1:9">
       <x:c r="A990" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="B990" s="0" t="s">
         <x:v>31</x:v>
@@ -30104,7 +30101,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E990" s="1" t="s">
-        <x:v>290</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="F990" s="1" t="s">
         <x:v>20</x:v>
@@ -30121,7 +30118,7 @@
     </x:row>
     <x:row r="991" spans="1:9">
       <x:c r="A991" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="B991" s="0" t="s">
         <x:v>32</x:v>
@@ -30150,7 +30147,7 @@
     </x:row>
     <x:row r="992" spans="1:9">
       <x:c r="A992" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="B992" s="0" t="s">
         <x:v>32</x:v>
@@ -30168,7 +30165,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="G992" s="1" t="s">
-        <x:v>291</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="H992" s="1" t="s">
         <x:v>78</x:v>
@@ -30179,7 +30176,7 @@
     </x:row>
     <x:row r="993" spans="1:9">
       <x:c r="A993" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="B993" s="0" t="s">
         <x:v>32</x:v>
@@ -30197,7 +30194,7 @@
         <x:v>168</x:v>
       </x:c>
       <x:c r="G993" s="1" t="s">
-        <x:v>292</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="H993" s="1" t="s">
         <x:v>119</x:v>
@@ -30208,7 +30205,7 @@
     </x:row>
     <x:row r="994" spans="1:9">
       <x:c r="A994" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B994" s="0" t="s">
         <x:v>10</x:v>
@@ -30237,7 +30234,7 @@
     </x:row>
     <x:row r="995" spans="1:9">
       <x:c r="A995" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B995" s="0" t="s">
         <x:v>10</x:v>
@@ -30246,7 +30243,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D995" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="E995" s="1" t="s">
         <x:v>88</x:v>
@@ -30266,7 +30263,7 @@
     </x:row>
     <x:row r="996" spans="1:9">
       <x:c r="A996" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B996" s="0" t="s">
         <x:v>10</x:v>
@@ -30295,10 +30292,10 @@
     </x:row>
     <x:row r="997" spans="1:9">
       <x:c r="A997" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B997" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="C997" s="1" t="s">
         <x:v>16</x:v>
@@ -30324,10 +30321,10 @@
     </x:row>
     <x:row r="998" spans="1:9">
       <x:c r="A998" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B998" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="C998" s="1" t="s">
         <x:v>19</x:v>
@@ -30353,7 +30350,7 @@
     </x:row>
     <x:row r="999" spans="1:9">
       <x:c r="A999" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B999" s="0" t="s">
         <x:v>47</x:v>
@@ -30382,7 +30379,7 @@
     </x:row>
     <x:row r="1000" spans="1:9">
       <x:c r="A1000" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1000" s="0" t="s">
         <x:v>47</x:v>
@@ -30411,7 +30408,7 @@
     </x:row>
     <x:row r="1001" spans="1:9">
       <x:c r="A1001" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1001" s="0" t="s">
         <x:v>47</x:v>
@@ -30440,7 +30437,7 @@
     </x:row>
     <x:row r="1002" spans="1:9">
       <x:c r="A1002" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1002" s="0" t="s">
         <x:v>23</x:v>
@@ -30469,7 +30466,7 @@
     </x:row>
     <x:row r="1003" spans="1:9">
       <x:c r="A1003" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1003" s="0" t="s">
         <x:v>23</x:v>
@@ -30498,7 +30495,7 @@
     </x:row>
     <x:row r="1004" spans="1:9">
       <x:c r="A1004" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1004" s="0" t="s">
         <x:v>23</x:v>
@@ -30527,7 +30524,7 @@
     </x:row>
     <x:row r="1005" spans="1:9">
       <x:c r="A1005" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1005" s="0" t="s">
         <x:v>27</x:v>
@@ -30556,7 +30553,7 @@
     </x:row>
     <x:row r="1006" spans="1:9">
       <x:c r="A1006" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1006" s="0" t="s">
         <x:v>27</x:v>
@@ -30585,7 +30582,7 @@
     </x:row>
     <x:row r="1007" spans="1:9">
       <x:c r="A1007" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1007" s="0" t="s">
         <x:v>27</x:v>
@@ -30614,7 +30611,7 @@
     </x:row>
     <x:row r="1008" spans="1:9">
       <x:c r="A1008" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1008" s="0" t="s">
         <x:v>65</x:v>
@@ -30643,7 +30640,7 @@
     </x:row>
     <x:row r="1009" spans="1:9">
       <x:c r="A1009" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1009" s="0" t="s">
         <x:v>65</x:v>
@@ -30672,7 +30669,7 @@
     </x:row>
     <x:row r="1010" spans="1:9">
       <x:c r="A1010" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1010" s="0" t="s">
         <x:v>65</x:v>
@@ -30701,7 +30698,7 @@
     </x:row>
     <x:row r="1011" spans="1:9">
       <x:c r="A1011" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1011" s="0" t="s">
         <x:v>31</x:v>
@@ -30730,7 +30727,7 @@
     </x:row>
     <x:row r="1012" spans="1:9">
       <x:c r="A1012" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1012" s="0" t="s">
         <x:v>31</x:v>
@@ -30759,7 +30756,7 @@
     </x:row>
     <x:row r="1013" spans="1:9">
       <x:c r="A1013" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1013" s="0" t="s">
         <x:v>31</x:v>
@@ -30788,7 +30785,7 @@
     </x:row>
     <x:row r="1014" spans="1:9">
       <x:c r="A1014" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1014" s="0" t="s">
         <x:v>32</x:v>
@@ -30817,7 +30814,7 @@
     </x:row>
     <x:row r="1015" spans="1:9">
       <x:c r="A1015" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1015" s="0" t="s">
         <x:v>32</x:v>
@@ -30846,7 +30843,7 @@
     </x:row>
     <x:row r="1016" spans="1:9">
       <x:c r="A1016" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1016" s="0" t="s">
         <x:v>32</x:v>
@@ -30875,7 +30872,7 @@
     </x:row>
     <x:row r="1017" spans="1:9">
       <x:c r="A1017" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B1017" s="0" t="s">
         <x:v>10</x:v>
@@ -30904,7 +30901,7 @@
     </x:row>
     <x:row r="1018" spans="1:9">
       <x:c r="A1018" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B1018" s="0" t="s">
         <x:v>10</x:v>
@@ -30933,7 +30930,7 @@
     </x:row>
     <x:row r="1019" spans="1:9">
       <x:c r="A1019" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B1019" s="0" t="s">
         <x:v>10</x:v>
@@ -30962,7 +30959,7 @@
     </x:row>
     <x:row r="1020" spans="1:9">
       <x:c r="A1020" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B1020" s="0" t="s">
         <x:v>47</x:v>
@@ -30991,7 +30988,7 @@
     </x:row>
     <x:row r="1021" spans="1:9">
       <x:c r="A1021" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B1021" s="0" t="s">
         <x:v>47</x:v>
@@ -31020,7 +31017,7 @@
     </x:row>
     <x:row r="1022" spans="1:9">
       <x:c r="A1022" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B1022" s="0" t="s">
         <x:v>23</x:v>
@@ -31049,7 +31046,7 @@
     </x:row>
     <x:row r="1023" spans="1:9">
       <x:c r="A1023" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B1023" s="0" t="s">
         <x:v>23</x:v>
@@ -31078,7 +31075,7 @@
     </x:row>
     <x:row r="1024" spans="1:9">
       <x:c r="A1024" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B1024" s="0" t="s">
         <x:v>23</x:v>
@@ -31107,7 +31104,7 @@
     </x:row>
     <x:row r="1025" spans="1:9">
       <x:c r="A1025" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B1025" s="0" t="s">
         <x:v>27</x:v>
@@ -31136,7 +31133,7 @@
     </x:row>
     <x:row r="1026" spans="1:9">
       <x:c r="A1026" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B1026" s="0" t="s">
         <x:v>27</x:v>
@@ -31165,7 +31162,7 @@
     </x:row>
     <x:row r="1027" spans="1:9">
       <x:c r="A1027" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B1027" s="0" t="s">
         <x:v>27</x:v>
@@ -31194,7 +31191,7 @@
     </x:row>
     <x:row r="1028" spans="1:9">
       <x:c r="A1028" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B1028" s="0" t="s">
         <x:v>31</x:v>
@@ -31223,7 +31220,7 @@
     </x:row>
     <x:row r="1029" spans="1:9">
       <x:c r="A1029" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B1029" s="0" t="s">
         <x:v>31</x:v>
@@ -31252,7 +31249,7 @@
     </x:row>
     <x:row r="1030" spans="1:9">
       <x:c r="A1030" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B1030" s="0" t="s">
         <x:v>31</x:v>
@@ -31281,7 +31278,7 @@
     </x:row>
     <x:row r="1031" spans="1:9">
       <x:c r="A1031" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B1031" s="0" t="s">
         <x:v>32</x:v>
@@ -31310,7 +31307,7 @@
     </x:row>
     <x:row r="1032" spans="1:9">
       <x:c r="A1032" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B1032" s="0" t="s">
         <x:v>32</x:v>
@@ -31339,7 +31336,7 @@
     </x:row>
     <x:row r="1033" spans="1:9">
       <x:c r="A1033" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B1033" s="0" t="s">
         <x:v>32</x:v>
@@ -31368,7 +31365,7 @@
     </x:row>
     <x:row r="1034" spans="1:9">
       <x:c r="A1034" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="B1034" s="0" t="s">
         <x:v>10</x:v>
@@ -31386,7 +31383,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="G1034" s="1" t="s">
-        <x:v>297</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="H1034" s="1" t="s">
         <x:v>76</x:v>
@@ -31397,7 +31394,7 @@
     </x:row>
     <x:row r="1035" spans="1:9">
       <x:c r="A1035" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="B1035" s="0" t="s">
         <x:v>10</x:v>
@@ -31409,16 +31406,16 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E1035" s="1" t="s">
-        <x:v>247</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="F1035" s="1" t="s">
         <x:v>44</x:v>
       </x:c>
       <x:c r="G1035" s="1" t="s">
-        <x:v>239</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="H1035" s="1" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="I1035" s="0" t="s">
         <x:v>12</x:v>
@@ -31426,7 +31423,7 @@
     </x:row>
     <x:row r="1036" spans="1:9">
       <x:c r="A1036" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="B1036" s="0" t="s">
         <x:v>10</x:v>
@@ -31438,7 +31435,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E1036" s="1" t="s">
-        <x:v>272</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="F1036" s="1" t="s">
         <x:v>298</x:v>
@@ -31455,7 +31452,7 @@
     </x:row>
     <x:row r="1037" spans="1:9">
       <x:c r="A1037" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="B1037" s="0" t="s">
         <x:v>47</x:v>
@@ -31484,7 +31481,7 @@
     </x:row>
     <x:row r="1038" spans="1:9">
       <x:c r="A1038" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="B1038" s="0" t="s">
         <x:v>47</x:v>
@@ -31513,7 +31510,7 @@
     </x:row>
     <x:row r="1039" spans="1:9">
       <x:c r="A1039" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="B1039" s="0" t="s">
         <x:v>47</x:v>
@@ -31542,7 +31539,7 @@
     </x:row>
     <x:row r="1040" spans="1:9">
       <x:c r="A1040" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="B1040" s="0" t="s">
         <x:v>23</x:v>
@@ -31571,7 +31568,7 @@
     </x:row>
     <x:row r="1041" spans="1:9">
       <x:c r="A1041" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="B1041" s="0" t="s">
         <x:v>23</x:v>
@@ -31600,7 +31597,7 @@
     </x:row>
     <x:row r="1042" spans="1:9">
       <x:c r="A1042" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="B1042" s="0" t="s">
         <x:v>23</x:v>
@@ -31629,7 +31626,7 @@
     </x:row>
     <x:row r="1043" spans="1:9">
       <x:c r="A1043" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="B1043" s="0" t="s">
         <x:v>27</x:v>
@@ -31658,7 +31655,7 @@
     </x:row>
     <x:row r="1044" spans="1:9">
       <x:c r="A1044" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="B1044" s="0" t="s">
         <x:v>27</x:v>
@@ -31670,16 +31667,16 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E1044" s="1" t="s">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="F1044" s="1" t="s">
-        <x:v>263</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="G1044" s="1" t="s">
-        <x:v>291</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="H1044" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="I1044" s="0" t="s">
         <x:v>12</x:v>
@@ -31687,7 +31684,7 @@
     </x:row>
     <x:row r="1045" spans="1:9">
       <x:c r="A1045" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="B1045" s="0" t="s">
         <x:v>27</x:v>
@@ -31716,7 +31713,7 @@
     </x:row>
     <x:row r="1046" spans="1:9">
       <x:c r="A1046" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="B1046" s="0" t="s">
         <x:v>65</x:v>
@@ -31745,7 +31742,7 @@
     </x:row>
     <x:row r="1047" spans="1:9">
       <x:c r="A1047" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="B1047" s="0" t="s">
         <x:v>65</x:v>
@@ -31774,7 +31771,7 @@
     </x:row>
     <x:row r="1048" spans="1:9">
       <x:c r="A1048" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="B1048" s="0" t="s">
         <x:v>65</x:v>
@@ -31803,7 +31800,7 @@
     </x:row>
     <x:row r="1049" spans="1:9">
       <x:c r="A1049" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="B1049" s="0" t="s">
         <x:v>31</x:v>
@@ -31832,7 +31829,7 @@
     </x:row>
     <x:row r="1050" spans="1:9">
       <x:c r="A1050" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="B1050" s="0" t="s">
         <x:v>31</x:v>
@@ -31861,7 +31858,7 @@
     </x:row>
     <x:row r="1051" spans="1:9">
       <x:c r="A1051" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="B1051" s="0" t="s">
         <x:v>31</x:v>
@@ -31890,7 +31887,7 @@
     </x:row>
     <x:row r="1052" spans="1:9">
       <x:c r="A1052" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="B1052" s="0" t="s">
         <x:v>32</x:v>
@@ -31919,7 +31916,7 @@
     </x:row>
     <x:row r="1053" spans="1:9">
       <x:c r="A1053" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="B1053" s="0" t="s">
         <x:v>32</x:v>
@@ -31948,7 +31945,7 @@
     </x:row>
     <x:row r="1054" spans="1:9">
       <x:c r="A1054" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="B1054" s="0" t="s">
         <x:v>32</x:v>
@@ -32047,13 +32044,13 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E1057" s="1" t="s">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="F1057" s="1" t="s">
         <x:v>101</x:v>
       </x:c>
       <x:c r="G1057" s="1" t="s">
-        <x:v>273</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="H1057" s="1" t="s">
         <x:v>306</x:v>
@@ -32067,7 +32064,7 @@
         <x:v>302</x:v>
       </x:c>
       <x:c r="B1058" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="C1058" s="1" t="s">
         <x:v>11</x:v>
@@ -32096,7 +32093,7 @@
         <x:v>302</x:v>
       </x:c>
       <x:c r="B1059" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="C1059" s="1" t="s">
         <x:v>16</x:v>
@@ -32125,7 +32122,7 @@
         <x:v>302</x:v>
       </x:c>
       <x:c r="B1060" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="C1060" s="1" t="s">
         <x:v>19</x:v>
@@ -32366,7 +32363,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E1068" s="1" t="s">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="F1068" s="1" t="s">
         <x:v>86</x:v>
@@ -32598,7 +32595,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E1076" s="1" t="s">
-        <x:v>247</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="F1076" s="1" t="s">
         <x:v>25</x:v>
@@ -32656,7 +32653,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="E1078" s="1" t="s">
-        <x:v>239</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="F1078" s="1" t="s">
         <x:v>131</x:v>
@@ -32717,7 +32714,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="F1080" s="1" t="s">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="G1080" s="1" t="s">
         <x:v>38</x:v>
@@ -32743,13 +32740,13 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E1081" s="1" t="s">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="F1081" s="1" t="s">
-        <x:v>289</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="G1081" s="1" t="s">
-        <x:v>253</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="H1081" s="1" t="s">
         <x:v>43</x:v>
@@ -36330,7 +36327,7 @@
         <x:v>319</x:v>
       </x:c>
       <x:c r="B1205" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="C1205" s="1" t="s">
         <x:v>11</x:v>
@@ -36359,7 +36356,7 @@
         <x:v>319</x:v>
       </x:c>
       <x:c r="B1206" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="C1206" s="1" t="s">
         <x:v>19</x:v>
@@ -36606,7 +36603,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="G1214" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="H1214" s="1" t="s">
         <x:v>142</x:v>
@@ -36629,13 +36626,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E1215" s="1" t="s">
-        <x:v>286</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="F1215" s="1" t="s">
         <x:v>323</x:v>
       </x:c>
       <x:c r="G1215" s="1" t="s">
-        <x:v>324</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="H1215" s="1" t="s">
         <x:v>300</x:v>
@@ -36907,7 +36904,7 @@
     </x:row>
     <x:row r="1225" spans="1:9">
       <x:c r="A1225" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1225" s="0" t="s">
         <x:v>10</x:v>
@@ -36936,7 +36933,7 @@
     </x:row>
     <x:row r="1226" spans="1:9">
       <x:c r="A1226" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1226" s="0" t="s">
         <x:v>10</x:v>
@@ -36965,7 +36962,7 @@
     </x:row>
     <x:row r="1227" spans="1:9">
       <x:c r="A1227" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1227" s="0" t="s">
         <x:v>10</x:v>
@@ -36994,7 +36991,7 @@
     </x:row>
     <x:row r="1228" spans="1:9">
       <x:c r="A1228" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1228" s="0" t="s">
         <x:v>23</x:v>
@@ -37023,7 +37020,7 @@
     </x:row>
     <x:row r="1229" spans="1:9">
       <x:c r="A1229" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1229" s="0" t="s">
         <x:v>23</x:v>
@@ -37052,7 +37049,7 @@
     </x:row>
     <x:row r="1230" spans="1:9">
       <x:c r="A1230" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1230" s="0" t="s">
         <x:v>27</x:v>
@@ -37081,7 +37078,7 @@
     </x:row>
     <x:row r="1231" spans="1:9">
       <x:c r="A1231" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1231" s="0" t="s">
         <x:v>27</x:v>
@@ -37110,7 +37107,7 @@
     </x:row>
     <x:row r="1232" spans="1:9">
       <x:c r="A1232" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1232" s="0" t="s">
         <x:v>27</x:v>
@@ -37139,7 +37136,7 @@
     </x:row>
     <x:row r="1233" spans="1:9">
       <x:c r="A1233" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1233" s="0" t="s">
         <x:v>65</x:v>
@@ -37168,7 +37165,7 @@
     </x:row>
     <x:row r="1234" spans="1:9">
       <x:c r="A1234" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1234" s="0" t="s">
         <x:v>65</x:v>
@@ -37197,7 +37194,7 @@
     </x:row>
     <x:row r="1235" spans="1:9">
       <x:c r="A1235" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1235" s="0" t="s">
         <x:v>65</x:v>
@@ -37226,7 +37223,7 @@
     </x:row>
     <x:row r="1236" spans="1:9">
       <x:c r="A1236" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1236" s="0" t="s">
         <x:v>31</x:v>
@@ -37255,7 +37252,7 @@
     </x:row>
     <x:row r="1237" spans="1:9">
       <x:c r="A1237" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1237" s="0" t="s">
         <x:v>31</x:v>
@@ -37284,7 +37281,7 @@
     </x:row>
     <x:row r="1238" spans="1:9">
       <x:c r="A1238" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1238" s="0" t="s">
         <x:v>32</x:v>
@@ -37313,7 +37310,7 @@
     </x:row>
     <x:row r="1239" spans="1:9">
       <x:c r="A1239" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1239" s="0" t="s">
         <x:v>32</x:v>
@@ -37342,7 +37339,7 @@
     </x:row>
     <x:row r="1240" spans="1:9">
       <x:c r="A1240" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1240" s="0" t="s">
         <x:v>10</x:v>
@@ -37371,7 +37368,7 @@
     </x:row>
     <x:row r="1241" spans="1:9">
       <x:c r="A1241" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1241" s="0" t="s">
         <x:v>10</x:v>
@@ -37400,7 +37397,7 @@
     </x:row>
     <x:row r="1242" spans="1:9">
       <x:c r="A1242" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1242" s="0" t="s">
         <x:v>10</x:v>
@@ -37429,10 +37426,10 @@
     </x:row>
     <x:row r="1243" spans="1:9">
       <x:c r="A1243" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1243" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="C1243" s="1" t="s">
         <x:v>11</x:v>
@@ -37458,10 +37455,10 @@
     </x:row>
     <x:row r="1244" spans="1:9">
       <x:c r="A1244" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1244" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="C1244" s="1" t="s">
         <x:v>19</x:v>
@@ -37487,7 +37484,7 @@
     </x:row>
     <x:row r="1245" spans="1:9">
       <x:c r="A1245" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1245" s="0" t="s">
         <x:v>23</x:v>
@@ -37516,7 +37513,7 @@
     </x:row>
     <x:row r="1246" spans="1:9">
       <x:c r="A1246" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1246" s="0" t="s">
         <x:v>23</x:v>
@@ -37545,7 +37542,7 @@
     </x:row>
     <x:row r="1247" spans="1:9">
       <x:c r="A1247" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1247" s="0" t="s">
         <x:v>23</x:v>
@@ -37574,7 +37571,7 @@
     </x:row>
     <x:row r="1248" spans="1:9">
       <x:c r="A1248" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1248" s="0" t="s">
         <x:v>27</x:v>
@@ -37603,7 +37600,7 @@
     </x:row>
     <x:row r="1249" spans="1:9">
       <x:c r="A1249" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1249" s="0" t="s">
         <x:v>27</x:v>
@@ -37632,7 +37629,7 @@
     </x:row>
     <x:row r="1250" spans="1:9">
       <x:c r="A1250" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1250" s="0" t="s">
         <x:v>27</x:v>
@@ -37661,7 +37658,7 @@
     </x:row>
     <x:row r="1251" spans="1:9">
       <x:c r="A1251" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1251" s="0" t="s">
         <x:v>31</x:v>
@@ -37690,7 +37687,7 @@
     </x:row>
     <x:row r="1252" spans="1:9">
       <x:c r="A1252" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1252" s="0" t="s">
         <x:v>31</x:v>
@@ -37719,7 +37716,7 @@
     </x:row>
     <x:row r="1253" spans="1:9">
       <x:c r="A1253" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1253" s="0" t="s">
         <x:v>31</x:v>
@@ -37748,7 +37745,7 @@
     </x:row>
     <x:row r="1254" spans="1:9">
       <x:c r="A1254" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1254" s="0" t="s">
         <x:v>32</x:v>
@@ -37777,7 +37774,7 @@
     </x:row>
     <x:row r="1255" spans="1:9">
       <x:c r="A1255" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1255" s="0" t="s">
         <x:v>32</x:v>
@@ -37806,7 +37803,7 @@
     </x:row>
     <x:row r="1256" spans="1:9">
       <x:c r="A1256" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1256" s="0" t="s">
         <x:v>10</x:v>
@@ -37835,7 +37832,7 @@
     </x:row>
     <x:row r="1257" spans="1:9">
       <x:c r="A1257" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1257" s="0" t="s">
         <x:v>10</x:v>
@@ -37864,7 +37861,7 @@
     </x:row>
     <x:row r="1258" spans="1:9">
       <x:c r="A1258" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1258" s="0" t="s">
         <x:v>10</x:v>
@@ -37893,7 +37890,7 @@
     </x:row>
     <x:row r="1259" spans="1:9">
       <x:c r="A1259" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1259" s="0" t="s">
         <x:v>23</x:v>
@@ -37922,7 +37919,7 @@
     </x:row>
     <x:row r="1260" spans="1:9">
       <x:c r="A1260" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1260" s="0" t="s">
         <x:v>23</x:v>
@@ -37951,7 +37948,7 @@
     </x:row>
     <x:row r="1261" spans="1:9">
       <x:c r="A1261" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1261" s="0" t="s">
         <x:v>23</x:v>
@@ -37980,7 +37977,7 @@
     </x:row>
     <x:row r="1262" spans="1:9">
       <x:c r="A1262" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1262" s="0" t="s">
         <x:v>27</x:v>
@@ -38009,7 +38006,7 @@
     </x:row>
     <x:row r="1263" spans="1:9">
       <x:c r="A1263" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1263" s="0" t="s">
         <x:v>27</x:v>
@@ -38021,7 +38018,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E1263" s="1" t="s">
-        <x:v>247</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="F1263" s="1" t="s">
         <x:v>79</x:v>
@@ -38038,7 +38035,7 @@
     </x:row>
     <x:row r="1264" spans="1:9">
       <x:c r="A1264" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1264" s="0" t="s">
         <x:v>27</x:v>
@@ -38050,7 +38047,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="E1264" s="1" t="s">
-        <x:v>286</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="F1264" s="1" t="s">
         <x:v>94</x:v>
@@ -38067,7 +38064,7 @@
     </x:row>
     <x:row r="1265" spans="1:9">
       <x:c r="A1265" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1265" s="0" t="s">
         <x:v>31</x:v>
@@ -38096,7 +38093,7 @@
     </x:row>
     <x:row r="1266" spans="1:9">
       <x:c r="A1266" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1266" s="0" t="s">
         <x:v>31</x:v>
@@ -38125,7 +38122,7 @@
     </x:row>
     <x:row r="1267" spans="1:9">
       <x:c r="A1267" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1267" s="0" t="s">
         <x:v>31</x:v>
@@ -38154,7 +38151,7 @@
     </x:row>
     <x:row r="1268" spans="1:9">
       <x:c r="A1268" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1268" s="0" t="s">
         <x:v>32</x:v>
@@ -38183,7 +38180,7 @@
     </x:row>
     <x:row r="1269" spans="1:9">
       <x:c r="A1269" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1269" s="0" t="s">
         <x:v>32</x:v>
@@ -38212,7 +38209,7 @@
     </x:row>
     <x:row r="1270" spans="1:9">
       <x:c r="A1270" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1270" s="0" t="s">
         <x:v>32</x:v>
@@ -38241,7 +38238,7 @@
     </x:row>
     <x:row r="1271" spans="1:9">
       <x:c r="A1271" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1271" s="0" t="s">
         <x:v>10</x:v>
@@ -38262,7 +38259,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="H1271" s="1" t="s">
-        <x:v>329</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="I1271" s="0" t="s">
         <x:v>12</x:v>
@@ -38270,7 +38267,7 @@
     </x:row>
     <x:row r="1272" spans="1:9">
       <x:c r="A1272" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1272" s="0" t="s">
         <x:v>10</x:v>
@@ -38282,16 +38279,16 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E1272" s="1" t="s">
-        <x:v>278</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="F1272" s="1" t="s">
         <x:v>84</x:v>
       </x:c>
       <x:c r="G1272" s="1" t="s">
+        <x:v>329</x:v>
+      </x:c>
+      <x:c r="H1272" s="1" t="s">
         <x:v>330</x:v>
-      </x:c>
-      <x:c r="H1272" s="1" t="s">
-        <x:v>331</x:v>
       </x:c>
       <x:c r="I1272" s="0" t="s">
         <x:v>12</x:v>
@@ -38299,7 +38296,7 @@
     </x:row>
     <x:row r="1273" spans="1:9">
       <x:c r="A1273" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1273" s="0" t="s">
         <x:v>10</x:v>
@@ -38311,16 +38308,16 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E1273" s="1" t="s">
+        <x:v>330</x:v>
+      </x:c>
+      <x:c r="F1273" s="1" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="G1273" s="1" t="s">
         <x:v>331</x:v>
       </x:c>
-      <x:c r="F1273" s="1" t="s">
-        <x:v>230</x:v>
-      </x:c>
-      <x:c r="G1273" s="1" t="s">
+      <x:c r="H1273" s="1" t="s">
         <x:v>332</x:v>
-      </x:c>
-      <x:c r="H1273" s="1" t="s">
-        <x:v>333</x:v>
       </x:c>
       <x:c r="I1273" s="0" t="s">
         <x:v>12</x:v>
@@ -38328,7 +38325,7 @@
     </x:row>
     <x:row r="1274" spans="1:9">
       <x:c r="A1274" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1274" s="0" t="s">
         <x:v>23</x:v>
@@ -38357,7 +38354,7 @@
     </x:row>
     <x:row r="1275" spans="1:9">
       <x:c r="A1275" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1275" s="0" t="s">
         <x:v>23</x:v>
@@ -38386,7 +38383,7 @@
     </x:row>
     <x:row r="1276" spans="1:9">
       <x:c r="A1276" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1276" s="0" t="s">
         <x:v>23</x:v>
@@ -38395,7 +38392,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="D1276" s="1" t="s">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="E1276" s="1" t="s">
         <x:v>90</x:v>
@@ -38415,7 +38412,7 @@
     </x:row>
     <x:row r="1277" spans="1:9">
       <x:c r="A1277" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1277" s="0" t="s">
         <x:v>27</x:v>
@@ -38444,7 +38441,7 @@
     </x:row>
     <x:row r="1278" spans="1:9">
       <x:c r="A1278" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1278" s="0" t="s">
         <x:v>27</x:v>
@@ -38473,7 +38470,7 @@
     </x:row>
     <x:row r="1279" spans="1:9">
       <x:c r="A1279" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1279" s="0" t="s">
         <x:v>27</x:v>
@@ -38491,10 +38488,10 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="G1279" s="1" t="s">
-        <x:v>241</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="H1279" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="I1279" s="0" t="s">
         <x:v>12</x:v>
@@ -38502,7 +38499,7 @@
     </x:row>
     <x:row r="1280" spans="1:9">
       <x:c r="A1280" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1280" s="0" t="s">
         <x:v>65</x:v>
@@ -38531,7 +38528,7 @@
     </x:row>
     <x:row r="1281" spans="1:9">
       <x:c r="A1281" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1281" s="0" t="s">
         <x:v>65</x:v>
@@ -38560,7 +38557,7 @@
     </x:row>
     <x:row r="1282" spans="1:9">
       <x:c r="A1282" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1282" s="0" t="s">
         <x:v>65</x:v>
@@ -38589,7 +38586,7 @@
     </x:row>
     <x:row r="1283" spans="1:9">
       <x:c r="A1283" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1283" s="0" t="s">
         <x:v>31</x:v>
@@ -38618,7 +38615,7 @@
     </x:row>
     <x:row r="1284" spans="1:9">
       <x:c r="A1284" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1284" s="0" t="s">
         <x:v>31</x:v>
@@ -38647,7 +38644,7 @@
     </x:row>
     <x:row r="1285" spans="1:9">
       <x:c r="A1285" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1285" s="0" t="s">
         <x:v>31</x:v>
@@ -38676,7 +38673,7 @@
     </x:row>
     <x:row r="1286" spans="1:9">
       <x:c r="A1286" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1286" s="0" t="s">
         <x:v>32</x:v>
@@ -38705,7 +38702,7 @@
     </x:row>
     <x:row r="1287" spans="1:9">
       <x:c r="A1287" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1287" s="0" t="s">
         <x:v>32</x:v>
@@ -38734,7 +38731,7 @@
     </x:row>
     <x:row r="1288" spans="1:9">
       <x:c r="A1288" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1288" s="0" t="s">
         <x:v>32</x:v>
@@ -38763,7 +38760,7 @@
     </x:row>
     <x:row r="1289" spans="1:9">
       <x:c r="A1289" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B1289" s="0" t="s">
         <x:v>10</x:v>
@@ -38792,7 +38789,7 @@
     </x:row>
     <x:row r="1290" spans="1:9">
       <x:c r="A1290" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B1290" s="0" t="s">
         <x:v>10</x:v>
@@ -38821,7 +38818,7 @@
     </x:row>
     <x:row r="1291" spans="1:9">
       <x:c r="A1291" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B1291" s="0" t="s">
         <x:v>10</x:v>
@@ -38850,7 +38847,7 @@
     </x:row>
     <x:row r="1292" spans="1:9">
       <x:c r="A1292" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B1292" s="0" t="s">
         <x:v>23</x:v>
@@ -38879,7 +38876,7 @@
     </x:row>
     <x:row r="1293" spans="1:9">
       <x:c r="A1293" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B1293" s="0" t="s">
         <x:v>23</x:v>
@@ -38908,7 +38905,7 @@
     </x:row>
     <x:row r="1294" spans="1:9">
       <x:c r="A1294" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B1294" s="0" t="s">
         <x:v>23</x:v>
@@ -38937,7 +38934,7 @@
     </x:row>
     <x:row r="1295" spans="1:9">
       <x:c r="A1295" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B1295" s="0" t="s">
         <x:v>27</x:v>
@@ -38966,7 +38963,7 @@
     </x:row>
     <x:row r="1296" spans="1:9">
       <x:c r="A1296" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B1296" s="0" t="s">
         <x:v>27</x:v>
@@ -38995,7 +38992,7 @@
     </x:row>
     <x:row r="1297" spans="1:9">
       <x:c r="A1297" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B1297" s="0" t="s">
         <x:v>27</x:v>
@@ -39024,7 +39021,7 @@
     </x:row>
     <x:row r="1298" spans="1:9">
       <x:c r="A1298" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B1298" s="0" t="s">
         <x:v>31</x:v>
@@ -39053,7 +39050,7 @@
     </x:row>
     <x:row r="1299" spans="1:9">
       <x:c r="A1299" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B1299" s="0" t="s">
         <x:v>31</x:v>
@@ -39082,7 +39079,7 @@
     </x:row>
     <x:row r="1300" spans="1:9">
       <x:c r="A1300" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B1300" s="0" t="s">
         <x:v>31</x:v>
@@ -39111,7 +39108,7 @@
     </x:row>
     <x:row r="1301" spans="1:9">
       <x:c r="A1301" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B1301" s="0" t="s">
         <x:v>32</x:v>
@@ -39140,7 +39137,7 @@
     </x:row>
     <x:row r="1302" spans="1:9">
       <x:c r="A1302" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B1302" s="0" t="s">
         <x:v>32</x:v>
@@ -39169,7 +39166,7 @@
     </x:row>
     <x:row r="1303" spans="1:9">
       <x:c r="A1303" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B1303" s="0" t="s">
         <x:v>32</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -613,7 +613,7 @@
     <x:t>81</x:t>
   </x:si>
   <x:si>
-    <x:t>112</x:t>
+    <x:t>113</x:t>
   </x:si>
   <x:si>
     <x:t>104</x:t>
@@ -949,6 +949,9 @@
     <x:t>Drunkenness</x:t>
   </x:si>
   <x:si>
+    <x:t>112</x:t>
+  </x:si>
+  <x:si>
     <x:t>Steele</x:t>
   </x:si>
   <x:si>
@@ -976,16 +979,19 @@
     <x:t>Washington</x:t>
   </x:si>
   <x:si>
-    <x:t>150</x:t>
+    <x:t>151</x:t>
   </x:si>
   <x:si>
-    <x:t>197</x:t>
+    <x:t>198</x:t>
   </x:si>
   <x:si>
     <x:t>242</x:t>
   </x:si>
   <x:si>
     <x:t>238</x:t>
+  </x:si>
+  <x:si>
+    <x:t>197</x:t>
   </x:si>
   <x:si>
     <x:t>Watonwan</x:t>
@@ -13803,7 +13809,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E428" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F428" s="1" t="s">
         <x:v>98</x:v>
@@ -32740,7 +32746,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E1081" s="1" t="s">
-        <x:v>199</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="F1081" s="1" t="s">
         <x:v>290</x:v>
@@ -32757,7 +32763,7 @@
     </x:row>
     <x:row r="1082" spans="1:9">
       <x:c r="A1082" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1082" s="0" t="s">
         <x:v>10</x:v>
@@ -32786,7 +32792,7 @@
     </x:row>
     <x:row r="1083" spans="1:9">
       <x:c r="A1083" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1083" s="0" t="s">
         <x:v>10</x:v>
@@ -32815,7 +32821,7 @@
     </x:row>
     <x:row r="1084" spans="1:9">
       <x:c r="A1084" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1084" s="0" t="s">
         <x:v>10</x:v>
@@ -32844,7 +32850,7 @@
     </x:row>
     <x:row r="1085" spans="1:9">
       <x:c r="A1085" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1085" s="0" t="s">
         <x:v>47</x:v>
@@ -32873,7 +32879,7 @@
     </x:row>
     <x:row r="1086" spans="1:9">
       <x:c r="A1086" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1086" s="0" t="s">
         <x:v>47</x:v>
@@ -32902,7 +32908,7 @@
     </x:row>
     <x:row r="1087" spans="1:9">
       <x:c r="A1087" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1087" s="0" t="s">
         <x:v>47</x:v>
@@ -32931,7 +32937,7 @@
     </x:row>
     <x:row r="1088" spans="1:9">
       <x:c r="A1088" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1088" s="0" t="s">
         <x:v>23</x:v>
@@ -32960,7 +32966,7 @@
     </x:row>
     <x:row r="1089" spans="1:9">
       <x:c r="A1089" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1089" s="0" t="s">
         <x:v>23</x:v>
@@ -32989,7 +32995,7 @@
     </x:row>
     <x:row r="1090" spans="1:9">
       <x:c r="A1090" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1090" s="0" t="s">
         <x:v>23</x:v>
@@ -33018,7 +33024,7 @@
     </x:row>
     <x:row r="1091" spans="1:9">
       <x:c r="A1091" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1091" s="0" t="s">
         <x:v>27</x:v>
@@ -33047,7 +33053,7 @@
     </x:row>
     <x:row r="1092" spans="1:9">
       <x:c r="A1092" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1092" s="0" t="s">
         <x:v>27</x:v>
@@ -33076,7 +33082,7 @@
     </x:row>
     <x:row r="1093" spans="1:9">
       <x:c r="A1093" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1093" s="0" t="s">
         <x:v>27</x:v>
@@ -33105,7 +33111,7 @@
     </x:row>
     <x:row r="1094" spans="1:9">
       <x:c r="A1094" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1094" s="0" t="s">
         <x:v>31</x:v>
@@ -33134,7 +33140,7 @@
     </x:row>
     <x:row r="1095" spans="1:9">
       <x:c r="A1095" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1095" s="0" t="s">
         <x:v>31</x:v>
@@ -33163,7 +33169,7 @@
     </x:row>
     <x:row r="1096" spans="1:9">
       <x:c r="A1096" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1096" s="0" t="s">
         <x:v>31</x:v>
@@ -33192,7 +33198,7 @@
     </x:row>
     <x:row r="1097" spans="1:9">
       <x:c r="A1097" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1097" s="0" t="s">
         <x:v>32</x:v>
@@ -33221,7 +33227,7 @@
     </x:row>
     <x:row r="1098" spans="1:9">
       <x:c r="A1098" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1098" s="0" t="s">
         <x:v>32</x:v>
@@ -33250,7 +33256,7 @@
     </x:row>
     <x:row r="1099" spans="1:9">
       <x:c r="A1099" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B1099" s="0" t="s">
         <x:v>10</x:v>
@@ -33279,7 +33285,7 @@
     </x:row>
     <x:row r="1100" spans="1:9">
       <x:c r="A1100" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B1100" s="0" t="s">
         <x:v>10</x:v>
@@ -33308,7 +33314,7 @@
     </x:row>
     <x:row r="1101" spans="1:9">
       <x:c r="A1101" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B1101" s="0" t="s">
         <x:v>10</x:v>
@@ -33337,7 +33343,7 @@
     </x:row>
     <x:row r="1102" spans="1:9">
       <x:c r="A1102" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B1102" s="0" t="s">
         <x:v>23</x:v>
@@ -33366,7 +33372,7 @@
     </x:row>
     <x:row r="1103" spans="1:9">
       <x:c r="A1103" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B1103" s="0" t="s">
         <x:v>23</x:v>
@@ -33395,7 +33401,7 @@
     </x:row>
     <x:row r="1104" spans="1:9">
       <x:c r="A1104" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B1104" s="0" t="s">
         <x:v>23</x:v>
@@ -33424,7 +33430,7 @@
     </x:row>
     <x:row r="1105" spans="1:9">
       <x:c r="A1105" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B1105" s="0" t="s">
         <x:v>27</x:v>
@@ -33453,7 +33459,7 @@
     </x:row>
     <x:row r="1106" spans="1:9">
       <x:c r="A1106" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B1106" s="0" t="s">
         <x:v>27</x:v>
@@ -33482,7 +33488,7 @@
     </x:row>
     <x:row r="1107" spans="1:9">
       <x:c r="A1107" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B1107" s="0" t="s">
         <x:v>27</x:v>
@@ -33511,7 +33517,7 @@
     </x:row>
     <x:row r="1108" spans="1:9">
       <x:c r="A1108" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B1108" s="0" t="s">
         <x:v>31</x:v>
@@ -33540,7 +33546,7 @@
     </x:row>
     <x:row r="1109" spans="1:9">
       <x:c r="A1109" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B1109" s="0" t="s">
         <x:v>31</x:v>
@@ -33569,7 +33575,7 @@
     </x:row>
     <x:row r="1110" spans="1:9">
       <x:c r="A1110" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B1110" s="0" t="s">
         <x:v>31</x:v>
@@ -33598,7 +33604,7 @@
     </x:row>
     <x:row r="1111" spans="1:9">
       <x:c r="A1111" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B1111" s="0" t="s">
         <x:v>32</x:v>
@@ -33627,7 +33633,7 @@
     </x:row>
     <x:row r="1112" spans="1:9">
       <x:c r="A1112" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B1112" s="0" t="s">
         <x:v>32</x:v>
@@ -33656,7 +33662,7 @@
     </x:row>
     <x:row r="1113" spans="1:9">
       <x:c r="A1113" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="B1113" s="0" t="s">
         <x:v>10</x:v>
@@ -33685,7 +33691,7 @@
     </x:row>
     <x:row r="1114" spans="1:9">
       <x:c r="A1114" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="B1114" s="0" t="s">
         <x:v>10</x:v>
@@ -33714,7 +33720,7 @@
     </x:row>
     <x:row r="1115" spans="1:9">
       <x:c r="A1115" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="B1115" s="0" t="s">
         <x:v>10</x:v>
@@ -33743,7 +33749,7 @@
     </x:row>
     <x:row r="1116" spans="1:9">
       <x:c r="A1116" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="B1116" s="0" t="s">
         <x:v>23</x:v>
@@ -33772,7 +33778,7 @@
     </x:row>
     <x:row r="1117" spans="1:9">
       <x:c r="A1117" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="B1117" s="0" t="s">
         <x:v>23</x:v>
@@ -33801,7 +33807,7 @@
     </x:row>
     <x:row r="1118" spans="1:9">
       <x:c r="A1118" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="B1118" s="0" t="s">
         <x:v>23</x:v>
@@ -33830,7 +33836,7 @@
     </x:row>
     <x:row r="1119" spans="1:9">
       <x:c r="A1119" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="B1119" s="0" t="s">
         <x:v>27</x:v>
@@ -33859,7 +33865,7 @@
     </x:row>
     <x:row r="1120" spans="1:9">
       <x:c r="A1120" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="B1120" s="0" t="s">
         <x:v>27</x:v>
@@ -33888,7 +33894,7 @@
     </x:row>
     <x:row r="1121" spans="1:9">
       <x:c r="A1121" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="B1121" s="0" t="s">
         <x:v>27</x:v>
@@ -33917,7 +33923,7 @@
     </x:row>
     <x:row r="1122" spans="1:9">
       <x:c r="A1122" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="B1122" s="0" t="s">
         <x:v>31</x:v>
@@ -33946,7 +33952,7 @@
     </x:row>
     <x:row r="1123" spans="1:9">
       <x:c r="A1123" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="B1123" s="0" t="s">
         <x:v>31</x:v>
@@ -33975,7 +33981,7 @@
     </x:row>
     <x:row r="1124" spans="1:9">
       <x:c r="A1124" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="B1124" s="0" t="s">
         <x:v>31</x:v>
@@ -34004,7 +34010,7 @@
     </x:row>
     <x:row r="1125" spans="1:9">
       <x:c r="A1125" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="B1125" s="0" t="s">
         <x:v>32</x:v>
@@ -34033,7 +34039,7 @@
     </x:row>
     <x:row r="1126" spans="1:9">
       <x:c r="A1126" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="B1126" s="0" t="s">
         <x:v>32</x:v>
@@ -34062,7 +34068,7 @@
     </x:row>
     <x:row r="1127" spans="1:9">
       <x:c r="A1127" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="B1127" s="0" t="s">
         <x:v>32</x:v>
@@ -34091,7 +34097,7 @@
     </x:row>
     <x:row r="1128" spans="1:9">
       <x:c r="A1128" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="B1128" s="0" t="s">
         <x:v>10</x:v>
@@ -34120,7 +34126,7 @@
     </x:row>
     <x:row r="1129" spans="1:9">
       <x:c r="A1129" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="B1129" s="0" t="s">
         <x:v>10</x:v>
@@ -34149,7 +34155,7 @@
     </x:row>
     <x:row r="1130" spans="1:9">
       <x:c r="A1130" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="B1130" s="0" t="s">
         <x:v>10</x:v>
@@ -34178,7 +34184,7 @@
     </x:row>
     <x:row r="1131" spans="1:9">
       <x:c r="A1131" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="B1131" s="0" t="s">
         <x:v>23</x:v>
@@ -34207,7 +34213,7 @@
     </x:row>
     <x:row r="1132" spans="1:9">
       <x:c r="A1132" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="B1132" s="0" t="s">
         <x:v>23</x:v>
@@ -34236,7 +34242,7 @@
     </x:row>
     <x:row r="1133" spans="1:9">
       <x:c r="A1133" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="B1133" s="0" t="s">
         <x:v>23</x:v>
@@ -34265,7 +34271,7 @@
     </x:row>
     <x:row r="1134" spans="1:9">
       <x:c r="A1134" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="B1134" s="0" t="s">
         <x:v>27</x:v>
@@ -34294,7 +34300,7 @@
     </x:row>
     <x:row r="1135" spans="1:9">
       <x:c r="A1135" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="B1135" s="0" t="s">
         <x:v>27</x:v>
@@ -34323,7 +34329,7 @@
     </x:row>
     <x:row r="1136" spans="1:9">
       <x:c r="A1136" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="B1136" s="0" t="s">
         <x:v>27</x:v>
@@ -34352,7 +34358,7 @@
     </x:row>
     <x:row r="1137" spans="1:9">
       <x:c r="A1137" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="B1137" s="0" t="s">
         <x:v>31</x:v>
@@ -34381,7 +34387,7 @@
     </x:row>
     <x:row r="1138" spans="1:9">
       <x:c r="A1138" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="B1138" s="0" t="s">
         <x:v>31</x:v>
@@ -34410,7 +34416,7 @@
     </x:row>
     <x:row r="1139" spans="1:9">
       <x:c r="A1139" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="B1139" s="0" t="s">
         <x:v>31</x:v>
@@ -34439,7 +34445,7 @@
     </x:row>
     <x:row r="1140" spans="1:9">
       <x:c r="A1140" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="B1140" s="0" t="s">
         <x:v>32</x:v>
@@ -34468,7 +34474,7 @@
     </x:row>
     <x:row r="1141" spans="1:9">
       <x:c r="A1141" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="B1141" s="0" t="s">
         <x:v>32</x:v>
@@ -34497,7 +34503,7 @@
     </x:row>
     <x:row r="1142" spans="1:9">
       <x:c r="A1142" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="B1142" s="0" t="s">
         <x:v>32</x:v>
@@ -34526,7 +34532,7 @@
     </x:row>
     <x:row r="1143" spans="1:9">
       <x:c r="A1143" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="B1143" s="0" t="s">
         <x:v>10</x:v>
@@ -34555,7 +34561,7 @@
     </x:row>
     <x:row r="1144" spans="1:9">
       <x:c r="A1144" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="B1144" s="0" t="s">
         <x:v>10</x:v>
@@ -34584,7 +34590,7 @@
     </x:row>
     <x:row r="1145" spans="1:9">
       <x:c r="A1145" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="B1145" s="0" t="s">
         <x:v>10</x:v>
@@ -34613,7 +34619,7 @@
     </x:row>
     <x:row r="1146" spans="1:9">
       <x:c r="A1146" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="B1146" s="0" t="s">
         <x:v>23</x:v>
@@ -34642,7 +34648,7 @@
     </x:row>
     <x:row r="1147" spans="1:9">
       <x:c r="A1147" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="B1147" s="0" t="s">
         <x:v>23</x:v>
@@ -34671,7 +34677,7 @@
     </x:row>
     <x:row r="1148" spans="1:9">
       <x:c r="A1148" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="B1148" s="0" t="s">
         <x:v>23</x:v>
@@ -34700,7 +34706,7 @@
     </x:row>
     <x:row r="1149" spans="1:9">
       <x:c r="A1149" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="B1149" s="0" t="s">
         <x:v>27</x:v>
@@ -34729,7 +34735,7 @@
     </x:row>
     <x:row r="1150" spans="1:9">
       <x:c r="A1150" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="B1150" s="0" t="s">
         <x:v>27</x:v>
@@ -34758,7 +34764,7 @@
     </x:row>
     <x:row r="1151" spans="1:9">
       <x:c r="A1151" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="B1151" s="0" t="s">
         <x:v>27</x:v>
@@ -34787,7 +34793,7 @@
     </x:row>
     <x:row r="1152" spans="1:9">
       <x:c r="A1152" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="B1152" s="0" t="s">
         <x:v>31</x:v>
@@ -34816,7 +34822,7 @@
     </x:row>
     <x:row r="1153" spans="1:9">
       <x:c r="A1153" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="B1153" s="0" t="s">
         <x:v>31</x:v>
@@ -34845,7 +34851,7 @@
     </x:row>
     <x:row r="1154" spans="1:9">
       <x:c r="A1154" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="B1154" s="0" t="s">
         <x:v>32</x:v>
@@ -34874,7 +34880,7 @@
     </x:row>
     <x:row r="1155" spans="1:9">
       <x:c r="A1155" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="B1155" s="0" t="s">
         <x:v>32</x:v>
@@ -34903,7 +34909,7 @@
     </x:row>
     <x:row r="1156" spans="1:9">
       <x:c r="A1156" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="B1156" s="0" t="s">
         <x:v>32</x:v>
@@ -34932,7 +34938,7 @@
     </x:row>
     <x:row r="1157" spans="1:9">
       <x:c r="A1157" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="B1157" s="0" t="s">
         <x:v>10</x:v>
@@ -34961,7 +34967,7 @@
     </x:row>
     <x:row r="1158" spans="1:9">
       <x:c r="A1158" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="B1158" s="0" t="s">
         <x:v>10</x:v>
@@ -34990,7 +34996,7 @@
     </x:row>
     <x:row r="1159" spans="1:9">
       <x:c r="A1159" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="B1159" s="0" t="s">
         <x:v>10</x:v>
@@ -35019,7 +35025,7 @@
     </x:row>
     <x:row r="1160" spans="1:9">
       <x:c r="A1160" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="B1160" s="0" t="s">
         <x:v>23</x:v>
@@ -35048,7 +35054,7 @@
     </x:row>
     <x:row r="1161" spans="1:9">
       <x:c r="A1161" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="B1161" s="0" t="s">
         <x:v>23</x:v>
@@ -35077,7 +35083,7 @@
     </x:row>
     <x:row r="1162" spans="1:9">
       <x:c r="A1162" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="B1162" s="0" t="s">
         <x:v>23</x:v>
@@ -35106,7 +35112,7 @@
     </x:row>
     <x:row r="1163" spans="1:9">
       <x:c r="A1163" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="B1163" s="0" t="s">
         <x:v>27</x:v>
@@ -35135,7 +35141,7 @@
     </x:row>
     <x:row r="1164" spans="1:9">
       <x:c r="A1164" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="B1164" s="0" t="s">
         <x:v>27</x:v>
@@ -35164,7 +35170,7 @@
     </x:row>
     <x:row r="1165" spans="1:9">
       <x:c r="A1165" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="B1165" s="0" t="s">
         <x:v>27</x:v>
@@ -35193,7 +35199,7 @@
     </x:row>
     <x:row r="1166" spans="1:9">
       <x:c r="A1166" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="B1166" s="0" t="s">
         <x:v>31</x:v>
@@ -35222,7 +35228,7 @@
     </x:row>
     <x:row r="1167" spans="1:9">
       <x:c r="A1167" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="B1167" s="0" t="s">
         <x:v>31</x:v>
@@ -35251,7 +35257,7 @@
     </x:row>
     <x:row r="1168" spans="1:9">
       <x:c r="A1168" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="B1168" s="0" t="s">
         <x:v>31</x:v>
@@ -35280,7 +35286,7 @@
     </x:row>
     <x:row r="1169" spans="1:9">
       <x:c r="A1169" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="B1169" s="0" t="s">
         <x:v>32</x:v>
@@ -35309,7 +35315,7 @@
     </x:row>
     <x:row r="1170" spans="1:9">
       <x:c r="A1170" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="B1170" s="0" t="s">
         <x:v>32</x:v>
@@ -35338,7 +35344,7 @@
     </x:row>
     <x:row r="1171" spans="1:9">
       <x:c r="A1171" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="B1171" s="0" t="s">
         <x:v>32</x:v>
@@ -35367,7 +35373,7 @@
     </x:row>
     <x:row r="1172" spans="1:9">
       <x:c r="A1172" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="B1172" s="0" t="s">
         <x:v>10</x:v>
@@ -35396,7 +35402,7 @@
     </x:row>
     <x:row r="1173" spans="1:9">
       <x:c r="A1173" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="B1173" s="0" t="s">
         <x:v>10</x:v>
@@ -35425,7 +35431,7 @@
     </x:row>
     <x:row r="1174" spans="1:9">
       <x:c r="A1174" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="B1174" s="0" t="s">
         <x:v>10</x:v>
@@ -35454,7 +35460,7 @@
     </x:row>
     <x:row r="1175" spans="1:9">
       <x:c r="A1175" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="B1175" s="0" t="s">
         <x:v>23</x:v>
@@ -35483,7 +35489,7 @@
     </x:row>
     <x:row r="1176" spans="1:9">
       <x:c r="A1176" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="B1176" s="0" t="s">
         <x:v>23</x:v>
@@ -35512,7 +35518,7 @@
     </x:row>
     <x:row r="1177" spans="1:9">
       <x:c r="A1177" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="B1177" s="0" t="s">
         <x:v>23</x:v>
@@ -35541,7 +35547,7 @@
     </x:row>
     <x:row r="1178" spans="1:9">
       <x:c r="A1178" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="B1178" s="0" t="s">
         <x:v>27</x:v>
@@ -35570,7 +35576,7 @@
     </x:row>
     <x:row r="1179" spans="1:9">
       <x:c r="A1179" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="B1179" s="0" t="s">
         <x:v>27</x:v>
@@ -35599,7 +35605,7 @@
     </x:row>
     <x:row r="1180" spans="1:9">
       <x:c r="A1180" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="B1180" s="0" t="s">
         <x:v>27</x:v>
@@ -35628,7 +35634,7 @@
     </x:row>
     <x:row r="1181" spans="1:9">
       <x:c r="A1181" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="B1181" s="0" t="s">
         <x:v>31</x:v>
@@ -35657,7 +35663,7 @@
     </x:row>
     <x:row r="1182" spans="1:9">
       <x:c r="A1182" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="B1182" s="0" t="s">
         <x:v>31</x:v>
@@ -35686,7 +35692,7 @@
     </x:row>
     <x:row r="1183" spans="1:9">
       <x:c r="A1183" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="B1183" s="0" t="s">
         <x:v>31</x:v>
@@ -35715,7 +35721,7 @@
     </x:row>
     <x:row r="1184" spans="1:9">
       <x:c r="A1184" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="B1184" s="0" t="s">
         <x:v>32</x:v>
@@ -35744,7 +35750,7 @@
     </x:row>
     <x:row r="1185" spans="1:9">
       <x:c r="A1185" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="B1185" s="0" t="s">
         <x:v>32</x:v>
@@ -35773,7 +35779,7 @@
     </x:row>
     <x:row r="1186" spans="1:9">
       <x:c r="A1186" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="B1186" s="0" t="s">
         <x:v>32</x:v>
@@ -35802,7 +35808,7 @@
     </x:row>
     <x:row r="1187" spans="1:9">
       <x:c r="A1187" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B1187" s="0" t="s">
         <x:v>10</x:v>
@@ -35831,7 +35837,7 @@
     </x:row>
     <x:row r="1188" spans="1:9">
       <x:c r="A1188" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B1188" s="0" t="s">
         <x:v>10</x:v>
@@ -35860,7 +35866,7 @@
     </x:row>
     <x:row r="1189" spans="1:9">
       <x:c r="A1189" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B1189" s="0" t="s">
         <x:v>10</x:v>
@@ -35889,7 +35895,7 @@
     </x:row>
     <x:row r="1190" spans="1:9">
       <x:c r="A1190" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B1190" s="0" t="s">
         <x:v>23</x:v>
@@ -35918,7 +35924,7 @@
     </x:row>
     <x:row r="1191" spans="1:9">
       <x:c r="A1191" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B1191" s="0" t="s">
         <x:v>23</x:v>
@@ -35947,7 +35953,7 @@
     </x:row>
     <x:row r="1192" spans="1:9">
       <x:c r="A1192" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B1192" s="0" t="s">
         <x:v>23</x:v>
@@ -35976,7 +35982,7 @@
     </x:row>
     <x:row r="1193" spans="1:9">
       <x:c r="A1193" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B1193" s="0" t="s">
         <x:v>27</x:v>
@@ -36005,7 +36011,7 @@
     </x:row>
     <x:row r="1194" spans="1:9">
       <x:c r="A1194" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B1194" s="0" t="s">
         <x:v>27</x:v>
@@ -36034,7 +36040,7 @@
     </x:row>
     <x:row r="1195" spans="1:9">
       <x:c r="A1195" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B1195" s="0" t="s">
         <x:v>27</x:v>
@@ -36063,7 +36069,7 @@
     </x:row>
     <x:row r="1196" spans="1:9">
       <x:c r="A1196" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B1196" s="0" t="s">
         <x:v>31</x:v>
@@ -36092,7 +36098,7 @@
     </x:row>
     <x:row r="1197" spans="1:9">
       <x:c r="A1197" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B1197" s="0" t="s">
         <x:v>31</x:v>
@@ -36121,7 +36127,7 @@
     </x:row>
     <x:row r="1198" spans="1:9">
       <x:c r="A1198" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B1198" s="0" t="s">
         <x:v>31</x:v>
@@ -36150,7 +36156,7 @@
     </x:row>
     <x:row r="1199" spans="1:9">
       <x:c r="A1199" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B1199" s="0" t="s">
         <x:v>32</x:v>
@@ -36179,7 +36185,7 @@
     </x:row>
     <x:row r="1200" spans="1:9">
       <x:c r="A1200" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B1200" s="0" t="s">
         <x:v>32</x:v>
@@ -36208,7 +36214,7 @@
     </x:row>
     <x:row r="1201" spans="1:9">
       <x:c r="A1201" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B1201" s="0" t="s">
         <x:v>32</x:v>
@@ -36237,7 +36243,7 @@
     </x:row>
     <x:row r="1202" spans="1:9">
       <x:c r="A1202" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B1202" s="0" t="s">
         <x:v>10</x:v>
@@ -36266,7 +36272,7 @@
     </x:row>
     <x:row r="1203" spans="1:9">
       <x:c r="A1203" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B1203" s="0" t="s">
         <x:v>10</x:v>
@@ -36281,7 +36287,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="F1203" s="1" t="s">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="G1203" s="1" t="s">
         <x:v>144</x:v>
@@ -36295,7 +36301,7 @@
     </x:row>
     <x:row r="1204" spans="1:9">
       <x:c r="A1204" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B1204" s="0" t="s">
         <x:v>10</x:v>
@@ -36310,10 +36316,10 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="F1204" s="1" t="s">
-        <x:v>321</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="G1204" s="1" t="s">
-        <x:v>322</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="H1204" s="1" t="s">
         <x:v>83</x:v>
@@ -36324,7 +36330,7 @@
     </x:row>
     <x:row r="1205" spans="1:9">
       <x:c r="A1205" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B1205" s="0" t="s">
         <x:v>295</x:v>
@@ -36353,7 +36359,7 @@
     </x:row>
     <x:row r="1206" spans="1:9">
       <x:c r="A1206" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B1206" s="0" t="s">
         <x:v>295</x:v>
@@ -36382,7 +36388,7 @@
     </x:row>
     <x:row r="1207" spans="1:9">
       <x:c r="A1207" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B1207" s="0" t="s">
         <x:v>47</x:v>
@@ -36411,7 +36417,7 @@
     </x:row>
     <x:row r="1208" spans="1:9">
       <x:c r="A1208" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B1208" s="0" t="s">
         <x:v>47</x:v>
@@ -36440,7 +36446,7 @@
     </x:row>
     <x:row r="1209" spans="1:9">
       <x:c r="A1209" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B1209" s="0" t="s">
         <x:v>47</x:v>
@@ -36469,7 +36475,7 @@
     </x:row>
     <x:row r="1210" spans="1:9">
       <x:c r="A1210" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B1210" s="0" t="s">
         <x:v>23</x:v>
@@ -36498,7 +36504,7 @@
     </x:row>
     <x:row r="1211" spans="1:9">
       <x:c r="A1211" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B1211" s="0" t="s">
         <x:v>23</x:v>
@@ -36527,7 +36533,7 @@
     </x:row>
     <x:row r="1212" spans="1:9">
       <x:c r="A1212" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B1212" s="0" t="s">
         <x:v>23</x:v>
@@ -36556,7 +36562,7 @@
     </x:row>
     <x:row r="1213" spans="1:9">
       <x:c r="A1213" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B1213" s="0" t="s">
         <x:v>27</x:v>
@@ -36585,7 +36591,7 @@
     </x:row>
     <x:row r="1214" spans="1:9">
       <x:c r="A1214" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B1214" s="0" t="s">
         <x:v>27</x:v>
@@ -36614,7 +36620,7 @@
     </x:row>
     <x:row r="1215" spans="1:9">
       <x:c r="A1215" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B1215" s="0" t="s">
         <x:v>27</x:v>
@@ -36629,10 +36635,10 @@
         <x:v>287</x:v>
       </x:c>
       <x:c r="F1215" s="1" t="s">
-        <x:v>323</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="G1215" s="1" t="s">
-        <x:v>321</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="H1215" s="1" t="s">
         <x:v>300</x:v>
@@ -36643,7 +36649,7 @@
     </x:row>
     <x:row r="1216" spans="1:9">
       <x:c r="A1216" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B1216" s="0" t="s">
         <x:v>65</x:v>
@@ -36672,7 +36678,7 @@
     </x:row>
     <x:row r="1217" spans="1:9">
       <x:c r="A1217" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B1217" s="0" t="s">
         <x:v>65</x:v>
@@ -36701,7 +36707,7 @@
     </x:row>
     <x:row r="1218" spans="1:9">
       <x:c r="A1218" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B1218" s="0" t="s">
         <x:v>65</x:v>
@@ -36730,7 +36736,7 @@
     </x:row>
     <x:row r="1219" spans="1:9">
       <x:c r="A1219" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B1219" s="0" t="s">
         <x:v>31</x:v>
@@ -36759,7 +36765,7 @@
     </x:row>
     <x:row r="1220" spans="1:9">
       <x:c r="A1220" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B1220" s="0" t="s">
         <x:v>31</x:v>
@@ -36788,7 +36794,7 @@
     </x:row>
     <x:row r="1221" spans="1:9">
       <x:c r="A1221" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B1221" s="0" t="s">
         <x:v>31</x:v>
@@ -36817,7 +36823,7 @@
     </x:row>
     <x:row r="1222" spans="1:9">
       <x:c r="A1222" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B1222" s="0" t="s">
         <x:v>32</x:v>
@@ -36846,7 +36852,7 @@
     </x:row>
     <x:row r="1223" spans="1:9">
       <x:c r="A1223" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B1223" s="0" t="s">
         <x:v>32</x:v>
@@ -36875,7 +36881,7 @@
     </x:row>
     <x:row r="1224" spans="1:9">
       <x:c r="A1224" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B1224" s="0" t="s">
         <x:v>32</x:v>
@@ -36904,7 +36910,7 @@
     </x:row>
     <x:row r="1225" spans="1:9">
       <x:c r="A1225" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1225" s="0" t="s">
         <x:v>10</x:v>
@@ -36933,7 +36939,7 @@
     </x:row>
     <x:row r="1226" spans="1:9">
       <x:c r="A1226" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1226" s="0" t="s">
         <x:v>10</x:v>
@@ -36962,7 +36968,7 @@
     </x:row>
     <x:row r="1227" spans="1:9">
       <x:c r="A1227" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1227" s="0" t="s">
         <x:v>10</x:v>
@@ -36991,7 +36997,7 @@
     </x:row>
     <x:row r="1228" spans="1:9">
       <x:c r="A1228" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1228" s="0" t="s">
         <x:v>23</x:v>
@@ -37020,7 +37026,7 @@
     </x:row>
     <x:row r="1229" spans="1:9">
       <x:c r="A1229" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1229" s="0" t="s">
         <x:v>23</x:v>
@@ -37049,7 +37055,7 @@
     </x:row>
     <x:row r="1230" spans="1:9">
       <x:c r="A1230" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1230" s="0" t="s">
         <x:v>27</x:v>
@@ -37078,7 +37084,7 @@
     </x:row>
     <x:row r="1231" spans="1:9">
       <x:c r="A1231" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1231" s="0" t="s">
         <x:v>27</x:v>
@@ -37107,7 +37113,7 @@
     </x:row>
     <x:row r="1232" spans="1:9">
       <x:c r="A1232" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1232" s="0" t="s">
         <x:v>27</x:v>
@@ -37136,7 +37142,7 @@
     </x:row>
     <x:row r="1233" spans="1:9">
       <x:c r="A1233" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1233" s="0" t="s">
         <x:v>65</x:v>
@@ -37165,7 +37171,7 @@
     </x:row>
     <x:row r="1234" spans="1:9">
       <x:c r="A1234" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1234" s="0" t="s">
         <x:v>65</x:v>
@@ -37194,7 +37200,7 @@
     </x:row>
     <x:row r="1235" spans="1:9">
       <x:c r="A1235" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1235" s="0" t="s">
         <x:v>65</x:v>
@@ -37223,7 +37229,7 @@
     </x:row>
     <x:row r="1236" spans="1:9">
       <x:c r="A1236" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1236" s="0" t="s">
         <x:v>31</x:v>
@@ -37252,7 +37258,7 @@
     </x:row>
     <x:row r="1237" spans="1:9">
       <x:c r="A1237" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1237" s="0" t="s">
         <x:v>31</x:v>
@@ -37281,7 +37287,7 @@
     </x:row>
     <x:row r="1238" spans="1:9">
       <x:c r="A1238" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1238" s="0" t="s">
         <x:v>32</x:v>
@@ -37310,7 +37316,7 @@
     </x:row>
     <x:row r="1239" spans="1:9">
       <x:c r="A1239" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1239" s="0" t="s">
         <x:v>32</x:v>
@@ -37339,7 +37345,7 @@
     </x:row>
     <x:row r="1240" spans="1:9">
       <x:c r="A1240" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1240" s="0" t="s">
         <x:v>10</x:v>
@@ -37368,7 +37374,7 @@
     </x:row>
     <x:row r="1241" spans="1:9">
       <x:c r="A1241" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1241" s="0" t="s">
         <x:v>10</x:v>
@@ -37397,7 +37403,7 @@
     </x:row>
     <x:row r="1242" spans="1:9">
       <x:c r="A1242" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1242" s="0" t="s">
         <x:v>10</x:v>
@@ -37426,7 +37432,7 @@
     </x:row>
     <x:row r="1243" spans="1:9">
       <x:c r="A1243" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1243" s="0" t="s">
         <x:v>295</x:v>
@@ -37455,7 +37461,7 @@
     </x:row>
     <x:row r="1244" spans="1:9">
       <x:c r="A1244" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1244" s="0" t="s">
         <x:v>295</x:v>
@@ -37484,7 +37490,7 @@
     </x:row>
     <x:row r="1245" spans="1:9">
       <x:c r="A1245" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1245" s="0" t="s">
         <x:v>23</x:v>
@@ -37513,7 +37519,7 @@
     </x:row>
     <x:row r="1246" spans="1:9">
       <x:c r="A1246" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1246" s="0" t="s">
         <x:v>23</x:v>
@@ -37542,7 +37548,7 @@
     </x:row>
     <x:row r="1247" spans="1:9">
       <x:c r="A1247" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1247" s="0" t="s">
         <x:v>23</x:v>
@@ -37571,7 +37577,7 @@
     </x:row>
     <x:row r="1248" spans="1:9">
       <x:c r="A1248" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1248" s="0" t="s">
         <x:v>27</x:v>
@@ -37600,7 +37606,7 @@
     </x:row>
     <x:row r="1249" spans="1:9">
       <x:c r="A1249" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1249" s="0" t="s">
         <x:v>27</x:v>
@@ -37629,7 +37635,7 @@
     </x:row>
     <x:row r="1250" spans="1:9">
       <x:c r="A1250" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1250" s="0" t="s">
         <x:v>27</x:v>
@@ -37658,7 +37664,7 @@
     </x:row>
     <x:row r="1251" spans="1:9">
       <x:c r="A1251" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1251" s="0" t="s">
         <x:v>31</x:v>
@@ -37687,7 +37693,7 @@
     </x:row>
     <x:row r="1252" spans="1:9">
       <x:c r="A1252" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1252" s="0" t="s">
         <x:v>31</x:v>
@@ -37716,7 +37722,7 @@
     </x:row>
     <x:row r="1253" spans="1:9">
       <x:c r="A1253" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1253" s="0" t="s">
         <x:v>31</x:v>
@@ -37745,7 +37751,7 @@
     </x:row>
     <x:row r="1254" spans="1:9">
       <x:c r="A1254" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1254" s="0" t="s">
         <x:v>32</x:v>
@@ -37774,7 +37780,7 @@
     </x:row>
     <x:row r="1255" spans="1:9">
       <x:c r="A1255" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1255" s="0" t="s">
         <x:v>32</x:v>
@@ -37803,7 +37809,7 @@
     </x:row>
     <x:row r="1256" spans="1:9">
       <x:c r="A1256" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1256" s="0" t="s">
         <x:v>10</x:v>
@@ -37832,7 +37838,7 @@
     </x:row>
     <x:row r="1257" spans="1:9">
       <x:c r="A1257" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1257" s="0" t="s">
         <x:v>10</x:v>
@@ -37861,7 +37867,7 @@
     </x:row>
     <x:row r="1258" spans="1:9">
       <x:c r="A1258" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1258" s="0" t="s">
         <x:v>10</x:v>
@@ -37890,7 +37896,7 @@
     </x:row>
     <x:row r="1259" spans="1:9">
       <x:c r="A1259" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1259" s="0" t="s">
         <x:v>23</x:v>
@@ -37919,7 +37925,7 @@
     </x:row>
     <x:row r="1260" spans="1:9">
       <x:c r="A1260" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1260" s="0" t="s">
         <x:v>23</x:v>
@@ -37948,7 +37954,7 @@
     </x:row>
     <x:row r="1261" spans="1:9">
       <x:c r="A1261" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1261" s="0" t="s">
         <x:v>23</x:v>
@@ -37977,7 +37983,7 @@
     </x:row>
     <x:row r="1262" spans="1:9">
       <x:c r="A1262" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1262" s="0" t="s">
         <x:v>27</x:v>
@@ -38006,7 +38012,7 @@
     </x:row>
     <x:row r="1263" spans="1:9">
       <x:c r="A1263" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1263" s="0" t="s">
         <x:v>27</x:v>
@@ -38035,7 +38041,7 @@
     </x:row>
     <x:row r="1264" spans="1:9">
       <x:c r="A1264" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1264" s="0" t="s">
         <x:v>27</x:v>
@@ -38064,7 +38070,7 @@
     </x:row>
     <x:row r="1265" spans="1:9">
       <x:c r="A1265" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1265" s="0" t="s">
         <x:v>31</x:v>
@@ -38093,7 +38099,7 @@
     </x:row>
     <x:row r="1266" spans="1:9">
       <x:c r="A1266" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1266" s="0" t="s">
         <x:v>31</x:v>
@@ -38122,7 +38128,7 @@
     </x:row>
     <x:row r="1267" spans="1:9">
       <x:c r="A1267" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1267" s="0" t="s">
         <x:v>31</x:v>
@@ -38151,7 +38157,7 @@
     </x:row>
     <x:row r="1268" spans="1:9">
       <x:c r="A1268" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1268" s="0" t="s">
         <x:v>32</x:v>
@@ -38180,7 +38186,7 @@
     </x:row>
     <x:row r="1269" spans="1:9">
       <x:c r="A1269" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1269" s="0" t="s">
         <x:v>32</x:v>
@@ -38209,7 +38215,7 @@
     </x:row>
     <x:row r="1270" spans="1:9">
       <x:c r="A1270" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1270" s="0" t="s">
         <x:v>32</x:v>
@@ -38238,7 +38244,7 @@
     </x:row>
     <x:row r="1271" spans="1:9">
       <x:c r="A1271" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1271" s="0" t="s">
         <x:v>10</x:v>
@@ -38259,7 +38265,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="H1271" s="1" t="s">
-        <x:v>328</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="I1271" s="0" t="s">
         <x:v>12</x:v>
@@ -38267,7 +38273,7 @@
     </x:row>
     <x:row r="1272" spans="1:9">
       <x:c r="A1272" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1272" s="0" t="s">
         <x:v>10</x:v>
@@ -38285,10 +38291,10 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="G1272" s="1" t="s">
-        <x:v>329</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="H1272" s="1" t="s">
-        <x:v>330</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="I1272" s="0" t="s">
         <x:v>12</x:v>
@@ -38296,7 +38302,7 @@
     </x:row>
     <x:row r="1273" spans="1:9">
       <x:c r="A1273" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1273" s="0" t="s">
         <x:v>10</x:v>
@@ -38308,16 +38314,16 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E1273" s="1" t="s">
-        <x:v>330</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="F1273" s="1" t="s">
         <x:v>231</x:v>
       </x:c>
       <x:c r="G1273" s="1" t="s">
-        <x:v>331</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="H1273" s="1" t="s">
-        <x:v>332</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="I1273" s="0" t="s">
         <x:v>12</x:v>
@@ -38325,7 +38331,7 @@
     </x:row>
     <x:row r="1274" spans="1:9">
       <x:c r="A1274" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1274" s="0" t="s">
         <x:v>23</x:v>
@@ -38354,7 +38360,7 @@
     </x:row>
     <x:row r="1275" spans="1:9">
       <x:c r="A1275" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1275" s="0" t="s">
         <x:v>23</x:v>
@@ -38383,7 +38389,7 @@
     </x:row>
     <x:row r="1276" spans="1:9">
       <x:c r="A1276" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1276" s="0" t="s">
         <x:v>23</x:v>
@@ -38412,7 +38418,7 @@
     </x:row>
     <x:row r="1277" spans="1:9">
       <x:c r="A1277" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1277" s="0" t="s">
         <x:v>27</x:v>
@@ -38441,7 +38447,7 @@
     </x:row>
     <x:row r="1278" spans="1:9">
       <x:c r="A1278" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1278" s="0" t="s">
         <x:v>27</x:v>
@@ -38470,7 +38476,7 @@
     </x:row>
     <x:row r="1279" spans="1:9">
       <x:c r="A1279" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1279" s="0" t="s">
         <x:v>27</x:v>
@@ -38499,7 +38505,7 @@
     </x:row>
     <x:row r="1280" spans="1:9">
       <x:c r="A1280" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1280" s="0" t="s">
         <x:v>65</x:v>
@@ -38528,7 +38534,7 @@
     </x:row>
     <x:row r="1281" spans="1:9">
       <x:c r="A1281" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1281" s="0" t="s">
         <x:v>65</x:v>
@@ -38557,7 +38563,7 @@
     </x:row>
     <x:row r="1282" spans="1:9">
       <x:c r="A1282" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1282" s="0" t="s">
         <x:v>65</x:v>
@@ -38586,7 +38592,7 @@
     </x:row>
     <x:row r="1283" spans="1:9">
       <x:c r="A1283" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1283" s="0" t="s">
         <x:v>31</x:v>
@@ -38615,7 +38621,7 @@
     </x:row>
     <x:row r="1284" spans="1:9">
       <x:c r="A1284" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1284" s="0" t="s">
         <x:v>31</x:v>
@@ -38644,7 +38650,7 @@
     </x:row>
     <x:row r="1285" spans="1:9">
       <x:c r="A1285" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1285" s="0" t="s">
         <x:v>31</x:v>
@@ -38673,7 +38679,7 @@
     </x:row>
     <x:row r="1286" spans="1:9">
       <x:c r="A1286" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1286" s="0" t="s">
         <x:v>32</x:v>
@@ -38702,7 +38708,7 @@
     </x:row>
     <x:row r="1287" spans="1:9">
       <x:c r="A1287" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1287" s="0" t="s">
         <x:v>32</x:v>
@@ -38731,7 +38737,7 @@
     </x:row>
     <x:row r="1288" spans="1:9">
       <x:c r="A1288" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1288" s="0" t="s">
         <x:v>32</x:v>
@@ -38760,7 +38766,7 @@
     </x:row>
     <x:row r="1289" spans="1:9">
       <x:c r="A1289" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="B1289" s="0" t="s">
         <x:v>10</x:v>
@@ -38789,7 +38795,7 @@
     </x:row>
     <x:row r="1290" spans="1:9">
       <x:c r="A1290" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="B1290" s="0" t="s">
         <x:v>10</x:v>
@@ -38818,7 +38824,7 @@
     </x:row>
     <x:row r="1291" spans="1:9">
       <x:c r="A1291" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="B1291" s="0" t="s">
         <x:v>10</x:v>
@@ -38847,7 +38853,7 @@
     </x:row>
     <x:row r="1292" spans="1:9">
       <x:c r="A1292" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="B1292" s="0" t="s">
         <x:v>23</x:v>
@@ -38876,7 +38882,7 @@
     </x:row>
     <x:row r="1293" spans="1:9">
       <x:c r="A1293" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="B1293" s="0" t="s">
         <x:v>23</x:v>
@@ -38905,7 +38911,7 @@
     </x:row>
     <x:row r="1294" spans="1:9">
       <x:c r="A1294" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="B1294" s="0" t="s">
         <x:v>23</x:v>
@@ -38934,7 +38940,7 @@
     </x:row>
     <x:row r="1295" spans="1:9">
       <x:c r="A1295" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="B1295" s="0" t="s">
         <x:v>27</x:v>
@@ -38963,7 +38969,7 @@
     </x:row>
     <x:row r="1296" spans="1:9">
       <x:c r="A1296" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="B1296" s="0" t="s">
         <x:v>27</x:v>
@@ -38992,7 +38998,7 @@
     </x:row>
     <x:row r="1297" spans="1:9">
       <x:c r="A1297" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="B1297" s="0" t="s">
         <x:v>27</x:v>
@@ -39021,7 +39027,7 @@
     </x:row>
     <x:row r="1298" spans="1:9">
       <x:c r="A1298" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="B1298" s="0" t="s">
         <x:v>31</x:v>
@@ -39050,7 +39056,7 @@
     </x:row>
     <x:row r="1299" spans="1:9">
       <x:c r="A1299" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="B1299" s="0" t="s">
         <x:v>31</x:v>
@@ -39079,7 +39085,7 @@
     </x:row>
     <x:row r="1300" spans="1:9">
       <x:c r="A1300" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="B1300" s="0" t="s">
         <x:v>31</x:v>
@@ -39108,7 +39114,7 @@
     </x:row>
     <x:row r="1301" spans="1:9">
       <x:c r="A1301" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="B1301" s="0" t="s">
         <x:v>32</x:v>
@@ -39137,7 +39143,7 @@
     </x:row>
     <x:row r="1302" spans="1:9">
       <x:c r="A1302" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="B1302" s="0" t="s">
         <x:v>32</x:v>
@@ -39166,7 +39172,7 @@
     </x:row>
     <x:row r="1303" spans="1:9">
       <x:c r="A1303" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="B1303" s="0" t="s">
         <x:v>32</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -133,7 +133,7 @@
     <x:t>51</x:t>
   </x:si>
   <x:si>
-    <x:t>107</x:t>
+    <x:t>105</x:t>
   </x:si>
   <x:si>
     <x:t>114</x:t>
@@ -148,7 +148,7 @@
     <x:t>64</x:t>
   </x:si>
   <x:si>
-    <x:t>133</x:t>
+    <x:t>131</x:t>
   </x:si>
   <x:si>
     <x:t>147</x:t>
@@ -853,9 +853,6 @@
     <x:t>168</x:t>
   </x:si>
   <x:si>
-    <x:t>105</x:t>
-  </x:si>
-  <x:si>
     <x:t>Red Lake</x:t>
   </x:si>
   <x:si>
@@ -892,9 +889,6 @@
     <x:t>140</x:t>
   </x:si>
   <x:si>
-    <x:t>131</x:t>
-  </x:si>
-  <x:si>
     <x:t>184</x:t>
   </x:si>
   <x:si>
@@ -908,6 +902,9 @@
   </x:si>
   <x:si>
     <x:t>St. Louis</x:t>
+  </x:si>
+  <x:si>
+    <x:t>133</x:t>
   </x:si>
   <x:si>
     <x:t>172</x:t>
@@ -935,6 +932,9 @@
   </x:si>
   <x:si>
     <x:t>144</x:t>
+  </x:si>
+  <x:si>
+    <x:t>107</x:t>
   </x:si>
   <x:si>
     <x:t>211</x:t>
@@ -20679,7 +20679,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D665" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E665" s="1" t="s">
         <x:v>13</x:v>
@@ -20708,7 +20708,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="D666" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E666" s="1" t="s">
         <x:v>14</x:v>
@@ -27213,7 +27213,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="G890" s="1" t="s">
-        <x:v>279</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H890" s="1" t="s">
         <x:v>73</x:v>
@@ -27253,7 +27253,7 @@
     </x:row>
     <x:row r="892" spans="1:9">
       <x:c r="A892" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B892" s="0" t="s">
         <x:v>10</x:v>
@@ -27282,7 +27282,7 @@
     </x:row>
     <x:row r="893" spans="1:9">
       <x:c r="A893" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B893" s="0" t="s">
         <x:v>10</x:v>
@@ -27311,7 +27311,7 @@
     </x:row>
     <x:row r="894" spans="1:9">
       <x:c r="A894" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B894" s="0" t="s">
         <x:v>10</x:v>
@@ -27340,7 +27340,7 @@
     </x:row>
     <x:row r="895" spans="1:9">
       <x:c r="A895" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B895" s="0" t="s">
         <x:v>23</x:v>
@@ -27369,7 +27369,7 @@
     </x:row>
     <x:row r="896" spans="1:9">
       <x:c r="A896" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B896" s="0" t="s">
         <x:v>23</x:v>
@@ -27398,7 +27398,7 @@
     </x:row>
     <x:row r="897" spans="1:9">
       <x:c r="A897" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B897" s="0" t="s">
         <x:v>23</x:v>
@@ -27427,7 +27427,7 @@
     </x:row>
     <x:row r="898" spans="1:9">
       <x:c r="A898" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B898" s="0" t="s">
         <x:v>27</x:v>
@@ -27456,7 +27456,7 @@
     </x:row>
     <x:row r="899" spans="1:9">
       <x:c r="A899" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B899" s="0" t="s">
         <x:v>27</x:v>
@@ -27485,7 +27485,7 @@
     </x:row>
     <x:row r="900" spans="1:9">
       <x:c r="A900" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B900" s="0" t="s">
         <x:v>27</x:v>
@@ -27514,7 +27514,7 @@
     </x:row>
     <x:row r="901" spans="1:9">
       <x:c r="A901" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B901" s="0" t="s">
         <x:v>31</x:v>
@@ -27543,7 +27543,7 @@
     </x:row>
     <x:row r="902" spans="1:9">
       <x:c r="A902" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B902" s="0" t="s">
         <x:v>31</x:v>
@@ -27572,7 +27572,7 @@
     </x:row>
     <x:row r="903" spans="1:9">
       <x:c r="A903" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B903" s="0" t="s">
         <x:v>31</x:v>
@@ -27601,7 +27601,7 @@
     </x:row>
     <x:row r="904" spans="1:9">
       <x:c r="A904" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B904" s="0" t="s">
         <x:v>10</x:v>
@@ -27630,7 +27630,7 @@
     </x:row>
     <x:row r="905" spans="1:9">
       <x:c r="A905" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B905" s="0" t="s">
         <x:v>10</x:v>
@@ -27659,7 +27659,7 @@
     </x:row>
     <x:row r="906" spans="1:9">
       <x:c r="A906" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B906" s="0" t="s">
         <x:v>10</x:v>
@@ -27688,7 +27688,7 @@
     </x:row>
     <x:row r="907" spans="1:9">
       <x:c r="A907" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B907" s="0" t="s">
         <x:v>23</x:v>
@@ -27717,7 +27717,7 @@
     </x:row>
     <x:row r="908" spans="1:9">
       <x:c r="A908" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B908" s="0" t="s">
         <x:v>23</x:v>
@@ -27746,7 +27746,7 @@
     </x:row>
     <x:row r="909" spans="1:9">
       <x:c r="A909" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B909" s="0" t="s">
         <x:v>23</x:v>
@@ -27775,7 +27775,7 @@
     </x:row>
     <x:row r="910" spans="1:9">
       <x:c r="A910" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B910" s="0" t="s">
         <x:v>27</x:v>
@@ -27804,7 +27804,7 @@
     </x:row>
     <x:row r="911" spans="1:9">
       <x:c r="A911" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B911" s="0" t="s">
         <x:v>27</x:v>
@@ -27833,7 +27833,7 @@
     </x:row>
     <x:row r="912" spans="1:9">
       <x:c r="A912" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B912" s="0" t="s">
         <x:v>27</x:v>
@@ -27862,7 +27862,7 @@
     </x:row>
     <x:row r="913" spans="1:9">
       <x:c r="A913" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B913" s="0" t="s">
         <x:v>31</x:v>
@@ -27891,7 +27891,7 @@
     </x:row>
     <x:row r="914" spans="1:9">
       <x:c r="A914" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B914" s="0" t="s">
         <x:v>31</x:v>
@@ -27920,7 +27920,7 @@
     </x:row>
     <x:row r="915" spans="1:9">
       <x:c r="A915" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B915" s="0" t="s">
         <x:v>31</x:v>
@@ -27949,7 +27949,7 @@
     </x:row>
     <x:row r="916" spans="1:9">
       <x:c r="A916" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B916" s="0" t="s">
         <x:v>32</x:v>
@@ -27978,7 +27978,7 @@
     </x:row>
     <x:row r="917" spans="1:9">
       <x:c r="A917" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B917" s="0" t="s">
         <x:v>32</x:v>
@@ -28007,7 +28007,7 @@
     </x:row>
     <x:row r="918" spans="1:9">
       <x:c r="A918" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B918" s="0" t="s">
         <x:v>10</x:v>
@@ -28036,7 +28036,7 @@
     </x:row>
     <x:row r="919" spans="1:9">
       <x:c r="A919" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B919" s="0" t="s">
         <x:v>10</x:v>
@@ -28065,7 +28065,7 @@
     </x:row>
     <x:row r="920" spans="1:9">
       <x:c r="A920" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B920" s="0" t="s">
         <x:v>10</x:v>
@@ -28094,7 +28094,7 @@
     </x:row>
     <x:row r="921" spans="1:9">
       <x:c r="A921" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B921" s="0" t="s">
         <x:v>23</x:v>
@@ -28123,7 +28123,7 @@
     </x:row>
     <x:row r="922" spans="1:9">
       <x:c r="A922" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B922" s="0" t="s">
         <x:v>23</x:v>
@@ -28152,7 +28152,7 @@
     </x:row>
     <x:row r="923" spans="1:9">
       <x:c r="A923" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B923" s="0" t="s">
         <x:v>23</x:v>
@@ -28181,7 +28181,7 @@
     </x:row>
     <x:row r="924" spans="1:9">
       <x:c r="A924" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B924" s="0" t="s">
         <x:v>27</x:v>
@@ -28210,7 +28210,7 @@
     </x:row>
     <x:row r="925" spans="1:9">
       <x:c r="A925" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B925" s="0" t="s">
         <x:v>27</x:v>
@@ -28239,7 +28239,7 @@
     </x:row>
     <x:row r="926" spans="1:9">
       <x:c r="A926" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B926" s="0" t="s">
         <x:v>27</x:v>
@@ -28268,7 +28268,7 @@
     </x:row>
     <x:row r="927" spans="1:9">
       <x:c r="A927" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B927" s="0" t="s">
         <x:v>31</x:v>
@@ -28297,7 +28297,7 @@
     </x:row>
     <x:row r="928" spans="1:9">
       <x:c r="A928" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B928" s="0" t="s">
         <x:v>31</x:v>
@@ -28326,7 +28326,7 @@
     </x:row>
     <x:row r="929" spans="1:9">
       <x:c r="A929" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B929" s="0" t="s">
         <x:v>10</x:v>
@@ -28355,7 +28355,7 @@
     </x:row>
     <x:row r="930" spans="1:9">
       <x:c r="A930" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B930" s="0" t="s">
         <x:v>10</x:v>
@@ -28384,7 +28384,7 @@
     </x:row>
     <x:row r="931" spans="1:9">
       <x:c r="A931" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B931" s="0" t="s">
         <x:v>10</x:v>
@@ -28413,7 +28413,7 @@
     </x:row>
     <x:row r="932" spans="1:9">
       <x:c r="A932" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B932" s="0" t="s">
         <x:v>47</x:v>
@@ -28442,7 +28442,7 @@
     </x:row>
     <x:row r="933" spans="1:9">
       <x:c r="A933" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B933" s="0" t="s">
         <x:v>47</x:v>
@@ -28471,7 +28471,7 @@
     </x:row>
     <x:row r="934" spans="1:9">
       <x:c r="A934" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B934" s="0" t="s">
         <x:v>47</x:v>
@@ -28500,7 +28500,7 @@
     </x:row>
     <x:row r="935" spans="1:9">
       <x:c r="A935" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B935" s="0" t="s">
         <x:v>23</x:v>
@@ -28529,7 +28529,7 @@
     </x:row>
     <x:row r="936" spans="1:9">
       <x:c r="A936" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B936" s="0" t="s">
         <x:v>23</x:v>
@@ -28558,7 +28558,7 @@
     </x:row>
     <x:row r="937" spans="1:9">
       <x:c r="A937" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B937" s="0" t="s">
         <x:v>23</x:v>
@@ -28587,7 +28587,7 @@
     </x:row>
     <x:row r="938" spans="1:9">
       <x:c r="A938" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B938" s="0" t="s">
         <x:v>27</x:v>
@@ -28616,7 +28616,7 @@
     </x:row>
     <x:row r="939" spans="1:9">
       <x:c r="A939" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B939" s="0" t="s">
         <x:v>27</x:v>
@@ -28645,7 +28645,7 @@
     </x:row>
     <x:row r="940" spans="1:9">
       <x:c r="A940" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B940" s="0" t="s">
         <x:v>27</x:v>
@@ -28674,7 +28674,7 @@
     </x:row>
     <x:row r="941" spans="1:9">
       <x:c r="A941" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B941" s="0" t="s">
         <x:v>31</x:v>
@@ -28703,7 +28703,7 @@
     </x:row>
     <x:row r="942" spans="1:9">
       <x:c r="A942" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B942" s="0" t="s">
         <x:v>31</x:v>
@@ -28732,7 +28732,7 @@
     </x:row>
     <x:row r="943" spans="1:9">
       <x:c r="A943" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B943" s="0" t="s">
         <x:v>31</x:v>
@@ -28761,7 +28761,7 @@
     </x:row>
     <x:row r="944" spans="1:9">
       <x:c r="A944" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B944" s="0" t="s">
         <x:v>32</x:v>
@@ -28790,7 +28790,7 @@
     </x:row>
     <x:row r="945" spans="1:9">
       <x:c r="A945" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B945" s="0" t="s">
         <x:v>32</x:v>
@@ -28819,7 +28819,7 @@
     </x:row>
     <x:row r="946" spans="1:9">
       <x:c r="A946" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B946" s="0" t="s">
         <x:v>32</x:v>
@@ -28848,7 +28848,7 @@
     </x:row>
     <x:row r="947" spans="1:9">
       <x:c r="A947" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B947" s="0" t="s">
         <x:v>10</x:v>
@@ -28877,7 +28877,7 @@
     </x:row>
     <x:row r="948" spans="1:9">
       <x:c r="A948" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B948" s="0" t="s">
         <x:v>10</x:v>
@@ -28906,7 +28906,7 @@
     </x:row>
     <x:row r="949" spans="1:9">
       <x:c r="A949" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B949" s="0" t="s">
         <x:v>10</x:v>
@@ -28935,7 +28935,7 @@
     </x:row>
     <x:row r="950" spans="1:9">
       <x:c r="A950" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B950" s="0" t="s">
         <x:v>23</x:v>
@@ -28964,7 +28964,7 @@
     </x:row>
     <x:row r="951" spans="1:9">
       <x:c r="A951" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B951" s="0" t="s">
         <x:v>23</x:v>
@@ -28993,7 +28993,7 @@
     </x:row>
     <x:row r="952" spans="1:9">
       <x:c r="A952" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B952" s="0" t="s">
         <x:v>23</x:v>
@@ -29022,7 +29022,7 @@
     </x:row>
     <x:row r="953" spans="1:9">
       <x:c r="A953" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B953" s="0" t="s">
         <x:v>27</x:v>
@@ -29051,7 +29051,7 @@
     </x:row>
     <x:row r="954" spans="1:9">
       <x:c r="A954" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B954" s="0" t="s">
         <x:v>27</x:v>
@@ -29080,7 +29080,7 @@
     </x:row>
     <x:row r="955" spans="1:9">
       <x:c r="A955" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B955" s="0" t="s">
         <x:v>27</x:v>
@@ -29109,7 +29109,7 @@
     </x:row>
     <x:row r="956" spans="1:9">
       <x:c r="A956" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B956" s="0" t="s">
         <x:v>10</x:v>
@@ -29138,7 +29138,7 @@
     </x:row>
     <x:row r="957" spans="1:9">
       <x:c r="A957" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B957" s="0" t="s">
         <x:v>10</x:v>
@@ -29167,7 +29167,7 @@
     </x:row>
     <x:row r="958" spans="1:9">
       <x:c r="A958" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B958" s="0" t="s">
         <x:v>10</x:v>
@@ -29196,7 +29196,7 @@
     </x:row>
     <x:row r="959" spans="1:9">
       <x:c r="A959" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B959" s="0" t="s">
         <x:v>47</x:v>
@@ -29225,7 +29225,7 @@
     </x:row>
     <x:row r="960" spans="1:9">
       <x:c r="A960" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B960" s="0" t="s">
         <x:v>47</x:v>
@@ -29254,7 +29254,7 @@
     </x:row>
     <x:row r="961" spans="1:9">
       <x:c r="A961" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B961" s="0" t="s">
         <x:v>47</x:v>
@@ -29283,7 +29283,7 @@
     </x:row>
     <x:row r="962" spans="1:9">
       <x:c r="A962" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B962" s="0" t="s">
         <x:v>23</x:v>
@@ -29312,7 +29312,7 @@
     </x:row>
     <x:row r="963" spans="1:9">
       <x:c r="A963" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B963" s="0" t="s">
         <x:v>23</x:v>
@@ -29341,7 +29341,7 @@
     </x:row>
     <x:row r="964" spans="1:9">
       <x:c r="A964" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B964" s="0" t="s">
         <x:v>23</x:v>
@@ -29370,7 +29370,7 @@
     </x:row>
     <x:row r="965" spans="1:9">
       <x:c r="A965" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B965" s="0" t="s">
         <x:v>27</x:v>
@@ -29399,7 +29399,7 @@
     </x:row>
     <x:row r="966" spans="1:9">
       <x:c r="A966" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B966" s="0" t="s">
         <x:v>27</x:v>
@@ -29428,7 +29428,7 @@
     </x:row>
     <x:row r="967" spans="1:9">
       <x:c r="A967" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B967" s="0" t="s">
         <x:v>27</x:v>
@@ -29457,7 +29457,7 @@
     </x:row>
     <x:row r="968" spans="1:9">
       <x:c r="A968" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B968" s="0" t="s">
         <x:v>31</x:v>
@@ -29486,7 +29486,7 @@
     </x:row>
     <x:row r="969" spans="1:9">
       <x:c r="A969" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B969" s="0" t="s">
         <x:v>31</x:v>
@@ -29515,7 +29515,7 @@
     </x:row>
     <x:row r="970" spans="1:9">
       <x:c r="A970" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B970" s="0" t="s">
         <x:v>31</x:v>
@@ -29544,7 +29544,7 @@
     </x:row>
     <x:row r="971" spans="1:9">
       <x:c r="A971" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B971" s="0" t="s">
         <x:v>32</x:v>
@@ -29573,7 +29573,7 @@
     </x:row>
     <x:row r="972" spans="1:9">
       <x:c r="A972" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B972" s="0" t="s">
         <x:v>32</x:v>
@@ -29602,7 +29602,7 @@
     </x:row>
     <x:row r="973" spans="1:9">
       <x:c r="A973" s="0" t="s">
-        <x:v>286</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B973" s="0" t="s">
         <x:v>10</x:v>
@@ -29631,7 +29631,7 @@
     </x:row>
     <x:row r="974" spans="1:9">
       <x:c r="A974" s="0" t="s">
-        <x:v>286</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B974" s="0" t="s">
         <x:v>10</x:v>
@@ -29660,7 +29660,7 @@
     </x:row>
     <x:row r="975" spans="1:9">
       <x:c r="A975" s="0" t="s">
-        <x:v>286</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B975" s="0" t="s">
         <x:v>10</x:v>
@@ -29675,7 +29675,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="F975" s="1" t="s">
-        <x:v>287</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="G975" s="1" t="s">
         <x:v>63</x:v>
@@ -29689,7 +29689,7 @@
     </x:row>
     <x:row r="976" spans="1:9">
       <x:c r="A976" s="0" t="s">
-        <x:v>286</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B976" s="0" t="s">
         <x:v>47</x:v>
@@ -29718,7 +29718,7 @@
     </x:row>
     <x:row r="977" spans="1:9">
       <x:c r="A977" s="0" t="s">
-        <x:v>286</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B977" s="0" t="s">
         <x:v>47</x:v>
@@ -29747,7 +29747,7 @@
     </x:row>
     <x:row r="978" spans="1:9">
       <x:c r="A978" s="0" t="s">
-        <x:v>286</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B978" s="0" t="s">
         <x:v>47</x:v>
@@ -29776,7 +29776,7 @@
     </x:row>
     <x:row r="979" spans="1:9">
       <x:c r="A979" s="0" t="s">
-        <x:v>286</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B979" s="0" t="s">
         <x:v>23</x:v>
@@ -29805,7 +29805,7 @@
     </x:row>
     <x:row r="980" spans="1:9">
       <x:c r="A980" s="0" t="s">
-        <x:v>286</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B980" s="0" t="s">
         <x:v>23</x:v>
@@ -29834,7 +29834,7 @@
     </x:row>
     <x:row r="981" spans="1:9">
       <x:c r="A981" s="0" t="s">
-        <x:v>286</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B981" s="0" t="s">
         <x:v>23</x:v>
@@ -29863,7 +29863,7 @@
     </x:row>
     <x:row r="982" spans="1:9">
       <x:c r="A982" s="0" t="s">
-        <x:v>286</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B982" s="0" t="s">
         <x:v>27</x:v>
@@ -29892,7 +29892,7 @@
     </x:row>
     <x:row r="983" spans="1:9">
       <x:c r="A983" s="0" t="s">
-        <x:v>286</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B983" s="0" t="s">
         <x:v>27</x:v>
@@ -29907,7 +29907,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="F983" s="1" t="s">
-        <x:v>288</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="G983" s="1" t="s">
         <x:v>189</x:v>
@@ -29921,7 +29921,7 @@
     </x:row>
     <x:row r="984" spans="1:9">
       <x:c r="A984" s="0" t="s">
-        <x:v>286</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B984" s="0" t="s">
         <x:v>27</x:v>
@@ -29936,7 +29936,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="F984" s="1" t="s">
-        <x:v>289</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="G984" s="1" t="s">
         <x:v>128</x:v>
@@ -29950,7 +29950,7 @@
     </x:row>
     <x:row r="985" spans="1:9">
       <x:c r="A985" s="0" t="s">
-        <x:v>286</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B985" s="0" t="s">
         <x:v>65</x:v>
@@ -29979,7 +29979,7 @@
     </x:row>
     <x:row r="986" spans="1:9">
       <x:c r="A986" s="0" t="s">
-        <x:v>286</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B986" s="0" t="s">
         <x:v>65</x:v>
@@ -30008,7 +30008,7 @@
     </x:row>
     <x:row r="987" spans="1:9">
       <x:c r="A987" s="0" t="s">
-        <x:v>286</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B987" s="0" t="s">
         <x:v>65</x:v>
@@ -30037,7 +30037,7 @@
     </x:row>
     <x:row r="988" spans="1:9">
       <x:c r="A988" s="0" t="s">
-        <x:v>286</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B988" s="0" t="s">
         <x:v>31</x:v>
@@ -30066,7 +30066,7 @@
     </x:row>
     <x:row r="989" spans="1:9">
       <x:c r="A989" s="0" t="s">
-        <x:v>286</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B989" s="0" t="s">
         <x:v>31</x:v>
@@ -30078,7 +30078,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="E989" s="1" t="s">
-        <x:v>290</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="F989" s="1" t="s">
         <x:v>20</x:v>
@@ -30095,7 +30095,7 @@
     </x:row>
     <x:row r="990" spans="1:9">
       <x:c r="A990" s="0" t="s">
-        <x:v>286</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B990" s="0" t="s">
         <x:v>31</x:v>
@@ -30107,7 +30107,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E990" s="1" t="s">
-        <x:v>291</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="F990" s="1" t="s">
         <x:v>20</x:v>
@@ -30124,7 +30124,7 @@
     </x:row>
     <x:row r="991" spans="1:9">
       <x:c r="A991" s="0" t="s">
-        <x:v>286</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B991" s="0" t="s">
         <x:v>32</x:v>
@@ -30153,7 +30153,7 @@
     </x:row>
     <x:row r="992" spans="1:9">
       <x:c r="A992" s="0" t="s">
-        <x:v>286</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B992" s="0" t="s">
         <x:v>32</x:v>
@@ -30171,7 +30171,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="G992" s="1" t="s">
-        <x:v>292</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H992" s="1" t="s">
         <x:v>78</x:v>
@@ -30182,7 +30182,7 @@
     </x:row>
     <x:row r="993" spans="1:9">
       <x:c r="A993" s="0" t="s">
-        <x:v>286</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B993" s="0" t="s">
         <x:v>32</x:v>
@@ -30200,7 +30200,7 @@
         <x:v>168</x:v>
       </x:c>
       <x:c r="G993" s="1" t="s">
-        <x:v>293</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="H993" s="1" t="s">
         <x:v>119</x:v>
@@ -30211,7 +30211,7 @@
     </x:row>
     <x:row r="994" spans="1:9">
       <x:c r="A994" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B994" s="0" t="s">
         <x:v>10</x:v>
@@ -30240,7 +30240,7 @@
     </x:row>
     <x:row r="995" spans="1:9">
       <x:c r="A995" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B995" s="0" t="s">
         <x:v>10</x:v>
@@ -30269,7 +30269,7 @@
     </x:row>
     <x:row r="996" spans="1:9">
       <x:c r="A996" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B996" s="0" t="s">
         <x:v>10</x:v>
@@ -30298,10 +30298,10 @@
     </x:row>
     <x:row r="997" spans="1:9">
       <x:c r="A997" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B997" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="C997" s="1" t="s">
         <x:v>16</x:v>
@@ -30327,10 +30327,10 @@
     </x:row>
     <x:row r="998" spans="1:9">
       <x:c r="A998" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B998" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="C998" s="1" t="s">
         <x:v>19</x:v>
@@ -30356,7 +30356,7 @@
     </x:row>
     <x:row r="999" spans="1:9">
       <x:c r="A999" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B999" s="0" t="s">
         <x:v>47</x:v>
@@ -30385,7 +30385,7 @@
     </x:row>
     <x:row r="1000" spans="1:9">
       <x:c r="A1000" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B1000" s="0" t="s">
         <x:v>47</x:v>
@@ -30414,7 +30414,7 @@
     </x:row>
     <x:row r="1001" spans="1:9">
       <x:c r="A1001" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B1001" s="0" t="s">
         <x:v>47</x:v>
@@ -30443,7 +30443,7 @@
     </x:row>
     <x:row r="1002" spans="1:9">
       <x:c r="A1002" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B1002" s="0" t="s">
         <x:v>23</x:v>
@@ -30472,7 +30472,7 @@
     </x:row>
     <x:row r="1003" spans="1:9">
       <x:c r="A1003" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B1003" s="0" t="s">
         <x:v>23</x:v>
@@ -30501,7 +30501,7 @@
     </x:row>
     <x:row r="1004" spans="1:9">
       <x:c r="A1004" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B1004" s="0" t="s">
         <x:v>23</x:v>
@@ -30530,7 +30530,7 @@
     </x:row>
     <x:row r="1005" spans="1:9">
       <x:c r="A1005" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B1005" s="0" t="s">
         <x:v>27</x:v>
@@ -30559,7 +30559,7 @@
     </x:row>
     <x:row r="1006" spans="1:9">
       <x:c r="A1006" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B1006" s="0" t="s">
         <x:v>27</x:v>
@@ -30588,7 +30588,7 @@
     </x:row>
     <x:row r="1007" spans="1:9">
       <x:c r="A1007" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B1007" s="0" t="s">
         <x:v>27</x:v>
@@ -30617,7 +30617,7 @@
     </x:row>
     <x:row r="1008" spans="1:9">
       <x:c r="A1008" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B1008" s="0" t="s">
         <x:v>65</x:v>
@@ -30646,7 +30646,7 @@
     </x:row>
     <x:row r="1009" spans="1:9">
       <x:c r="A1009" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B1009" s="0" t="s">
         <x:v>65</x:v>
@@ -30675,7 +30675,7 @@
     </x:row>
     <x:row r="1010" spans="1:9">
       <x:c r="A1010" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B1010" s="0" t="s">
         <x:v>65</x:v>
@@ -30704,7 +30704,7 @@
     </x:row>
     <x:row r="1011" spans="1:9">
       <x:c r="A1011" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B1011" s="0" t="s">
         <x:v>31</x:v>
@@ -30733,7 +30733,7 @@
     </x:row>
     <x:row r="1012" spans="1:9">
       <x:c r="A1012" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B1012" s="0" t="s">
         <x:v>31</x:v>
@@ -30762,7 +30762,7 @@
     </x:row>
     <x:row r="1013" spans="1:9">
       <x:c r="A1013" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B1013" s="0" t="s">
         <x:v>31</x:v>
@@ -30791,7 +30791,7 @@
     </x:row>
     <x:row r="1014" spans="1:9">
       <x:c r="A1014" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B1014" s="0" t="s">
         <x:v>32</x:v>
@@ -30820,7 +30820,7 @@
     </x:row>
     <x:row r="1015" spans="1:9">
       <x:c r="A1015" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B1015" s="0" t="s">
         <x:v>32</x:v>
@@ -30849,7 +30849,7 @@
     </x:row>
     <x:row r="1016" spans="1:9">
       <x:c r="A1016" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B1016" s="0" t="s">
         <x:v>32</x:v>
@@ -30878,7 +30878,7 @@
     </x:row>
     <x:row r="1017" spans="1:9">
       <x:c r="A1017" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1017" s="0" t="s">
         <x:v>10</x:v>
@@ -30907,7 +30907,7 @@
     </x:row>
     <x:row r="1018" spans="1:9">
       <x:c r="A1018" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1018" s="0" t="s">
         <x:v>10</x:v>
@@ -30936,7 +30936,7 @@
     </x:row>
     <x:row r="1019" spans="1:9">
       <x:c r="A1019" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1019" s="0" t="s">
         <x:v>10</x:v>
@@ -30965,7 +30965,7 @@
     </x:row>
     <x:row r="1020" spans="1:9">
       <x:c r="A1020" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1020" s="0" t="s">
         <x:v>47</x:v>
@@ -30994,7 +30994,7 @@
     </x:row>
     <x:row r="1021" spans="1:9">
       <x:c r="A1021" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1021" s="0" t="s">
         <x:v>47</x:v>
@@ -31023,7 +31023,7 @@
     </x:row>
     <x:row r="1022" spans="1:9">
       <x:c r="A1022" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1022" s="0" t="s">
         <x:v>23</x:v>
@@ -31052,7 +31052,7 @@
     </x:row>
     <x:row r="1023" spans="1:9">
       <x:c r="A1023" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1023" s="0" t="s">
         <x:v>23</x:v>
@@ -31081,7 +31081,7 @@
     </x:row>
     <x:row r="1024" spans="1:9">
       <x:c r="A1024" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1024" s="0" t="s">
         <x:v>23</x:v>
@@ -31110,7 +31110,7 @@
     </x:row>
     <x:row r="1025" spans="1:9">
       <x:c r="A1025" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1025" s="0" t="s">
         <x:v>27</x:v>
@@ -31139,7 +31139,7 @@
     </x:row>
     <x:row r="1026" spans="1:9">
       <x:c r="A1026" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1026" s="0" t="s">
         <x:v>27</x:v>
@@ -31168,7 +31168,7 @@
     </x:row>
     <x:row r="1027" spans="1:9">
       <x:c r="A1027" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1027" s="0" t="s">
         <x:v>27</x:v>
@@ -31197,7 +31197,7 @@
     </x:row>
     <x:row r="1028" spans="1:9">
       <x:c r="A1028" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1028" s="0" t="s">
         <x:v>31</x:v>
@@ -31226,7 +31226,7 @@
     </x:row>
     <x:row r="1029" spans="1:9">
       <x:c r="A1029" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1029" s="0" t="s">
         <x:v>31</x:v>
@@ -31255,7 +31255,7 @@
     </x:row>
     <x:row r="1030" spans="1:9">
       <x:c r="A1030" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1030" s="0" t="s">
         <x:v>31</x:v>
@@ -31284,7 +31284,7 @@
     </x:row>
     <x:row r="1031" spans="1:9">
       <x:c r="A1031" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1031" s="0" t="s">
         <x:v>32</x:v>
@@ -31313,7 +31313,7 @@
     </x:row>
     <x:row r="1032" spans="1:9">
       <x:c r="A1032" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1032" s="0" t="s">
         <x:v>32</x:v>
@@ -31342,7 +31342,7 @@
     </x:row>
     <x:row r="1033" spans="1:9">
       <x:c r="A1033" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1033" s="0" t="s">
         <x:v>32</x:v>
@@ -31371,7 +31371,7 @@
     </x:row>
     <x:row r="1034" spans="1:9">
       <x:c r="A1034" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1034" s="0" t="s">
         <x:v>10</x:v>
@@ -31400,7 +31400,7 @@
     </x:row>
     <x:row r="1035" spans="1:9">
       <x:c r="A1035" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1035" s="0" t="s">
         <x:v>10</x:v>
@@ -31415,7 +31415,7 @@
         <x:v>248</x:v>
       </x:c>
       <x:c r="F1035" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="G1035" s="1" t="s">
         <x:v>240</x:v>
@@ -31429,7 +31429,7 @@
     </x:row>
     <x:row r="1036" spans="1:9">
       <x:c r="A1036" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1036" s="0" t="s">
         <x:v>10</x:v>
@@ -31444,13 +31444,13 @@
         <x:v>273</x:v>
       </x:c>
       <x:c r="F1036" s="1" t="s">
+        <x:v>297</x:v>
+      </x:c>
+      <x:c r="G1036" s="1" t="s">
         <x:v>298</x:v>
       </x:c>
-      <x:c r="G1036" s="1" t="s">
+      <x:c r="H1036" s="1" t="s">
         <x:v>299</x:v>
-      </x:c>
-      <x:c r="H1036" s="1" t="s">
-        <x:v>300</x:v>
       </x:c>
       <x:c r="I1036" s="0" t="s">
         <x:v>12</x:v>
@@ -31458,7 +31458,7 @@
     </x:row>
     <x:row r="1037" spans="1:9">
       <x:c r="A1037" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1037" s="0" t="s">
         <x:v>47</x:v>
@@ -31487,7 +31487,7 @@
     </x:row>
     <x:row r="1038" spans="1:9">
       <x:c r="A1038" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1038" s="0" t="s">
         <x:v>47</x:v>
@@ -31516,7 +31516,7 @@
     </x:row>
     <x:row r="1039" spans="1:9">
       <x:c r="A1039" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1039" s="0" t="s">
         <x:v>47</x:v>
@@ -31545,7 +31545,7 @@
     </x:row>
     <x:row r="1040" spans="1:9">
       <x:c r="A1040" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1040" s="0" t="s">
         <x:v>23</x:v>
@@ -31574,7 +31574,7 @@
     </x:row>
     <x:row r="1041" spans="1:9">
       <x:c r="A1041" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1041" s="0" t="s">
         <x:v>23</x:v>
@@ -31603,7 +31603,7 @@
     </x:row>
     <x:row r="1042" spans="1:9">
       <x:c r="A1042" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1042" s="0" t="s">
         <x:v>23</x:v>
@@ -31632,7 +31632,7 @@
     </x:row>
     <x:row r="1043" spans="1:9">
       <x:c r="A1043" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1043" s="0" t="s">
         <x:v>27</x:v>
@@ -31661,7 +31661,7 @@
     </x:row>
     <x:row r="1044" spans="1:9">
       <x:c r="A1044" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1044" s="0" t="s">
         <x:v>27</x:v>
@@ -31679,7 +31679,7 @@
         <x:v>264</x:v>
       </x:c>
       <x:c r="G1044" s="1" t="s">
-        <x:v>292</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H1044" s="1" t="s">
         <x:v>201</x:v>
@@ -31690,7 +31690,7 @@
     </x:row>
     <x:row r="1045" spans="1:9">
       <x:c r="A1045" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1045" s="0" t="s">
         <x:v>27</x:v>
@@ -31702,7 +31702,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E1045" s="1" t="s">
-        <x:v>301</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="F1045" s="1" t="s">
         <x:v>86</x:v>
@@ -31719,7 +31719,7 @@
     </x:row>
     <x:row r="1046" spans="1:9">
       <x:c r="A1046" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1046" s="0" t="s">
         <x:v>65</x:v>
@@ -31748,7 +31748,7 @@
     </x:row>
     <x:row r="1047" spans="1:9">
       <x:c r="A1047" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1047" s="0" t="s">
         <x:v>65</x:v>
@@ -31777,7 +31777,7 @@
     </x:row>
     <x:row r="1048" spans="1:9">
       <x:c r="A1048" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1048" s="0" t="s">
         <x:v>65</x:v>
@@ -31806,7 +31806,7 @@
     </x:row>
     <x:row r="1049" spans="1:9">
       <x:c r="A1049" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1049" s="0" t="s">
         <x:v>31</x:v>
@@ -31835,7 +31835,7 @@
     </x:row>
     <x:row r="1050" spans="1:9">
       <x:c r="A1050" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1050" s="0" t="s">
         <x:v>31</x:v>
@@ -31864,7 +31864,7 @@
     </x:row>
     <x:row r="1051" spans="1:9">
       <x:c r="A1051" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1051" s="0" t="s">
         <x:v>31</x:v>
@@ -31893,7 +31893,7 @@
     </x:row>
     <x:row r="1052" spans="1:9">
       <x:c r="A1052" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1052" s="0" t="s">
         <x:v>32</x:v>
@@ -31922,7 +31922,7 @@
     </x:row>
     <x:row r="1053" spans="1:9">
       <x:c r="A1053" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1053" s="0" t="s">
         <x:v>32</x:v>
@@ -31951,7 +31951,7 @@
     </x:row>
     <x:row r="1054" spans="1:9">
       <x:c r="A1054" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B1054" s="0" t="s">
         <x:v>32</x:v>
@@ -31980,7 +31980,7 @@
     </x:row>
     <x:row r="1055" spans="1:9">
       <x:c r="A1055" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B1055" s="0" t="s">
         <x:v>10</x:v>
@@ -32009,7 +32009,7 @@
     </x:row>
     <x:row r="1056" spans="1:9">
       <x:c r="A1056" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B1056" s="0" t="s">
         <x:v>10</x:v>
@@ -32021,13 +32021,13 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E1056" s="1" t="s">
+        <x:v>302</x:v>
+      </x:c>
+      <x:c r="F1056" s="1" t="s">
         <x:v>303</x:v>
       </x:c>
-      <x:c r="F1056" s="1" t="s">
+      <x:c r="G1056" s="1" t="s">
         <x:v>304</x:v>
-      </x:c>
-      <x:c r="G1056" s="1" t="s">
-        <x:v>305</x:v>
       </x:c>
       <x:c r="H1056" s="1" t="s">
         <x:v>107</x:v>
@@ -32038,7 +32038,7 @@
     </x:row>
     <x:row r="1057" spans="1:9">
       <x:c r="A1057" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B1057" s="0" t="s">
         <x:v>10</x:v>
@@ -32059,7 +32059,7 @@
         <x:v>274</x:v>
       </x:c>
       <x:c r="H1057" s="1" t="s">
-        <x:v>306</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="I1057" s="0" t="s">
         <x:v>12</x:v>
@@ -32067,10 +32067,10 @@
     </x:row>
     <x:row r="1058" spans="1:9">
       <x:c r="A1058" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B1058" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="C1058" s="1" t="s">
         <x:v>11</x:v>
@@ -32096,10 +32096,10 @@
     </x:row>
     <x:row r="1059" spans="1:9">
       <x:c r="A1059" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B1059" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="C1059" s="1" t="s">
         <x:v>16</x:v>
@@ -32125,10 +32125,10 @@
     </x:row>
     <x:row r="1060" spans="1:9">
       <x:c r="A1060" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B1060" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="C1060" s="1" t="s">
         <x:v>19</x:v>
@@ -32154,7 +32154,7 @@
     </x:row>
     <x:row r="1061" spans="1:9">
       <x:c r="A1061" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B1061" s="0" t="s">
         <x:v>47</x:v>
@@ -32183,7 +32183,7 @@
     </x:row>
     <x:row r="1062" spans="1:9">
       <x:c r="A1062" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B1062" s="0" t="s">
         <x:v>47</x:v>
@@ -32212,7 +32212,7 @@
     </x:row>
     <x:row r="1063" spans="1:9">
       <x:c r="A1063" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B1063" s="0" t="s">
         <x:v>47</x:v>
@@ -32241,7 +32241,7 @@
     </x:row>
     <x:row r="1064" spans="1:9">
       <x:c r="A1064" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B1064" s="0" t="s">
         <x:v>23</x:v>
@@ -32270,7 +32270,7 @@
     </x:row>
     <x:row r="1065" spans="1:9">
       <x:c r="A1065" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B1065" s="0" t="s">
         <x:v>23</x:v>
@@ -32299,7 +32299,7 @@
     </x:row>
     <x:row r="1066" spans="1:9">
       <x:c r="A1066" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B1066" s="0" t="s">
         <x:v>23</x:v>
@@ -32328,7 +32328,7 @@
     </x:row>
     <x:row r="1067" spans="1:9">
       <x:c r="A1067" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B1067" s="0" t="s">
         <x:v>27</x:v>
@@ -32357,7 +32357,7 @@
     </x:row>
     <x:row r="1068" spans="1:9">
       <x:c r="A1068" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B1068" s="0" t="s">
         <x:v>27</x:v>
@@ -32378,7 +32378,7 @@
         <x:v>169</x:v>
       </x:c>
       <x:c r="H1068" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="I1068" s="0" t="s">
         <x:v>12</x:v>
@@ -32386,7 +32386,7 @@
     </x:row>
     <x:row r="1069" spans="1:9">
       <x:c r="A1069" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B1069" s="0" t="s">
         <x:v>27</x:v>
@@ -32398,7 +32398,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="E1069" s="1" t="s">
-        <x:v>304</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="F1069" s="1" t="s">
         <x:v>307</x:v>
@@ -32415,7 +32415,7 @@
     </x:row>
     <x:row r="1070" spans="1:9">
       <x:c r="A1070" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B1070" s="0" t="s">
         <x:v>310</x:v>
@@ -32444,7 +32444,7 @@
     </x:row>
     <x:row r="1071" spans="1:9">
       <x:c r="A1071" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B1071" s="0" t="s">
         <x:v>310</x:v>
@@ -32473,7 +32473,7 @@
     </x:row>
     <x:row r="1072" spans="1:9">
       <x:c r="A1072" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B1072" s="0" t="s">
         <x:v>310</x:v>
@@ -32502,7 +32502,7 @@
     </x:row>
     <x:row r="1073" spans="1:9">
       <x:c r="A1073" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B1073" s="0" t="s">
         <x:v>65</x:v>
@@ -32531,7 +32531,7 @@
     </x:row>
     <x:row r="1074" spans="1:9">
       <x:c r="A1074" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B1074" s="0" t="s">
         <x:v>65</x:v>
@@ -32560,7 +32560,7 @@
     </x:row>
     <x:row r="1075" spans="1:9">
       <x:c r="A1075" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B1075" s="0" t="s">
         <x:v>65</x:v>
@@ -32589,7 +32589,7 @@
     </x:row>
     <x:row r="1076" spans="1:9">
       <x:c r="A1076" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B1076" s="0" t="s">
         <x:v>31</x:v>
@@ -32618,7 +32618,7 @@
     </x:row>
     <x:row r="1077" spans="1:9">
       <x:c r="A1077" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B1077" s="0" t="s">
         <x:v>31</x:v>
@@ -32647,7 +32647,7 @@
     </x:row>
     <x:row r="1078" spans="1:9">
       <x:c r="A1078" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B1078" s="0" t="s">
         <x:v>31</x:v>
@@ -32676,7 +32676,7 @@
     </x:row>
     <x:row r="1079" spans="1:9">
       <x:c r="A1079" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B1079" s="0" t="s">
         <x:v>32</x:v>
@@ -32705,7 +32705,7 @@
     </x:row>
     <x:row r="1080" spans="1:9">
       <x:c r="A1080" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B1080" s="0" t="s">
         <x:v>32</x:v>
@@ -32734,7 +32734,7 @@
     </x:row>
     <x:row r="1081" spans="1:9">
       <x:c r="A1081" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B1081" s="0" t="s">
         <x:v>32</x:v>
@@ -32749,7 +32749,7 @@
         <x:v>311</x:v>
       </x:c>
       <x:c r="F1081" s="1" t="s">
-        <x:v>290</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="G1081" s="1" t="s">
         <x:v>254</x:v>
@@ -36333,7 +36333,7 @@
         <x:v>320</x:v>
       </x:c>
       <x:c r="B1205" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="C1205" s="1" t="s">
         <x:v>11</x:v>
@@ -36362,7 +36362,7 @@
         <x:v>320</x:v>
       </x:c>
       <x:c r="B1206" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="C1206" s="1" t="s">
         <x:v>19</x:v>
@@ -36632,7 +36632,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E1215" s="1" t="s">
-        <x:v>287</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="F1215" s="1" t="s">
         <x:v>324</x:v>
@@ -36641,7 +36641,7 @@
         <x:v>325</x:v>
       </x:c>
       <x:c r="H1215" s="1" t="s">
-        <x:v>300</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="I1215" s="0" t="s">
         <x:v>12</x:v>
@@ -37435,7 +37435,7 @@
         <x:v>327</x:v>
       </x:c>
       <x:c r="B1243" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="C1243" s="1" t="s">
         <x:v>11</x:v>
@@ -37464,7 +37464,7 @@
         <x:v>327</x:v>
       </x:c>
       <x:c r="B1244" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="C1244" s="1" t="s">
         <x:v>19</x:v>
@@ -38053,7 +38053,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="E1264" s="1" t="s">
-        <x:v>287</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="F1264" s="1" t="s">
         <x:v>94</x:v>
@@ -38285,7 +38285,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E1272" s="1" t="s">
-        <x:v>279</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F1272" s="1" t="s">
         <x:v>84</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -304,10 +304,10 @@
     <x:t>136</x:t>
   </x:si>
   <x:si>
-    <x:t>248</x:t>
+    <x:t>249</x:t>
   </x:si>
   <x:si>
-    <x:t>192</x:t>
+    <x:t>193</x:t>
   </x:si>
   <x:si>
     <x:t>61</x:t>
@@ -316,10 +316,10 @@
     <x:t>169</x:t>
   </x:si>
   <x:si>
-    <x:t>320</x:t>
+    <x:t>321</x:t>
   </x:si>
   <x:si>
-    <x:t>261</x:t>
+    <x:t>262</x:t>
   </x:si>
   <x:si>
     <x:t>75</x:t>
@@ -802,9 +802,6 @@
     <x:t>Ramsey</x:t>
   </x:si>
   <x:si>
-    <x:t>193</x:t>
-  </x:si>
-  <x:si>
     <x:t>220</x:t>
   </x:si>
   <x:si>
@@ -929,6 +926,9 @@
   </x:si>
   <x:si>
     <x:t>232</x:t>
+  </x:si>
+  <x:si>
+    <x:t>261</x:t>
   </x:si>
   <x:si>
     <x:t>144</x:t>
@@ -26688,13 +26688,13 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="F872" s="1" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="G872" s="1" t="s">
         <x:v>262</x:v>
       </x:c>
-      <x:c r="G872" s="1" t="s">
+      <x:c r="H872" s="1" t="s">
         <x:v>263</x:v>
-      </x:c>
-      <x:c r="H872" s="1" t="s">
-        <x:v>264</x:v>
       </x:c>
       <x:c r="I872" s="0" t="s">
         <x:v>12</x:v>
@@ -26714,16 +26714,16 @@
         <x:v>168</x:v>
       </x:c>
       <x:c r="E873" s="1" t="s">
+        <x:v>264</x:v>
+      </x:c>
+      <x:c r="F873" s="1" t="s">
         <x:v>265</x:v>
       </x:c>
-      <x:c r="F873" s="1" t="s">
+      <x:c r="G873" s="1" t="s">
         <x:v>266</x:v>
       </x:c>
-      <x:c r="G873" s="1" t="s">
+      <x:c r="H873" s="1" t="s">
         <x:v>267</x:v>
-      </x:c>
-      <x:c r="H873" s="1" t="s">
-        <x:v>268</x:v>
       </x:c>
       <x:c r="I873" s="0" t="s">
         <x:v>13</x:v>
@@ -26743,16 +26743,16 @@
         <x:v>146</x:v>
       </x:c>
       <x:c r="E874" s="1" t="s">
+        <x:v>268</x:v>
+      </x:c>
+      <x:c r="F874" s="1" t="s">
         <x:v>269</x:v>
       </x:c>
-      <x:c r="F874" s="1" t="s">
+      <x:c r="G874" s="1" t="s">
         <x:v>270</x:v>
       </x:c>
-      <x:c r="G874" s="1" t="s">
+      <x:c r="H874" s="1" t="s">
         <x:v>271</x:v>
-      </x:c>
-      <x:c r="H874" s="1" t="s">
-        <x:v>272</x:v>
       </x:c>
       <x:c r="I874" s="0" t="s">
         <x:v>13</x:v>
@@ -26949,7 +26949,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="F881" s="1" t="s">
-        <x:v>273</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="G881" s="1" t="s">
         <x:v>108</x:v>
@@ -26978,7 +26978,7 @@
         <x:v>189</x:v>
       </x:c>
       <x:c r="F882" s="1" t="s">
-        <x:v>274</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="G882" s="1" t="s">
         <x:v>153</x:v>
@@ -27004,16 +27004,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E883" s="1" t="s">
+        <x:v>274</x:v>
+      </x:c>
+      <x:c r="F883" s="1" t="s">
         <x:v>275</x:v>
       </x:c>
-      <x:c r="F883" s="1" t="s">
+      <x:c r="G883" s="1" t="s">
         <x:v>276</x:v>
       </x:c>
-      <x:c r="G883" s="1" t="s">
+      <x:c r="H883" s="1" t="s">
         <x:v>277</x:v>
-      </x:c>
-      <x:c r="H883" s="1" t="s">
-        <x:v>278</x:v>
       </x:c>
       <x:c r="I883" s="0" t="s">
         <x:v>12</x:v>
@@ -27253,7 +27253,7 @@
     </x:row>
     <x:row r="892" spans="1:9">
       <x:c r="A892" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="B892" s="0" t="s">
         <x:v>10</x:v>
@@ -27282,7 +27282,7 @@
     </x:row>
     <x:row r="893" spans="1:9">
       <x:c r="A893" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="B893" s="0" t="s">
         <x:v>10</x:v>
@@ -27311,7 +27311,7 @@
     </x:row>
     <x:row r="894" spans="1:9">
       <x:c r="A894" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="B894" s="0" t="s">
         <x:v>10</x:v>
@@ -27340,7 +27340,7 @@
     </x:row>
     <x:row r="895" spans="1:9">
       <x:c r="A895" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="B895" s="0" t="s">
         <x:v>23</x:v>
@@ -27369,7 +27369,7 @@
     </x:row>
     <x:row r="896" spans="1:9">
       <x:c r="A896" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="B896" s="0" t="s">
         <x:v>23</x:v>
@@ -27398,7 +27398,7 @@
     </x:row>
     <x:row r="897" spans="1:9">
       <x:c r="A897" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="B897" s="0" t="s">
         <x:v>23</x:v>
@@ -27427,7 +27427,7 @@
     </x:row>
     <x:row r="898" spans="1:9">
       <x:c r="A898" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="B898" s="0" t="s">
         <x:v>27</x:v>
@@ -27456,7 +27456,7 @@
     </x:row>
     <x:row r="899" spans="1:9">
       <x:c r="A899" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="B899" s="0" t="s">
         <x:v>27</x:v>
@@ -27485,7 +27485,7 @@
     </x:row>
     <x:row r="900" spans="1:9">
       <x:c r="A900" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="B900" s="0" t="s">
         <x:v>27</x:v>
@@ -27514,7 +27514,7 @@
     </x:row>
     <x:row r="901" spans="1:9">
       <x:c r="A901" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="B901" s="0" t="s">
         <x:v>31</x:v>
@@ -27543,7 +27543,7 @@
     </x:row>
     <x:row r="902" spans="1:9">
       <x:c r="A902" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="B902" s="0" t="s">
         <x:v>31</x:v>
@@ -27572,7 +27572,7 @@
     </x:row>
     <x:row r="903" spans="1:9">
       <x:c r="A903" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="B903" s="0" t="s">
         <x:v>31</x:v>
@@ -27601,7 +27601,7 @@
     </x:row>
     <x:row r="904" spans="1:9">
       <x:c r="A904" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B904" s="0" t="s">
         <x:v>10</x:v>
@@ -27630,7 +27630,7 @@
     </x:row>
     <x:row r="905" spans="1:9">
       <x:c r="A905" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B905" s="0" t="s">
         <x:v>10</x:v>
@@ -27659,7 +27659,7 @@
     </x:row>
     <x:row r="906" spans="1:9">
       <x:c r="A906" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B906" s="0" t="s">
         <x:v>10</x:v>
@@ -27688,7 +27688,7 @@
     </x:row>
     <x:row r="907" spans="1:9">
       <x:c r="A907" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B907" s="0" t="s">
         <x:v>23</x:v>
@@ -27717,7 +27717,7 @@
     </x:row>
     <x:row r="908" spans="1:9">
       <x:c r="A908" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B908" s="0" t="s">
         <x:v>23</x:v>
@@ -27746,7 +27746,7 @@
     </x:row>
     <x:row r="909" spans="1:9">
       <x:c r="A909" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B909" s="0" t="s">
         <x:v>23</x:v>
@@ -27775,7 +27775,7 @@
     </x:row>
     <x:row r="910" spans="1:9">
       <x:c r="A910" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B910" s="0" t="s">
         <x:v>27</x:v>
@@ -27804,7 +27804,7 @@
     </x:row>
     <x:row r="911" spans="1:9">
       <x:c r="A911" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B911" s="0" t="s">
         <x:v>27</x:v>
@@ -27833,7 +27833,7 @@
     </x:row>
     <x:row r="912" spans="1:9">
       <x:c r="A912" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B912" s="0" t="s">
         <x:v>27</x:v>
@@ -27862,7 +27862,7 @@
     </x:row>
     <x:row r="913" spans="1:9">
       <x:c r="A913" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B913" s="0" t="s">
         <x:v>31</x:v>
@@ -27891,7 +27891,7 @@
     </x:row>
     <x:row r="914" spans="1:9">
       <x:c r="A914" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B914" s="0" t="s">
         <x:v>31</x:v>
@@ -27920,7 +27920,7 @@
     </x:row>
     <x:row r="915" spans="1:9">
       <x:c r="A915" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B915" s="0" t="s">
         <x:v>31</x:v>
@@ -27949,7 +27949,7 @@
     </x:row>
     <x:row r="916" spans="1:9">
       <x:c r="A916" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B916" s="0" t="s">
         <x:v>32</x:v>
@@ -27978,7 +27978,7 @@
     </x:row>
     <x:row r="917" spans="1:9">
       <x:c r="A917" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B917" s="0" t="s">
         <x:v>32</x:v>
@@ -28007,7 +28007,7 @@
     </x:row>
     <x:row r="918" spans="1:9">
       <x:c r="A918" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B918" s="0" t="s">
         <x:v>10</x:v>
@@ -28036,7 +28036,7 @@
     </x:row>
     <x:row r="919" spans="1:9">
       <x:c r="A919" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B919" s="0" t="s">
         <x:v>10</x:v>
@@ -28065,7 +28065,7 @@
     </x:row>
     <x:row r="920" spans="1:9">
       <x:c r="A920" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B920" s="0" t="s">
         <x:v>10</x:v>
@@ -28094,7 +28094,7 @@
     </x:row>
     <x:row r="921" spans="1:9">
       <x:c r="A921" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B921" s="0" t="s">
         <x:v>23</x:v>
@@ -28123,7 +28123,7 @@
     </x:row>
     <x:row r="922" spans="1:9">
       <x:c r="A922" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B922" s="0" t="s">
         <x:v>23</x:v>
@@ -28152,7 +28152,7 @@
     </x:row>
     <x:row r="923" spans="1:9">
       <x:c r="A923" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B923" s="0" t="s">
         <x:v>23</x:v>
@@ -28181,7 +28181,7 @@
     </x:row>
     <x:row r="924" spans="1:9">
       <x:c r="A924" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B924" s="0" t="s">
         <x:v>27</x:v>
@@ -28210,7 +28210,7 @@
     </x:row>
     <x:row r="925" spans="1:9">
       <x:c r="A925" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B925" s="0" t="s">
         <x:v>27</x:v>
@@ -28239,7 +28239,7 @@
     </x:row>
     <x:row r="926" spans="1:9">
       <x:c r="A926" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B926" s="0" t="s">
         <x:v>27</x:v>
@@ -28268,7 +28268,7 @@
     </x:row>
     <x:row r="927" spans="1:9">
       <x:c r="A927" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B927" s="0" t="s">
         <x:v>31</x:v>
@@ -28297,7 +28297,7 @@
     </x:row>
     <x:row r="928" spans="1:9">
       <x:c r="A928" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B928" s="0" t="s">
         <x:v>31</x:v>
@@ -28326,7 +28326,7 @@
     </x:row>
     <x:row r="929" spans="1:9">
       <x:c r="A929" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B929" s="0" t="s">
         <x:v>10</x:v>
@@ -28355,7 +28355,7 @@
     </x:row>
     <x:row r="930" spans="1:9">
       <x:c r="A930" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B930" s="0" t="s">
         <x:v>10</x:v>
@@ -28384,7 +28384,7 @@
     </x:row>
     <x:row r="931" spans="1:9">
       <x:c r="A931" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B931" s="0" t="s">
         <x:v>10</x:v>
@@ -28413,7 +28413,7 @@
     </x:row>
     <x:row r="932" spans="1:9">
       <x:c r="A932" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B932" s="0" t="s">
         <x:v>47</x:v>
@@ -28442,7 +28442,7 @@
     </x:row>
     <x:row r="933" spans="1:9">
       <x:c r="A933" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B933" s="0" t="s">
         <x:v>47</x:v>
@@ -28471,7 +28471,7 @@
     </x:row>
     <x:row r="934" spans="1:9">
       <x:c r="A934" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B934" s="0" t="s">
         <x:v>47</x:v>
@@ -28500,7 +28500,7 @@
     </x:row>
     <x:row r="935" spans="1:9">
       <x:c r="A935" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B935" s="0" t="s">
         <x:v>23</x:v>
@@ -28529,7 +28529,7 @@
     </x:row>
     <x:row r="936" spans="1:9">
       <x:c r="A936" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B936" s="0" t="s">
         <x:v>23</x:v>
@@ -28558,7 +28558,7 @@
     </x:row>
     <x:row r="937" spans="1:9">
       <x:c r="A937" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B937" s="0" t="s">
         <x:v>23</x:v>
@@ -28587,7 +28587,7 @@
     </x:row>
     <x:row r="938" spans="1:9">
       <x:c r="A938" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B938" s="0" t="s">
         <x:v>27</x:v>
@@ -28616,7 +28616,7 @@
     </x:row>
     <x:row r="939" spans="1:9">
       <x:c r="A939" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B939" s="0" t="s">
         <x:v>27</x:v>
@@ -28645,7 +28645,7 @@
     </x:row>
     <x:row r="940" spans="1:9">
       <x:c r="A940" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B940" s="0" t="s">
         <x:v>27</x:v>
@@ -28674,7 +28674,7 @@
     </x:row>
     <x:row r="941" spans="1:9">
       <x:c r="A941" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B941" s="0" t="s">
         <x:v>31</x:v>
@@ -28703,7 +28703,7 @@
     </x:row>
     <x:row r="942" spans="1:9">
       <x:c r="A942" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B942" s="0" t="s">
         <x:v>31</x:v>
@@ -28732,7 +28732,7 @@
     </x:row>
     <x:row r="943" spans="1:9">
       <x:c r="A943" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B943" s="0" t="s">
         <x:v>31</x:v>
@@ -28761,7 +28761,7 @@
     </x:row>
     <x:row r="944" spans="1:9">
       <x:c r="A944" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B944" s="0" t="s">
         <x:v>32</x:v>
@@ -28790,7 +28790,7 @@
     </x:row>
     <x:row r="945" spans="1:9">
       <x:c r="A945" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B945" s="0" t="s">
         <x:v>32</x:v>
@@ -28819,7 +28819,7 @@
     </x:row>
     <x:row r="946" spans="1:9">
       <x:c r="A946" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B946" s="0" t="s">
         <x:v>32</x:v>
@@ -28848,7 +28848,7 @@
     </x:row>
     <x:row r="947" spans="1:9">
       <x:c r="A947" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B947" s="0" t="s">
         <x:v>10</x:v>
@@ -28877,7 +28877,7 @@
     </x:row>
     <x:row r="948" spans="1:9">
       <x:c r="A948" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B948" s="0" t="s">
         <x:v>10</x:v>
@@ -28906,7 +28906,7 @@
     </x:row>
     <x:row r="949" spans="1:9">
       <x:c r="A949" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B949" s="0" t="s">
         <x:v>10</x:v>
@@ -28935,7 +28935,7 @@
     </x:row>
     <x:row r="950" spans="1:9">
       <x:c r="A950" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B950" s="0" t="s">
         <x:v>23</x:v>
@@ -28964,7 +28964,7 @@
     </x:row>
     <x:row r="951" spans="1:9">
       <x:c r="A951" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B951" s="0" t="s">
         <x:v>23</x:v>
@@ -28993,7 +28993,7 @@
     </x:row>
     <x:row r="952" spans="1:9">
       <x:c r="A952" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B952" s="0" t="s">
         <x:v>23</x:v>
@@ -29022,7 +29022,7 @@
     </x:row>
     <x:row r="953" spans="1:9">
       <x:c r="A953" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B953" s="0" t="s">
         <x:v>27</x:v>
@@ -29051,7 +29051,7 @@
     </x:row>
     <x:row r="954" spans="1:9">
       <x:c r="A954" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B954" s="0" t="s">
         <x:v>27</x:v>
@@ -29080,7 +29080,7 @@
     </x:row>
     <x:row r="955" spans="1:9">
       <x:c r="A955" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B955" s="0" t="s">
         <x:v>27</x:v>
@@ -29109,7 +29109,7 @@
     </x:row>
     <x:row r="956" spans="1:9">
       <x:c r="A956" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B956" s="0" t="s">
         <x:v>10</x:v>
@@ -29138,7 +29138,7 @@
     </x:row>
     <x:row r="957" spans="1:9">
       <x:c r="A957" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B957" s="0" t="s">
         <x:v>10</x:v>
@@ -29167,7 +29167,7 @@
     </x:row>
     <x:row r="958" spans="1:9">
       <x:c r="A958" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B958" s="0" t="s">
         <x:v>10</x:v>
@@ -29196,7 +29196,7 @@
     </x:row>
     <x:row r="959" spans="1:9">
       <x:c r="A959" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B959" s="0" t="s">
         <x:v>47</x:v>
@@ -29225,7 +29225,7 @@
     </x:row>
     <x:row r="960" spans="1:9">
       <x:c r="A960" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B960" s="0" t="s">
         <x:v>47</x:v>
@@ -29254,7 +29254,7 @@
     </x:row>
     <x:row r="961" spans="1:9">
       <x:c r="A961" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B961" s="0" t="s">
         <x:v>47</x:v>
@@ -29283,7 +29283,7 @@
     </x:row>
     <x:row r="962" spans="1:9">
       <x:c r="A962" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B962" s="0" t="s">
         <x:v>23</x:v>
@@ -29312,7 +29312,7 @@
     </x:row>
     <x:row r="963" spans="1:9">
       <x:c r="A963" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B963" s="0" t="s">
         <x:v>23</x:v>
@@ -29341,7 +29341,7 @@
     </x:row>
     <x:row r="964" spans="1:9">
       <x:c r="A964" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B964" s="0" t="s">
         <x:v>23</x:v>
@@ -29370,7 +29370,7 @@
     </x:row>
     <x:row r="965" spans="1:9">
       <x:c r="A965" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B965" s="0" t="s">
         <x:v>27</x:v>
@@ -29399,7 +29399,7 @@
     </x:row>
     <x:row r="966" spans="1:9">
       <x:c r="A966" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B966" s="0" t="s">
         <x:v>27</x:v>
@@ -29428,7 +29428,7 @@
     </x:row>
     <x:row r="967" spans="1:9">
       <x:c r="A967" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B967" s="0" t="s">
         <x:v>27</x:v>
@@ -29457,7 +29457,7 @@
     </x:row>
     <x:row r="968" spans="1:9">
       <x:c r="A968" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B968" s="0" t="s">
         <x:v>31</x:v>
@@ -29486,7 +29486,7 @@
     </x:row>
     <x:row r="969" spans="1:9">
       <x:c r="A969" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B969" s="0" t="s">
         <x:v>31</x:v>
@@ -29515,7 +29515,7 @@
     </x:row>
     <x:row r="970" spans="1:9">
       <x:c r="A970" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B970" s="0" t="s">
         <x:v>31</x:v>
@@ -29544,7 +29544,7 @@
     </x:row>
     <x:row r="971" spans="1:9">
       <x:c r="A971" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B971" s="0" t="s">
         <x:v>32</x:v>
@@ -29573,7 +29573,7 @@
     </x:row>
     <x:row r="972" spans="1:9">
       <x:c r="A972" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B972" s="0" t="s">
         <x:v>32</x:v>
@@ -29602,7 +29602,7 @@
     </x:row>
     <x:row r="973" spans="1:9">
       <x:c r="A973" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B973" s="0" t="s">
         <x:v>10</x:v>
@@ -29631,7 +29631,7 @@
     </x:row>
     <x:row r="974" spans="1:9">
       <x:c r="A974" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B974" s="0" t="s">
         <x:v>10</x:v>
@@ -29660,7 +29660,7 @@
     </x:row>
     <x:row r="975" spans="1:9">
       <x:c r="A975" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B975" s="0" t="s">
         <x:v>10</x:v>
@@ -29675,7 +29675,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="F975" s="1" t="s">
-        <x:v>286</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="G975" s="1" t="s">
         <x:v>63</x:v>
@@ -29689,7 +29689,7 @@
     </x:row>
     <x:row r="976" spans="1:9">
       <x:c r="A976" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B976" s="0" t="s">
         <x:v>47</x:v>
@@ -29718,7 +29718,7 @@
     </x:row>
     <x:row r="977" spans="1:9">
       <x:c r="A977" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B977" s="0" t="s">
         <x:v>47</x:v>
@@ -29747,7 +29747,7 @@
     </x:row>
     <x:row r="978" spans="1:9">
       <x:c r="A978" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B978" s="0" t="s">
         <x:v>47</x:v>
@@ -29776,7 +29776,7 @@
     </x:row>
     <x:row r="979" spans="1:9">
       <x:c r="A979" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B979" s="0" t="s">
         <x:v>23</x:v>
@@ -29805,7 +29805,7 @@
     </x:row>
     <x:row r="980" spans="1:9">
       <x:c r="A980" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B980" s="0" t="s">
         <x:v>23</x:v>
@@ -29834,7 +29834,7 @@
     </x:row>
     <x:row r="981" spans="1:9">
       <x:c r="A981" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B981" s="0" t="s">
         <x:v>23</x:v>
@@ -29863,7 +29863,7 @@
     </x:row>
     <x:row r="982" spans="1:9">
       <x:c r="A982" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B982" s="0" t="s">
         <x:v>27</x:v>
@@ -29892,7 +29892,7 @@
     </x:row>
     <x:row r="983" spans="1:9">
       <x:c r="A983" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B983" s="0" t="s">
         <x:v>27</x:v>
@@ -29907,7 +29907,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="F983" s="1" t="s">
-        <x:v>287</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="G983" s="1" t="s">
         <x:v>189</x:v>
@@ -29921,7 +29921,7 @@
     </x:row>
     <x:row r="984" spans="1:9">
       <x:c r="A984" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B984" s="0" t="s">
         <x:v>27</x:v>
@@ -29936,7 +29936,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="F984" s="1" t="s">
-        <x:v>288</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="G984" s="1" t="s">
         <x:v>128</x:v>
@@ -29950,7 +29950,7 @@
     </x:row>
     <x:row r="985" spans="1:9">
       <x:c r="A985" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B985" s="0" t="s">
         <x:v>65</x:v>
@@ -29979,7 +29979,7 @@
     </x:row>
     <x:row r="986" spans="1:9">
       <x:c r="A986" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B986" s="0" t="s">
         <x:v>65</x:v>
@@ -30008,7 +30008,7 @@
     </x:row>
     <x:row r="987" spans="1:9">
       <x:c r="A987" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B987" s="0" t="s">
         <x:v>65</x:v>
@@ -30037,7 +30037,7 @@
     </x:row>
     <x:row r="988" spans="1:9">
       <x:c r="A988" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B988" s="0" t="s">
         <x:v>31</x:v>
@@ -30066,7 +30066,7 @@
     </x:row>
     <x:row r="989" spans="1:9">
       <x:c r="A989" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B989" s="0" t="s">
         <x:v>31</x:v>
@@ -30078,7 +30078,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="E989" s="1" t="s">
-        <x:v>289</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="F989" s="1" t="s">
         <x:v>20</x:v>
@@ -30095,7 +30095,7 @@
     </x:row>
     <x:row r="990" spans="1:9">
       <x:c r="A990" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B990" s="0" t="s">
         <x:v>31</x:v>
@@ -30107,7 +30107,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E990" s="1" t="s">
-        <x:v>290</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="F990" s="1" t="s">
         <x:v>20</x:v>
@@ -30124,7 +30124,7 @@
     </x:row>
     <x:row r="991" spans="1:9">
       <x:c r="A991" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B991" s="0" t="s">
         <x:v>32</x:v>
@@ -30153,7 +30153,7 @@
     </x:row>
     <x:row r="992" spans="1:9">
       <x:c r="A992" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B992" s="0" t="s">
         <x:v>32</x:v>
@@ -30182,7 +30182,7 @@
     </x:row>
     <x:row r="993" spans="1:9">
       <x:c r="A993" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B993" s="0" t="s">
         <x:v>32</x:v>
@@ -30200,7 +30200,7 @@
         <x:v>168</x:v>
       </x:c>
       <x:c r="G993" s="1" t="s">
-        <x:v>291</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="H993" s="1" t="s">
         <x:v>119</x:v>
@@ -30211,7 +30211,7 @@
     </x:row>
     <x:row r="994" spans="1:9">
       <x:c r="A994" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B994" s="0" t="s">
         <x:v>10</x:v>
@@ -30240,7 +30240,7 @@
     </x:row>
     <x:row r="995" spans="1:9">
       <x:c r="A995" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B995" s="0" t="s">
         <x:v>10</x:v>
@@ -30269,7 +30269,7 @@
     </x:row>
     <x:row r="996" spans="1:9">
       <x:c r="A996" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B996" s="0" t="s">
         <x:v>10</x:v>
@@ -30298,10 +30298,10 @@
     </x:row>
     <x:row r="997" spans="1:9">
       <x:c r="A997" s="0" t="s">
+        <x:v>291</x:v>
+      </x:c>
+      <x:c r="B997" s="0" t="s">
         <x:v>292</x:v>
-      </x:c>
-      <x:c r="B997" s="0" t="s">
-        <x:v>293</x:v>
       </x:c>
       <x:c r="C997" s="1" t="s">
         <x:v>16</x:v>
@@ -30327,10 +30327,10 @@
     </x:row>
     <x:row r="998" spans="1:9">
       <x:c r="A998" s="0" t="s">
+        <x:v>291</x:v>
+      </x:c>
+      <x:c r="B998" s="0" t="s">
         <x:v>292</x:v>
-      </x:c>
-      <x:c r="B998" s="0" t="s">
-        <x:v>293</x:v>
       </x:c>
       <x:c r="C998" s="1" t="s">
         <x:v>19</x:v>
@@ -30356,7 +30356,7 @@
     </x:row>
     <x:row r="999" spans="1:9">
       <x:c r="A999" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B999" s="0" t="s">
         <x:v>47</x:v>
@@ -30385,7 +30385,7 @@
     </x:row>
     <x:row r="1000" spans="1:9">
       <x:c r="A1000" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B1000" s="0" t="s">
         <x:v>47</x:v>
@@ -30414,7 +30414,7 @@
     </x:row>
     <x:row r="1001" spans="1:9">
       <x:c r="A1001" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B1001" s="0" t="s">
         <x:v>47</x:v>
@@ -30443,7 +30443,7 @@
     </x:row>
     <x:row r="1002" spans="1:9">
       <x:c r="A1002" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B1002" s="0" t="s">
         <x:v>23</x:v>
@@ -30472,7 +30472,7 @@
     </x:row>
     <x:row r="1003" spans="1:9">
       <x:c r="A1003" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B1003" s="0" t="s">
         <x:v>23</x:v>
@@ -30501,7 +30501,7 @@
     </x:row>
     <x:row r="1004" spans="1:9">
       <x:c r="A1004" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B1004" s="0" t="s">
         <x:v>23</x:v>
@@ -30530,7 +30530,7 @@
     </x:row>
     <x:row r="1005" spans="1:9">
       <x:c r="A1005" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B1005" s="0" t="s">
         <x:v>27</x:v>
@@ -30559,7 +30559,7 @@
     </x:row>
     <x:row r="1006" spans="1:9">
       <x:c r="A1006" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B1006" s="0" t="s">
         <x:v>27</x:v>
@@ -30588,7 +30588,7 @@
     </x:row>
     <x:row r="1007" spans="1:9">
       <x:c r="A1007" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B1007" s="0" t="s">
         <x:v>27</x:v>
@@ -30617,7 +30617,7 @@
     </x:row>
     <x:row r="1008" spans="1:9">
       <x:c r="A1008" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B1008" s="0" t="s">
         <x:v>65</x:v>
@@ -30646,7 +30646,7 @@
     </x:row>
     <x:row r="1009" spans="1:9">
       <x:c r="A1009" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B1009" s="0" t="s">
         <x:v>65</x:v>
@@ -30675,7 +30675,7 @@
     </x:row>
     <x:row r="1010" spans="1:9">
       <x:c r="A1010" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B1010" s="0" t="s">
         <x:v>65</x:v>
@@ -30704,7 +30704,7 @@
     </x:row>
     <x:row r="1011" spans="1:9">
       <x:c r="A1011" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B1011" s="0" t="s">
         <x:v>31</x:v>
@@ -30733,7 +30733,7 @@
     </x:row>
     <x:row r="1012" spans="1:9">
       <x:c r="A1012" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B1012" s="0" t="s">
         <x:v>31</x:v>
@@ -30762,7 +30762,7 @@
     </x:row>
     <x:row r="1013" spans="1:9">
       <x:c r="A1013" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B1013" s="0" t="s">
         <x:v>31</x:v>
@@ -30791,7 +30791,7 @@
     </x:row>
     <x:row r="1014" spans="1:9">
       <x:c r="A1014" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B1014" s="0" t="s">
         <x:v>32</x:v>
@@ -30820,7 +30820,7 @@
     </x:row>
     <x:row r="1015" spans="1:9">
       <x:c r="A1015" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B1015" s="0" t="s">
         <x:v>32</x:v>
@@ -30849,7 +30849,7 @@
     </x:row>
     <x:row r="1016" spans="1:9">
       <x:c r="A1016" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B1016" s="0" t="s">
         <x:v>32</x:v>
@@ -30878,7 +30878,7 @@
     </x:row>
     <x:row r="1017" spans="1:9">
       <x:c r="A1017" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B1017" s="0" t="s">
         <x:v>10</x:v>
@@ -30907,7 +30907,7 @@
     </x:row>
     <x:row r="1018" spans="1:9">
       <x:c r="A1018" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B1018" s="0" t="s">
         <x:v>10</x:v>
@@ -30936,7 +30936,7 @@
     </x:row>
     <x:row r="1019" spans="1:9">
       <x:c r="A1019" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B1019" s="0" t="s">
         <x:v>10</x:v>
@@ -30965,7 +30965,7 @@
     </x:row>
     <x:row r="1020" spans="1:9">
       <x:c r="A1020" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B1020" s="0" t="s">
         <x:v>47</x:v>
@@ -30994,7 +30994,7 @@
     </x:row>
     <x:row r="1021" spans="1:9">
       <x:c r="A1021" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B1021" s="0" t="s">
         <x:v>47</x:v>
@@ -31023,7 +31023,7 @@
     </x:row>
     <x:row r="1022" spans="1:9">
       <x:c r="A1022" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B1022" s="0" t="s">
         <x:v>23</x:v>
@@ -31052,7 +31052,7 @@
     </x:row>
     <x:row r="1023" spans="1:9">
       <x:c r="A1023" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B1023" s="0" t="s">
         <x:v>23</x:v>
@@ -31081,7 +31081,7 @@
     </x:row>
     <x:row r="1024" spans="1:9">
       <x:c r="A1024" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B1024" s="0" t="s">
         <x:v>23</x:v>
@@ -31110,7 +31110,7 @@
     </x:row>
     <x:row r="1025" spans="1:9">
       <x:c r="A1025" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B1025" s="0" t="s">
         <x:v>27</x:v>
@@ -31139,7 +31139,7 @@
     </x:row>
     <x:row r="1026" spans="1:9">
       <x:c r="A1026" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B1026" s="0" t="s">
         <x:v>27</x:v>
@@ -31168,7 +31168,7 @@
     </x:row>
     <x:row r="1027" spans="1:9">
       <x:c r="A1027" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B1027" s="0" t="s">
         <x:v>27</x:v>
@@ -31197,7 +31197,7 @@
     </x:row>
     <x:row r="1028" spans="1:9">
       <x:c r="A1028" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B1028" s="0" t="s">
         <x:v>31</x:v>
@@ -31226,7 +31226,7 @@
     </x:row>
     <x:row r="1029" spans="1:9">
       <x:c r="A1029" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B1029" s="0" t="s">
         <x:v>31</x:v>
@@ -31255,7 +31255,7 @@
     </x:row>
     <x:row r="1030" spans="1:9">
       <x:c r="A1030" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B1030" s="0" t="s">
         <x:v>31</x:v>
@@ -31284,7 +31284,7 @@
     </x:row>
     <x:row r="1031" spans="1:9">
       <x:c r="A1031" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B1031" s="0" t="s">
         <x:v>32</x:v>
@@ -31313,7 +31313,7 @@
     </x:row>
     <x:row r="1032" spans="1:9">
       <x:c r="A1032" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B1032" s="0" t="s">
         <x:v>32</x:v>
@@ -31342,7 +31342,7 @@
     </x:row>
     <x:row r="1033" spans="1:9">
       <x:c r="A1033" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B1033" s="0" t="s">
         <x:v>32</x:v>
@@ -31371,7 +31371,7 @@
     </x:row>
     <x:row r="1034" spans="1:9">
       <x:c r="A1034" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1034" s="0" t="s">
         <x:v>10</x:v>
@@ -31400,7 +31400,7 @@
     </x:row>
     <x:row r="1035" spans="1:9">
       <x:c r="A1035" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1035" s="0" t="s">
         <x:v>10</x:v>
@@ -31415,7 +31415,7 @@
         <x:v>248</x:v>
       </x:c>
       <x:c r="F1035" s="1" t="s">
-        <x:v>296</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="G1035" s="1" t="s">
         <x:v>240</x:v>
@@ -31429,7 +31429,7 @@
     </x:row>
     <x:row r="1036" spans="1:9">
       <x:c r="A1036" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1036" s="0" t="s">
         <x:v>10</x:v>
@@ -31441,16 +31441,16 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E1036" s="1" t="s">
-        <x:v>273</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="F1036" s="1" t="s">
+        <x:v>296</x:v>
+      </x:c>
+      <x:c r="G1036" s="1" t="s">
         <x:v>297</x:v>
       </x:c>
-      <x:c r="G1036" s="1" t="s">
+      <x:c r="H1036" s="1" t="s">
         <x:v>298</x:v>
-      </x:c>
-      <x:c r="H1036" s="1" t="s">
-        <x:v>299</x:v>
       </x:c>
       <x:c r="I1036" s="0" t="s">
         <x:v>12</x:v>
@@ -31458,7 +31458,7 @@
     </x:row>
     <x:row r="1037" spans="1:9">
       <x:c r="A1037" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1037" s="0" t="s">
         <x:v>47</x:v>
@@ -31487,7 +31487,7 @@
     </x:row>
     <x:row r="1038" spans="1:9">
       <x:c r="A1038" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1038" s="0" t="s">
         <x:v>47</x:v>
@@ -31516,7 +31516,7 @@
     </x:row>
     <x:row r="1039" spans="1:9">
       <x:c r="A1039" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1039" s="0" t="s">
         <x:v>47</x:v>
@@ -31545,7 +31545,7 @@
     </x:row>
     <x:row r="1040" spans="1:9">
       <x:c r="A1040" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1040" s="0" t="s">
         <x:v>23</x:v>
@@ -31574,7 +31574,7 @@
     </x:row>
     <x:row r="1041" spans="1:9">
       <x:c r="A1041" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1041" s="0" t="s">
         <x:v>23</x:v>
@@ -31603,7 +31603,7 @@
     </x:row>
     <x:row r="1042" spans="1:9">
       <x:c r="A1042" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1042" s="0" t="s">
         <x:v>23</x:v>
@@ -31632,7 +31632,7 @@
     </x:row>
     <x:row r="1043" spans="1:9">
       <x:c r="A1043" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1043" s="0" t="s">
         <x:v>27</x:v>
@@ -31661,7 +31661,7 @@
     </x:row>
     <x:row r="1044" spans="1:9">
       <x:c r="A1044" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1044" s="0" t="s">
         <x:v>27</x:v>
@@ -31676,7 +31676,7 @@
         <x:v>235</x:v>
       </x:c>
       <x:c r="F1044" s="1" t="s">
-        <x:v>264</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="G1044" s="1" t="s">
         <x:v>44</x:v>
@@ -31690,7 +31690,7 @@
     </x:row>
     <x:row r="1045" spans="1:9">
       <x:c r="A1045" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1045" s="0" t="s">
         <x:v>27</x:v>
@@ -31702,7 +31702,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E1045" s="1" t="s">
-        <x:v>300</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="F1045" s="1" t="s">
         <x:v>86</x:v>
@@ -31719,7 +31719,7 @@
     </x:row>
     <x:row r="1046" spans="1:9">
       <x:c r="A1046" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1046" s="0" t="s">
         <x:v>65</x:v>
@@ -31748,7 +31748,7 @@
     </x:row>
     <x:row r="1047" spans="1:9">
       <x:c r="A1047" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1047" s="0" t="s">
         <x:v>65</x:v>
@@ -31777,7 +31777,7 @@
     </x:row>
     <x:row r="1048" spans="1:9">
       <x:c r="A1048" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1048" s="0" t="s">
         <x:v>65</x:v>
@@ -31806,7 +31806,7 @@
     </x:row>
     <x:row r="1049" spans="1:9">
       <x:c r="A1049" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1049" s="0" t="s">
         <x:v>31</x:v>
@@ -31835,7 +31835,7 @@
     </x:row>
     <x:row r="1050" spans="1:9">
       <x:c r="A1050" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1050" s="0" t="s">
         <x:v>31</x:v>
@@ -31864,7 +31864,7 @@
     </x:row>
     <x:row r="1051" spans="1:9">
       <x:c r="A1051" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1051" s="0" t="s">
         <x:v>31</x:v>
@@ -31893,7 +31893,7 @@
     </x:row>
     <x:row r="1052" spans="1:9">
       <x:c r="A1052" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1052" s="0" t="s">
         <x:v>32</x:v>
@@ -31922,7 +31922,7 @@
     </x:row>
     <x:row r="1053" spans="1:9">
       <x:c r="A1053" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1053" s="0" t="s">
         <x:v>32</x:v>
@@ -31951,7 +31951,7 @@
     </x:row>
     <x:row r="1054" spans="1:9">
       <x:c r="A1054" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B1054" s="0" t="s">
         <x:v>32</x:v>
@@ -31980,7 +31980,7 @@
     </x:row>
     <x:row r="1055" spans="1:9">
       <x:c r="A1055" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="B1055" s="0" t="s">
         <x:v>10</x:v>
@@ -32009,7 +32009,7 @@
     </x:row>
     <x:row r="1056" spans="1:9">
       <x:c r="A1056" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="B1056" s="0" t="s">
         <x:v>10</x:v>
@@ -32021,13 +32021,13 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E1056" s="1" t="s">
+        <x:v>301</x:v>
+      </x:c>
+      <x:c r="F1056" s="1" t="s">
         <x:v>302</x:v>
       </x:c>
-      <x:c r="F1056" s="1" t="s">
+      <x:c r="G1056" s="1" t="s">
         <x:v>303</x:v>
-      </x:c>
-      <x:c r="G1056" s="1" t="s">
-        <x:v>304</x:v>
       </x:c>
       <x:c r="H1056" s="1" t="s">
         <x:v>107</x:v>
@@ -32038,7 +32038,7 @@
     </x:row>
     <x:row r="1057" spans="1:9">
       <x:c r="A1057" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="B1057" s="0" t="s">
         <x:v>10</x:v>
@@ -32053,10 +32053,10 @@
         <x:v>208</x:v>
       </x:c>
       <x:c r="F1057" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="G1057" s="1" t="s">
-        <x:v>274</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="H1057" s="1" t="s">
         <x:v>305</x:v>
@@ -32067,10 +32067,10 @@
     </x:row>
     <x:row r="1058" spans="1:9">
       <x:c r="A1058" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="B1058" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="C1058" s="1" t="s">
         <x:v>11</x:v>
@@ -32096,10 +32096,10 @@
     </x:row>
     <x:row r="1059" spans="1:9">
       <x:c r="A1059" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="B1059" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="C1059" s="1" t="s">
         <x:v>16</x:v>
@@ -32125,10 +32125,10 @@
     </x:row>
     <x:row r="1060" spans="1:9">
       <x:c r="A1060" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="B1060" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="C1060" s="1" t="s">
         <x:v>19</x:v>
@@ -32154,7 +32154,7 @@
     </x:row>
     <x:row r="1061" spans="1:9">
       <x:c r="A1061" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="B1061" s="0" t="s">
         <x:v>47</x:v>
@@ -32183,7 +32183,7 @@
     </x:row>
     <x:row r="1062" spans="1:9">
       <x:c r="A1062" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="B1062" s="0" t="s">
         <x:v>47</x:v>
@@ -32212,7 +32212,7 @@
     </x:row>
     <x:row r="1063" spans="1:9">
       <x:c r="A1063" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="B1063" s="0" t="s">
         <x:v>47</x:v>
@@ -32241,7 +32241,7 @@
     </x:row>
     <x:row r="1064" spans="1:9">
       <x:c r="A1064" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="B1064" s="0" t="s">
         <x:v>23</x:v>
@@ -32270,7 +32270,7 @@
     </x:row>
     <x:row r="1065" spans="1:9">
       <x:c r="A1065" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="B1065" s="0" t="s">
         <x:v>23</x:v>
@@ -32299,7 +32299,7 @@
     </x:row>
     <x:row r="1066" spans="1:9">
       <x:c r="A1066" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="B1066" s="0" t="s">
         <x:v>23</x:v>
@@ -32328,7 +32328,7 @@
     </x:row>
     <x:row r="1067" spans="1:9">
       <x:c r="A1067" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="B1067" s="0" t="s">
         <x:v>27</x:v>
@@ -32357,7 +32357,7 @@
     </x:row>
     <x:row r="1068" spans="1:9">
       <x:c r="A1068" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="B1068" s="0" t="s">
         <x:v>27</x:v>
@@ -32386,7 +32386,7 @@
     </x:row>
     <x:row r="1069" spans="1:9">
       <x:c r="A1069" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="B1069" s="0" t="s">
         <x:v>27</x:v>
@@ -32398,7 +32398,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="E1069" s="1" t="s">
-        <x:v>303</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="F1069" s="1" t="s">
         <x:v>307</x:v>
@@ -32415,7 +32415,7 @@
     </x:row>
     <x:row r="1070" spans="1:9">
       <x:c r="A1070" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="B1070" s="0" t="s">
         <x:v>310</x:v>
@@ -32444,7 +32444,7 @@
     </x:row>
     <x:row r="1071" spans="1:9">
       <x:c r="A1071" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="B1071" s="0" t="s">
         <x:v>310</x:v>
@@ -32473,7 +32473,7 @@
     </x:row>
     <x:row r="1072" spans="1:9">
       <x:c r="A1072" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="B1072" s="0" t="s">
         <x:v>310</x:v>
@@ -32502,7 +32502,7 @@
     </x:row>
     <x:row r="1073" spans="1:9">
       <x:c r="A1073" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="B1073" s="0" t="s">
         <x:v>65</x:v>
@@ -32531,7 +32531,7 @@
     </x:row>
     <x:row r="1074" spans="1:9">
       <x:c r="A1074" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="B1074" s="0" t="s">
         <x:v>65</x:v>
@@ -32560,7 +32560,7 @@
     </x:row>
     <x:row r="1075" spans="1:9">
       <x:c r="A1075" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="B1075" s="0" t="s">
         <x:v>65</x:v>
@@ -32589,7 +32589,7 @@
     </x:row>
     <x:row r="1076" spans="1:9">
       <x:c r="A1076" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="B1076" s="0" t="s">
         <x:v>31</x:v>
@@ -32618,7 +32618,7 @@
     </x:row>
     <x:row r="1077" spans="1:9">
       <x:c r="A1077" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="B1077" s="0" t="s">
         <x:v>31</x:v>
@@ -32647,7 +32647,7 @@
     </x:row>
     <x:row r="1078" spans="1:9">
       <x:c r="A1078" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="B1078" s="0" t="s">
         <x:v>31</x:v>
@@ -32676,7 +32676,7 @@
     </x:row>
     <x:row r="1079" spans="1:9">
       <x:c r="A1079" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="B1079" s="0" t="s">
         <x:v>32</x:v>
@@ -32705,7 +32705,7 @@
     </x:row>
     <x:row r="1080" spans="1:9">
       <x:c r="A1080" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="B1080" s="0" t="s">
         <x:v>32</x:v>
@@ -32734,7 +32734,7 @@
     </x:row>
     <x:row r="1081" spans="1:9">
       <x:c r="A1081" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="B1081" s="0" t="s">
         <x:v>32</x:v>
@@ -32749,7 +32749,7 @@
         <x:v>311</x:v>
       </x:c>
       <x:c r="F1081" s="1" t="s">
-        <x:v>289</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="G1081" s="1" t="s">
         <x:v>254</x:v>
@@ -36333,7 +36333,7 @@
         <x:v>320</x:v>
       </x:c>
       <x:c r="B1205" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="C1205" s="1" t="s">
         <x:v>11</x:v>
@@ -36362,7 +36362,7 @@
         <x:v>320</x:v>
       </x:c>
       <x:c r="B1206" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="C1206" s="1" t="s">
         <x:v>19</x:v>
@@ -36632,7 +36632,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E1215" s="1" t="s">
-        <x:v>286</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="F1215" s="1" t="s">
         <x:v>324</x:v>
@@ -36641,7 +36641,7 @@
         <x:v>325</x:v>
       </x:c>
       <x:c r="H1215" s="1" t="s">
-        <x:v>299</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="I1215" s="0" t="s">
         <x:v>12</x:v>
@@ -37435,7 +37435,7 @@
         <x:v>327</x:v>
       </x:c>
       <x:c r="B1243" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="C1243" s="1" t="s">
         <x:v>11</x:v>
@@ -37464,7 +37464,7 @@
         <x:v>327</x:v>
       </x:c>
       <x:c r="B1244" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="C1244" s="1" t="s">
         <x:v>19</x:v>
@@ -38053,7 +38053,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="E1264" s="1" t="s">
-        <x:v>286</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="F1264" s="1" t="s">
         <x:v>94</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -541,7 +541,7 @@
     <x:t>1039</x:t>
   </x:si>
   <x:si>
-    <x:t>1001</x:t>
+    <x:t>1002</x:t>
   </x:si>
   <x:si>
     <x:t>441</x:t>
@@ -556,7 +556,7 @@
     <x:t>1373</x:t>
   </x:si>
   <x:si>
-    <x:t>1264</x:t>
+    <x:t>1265</x:t>
   </x:si>
   <x:si>
     <x:t>534</x:t>
